--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t>Government Employment; Year/Year: January 1990 -- October 2015</t>
-  </si>
   <si>
     <t>Source: Bureau of Labor Statistics</t>
   </si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Government Employment; Year/Year: January 1990 -- November 2015</t>
   </si>
 </sst>
 </file>
@@ -1644,9 +1644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM303" sqref="AM303"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M304" sqref="M304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1708,176 +1708,176 @@
   <sheetData>
     <row r="1" spans="1:53" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AG5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AI5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AJ5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AK5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AL5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AN5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AO5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AP5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AP5" s="5" t="s">
+      <c r="AQ5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AR5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AS5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AT5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AV5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AW5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="AY5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AY5" s="5" t="s">
+      <c r="AZ5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AZ5" s="5" t="s">
+      <c r="BA5" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="BA5" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
@@ -49541,7 +49541,7 @@
         <v>42248</v>
       </c>
       <c r="B302" s="8">
-        <v>0.47989031078610606</v>
+        <v>0.44332723948811698</v>
       </c>
       <c r="C302" s="8">
         <v>0.84656084656084352</v>
@@ -49691,7 +49691,7 @@
         <v>-0.52185257664710449</v>
       </c>
       <c r="AZ302" s="8">
-        <v>1.5552855407047332</v>
+        <v>-9.7205346294040651E-2</v>
       </c>
       <c r="BA302" s="8">
         <v>0.98176718092567017</v>
@@ -49702,82 +49702,82 @@
         <v>42278</v>
       </c>
       <c r="B303" s="8">
-        <v>0.47982452131791803</v>
+        <v>0.40213864643787411</v>
       </c>
       <c r="C303" s="8">
-        <v>0.60574137476955792</v>
+        <v>0.26336581511719775</v>
       </c>
       <c r="D303" s="8">
-        <v>-1.5892420537897276</v>
+        <v>-1.9559902200488928</v>
       </c>
       <c r="E303" s="8">
-        <v>0.12127091923356779</v>
+        <v>0.14552510308027305</v>
       </c>
       <c r="F303" s="8">
         <v>-0.23463162834350071</v>
       </c>
       <c r="G303" s="8">
-        <v>1.4699843968136539</v>
+        <v>1.5069393118173531</v>
       </c>
       <c r="H303" s="8">
-        <v>1.9136408243375747</v>
+        <v>1.4965652600588728</v>
       </c>
       <c r="I303" s="8">
         <v>0.12642225031604842</v>
       </c>
       <c r="J303" s="8">
-        <v>0.76452599388379194</v>
+        <v>1.2232415902140628</v>
       </c>
       <c r="K303" s="8">
-        <v>-0.21231422505307856</v>
+        <v>-0.12738853503185196</v>
       </c>
       <c r="L303" s="8">
-        <v>-0.39970254694180657</v>
+        <v>-0.21379438557352246</v>
       </c>
       <c r="M303" s="8">
-        <v>1.3656835682115489</v>
+        <v>1.2930408252215737</v>
       </c>
       <c r="N303" s="8">
-        <v>-0.16000000000000228</v>
+        <v>-0.23999999999999772</v>
       </c>
       <c r="O303" s="8">
-        <v>0.4163197335553705</v>
+        <v>0.33305578684430115</v>
       </c>
       <c r="P303" s="8">
         <v>-0.21619024741773579</v>
       </c>
       <c r="Q303" s="8">
-        <v>1.5283329414530917</v>
+        <v>1.5048201269691928</v>
       </c>
       <c r="R303" s="8">
-        <v>-3.8714672861023126E-2</v>
+        <v>-0.19357336430507163</v>
       </c>
       <c r="S303" s="8">
-        <v>-1.0089251067132303</v>
+        <v>-1.125339542103212</v>
       </c>
       <c r="T303" s="8">
         <v>0.30845157310302285</v>
       </c>
       <c r="U303" s="8">
-        <v>-1.8643031784840971</v>
+        <v>-1.8948655256723683</v>
       </c>
       <c r="V303" s="8">
         <v>0</v>
       </c>
       <c r="W303" s="8">
-        <v>1.1045364891518783</v>
+        <v>1.2820512820512819</v>
       </c>
       <c r="X303" s="8">
         <v>1.4702655255650623</v>
       </c>
       <c r="Y303" s="8">
-        <v>-1.4742837996314215</v>
+        <v>-1.2899983246774891</v>
       </c>
       <c r="Z303" s="8">
-        <v>-0.71513706793802145</v>
+        <v>-0.76281287246722018</v>
       </c>
       <c r="AA303" s="8">
-        <v>8.1433224755707273E-2</v>
+        <v>0.52931596091205679</v>
       </c>
       <c r="AB303" s="8">
         <v>-0.13866420152529835</v>
@@ -49789,10 +49789,10 @@
         <v>0.75713453698311672</v>
       </c>
       <c r="AE303" s="8">
-        <v>1.1118378024852771</v>
+        <v>1.2426422498364982</v>
       </c>
       <c r="AF303" s="8">
-        <v>-2.5274725274725243</v>
+        <v>-2.7472527472527473</v>
       </c>
       <c r="AG303" s="8">
         <v>4.8216007714553921E-2</v>
@@ -49807,19 +49807,19 @@
         <v>0.29370629370629686</v>
       </c>
       <c r="AK303" s="8">
-        <v>0.74534161490682527</v>
+        <v>0.24844720496894762</v>
       </c>
       <c r="AL303" s="8">
-        <v>-0.14496573537162746</v>
+        <v>-0.13178703215603585</v>
       </c>
       <c r="AM303" s="8">
         <v>0.20149683362119908</v>
       </c>
       <c r="AN303" s="8">
-        <v>2.088245200404192</v>
+        <v>2.2566520714045288</v>
       </c>
       <c r="AO303" s="8">
-        <v>-0.6761515706437462</v>
+        <v>-0.6620650795886649</v>
       </c>
       <c r="AP303" s="8">
         <v>-0.83194675540765384</v>
@@ -49831,10 +49831,10 @@
         <v>0.76530612244897234</v>
       </c>
       <c r="AS303" s="8">
-        <v>0.5172819186456592</v>
+        <v>0.21161533035503813</v>
       </c>
       <c r="AT303" s="8">
-        <v>1.2605042016806798</v>
+        <v>1.4132925897631832</v>
       </c>
       <c r="AU303" s="8">
         <v>1.9130434782608718</v>
@@ -49843,23 +49843,181 @@
         <v>2.1390374331550723</v>
       </c>
       <c r="AW303" s="8">
-        <v>5.6537102473495013E-2</v>
+        <v>9.8939929328628343E-2</v>
       </c>
       <c r="AX303" s="8">
-        <v>1.7979144192736423</v>
+        <v>1.0607695073714449</v>
       </c>
       <c r="AY303" s="8">
         <v>-1.1046133853151507</v>
       </c>
       <c r="AZ303" s="8">
-        <v>1.7488462472674251</v>
+        <v>0.12144765606023804</v>
       </c>
       <c r="BA303" s="8">
-        <v>0.27932960893855147</v>
+        <v>0.41899441340783716</v>
       </c>
     </row>
     <row r="304" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A304" s="7"/>
+      <c r="A304" s="7">
+        <v>42309</v>
+      </c>
+      <c r="B304" s="8">
+        <v>0.42481271697423723</v>
+      </c>
+      <c r="C304" s="8">
+        <v>0.36861506055818249</v>
+      </c>
+      <c r="D304" s="8">
+        <v>-2.3170731707317143</v>
+      </c>
+      <c r="E304" s="8">
+        <v>0.48673643222195184</v>
+      </c>
+      <c r="F304" s="8">
+        <v>-0.18770530267480323</v>
+      </c>
+      <c r="G304" s="8">
+        <v>1.5908250092489937</v>
+      </c>
+      <c r="H304" s="8">
+        <v>0.97727827999022721</v>
+      </c>
+      <c r="I304" s="8">
+        <v>4.2122999157537623E-2</v>
+      </c>
+      <c r="J304" s="8">
+        <v>1.2269938650306704</v>
+      </c>
+      <c r="K304" s="8">
+        <v>-0.25412960609910812</v>
+      </c>
+      <c r="L304" s="8">
+        <v>-0.49146884272998714</v>
+      </c>
+      <c r="M304" s="8">
+        <v>1.0167029774872911</v>
+      </c>
+      <c r="N304" s="8">
+        <v>0.32154340836012174</v>
+      </c>
+      <c r="O304" s="8">
+        <v>8.3056478405310885E-2</v>
+      </c>
+      <c r="P304" s="8">
+        <v>-6.0139523694972344E-2</v>
+      </c>
+      <c r="Q304" s="8">
+        <v>1.1464670098268681</v>
+      </c>
+      <c r="R304" s="8">
+        <v>-0.34870205346766137</v>
+      </c>
+      <c r="S304" s="8">
+        <v>-1.1627906976744187</v>
+      </c>
+      <c r="T304" s="8">
+        <v>0.27726432532346801</v>
+      </c>
+      <c r="U304" s="8">
+        <v>-1.8343014368694586</v>
+      </c>
+      <c r="V304" s="8">
+        <v>0</v>
+      </c>
+      <c r="W304" s="8">
+        <v>1.4006707437364418</v>
+      </c>
+      <c r="X304" s="8">
+        <v>1.469620530818172</v>
+      </c>
+      <c r="Y304" s="8">
+        <v>-1.2613521695257317</v>
+      </c>
+      <c r="Z304" s="8">
+        <v>-0.80817684811028712</v>
+      </c>
+      <c r="AA304" s="8">
+        <v>0.36659877800407564</v>
+      </c>
+      <c r="AB304" s="8">
+        <v>0.16199953714417695</v>
+      </c>
+      <c r="AC304" s="8">
+        <v>0.22753128555175042</v>
+      </c>
+      <c r="AD304" s="8">
+        <v>0.93240093240092914</v>
+      </c>
+      <c r="AE304" s="8">
+        <v>1.7681728880157284</v>
+      </c>
+      <c r="AF304" s="8">
+        <v>-2.6519337016574647</v>
+      </c>
+      <c r="AG304" s="8">
+        <v>-3.2123353678131301E-2</v>
+      </c>
+      <c r="AH304" s="8">
+        <v>0.15641293013554897</v>
+      </c>
+      <c r="AI304" s="8">
+        <v>-0.22216051096917835</v>
+      </c>
+      <c r="AJ304" s="8">
+        <v>0.37804536544384371</v>
+      </c>
+      <c r="AK304" s="8">
+        <v>0.37267080745341263</v>
+      </c>
+      <c r="AL304" s="8">
+        <v>0.64831966128606655</v>
+      </c>
+      <c r="AM304" s="8">
+        <v>0.25854639471415608</v>
+      </c>
+      <c r="AN304" s="8">
+        <v>2.4915824915824838</v>
+      </c>
+      <c r="AO304" s="8">
+        <v>-0.47948103229445455</v>
+      </c>
+      <c r="AP304" s="8">
+        <v>-1.0000000000000024</v>
+      </c>
+      <c r="AQ304" s="8">
+        <v>1.0022271714922113</v>
+      </c>
+      <c r="AR304" s="8">
+        <v>0.63938618925831203</v>
+      </c>
+      <c r="AS304" s="8">
+        <v>-0.18774935461159617</v>
+      </c>
+      <c r="AT304" s="8">
+        <v>1.4049991831400073</v>
+      </c>
+      <c r="AU304" s="8">
+        <v>2.0417028670721189</v>
+      </c>
+      <c r="AV304" s="8">
+        <v>2.1505376344086073</v>
+      </c>
+      <c r="AW304" s="8">
+        <v>0.11309018942607693</v>
+      </c>
+      <c r="AX304" s="8">
+        <v>1.605049594229031</v>
+      </c>
+      <c r="AY304" s="8">
+        <v>-1.0403120936281032</v>
+      </c>
+      <c r="AZ304" s="8">
+        <v>-0.84398360260429217</v>
+      </c>
+      <c r="BA304" s="8">
+        <v>1.2587412587412667</v>
+      </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- November 2015</t>
+    <t>Government Employment; Year/Year: January 1990 -- December 2015</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1091,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1101,6 +1101,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="241">
     <cellStyle name="active" xfId="3"/>
@@ -1645,64 +1646,64 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M304" sqref="M304"/>
+      <pane ySplit="5" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ298" sqref="AJ298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9" style="9" bestFit="1" customWidth="1"/>
     <col min="54" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -1721,6 +1722,60 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+    </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
@@ -49702,7 +49757,7 @@
         <v>42278</v>
       </c>
       <c r="B303" s="8">
-        <v>0.40213864643787411</v>
+        <v>0.40670840378375911</v>
       </c>
       <c r="C303" s="8">
         <v>0.26336581511719775</v>
@@ -49863,55 +49918,55 @@
         <v>42309</v>
       </c>
       <c r="B304" s="8">
-        <v>0.42481271697423723</v>
+        <v>0.42024483829709486</v>
       </c>
       <c r="C304" s="8">
-        <v>0.36861506055818249</v>
+        <v>-7.8988941548186239E-2</v>
       </c>
       <c r="D304" s="8">
         <v>-2.3170731707317143</v>
       </c>
       <c r="E304" s="8">
-        <v>0.48673643222195184</v>
+        <v>0.41372596738867018</v>
       </c>
       <c r="F304" s="8">
         <v>-0.18770530267480323</v>
       </c>
       <c r="G304" s="8">
-        <v>1.5908250092489937</v>
+        <v>1.2660829530973889</v>
       </c>
       <c r="H304" s="8">
-        <v>0.97727827999022721</v>
+        <v>1.0750061079892443</v>
       </c>
       <c r="I304" s="8">
         <v>4.2122999157537623E-2</v>
       </c>
       <c r="J304" s="8">
-        <v>1.2269938650306704</v>
+        <v>1.073619631901845</v>
       </c>
       <c r="K304" s="8">
-        <v>-0.25412960609910812</v>
+        <v>-0.16941973739940946</v>
       </c>
       <c r="L304" s="8">
-        <v>-0.49146884272998714</v>
+        <v>-0.5378338278931919</v>
       </c>
       <c r="M304" s="8">
-        <v>1.0167029774872911</v>
+        <v>1.0893246187363834</v>
       </c>
       <c r="N304" s="8">
-        <v>0.32154340836012174</v>
+        <v>0.16077170418005515</v>
       </c>
       <c r="O304" s="8">
-        <v>8.3056478405310885E-2</v>
+        <v>0</v>
       </c>
       <c r="P304" s="8">
-        <v>-6.0139523694972344E-2</v>
+        <v>-8.4195333172953066E-2</v>
       </c>
       <c r="Q304" s="8">
-        <v>1.1464670098268681</v>
+        <v>1.4740290126345372</v>
       </c>
       <c r="R304" s="8">
-        <v>-0.34870205346766137</v>
+        <v>-0.27121270825263288</v>
       </c>
       <c r="S304" s="8">
         <v>-1.1627906976744187</v>
@@ -49923,31 +49978,31 @@
         <v>-1.8343014368694586</v>
       </c>
       <c r="V304" s="8">
-        <v>0</v>
+        <v>-0.20000000000000281</v>
       </c>
       <c r="W304" s="8">
-        <v>1.4006707437364418</v>
+        <v>1.3414874728743478</v>
       </c>
       <c r="X304" s="8">
-        <v>1.469620530818172</v>
+        <v>1.4257512612415004</v>
       </c>
       <c r="Y304" s="8">
-        <v>-1.2613521695257317</v>
+        <v>-1.3286242852337669</v>
       </c>
       <c r="Z304" s="8">
-        <v>-0.80817684811028712</v>
+        <v>-0.73686712621819972</v>
       </c>
       <c r="AA304" s="8">
-        <v>0.36659877800407564</v>
+        <v>0.52953156822811054</v>
       </c>
       <c r="AB304" s="8">
-        <v>0.16199953714417695</v>
+        <v>0.1388567461235746</v>
       </c>
       <c r="AC304" s="8">
         <v>0.22753128555175042</v>
       </c>
       <c r="AD304" s="8">
-        <v>0.93240093240092914</v>
+        <v>0.75757575757576423</v>
       </c>
       <c r="AE304" s="8">
         <v>1.7681728880157284</v>
@@ -49959,112 +50014,270 @@
         <v>-3.2123353678131301E-2</v>
       </c>
       <c r="AH304" s="8">
-        <v>0.15641293013554897</v>
+        <v>0.10427528675703264</v>
       </c>
       <c r="AI304" s="8">
-        <v>-0.22216051096917835</v>
+        <v>-0.23604554290475496</v>
       </c>
       <c r="AJ304" s="8">
-        <v>0.37804536544384371</v>
+        <v>0.35004200504060484</v>
       </c>
       <c r="AK304" s="8">
         <v>0.37267080745341263</v>
       </c>
       <c r="AL304" s="8">
-        <v>0.64831966128606655</v>
+        <v>0.62185763429479302</v>
       </c>
       <c r="AM304" s="8">
         <v>0.25854639471415608</v>
       </c>
       <c r="AN304" s="8">
-        <v>2.4915824915824838</v>
+        <v>2.2558922558922521</v>
       </c>
       <c r="AO304" s="8">
-        <v>-0.47948103229445455</v>
+        <v>-0.53589056550558001</v>
       </c>
       <c r="AP304" s="8">
-        <v>-1.0000000000000024</v>
+        <v>-1.1666666666666714</v>
       </c>
       <c r="AQ304" s="8">
-        <v>1.0022271714922113</v>
+        <v>0.94654788418709201</v>
       </c>
       <c r="AR304" s="8">
-        <v>0.63938618925831203</v>
+        <v>0.51150895140663877</v>
       </c>
       <c r="AS304" s="8">
-        <v>-0.18774935461159617</v>
+        <v>0.23468669326449187</v>
       </c>
       <c r="AT304" s="8">
-        <v>1.4049991831400073</v>
+        <v>1.4649022490878447</v>
       </c>
       <c r="AU304" s="8">
-        <v>2.0417028670721189</v>
+        <v>1.9548218940052129</v>
       </c>
       <c r="AV304" s="8">
         <v>2.1505376344086073</v>
       </c>
       <c r="AW304" s="8">
-        <v>0.11309018942607693</v>
+        <v>1.4136273678261625E-2</v>
       </c>
       <c r="AX304" s="8">
-        <v>1.605049594229031</v>
+        <v>1.7673579801623003</v>
       </c>
       <c r="AY304" s="8">
-        <v>-1.0403120936281032</v>
+        <v>-1.1703511053316069</v>
       </c>
       <c r="AZ304" s="8">
-        <v>-0.84398360260429217</v>
+        <v>-0.89221123703882055</v>
       </c>
       <c r="BA304" s="8">
-        <v>1.2587412587412667</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="7"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.97902097902098295</v>
+      </c>
+    </row>
+    <row r="305" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A305" s="7">
+        <v>42339</v>
+      </c>
+      <c r="B305" s="9">
+        <v>0.45201351474751161</v>
+      </c>
+      <c r="C305" s="9">
+        <v>0</v>
+      </c>
+      <c r="D305" s="9">
+        <v>-2.0731707317073207</v>
+      </c>
+      <c r="E305" s="9">
+        <v>-2.4324981756269213E-2</v>
+      </c>
+      <c r="F305" s="9">
+        <v>-0.23452157598499063</v>
+      </c>
+      <c r="G305" s="9">
+        <v>1.4598840317473374</v>
+      </c>
+      <c r="H305" s="9">
+        <v>1.2955267660718539</v>
+      </c>
+      <c r="I305" s="9">
+        <v>-0.16827934371054998</v>
+      </c>
+      <c r="J305" s="9">
+        <v>0.91883614088822141</v>
+      </c>
+      <c r="K305" s="9">
+        <v>0.16927634363096794</v>
+      </c>
+      <c r="L305" s="9">
+        <v>-0.53738534235151991</v>
+      </c>
+      <c r="M305" s="9">
+        <v>0.84363636363635697</v>
+      </c>
+      <c r="N305" s="9">
+        <v>0.48076923076923767</v>
+      </c>
+      <c r="O305" s="9">
+        <v>0.83194675540765384</v>
+      </c>
+      <c r="P305" s="9">
+        <v>-2.4061597690092092E-2</v>
+      </c>
+      <c r="Q305" s="9">
+        <v>1.5377446411929225</v>
+      </c>
+      <c r="R305" s="9">
+        <v>-0.54326736515327023</v>
+      </c>
+      <c r="S305" s="9">
+        <v>-0.9701202949165697</v>
+      </c>
+      <c r="T305" s="9">
+        <v>0.40049291435611656</v>
+      </c>
+      <c r="U305" s="9">
+        <v>-1.8343014368694586</v>
+      </c>
+      <c r="V305" s="9">
+        <v>0</v>
+      </c>
+      <c r="W305" s="9">
+        <v>1.3617525162818305</v>
+      </c>
+      <c r="X305" s="9">
+        <v>1.4892685063512821</v>
+      </c>
+      <c r="Y305" s="9">
+        <v>-1.2264784946236673</v>
+      </c>
+      <c r="Z305" s="9">
+        <v>0.78834209268990785</v>
+      </c>
+      <c r="AA305" s="9">
+        <v>8.1466395112011661E-2</v>
+      </c>
+      <c r="AB305" s="9">
+        <v>0.44032444959443268</v>
+      </c>
+      <c r="AC305" s="9">
+        <v>0.79908675799087081</v>
+      </c>
+      <c r="AD305" s="9">
+        <v>1.048340128130467</v>
+      </c>
+      <c r="AE305" s="9">
+        <v>2.2950819672131146</v>
+      </c>
+      <c r="AF305" s="9">
+        <v>-2.7685492801771874</v>
+      </c>
+      <c r="AG305" s="9">
+        <v>0.11244979919679446</v>
+      </c>
+      <c r="AH305" s="9">
+        <v>0.36534446764092748</v>
+      </c>
+      <c r="AI305" s="9">
+        <v>-0.21538247759326817</v>
+      </c>
+      <c r="AJ305" s="9">
+        <v>0.1816149762503588</v>
+      </c>
+      <c r="AK305" s="9">
+        <v>-0.12406947890818154</v>
+      </c>
+      <c r="AL305" s="9">
+        <v>9.2214464497422183E-2</v>
+      </c>
+      <c r="AM305" s="9">
+        <v>0.20114942528735308</v>
+      </c>
+      <c r="AN305" s="9">
+        <v>2.2498321020819301</v>
+      </c>
+      <c r="AO305" s="9">
+        <v>-0.26821005081874327</v>
+      </c>
+      <c r="AP305" s="9">
+        <v>-1.3311148086522535</v>
+      </c>
+      <c r="AQ305" s="9">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AR305" s="9">
+        <v>1.025641025641022</v>
+      </c>
+      <c r="AS305" s="9">
+        <v>0.5153431717029856</v>
+      </c>
+      <c r="AT305" s="9">
+        <v>1.3903220550697952</v>
+      </c>
+      <c r="AU305" s="9">
+        <v>1.7818339852238134</v>
+      </c>
+      <c r="AV305" s="9">
+        <v>1.6071428571428545</v>
+      </c>
+      <c r="AW305" s="9">
+        <v>-0.14120304998587968</v>
+      </c>
+      <c r="AX305" s="9">
+        <v>1.5978456014362616</v>
+      </c>
+      <c r="AY305" s="9">
+        <v>-1.1053315994798549</v>
+      </c>
+      <c r="AZ305" s="9">
+        <v>0.50933786078097643</v>
+      </c>
+      <c r="BA305" s="9">
+        <v>1.5427769985974875</v>
+      </c>
+    </row>
+    <row r="306" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A306" s="7"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A307" s="7"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A308" s="7"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A309" s="7"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A310" s="7"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A311" s="7"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A312" s="7"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A313" s="7"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A314" s="7"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A315" s="7"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A316" s="7"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A317" s="7"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A318" s="7"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A319" s="7"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A320" s="7"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- January 2016</t>
+    <t>Government Employment; Year/Year: January 1990 -- February 2016</t>
   </si>
 </sst>
 </file>
@@ -1646,8 +1646,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="5" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B274" sqref="B274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50240,13 +50240,13 @@
         <v>42370</v>
       </c>
       <c r="B306" s="9">
-        <v>0.34617837296164711</v>
+        <v>0.45094288056846132</v>
       </c>
       <c r="C306" s="9">
-        <v>-0.90137857900317531</v>
+        <v>-0.47720042417815789</v>
       </c>
       <c r="D306" s="9">
-        <v>-0.48661800486618689</v>
+        <v>-0.36496350364963154</v>
       </c>
       <c r="E306" s="9">
         <v>-1.7543859649122782</v>
@@ -50255,149 +50255,307 @@
         <v>0.14084507042254055</v>
       </c>
       <c r="G306" s="9">
-        <v>1.5683223455223039</v>
+        <v>1.6297448916915844</v>
       </c>
       <c r="H306" s="9">
-        <v>2.1328162869607254</v>
+        <v>1.9389238972370333</v>
       </c>
       <c r="I306" s="9">
         <v>-0.50104384133611213</v>
       </c>
       <c r="J306" s="9">
-        <v>0.61349693251532433</v>
+        <v>0.76687116564417179</v>
       </c>
       <c r="K306" s="9">
-        <v>0.84281500210703753</v>
+        <v>1.0956595027391463</v>
       </c>
       <c r="L306" s="9">
-        <v>0.70671378091871939</v>
+        <v>0.67881718430351068</v>
       </c>
       <c r="M306" s="9">
-        <v>5.8918839298862463E-2</v>
+        <v>0.51553984386507579</v>
       </c>
       <c r="N306" s="9">
-        <v>-1.3481363996827824</v>
+        <v>-1.5860428231562251</v>
       </c>
       <c r="O306" s="9">
-        <v>2.5231286795626575</v>
+        <v>2.4390243902438953</v>
       </c>
       <c r="P306" s="9">
-        <v>-0.78540357660705651</v>
+        <v>0.28999516674721815</v>
       </c>
       <c r="Q306" s="9">
-        <v>0.53965274519005435</v>
+        <v>0.6804317221961601</v>
       </c>
       <c r="R306" s="9">
         <v>0.3910833007430583</v>
       </c>
       <c r="S306" s="9">
-        <v>-0.54474708171206454</v>
+        <v>-0.46692607003890607</v>
       </c>
       <c r="T306" s="9">
         <v>-1.4948614138897576</v>
       </c>
       <c r="U306" s="9">
-        <v>-0.67032297379646211</v>
+        <v>-0.63985374771479764</v>
       </c>
       <c r="V306" s="9">
         <v>-0.60240963855421115</v>
       </c>
       <c r="W306" s="9">
-        <v>0.35771065182830114</v>
+        <v>3.9745627980919837E-2</v>
       </c>
       <c r="X306" s="9">
-        <v>0.8249721293199529</v>
+        <v>0.84726867335563238</v>
       </c>
       <c r="Y306" s="9">
-        <v>0.97741826761039241</v>
+        <v>0.70778564206269734</v>
       </c>
       <c r="Z306" s="9">
-        <v>0.19024970273484218</v>
+        <v>0.11890606420927466</v>
       </c>
       <c r="AA306" s="9">
-        <v>0.45118949958982535</v>
+        <v>0.57424118129613499</v>
       </c>
       <c r="AB306" s="9">
-        <v>-0.53019824804057436</v>
+        <v>-0.57630244352236049</v>
       </c>
       <c r="AC306" s="9">
-        <v>0.22197558268590772</v>
+        <v>0</v>
       </c>
       <c r="AD306" s="9">
-        <v>1.2971698113207648</v>
+        <v>1.120283018867928</v>
       </c>
       <c r="AE306" s="9">
-        <v>3.2530904359141188</v>
+        <v>2.9277813923227067</v>
       </c>
       <c r="AF306" s="9">
-        <v>-0.55066079295154191</v>
+        <v>-0.44052863436122408</v>
       </c>
       <c r="AG306" s="9">
-        <v>-0.34235409194653127</v>
+        <v>-0.37495924356047516</v>
       </c>
       <c r="AH306" s="9">
-        <v>5.2659294365452504E-2</v>
+        <v>0</v>
       </c>
       <c r="AI306" s="9">
-        <v>2.7909572983523836E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ306" s="9">
         <v>0.61179087875416815</v>
       </c>
       <c r="AK306" s="9">
-        <v>2.7465667915106153</v>
+        <v>2.6217228464419584</v>
       </c>
       <c r="AL306" s="9">
-        <v>0.23492560689114517</v>
+        <v>9.1359958235438757E-2</v>
       </c>
       <c r="AM306" s="9">
         <v>0.65676756139349279</v>
       </c>
       <c r="AN306" s="9">
-        <v>2.0805369127516742</v>
+        <v>2.1812080536912752</v>
       </c>
       <c r="AO306" s="9">
-        <v>0.17045454545455191</v>
+        <v>0.31250000000000649</v>
       </c>
       <c r="AP306" s="9">
-        <v>-0.49423393739704158</v>
+        <v>-0.65897858319605551</v>
       </c>
       <c r="AQ306" s="9">
-        <v>1.590845660061398</v>
+        <v>1.5071169411107948</v>
       </c>
       <c r="AR306" s="9">
-        <v>0.25806451612903597</v>
+        <v>-0.1290322580645088</v>
       </c>
       <c r="AS306" s="9">
-        <v>0.588650812338121</v>
+        <v>0.21191429244173163</v>
       </c>
       <c r="AT306" s="9">
-        <v>1.6364921437503472</v>
+        <v>1.6745501005817405</v>
       </c>
       <c r="AU306" s="9">
-        <v>1.5934539190353216</v>
+        <v>1.4211886304909609</v>
       </c>
       <c r="AV306" s="9">
         <v>0.710479573712266</v>
       </c>
       <c r="AW306" s="9">
-        <v>0.30968468468469112</v>
+        <v>8.4459459459462663E-2</v>
       </c>
       <c r="AX306" s="9">
-        <v>2.1934555915138314</v>
+        <v>1.9597267170082662</v>
       </c>
       <c r="AY306" s="9">
         <v>-0.58977719528178618</v>
       </c>
       <c r="AZ306" s="9">
-        <v>1.0000000000000056</v>
+        <v>1.048780487804881</v>
       </c>
       <c r="BA306" s="9">
-        <v>1.2693935119887043</v>
+        <v>0.98730606488009676</v>
       </c>
     </row>
     <row r="307" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A307" s="7"/>
+      <c r="A307" s="7">
+        <v>42401</v>
+      </c>
+      <c r="B307" s="9">
+        <v>0.43246688214139389</v>
+      </c>
+      <c r="C307" s="9">
+        <v>-0.53092646668436416</v>
+      </c>
+      <c r="D307" s="9">
+        <v>-0.36630036630038015</v>
+      </c>
+      <c r="E307" s="9">
+        <v>-0.65837600585224221</v>
+      </c>
+      <c r="F307" s="9">
+        <v>0.18805829807240512</v>
+      </c>
+      <c r="G307" s="9">
+        <v>1.6216880298128469</v>
+      </c>
+      <c r="H307" s="9">
+        <v>2.202856451222456</v>
+      </c>
+      <c r="I307" s="9">
+        <v>-0.79365079365079605</v>
+      </c>
+      <c r="J307" s="9">
+        <v>0.61823802163831754</v>
+      </c>
+      <c r="K307" s="9">
+        <v>1.3479359730412759</v>
+      </c>
+      <c r="L307" s="9">
+        <v>0.74225273705696793</v>
+      </c>
+      <c r="M307" s="9">
+        <v>0.75121520106054251</v>
+      </c>
+      <c r="N307" s="9">
+        <v>0.23828435266083967</v>
+      </c>
+      <c r="O307" s="9">
+        <v>2.6182432432432385</v>
+      </c>
+      <c r="P307" s="9">
+        <v>0.36218761318362913</v>
+      </c>
+      <c r="Q307" s="9">
+        <v>0.98730606488012362</v>
+      </c>
+      <c r="R307" s="9">
+        <v>-3.9123630672924223E-2</v>
+      </c>
+      <c r="S307" s="9">
+        <v>-0.58343057176197133</v>
+      </c>
+      <c r="T307" s="9">
+        <v>-1.5625</v>
+      </c>
+      <c r="U307" s="9">
+        <v>-0.79171741778318094</v>
+      </c>
+      <c r="V307" s="9">
+        <v>-0.80482897384306973</v>
+      </c>
+      <c r="W307" s="9">
+        <v>-0.4765687053216906</v>
+      </c>
+      <c r="X307" s="9">
+        <v>0.823319982198497</v>
+      </c>
+      <c r="Y307" s="9">
+        <v>0.82477697357346869</v>
+      </c>
+      <c r="Z307" s="9">
+        <v>2.3815194093837283E-2</v>
+      </c>
+      <c r="AA307" s="9">
+        <v>0.94378334017234766</v>
+      </c>
+      <c r="AB307" s="9">
+        <v>-0.55071133547499629</v>
+      </c>
+      <c r="AC307" s="9">
+        <v>0.99889012208657679</v>
+      </c>
+      <c r="AD307" s="9">
+        <v>1.0011778563015246</v>
+      </c>
+      <c r="AE307" s="9">
+        <v>1.3012361743656475</v>
+      </c>
+      <c r="AF307" s="9">
+        <v>-0.66518847006652826</v>
+      </c>
+      <c r="AG307" s="9">
+        <v>-0.1141180306488314</v>
+      </c>
+      <c r="AH307" s="9">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="AI307" s="9">
+        <v>0.40451945878085882</v>
+      </c>
+      <c r="AJ307" s="9">
+        <v>0.69531358642747876</v>
+      </c>
+      <c r="AK307" s="9">
+        <v>3.2418952618453796</v>
+      </c>
+      <c r="AL307" s="9">
+        <v>0.20814361909716519</v>
+      </c>
+      <c r="AM307" s="9">
+        <v>0.62767475035663012</v>
+      </c>
+      <c r="AN307" s="9">
+        <v>2.2125377137110176</v>
+      </c>
+      <c r="AO307" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP307" s="9">
+        <v>-0.82508250825082496</v>
+      </c>
+      <c r="AQ307" s="9">
+        <v>0.91870824053452427</v>
+      </c>
+      <c r="AR307" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS307" s="9">
+        <v>2.3568230025917014E-2</v>
+      </c>
+      <c r="AT307" s="9">
+        <v>1.5251017639077291</v>
+      </c>
+      <c r="AU307" s="9">
+        <v>1.7626827171109176</v>
+      </c>
+      <c r="AV307" s="9">
+        <v>0.71684587813621092</v>
+      </c>
+      <c r="AW307" s="9">
+        <v>-1.4050864128147076E-2</v>
+      </c>
+      <c r="AX307" s="9">
+        <v>1.8661403193971096</v>
+      </c>
+      <c r="AY307" s="9">
+        <v>-0.45901639344261547</v>
+      </c>
+      <c r="AZ307" s="9">
+        <v>0.5837995621503228</v>
+      </c>
+      <c r="BA307" s="9">
+        <v>1.6925246826516058</v>
+      </c>
     </row>
     <row r="308" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A308" s="7"/>
@@ -50438,814 +50596,814 @@
     <row r="320" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A320" s="7"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="7"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="7"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="7"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="7"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="7"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="7"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="7"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="7"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="7"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="7"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="7"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="7"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="7"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="7"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="7"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="7"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="7"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="7"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="7"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="7"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="7"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="7"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="7"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="7"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="7"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="7"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="7"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="7"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349" s="7"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="7"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="7"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="7"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="7"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="7"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="7"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="7"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="7"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="7"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="7"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="7"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="7"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="7"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="7"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="7"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="7"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="7"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="7"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="7"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="7"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="7"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="7"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="7"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="7"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A374" s="7"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="7"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="7"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="7"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378" s="7"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="7"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="7"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="7"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A382" s="7"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="7"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384" s="7"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="7"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="7"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="7"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="7"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="7"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="7"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="7"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="7"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="7"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="7"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="7"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="7"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="7"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="7"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="7"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="7"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="7"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="7"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="7"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="7"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="7"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="7"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="7"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="7"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="7"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="7"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="7"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="7"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="7"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="7"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A415" s="7"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="7"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A417" s="7"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="7"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A419" s="7"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="7"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="7"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="7"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="7"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="7"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="7"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="7"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="7"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="7"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="7"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="7"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="7"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="7"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="7"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="7"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="7"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="7"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="7"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="7"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="7"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="7"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="7"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="7"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="7"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="7"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="7"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="7"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="7"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="7"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="7"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A450" s="7"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="7"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="7"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="7"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="7"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="7"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="7"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="7"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="7"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="7"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A460" s="7"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="7"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A462" s="7"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="7"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A464" s="7"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="7"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="7"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="7"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="7"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="7"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="7"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="7"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="7"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="7"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="7"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="7"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="7"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="7"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="7"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="7"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="7"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A481" s="7"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="7"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483" s="7"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="7"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A485" s="7"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="7"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A487" s="7"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="7"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" s="7"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A490" s="7"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" s="7"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A492" s="7"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" s="7"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A494" s="7"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" s="7"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A496" s="7"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="7"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A498" s="7"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="7"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A500" s="7"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="7"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A502" s="7"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="7"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A504" s="7"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="7"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A506" s="7"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="7"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A508" s="7"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" s="7"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A510" s="7"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" s="7"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A512" s="7"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" s="7"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A514" s="7"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" s="7"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A516" s="7"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" s="7"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A518" s="7"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" s="7"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A520" s="7"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="7"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="7"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="7"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524" s="7"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="7"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="7"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="7"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528" s="7"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="7"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="7"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="7"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="7"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="7"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="7"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="7"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="7"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="7"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="7"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="7"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="7"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="7"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" s="7"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="7"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="7"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545" s="7"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="7"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="7"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="7"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="7"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="7"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="7"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="7"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="7"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="7"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="7"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="7"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="7"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="7"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="7"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="7"/>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="7"/>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="7"/>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="7"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="7"/>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="7"/>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="7"/>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="7"/>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="7"/>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="7"/>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="7"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="7"/>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="7"/>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="7"/>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A574" s="7"/>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" s="7"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A576" s="7"/>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" s="7"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A578" s="7"/>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" s="7"/>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A580" s="7"/>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" s="7"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A582" s="7"/>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" s="7"/>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A584" s="7"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" s="7"/>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A586" s="7"/>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="7"/>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A588" s="7"/>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" s="7"/>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A590" s="7"/>
     </row>
   </sheetData>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- February 2016</t>
+    <t>Government Employment; Year/Year: January 1990 -- March 2016</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B274" sqref="B274"/>
+      <selection pane="bottomLeft" activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50404,55 +50404,55 @@
         <v>0.43246688214139389</v>
       </c>
       <c r="C307" s="9">
-        <v>-0.53092646668436416</v>
+        <v>-0.47783382001593083</v>
       </c>
       <c r="D307" s="9">
-        <v>-0.36630036630038015</v>
+        <v>-0.24420024420024766</v>
       </c>
       <c r="E307" s="9">
-        <v>-0.65837600585224221</v>
+        <v>-0.63399170933919113</v>
       </c>
       <c r="F307" s="9">
         <v>0.18805829807240512</v>
       </c>
       <c r="G307" s="9">
-        <v>1.6216880298128469</v>
+        <v>1.9124452270772683</v>
       </c>
       <c r="H307" s="9">
-        <v>2.202856451222456</v>
+        <v>2.2512708787218481</v>
       </c>
       <c r="I307" s="9">
         <v>-0.79365079365079605</v>
       </c>
       <c r="J307" s="9">
-        <v>0.61823802163831754</v>
+        <v>0.30911901081916976</v>
       </c>
       <c r="K307" s="9">
-        <v>1.3479359730412759</v>
+        <v>1.3900589721988135</v>
       </c>
       <c r="L307" s="9">
-        <v>0.74225273705696793</v>
+        <v>0.97420671738727049</v>
       </c>
       <c r="M307" s="9">
-        <v>0.75121520106054251</v>
+        <v>0.78067462070998206</v>
       </c>
       <c r="N307" s="9">
         <v>0.23828435266083967</v>
       </c>
       <c r="O307" s="9">
-        <v>2.6182432432432385</v>
+        <v>2.449324324324317</v>
       </c>
       <c r="P307" s="9">
         <v>0.36218761318362913</v>
       </c>
       <c r="Q307" s="9">
-        <v>0.98730606488012362</v>
+        <v>0.54066760695815974</v>
       </c>
       <c r="R307" s="9">
-        <v>-3.9123630672924223E-2</v>
+        <v>-0.15649452269170802</v>
       </c>
       <c r="S307" s="9">
-        <v>-0.58343057176197133</v>
+        <v>-0.54453520031117619</v>
       </c>
       <c r="T307" s="9">
         <v>-1.5625</v>
@@ -50464,43 +50464,43 @@
         <v>-0.80482897384306973</v>
       </c>
       <c r="W307" s="9">
-        <v>-0.4765687053216906</v>
+        <v>-0.61556791104051289</v>
       </c>
       <c r="X307" s="9">
         <v>0.823319982198497</v>
       </c>
       <c r="Y307" s="9">
-        <v>0.82477697357346869</v>
+        <v>0.95943443864668099</v>
       </c>
       <c r="Z307" s="9">
-        <v>2.3815194093837283E-2</v>
+        <v>7.1445582281498304E-2</v>
       </c>
       <c r="AA307" s="9">
-        <v>0.94378334017234766</v>
+        <v>0.9027492819039874</v>
       </c>
       <c r="AB307" s="9">
-        <v>-0.55071133547499629</v>
+        <v>-1.3538320330426881</v>
       </c>
       <c r="AC307" s="9">
         <v>0.99889012208657679</v>
       </c>
       <c r="AD307" s="9">
-        <v>1.0011778563015246</v>
+        <v>0.94228504122496715</v>
       </c>
       <c r="AE307" s="9">
-        <v>1.3012361743656475</v>
+        <v>1.496421600520502</v>
       </c>
       <c r="AF307" s="9">
-        <v>-0.66518847006652826</v>
+        <v>-0.33259423503325625</v>
       </c>
       <c r="AG307" s="9">
-        <v>-0.1141180306488314</v>
+        <v>-0.1304206064558126</v>
       </c>
       <c r="AH307" s="9">
-        <v>0.26315789473684209</v>
+        <v>0.21052631578947667</v>
       </c>
       <c r="AI307" s="9">
-        <v>0.40451945878085882</v>
+        <v>0.39057051192635911</v>
       </c>
       <c r="AJ307" s="9">
         <v>0.69531358642747876</v>
@@ -50512,28 +50512,28 @@
         <v>0.20814361909716519</v>
       </c>
       <c r="AM307" s="9">
-        <v>0.62767475035663012</v>
+        <v>0.59914407988588381</v>
       </c>
       <c r="AN307" s="9">
-        <v>2.2125377137110176</v>
+        <v>2.2460610124036164</v>
       </c>
       <c r="AO307" s="9">
-        <v>0</v>
+        <v>-5.6705415367164343E-2</v>
       </c>
       <c r="AP307" s="9">
         <v>-0.82508250825082496</v>
       </c>
       <c r="AQ307" s="9">
-        <v>0.91870824053452427</v>
+        <v>0.89086859688195674</v>
       </c>
       <c r="AR307" s="9">
         <v>0</v>
       </c>
       <c r="AS307" s="9">
-        <v>2.3568230025917014E-2</v>
+        <v>0.35352345038887578</v>
       </c>
       <c r="AT307" s="9">
-        <v>1.5251017639077291</v>
+        <v>1.6607869742198051</v>
       </c>
       <c r="AU307" s="9">
         <v>1.7626827171109176</v>
@@ -50542,23 +50542,181 @@
         <v>0.71684587813621092</v>
       </c>
       <c r="AW307" s="9">
-        <v>-1.4050864128147076E-2</v>
+        <v>-2.8101728256294152E-2</v>
       </c>
       <c r="AX307" s="9">
-        <v>1.8661403193971096</v>
+        <v>1.9199712901489407</v>
       </c>
       <c r="AY307" s="9">
         <v>-0.45901639344261547</v>
       </c>
       <c r="AZ307" s="9">
-        <v>0.5837995621503228</v>
+        <v>1.0459742155193272</v>
       </c>
       <c r="BA307" s="9">
-        <v>1.6925246826516058</v>
+        <v>1.551480959097312</v>
       </c>
     </row>
     <row r="308" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A308" s="7"/>
+      <c r="A308" s="7">
+        <v>42430</v>
+      </c>
+      <c r="B308" s="9">
+        <v>0.55097673147853021</v>
+      </c>
+      <c r="C308" s="9">
+        <v>-0.31889449906988804</v>
+      </c>
+      <c r="D308" s="9">
+        <v>-0.36585365853658192</v>
+      </c>
+      <c r="E308" s="9">
+        <v>-0.41453304072178626</v>
+      </c>
+      <c r="F308" s="9">
+        <v>0.14117647058824065</v>
+      </c>
+      <c r="G308" s="9">
+        <v>1.9145802650957178</v>
+      </c>
+      <c r="H308" s="9">
+        <v>2.2254475084663876</v>
+      </c>
+      <c r="I308" s="9">
+        <v>-0.58528428093644536</v>
+      </c>
+      <c r="J308" s="9">
+        <v>-1.6591251885369447</v>
+      </c>
+      <c r="K308" s="9">
+        <v>0.84139671855279763</v>
+      </c>
+      <c r="L308" s="9">
+        <v>0.8347245409015025</v>
+      </c>
+      <c r="M308" s="9">
+        <v>1.0903197288934694</v>
+      </c>
+      <c r="N308" s="9">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="O308" s="9">
+        <v>2.5316455696202533</v>
+      </c>
+      <c r="P308" s="9">
+        <v>0.57950018109381485</v>
+      </c>
+      <c r="Q308" s="9">
+        <v>1.0595714622086179</v>
+      </c>
+      <c r="R308" s="9">
+        <v>-3.9154267815189631E-2</v>
+      </c>
+      <c r="S308" s="9">
+        <v>-0.31116297160638323</v>
+      </c>
+      <c r="T308" s="9">
+        <v>-1.7862738953306316</v>
+      </c>
+      <c r="U308" s="9">
+        <v>-0.73372057474779395</v>
+      </c>
+      <c r="V308" s="9">
+        <v>-0.60301507537687871</v>
+      </c>
+      <c r="W308" s="9">
+        <v>1.9884668920266999E-2</v>
+      </c>
+      <c r="X308" s="9">
+        <v>0.59668508287292565</v>
+      </c>
+      <c r="Y308" s="9">
+        <v>1.0768971899714102</v>
+      </c>
+      <c r="Z308" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA308" s="9">
+        <v>0.98522167487684975</v>
+      </c>
+      <c r="AB308" s="9">
+        <v>-1.6069788797061522</v>
+      </c>
+      <c r="AC308" s="9">
+        <v>0.77519379844961556</v>
+      </c>
+      <c r="AD308" s="9">
+        <v>1.0569583088666958</v>
+      </c>
+      <c r="AE308" s="9">
+        <v>1.8193632228719836</v>
+      </c>
+      <c r="AF308" s="9">
+        <v>-1.8701870187018732</v>
+      </c>
+      <c r="AG308" s="9">
+        <v>-0.14662756598240101</v>
+      </c>
+      <c r="AH308" s="9">
+        <v>0.57986294148656981</v>
+      </c>
+      <c r="AI308" s="9">
+        <v>0.4322063436737571</v>
+      </c>
+      <c r="AJ308" s="9">
+        <v>0.51467519821950836</v>
+      </c>
+      <c r="AK308" s="9">
+        <v>3.3498759305210957</v>
+      </c>
+      <c r="AL308" s="9">
+        <v>1.1320754716981192</v>
+      </c>
+      <c r="AM308" s="9">
+        <v>0.65733066590454747</v>
+      </c>
+      <c r="AN308" s="9">
+        <v>2.3076923076923004</v>
+      </c>
+      <c r="AO308" s="9">
+        <v>0.14196479273140261</v>
+      </c>
+      <c r="AP308" s="9">
+        <v>-0.66225165562913668</v>
+      </c>
+      <c r="AQ308" s="9">
+        <v>1.0030649205907003</v>
+      </c>
+      <c r="AR308" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS308" s="9">
+        <v>-4.7214353163372393E-2</v>
+      </c>
+      <c r="AT308" s="9">
+        <v>1.7737998372660724</v>
+      </c>
+      <c r="AU308" s="9">
+        <v>1.8454935622317643</v>
+      </c>
+      <c r="AV308" s="9">
+        <v>1.0733452593917736</v>
+      </c>
+      <c r="AW308" s="9">
+        <v>0.4791431792559156</v>
+      </c>
+      <c r="AX308" s="9">
+        <v>1.7719706461428273</v>
+      </c>
+      <c r="AY308" s="9">
+        <v>0.39630118890356297</v>
+      </c>
+      <c r="AZ308" s="9">
+        <v>0.90221897098268433</v>
+      </c>
+      <c r="BA308" s="9">
+        <v>1.2658227848101347</v>
+      </c>
     </row>
     <row r="309" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A309" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- March 2016</t>
+    <t>Government Employment; Year/Year: January 1990 -- April 2016</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B285" sqref="B285"/>
+      <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50401,7 +50401,7 @@
         <v>42401</v>
       </c>
       <c r="B307" s="9">
-        <v>0.43246688214139389</v>
+        <v>0.44157144808121274</v>
       </c>
       <c r="C307" s="9">
         <v>-0.47783382001593083</v>
@@ -50562,10 +50562,10 @@
         <v>42430</v>
       </c>
       <c r="B308" s="9">
-        <v>0.55097673147853021</v>
+        <v>0.57829789171713497</v>
       </c>
       <c r="C308" s="9">
-        <v>-0.31889449906988804</v>
+        <v>-0.37204358224821527</v>
       </c>
       <c r="D308" s="9">
         <v>-0.36585365853658192</v>
@@ -50577,70 +50577,70 @@
         <v>0.14117647058824065</v>
       </c>
       <c r="G308" s="9">
-        <v>1.9145802650957178</v>
+        <v>2.004581901489118</v>
       </c>
       <c r="H308" s="9">
-        <v>2.2254475084663876</v>
+        <v>2.4915336236090981</v>
       </c>
       <c r="I308" s="9">
         <v>-0.58528428093644536</v>
       </c>
       <c r="J308" s="9">
-        <v>-1.6591251885369447</v>
+        <v>-1.8099547511312259</v>
       </c>
       <c r="K308" s="9">
         <v>0.84139671855279763</v>
       </c>
       <c r="L308" s="9">
-        <v>0.8347245409015025</v>
+        <v>0.81617510665924264</v>
       </c>
       <c r="M308" s="9">
-        <v>1.0903197288934694</v>
+        <v>1.3260645351407101</v>
       </c>
       <c r="N308" s="9">
         <v>0.3968253968253968</v>
       </c>
       <c r="O308" s="9">
-        <v>2.5316455696202533</v>
+        <v>2.784810126582276</v>
       </c>
       <c r="P308" s="9">
-        <v>0.57950018109381485</v>
+        <v>0.56742726065435778</v>
       </c>
       <c r="Q308" s="9">
-        <v>1.0595714622086179</v>
+        <v>1.0360254297151013</v>
       </c>
       <c r="R308" s="9">
         <v>-3.9154267815189631E-2</v>
       </c>
       <c r="S308" s="9">
-        <v>-0.31116297160638323</v>
+        <v>-0.27226760015559914</v>
       </c>
       <c r="T308" s="9">
         <v>-1.7862738953306316</v>
       </c>
       <c r="U308" s="9">
-        <v>-0.73372057474779395</v>
+        <v>-0.70314888413329601</v>
       </c>
       <c r="V308" s="9">
         <v>-0.60301507537687871</v>
       </c>
       <c r="W308" s="9">
-        <v>1.9884668920266999E-2</v>
+        <v>3.9769337840533998E-2</v>
       </c>
       <c r="X308" s="9">
         <v>0.59668508287292565</v>
       </c>
       <c r="Y308" s="9">
-        <v>1.0768971899714102</v>
+        <v>1.3797745246508575</v>
       </c>
       <c r="Z308" s="9">
-        <v>0</v>
+        <v>2.3843586075351156E-2</v>
       </c>
       <c r="AA308" s="9">
-        <v>0.98522167487684975</v>
+        <v>0.94417077175698338</v>
       </c>
       <c r="AB308" s="9">
-        <v>-1.6069788797061522</v>
+        <v>-1.4692378328742044</v>
       </c>
       <c r="AC308" s="9">
         <v>0.77519379844961556</v>
@@ -50649,16 +50649,16 @@
         <v>1.0569583088666958</v>
       </c>
       <c r="AE308" s="9">
-        <v>1.8193632228719836</v>
+        <v>1.7543859649122733</v>
       </c>
       <c r="AF308" s="9">
-        <v>-1.8701870187018732</v>
+        <v>-1.5401540154015463</v>
       </c>
       <c r="AG308" s="9">
-        <v>-0.14662756598240101</v>
+        <v>-6.5167807103287276E-2</v>
       </c>
       <c r="AH308" s="9">
-        <v>0.57986294148656981</v>
+        <v>0.63257775434898111</v>
       </c>
       <c r="AI308" s="9">
         <v>0.4322063436737571</v>
@@ -50670,31 +50670,31 @@
         <v>3.3498759305210957</v>
       </c>
       <c r="AL308" s="9">
-        <v>1.1320754716981192</v>
+        <v>1.0800260247234814</v>
       </c>
       <c r="AM308" s="9">
         <v>0.65733066590454747</v>
       </c>
       <c r="AN308" s="9">
-        <v>2.3076923076923004</v>
+        <v>2.4414715719063582</v>
       </c>
       <c r="AO308" s="9">
-        <v>0.14196479273140261</v>
+        <v>0.1703577512776896</v>
       </c>
       <c r="AP308" s="9">
-        <v>-0.66225165562913668</v>
+        <v>-0.82781456953642385</v>
       </c>
       <c r="AQ308" s="9">
-        <v>1.0030649205907003</v>
+        <v>0.9473390916689981</v>
       </c>
       <c r="AR308" s="9">
-        <v>0</v>
+        <v>-0.12870012870013967</v>
       </c>
       <c r="AS308" s="9">
         <v>-4.7214353163372393E-2</v>
       </c>
       <c r="AT308" s="9">
-        <v>1.7737998372660724</v>
+        <v>1.9256848386221861</v>
       </c>
       <c r="AU308" s="9">
         <v>1.8454935622317643</v>
@@ -50703,23 +50703,181 @@
         <v>1.0733452593917736</v>
       </c>
       <c r="AW308" s="9">
-        <v>0.4791431792559156</v>
+        <v>0.46505073280720893</v>
       </c>
       <c r="AX308" s="9">
-        <v>1.7719706461428273</v>
+        <v>1.9867549668874007</v>
       </c>
       <c r="AY308" s="9">
-        <v>0.39630118890356297</v>
+        <v>0.8586525759577166</v>
       </c>
       <c r="AZ308" s="9">
-        <v>0.90221897098268433</v>
+        <v>0.95098756400877271</v>
       </c>
       <c r="BA308" s="9">
+        <v>1.1251758087201287</v>
+      </c>
+    </row>
+    <row r="309" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A309" s="7">
+        <v>42461</v>
+      </c>
+      <c r="B309" s="9">
+        <v>0.48245414409903958</v>
+      </c>
+      <c r="C309" s="9">
+        <v>-0.37105751391466579</v>
+      </c>
+      <c r="D309" s="9">
+        <v>-0.6097560975609756</v>
+      </c>
+      <c r="E309" s="9">
+        <v>-0.2443195699975568</v>
+      </c>
+      <c r="F309" s="9">
+        <v>0.23540489642184556</v>
+      </c>
+      <c r="G309" s="9">
+        <v>1.9905988146331419</v>
+      </c>
+      <c r="H309" s="9">
+        <v>2.3631540872920209</v>
+      </c>
+      <c r="I309" s="9">
+        <v>-0.29337803855825173</v>
+      </c>
+      <c r="J309" s="9">
+        <v>1.8779342723004628</v>
+      </c>
+      <c r="K309" s="9">
+        <v>0.96719932716567825</v>
+      </c>
+      <c r="L309" s="9">
+        <v>0.94531974050046752</v>
+      </c>
+      <c r="M309" s="9">
+        <v>1.0754272245138581</v>
+      </c>
+      <c r="N309" s="9">
+        <v>-1.6653449643140319</v>
+      </c>
+      <c r="O309" s="9">
+        <v>2.1061499578770007</v>
+      </c>
+      <c r="P309" s="9">
+        <v>0.6878243031253688</v>
+      </c>
+      <c r="Q309" s="9">
+        <v>0.63469675599436892</v>
+      </c>
+      <c r="R309" s="9">
+        <v>0.78369905956112862</v>
+      </c>
+      <c r="S309" s="9">
+        <v>-0.54453520031117619</v>
+      </c>
+      <c r="T309" s="9">
+        <v>-1.1908492635537484</v>
+      </c>
+      <c r="U309" s="9">
+        <v>-0.88495575221238243</v>
+      </c>
+      <c r="V309" s="9">
+        <v>-1.1055276381909491</v>
+      </c>
+      <c r="W309" s="9">
+        <v>-0.13910969793322508</v>
+      </c>
+      <c r="X309" s="9">
+        <v>0.88672134781644862</v>
+      </c>
+      <c r="Y309" s="9">
+        <v>0.90893788924423113</v>
+      </c>
+      <c r="Z309" s="9">
+        <v>-0.30915576694411689</v>
+      </c>
+      <c r="AA309" s="9">
+        <v>0.78028747433265122</v>
+      </c>
+      <c r="AB309" s="9">
+        <v>-1.1059907834101408</v>
+      </c>
+      <c r="AC309" s="9">
+        <v>0.44198895027624935</v>
+      </c>
+      <c r="AD309" s="9">
+        <v>0.11695906432747873</v>
+      </c>
+      <c r="AE309" s="9">
+        <v>1.1665586519766578</v>
+      </c>
+      <c r="AF309" s="9">
+        <v>-2.3076923076923017</v>
+      </c>
+      <c r="AG309" s="9">
+        <v>0.57077625570776247</v>
+      </c>
+      <c r="AH309" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI309" s="9">
+        <v>0.230045311955382</v>
+      </c>
+      <c r="AJ309" s="9">
+        <v>9.7249235898867123E-2</v>
+      </c>
+      <c r="AK309" s="9">
+        <v>2.8500619578686459</v>
+      </c>
+      <c r="AL309" s="9">
+        <v>0.19523623584537292</v>
+      </c>
+      <c r="AM309" s="9">
+        <v>0.45623039635016338</v>
+      </c>
+      <c r="AN309" s="9">
+        <v>2.9087261785356024</v>
+      </c>
+      <c r="AO309" s="9">
+        <v>-0.38319613965371063</v>
+      </c>
+      <c r="AP309" s="9">
+        <v>-0.49586776859503656</v>
+      </c>
+      <c r="AQ309" s="9">
+        <v>0.89062065126634815</v>
+      </c>
+      <c r="AR309" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS309" s="9">
+        <v>0.11809163911195086</v>
+      </c>
+      <c r="AT309" s="9">
+        <v>1.9198438093172006</v>
+      </c>
+      <c r="AU309" s="9">
+        <v>2.060085836909876</v>
+      </c>
+      <c r="AV309" s="9">
+        <v>0.89605734767025103</v>
+      </c>
+      <c r="AW309" s="9">
+        <v>-5.6235062561503901E-2</v>
+      </c>
+      <c r="AX309" s="9">
+        <v>2.1268990169794422</v>
+      </c>
+      <c r="AY309" s="9">
+        <v>0.59055118110236593</v>
+      </c>
+      <c r="AZ309" s="9">
+        <v>0.58465286236296643</v>
+      </c>
+      <c r="BA309" s="9">
         <v>1.2658227848101347</v>
       </c>
-    </row>
-    <row r="309" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A309" s="7"/>
     </row>
     <row r="310" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A310" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -20,9 +20,6 @@
   </si>
   <si>
     <t>http://www.bls.gov/lau/</t>
-  </si>
-  <si>
-    <t>United States</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -178,7 +175,10 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- April 2016</t>
+    <t>Government Employment; Year/Year: January 1990 -- June 2016</t>
+  </si>
+  <si>
+    <t>Invalid data manipulation</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
+      <selection pane="bottomLeft" activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1709,7 +1709,7 @@
   <sheetData>
     <row r="1" spans="1:53" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1778,170 +1778,164 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AG5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AI5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AJ5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AK5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AL5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AN5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AO5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AP5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AP5" s="5" t="s">
+      <c r="AQ5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AR5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AS5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AT5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AV5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AW5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="AY5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AY5" s="5" t="s">
+      <c r="AZ5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AZ5" s="5" t="s">
+      <c r="BA5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BA5" s="5" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>33239</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1.7795162800947606</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="8">
         <v>2.5744416873449172</v>
       </c>
@@ -2258,8 +2252,8 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>33298</v>
+      <c r="A8" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B8" s="8">
         <v>1.0604569804307424</v>
@@ -50562,7 +50556,7 @@
         <v>42430</v>
       </c>
       <c r="B308" s="9">
-        <v>0.57829789171713497</v>
+        <v>0.55553025818496427</v>
       </c>
       <c r="C308" s="9">
         <v>-0.37204358224821527</v>
@@ -50723,40 +50717,40 @@
         <v>42461</v>
       </c>
       <c r="B309" s="9">
-        <v>0.48245414409903958</v>
+        <v>0.49610850666788037</v>
       </c>
       <c r="C309" s="9">
-        <v>-0.37105751391466579</v>
+        <v>-0.4505698383249373</v>
       </c>
       <c r="D309" s="9">
-        <v>-0.6097560975609756</v>
+        <v>-0.12195121951218818</v>
       </c>
       <c r="E309" s="9">
-        <v>-0.2443195699975568</v>
+        <v>-0.17102369899828698</v>
       </c>
       <c r="F309" s="9">
         <v>0.23540489642184556</v>
       </c>
       <c r="G309" s="9">
-        <v>1.9905988146331419</v>
+        <v>2.2154097690578305</v>
       </c>
       <c r="H309" s="9">
-        <v>2.3631540872920209</v>
+        <v>2.3390402700747503</v>
       </c>
       <c r="I309" s="9">
-        <v>-0.29337803855825173</v>
+        <v>-0.33528918692371457</v>
       </c>
       <c r="J309" s="9">
-        <v>1.8779342723004628</v>
+        <v>2.3474178403755981</v>
       </c>
       <c r="K309" s="9">
-        <v>0.96719932716567825</v>
+        <v>1.3877207737594546</v>
       </c>
       <c r="L309" s="9">
-        <v>0.94531974050046752</v>
+        <v>1.1214087117701492</v>
       </c>
       <c r="M309" s="9">
-        <v>1.0754272245138581</v>
+        <v>1.1343547436652985</v>
       </c>
       <c r="N309" s="9">
         <v>-1.6653449643140319</v>
@@ -50765,55 +50759,55 @@
         <v>2.1061499578770007</v>
       </c>
       <c r="P309" s="9">
-        <v>0.6878243031253688</v>
+        <v>8.446965126100299E-2</v>
       </c>
       <c r="Q309" s="9">
-        <v>0.63469675599436892</v>
+        <v>0.72872590503056489</v>
       </c>
       <c r="R309" s="9">
         <v>0.78369905956112862</v>
       </c>
       <c r="S309" s="9">
-        <v>-0.54453520031117619</v>
+        <v>-0.50563982886037007</v>
       </c>
       <c r="T309" s="9">
-        <v>-1.1908492635537484</v>
+        <v>-1.2221874020683277</v>
       </c>
       <c r="U309" s="9">
         <v>-0.88495575221238243</v>
       </c>
       <c r="V309" s="9">
-        <v>-1.1055276381909491</v>
+        <v>-1.2060301507537718</v>
       </c>
       <c r="W309" s="9">
-        <v>-0.13910969793322508</v>
+        <v>-9.9364069952305234E-2</v>
       </c>
       <c r="X309" s="9">
-        <v>0.88672134781644862</v>
+        <v>0.90888938151185239</v>
       </c>
       <c r="Y309" s="9">
-        <v>0.90893788924423113</v>
+        <v>1.0772597205857559</v>
       </c>
       <c r="Z309" s="9">
-        <v>-0.30915576694411689</v>
+        <v>-0.26159334126040967</v>
       </c>
       <c r="AA309" s="9">
-        <v>0.78028747433265122</v>
+        <v>0.73921971252567209</v>
       </c>
       <c r="AB309" s="9">
         <v>-1.1059907834101408</v>
       </c>
       <c r="AC309" s="9">
-        <v>0.44198895027624935</v>
+        <v>0.6629834254143584</v>
       </c>
       <c r="AD309" s="9">
-        <v>0.11695906432747873</v>
+        <v>5.8479532163739363E-2</v>
       </c>
       <c r="AE309" s="9">
-        <v>1.1665586519766578</v>
+        <v>1.6850291639662955</v>
       </c>
       <c r="AF309" s="9">
-        <v>-2.3076923076923017</v>
+        <v>-2.417582417582421</v>
       </c>
       <c r="AG309" s="9">
         <v>0.57077625570776247</v>
@@ -50822,68 +50816,384 @@
         <v>0</v>
       </c>
       <c r="AI309" s="9">
-        <v>0.230045311955382</v>
+        <v>0.2718717323109161</v>
       </c>
       <c r="AJ309" s="9">
-        <v>9.7249235898867123E-2</v>
+        <v>0.12503473186997655</v>
       </c>
       <c r="AK309" s="9">
-        <v>2.8500619578686459</v>
+        <v>2.6022304832713683</v>
       </c>
       <c r="AL309" s="9">
-        <v>0.19523623584537292</v>
+        <v>0.20825198490173405</v>
       </c>
       <c r="AM309" s="9">
-        <v>0.45623039635016338</v>
+        <v>0.51325919589392965</v>
       </c>
       <c r="AN309" s="9">
-        <v>2.9087261785356024</v>
+        <v>2.7415580073553958</v>
       </c>
       <c r="AO309" s="9">
-        <v>-0.38319613965371063</v>
+        <v>-0.24127164348567207</v>
       </c>
       <c r="AP309" s="9">
-        <v>-0.49586776859503656</v>
+        <v>-0.66115702479338612</v>
       </c>
       <c r="AQ309" s="9">
         <v>0.89062065126634815</v>
       </c>
       <c r="AR309" s="9">
-        <v>0</v>
+        <v>0.25706940874036355</v>
       </c>
       <c r="AS309" s="9">
-        <v>0.11809163911195086</v>
+        <v>0.14170996693434643</v>
       </c>
       <c r="AT309" s="9">
-        <v>1.9198438093172006</v>
+        <v>2.006616410868268</v>
       </c>
       <c r="AU309" s="9">
-        <v>2.060085836909876</v>
+        <v>2.1030042918454961</v>
       </c>
       <c r="AV309" s="9">
-        <v>0.89605734767025103</v>
+        <v>0.71684587813621092</v>
       </c>
       <c r="AW309" s="9">
-        <v>-5.6235062561503901E-2</v>
+        <v>0.22494025024603162</v>
       </c>
       <c r="AX309" s="9">
-        <v>2.1268990169794422</v>
+        <v>1.9124218051832076</v>
       </c>
       <c r="AY309" s="9">
-        <v>0.59055118110236593</v>
+        <v>0.65616797900262469</v>
       </c>
       <c r="AZ309" s="9">
-        <v>0.58465286236296643</v>
+        <v>1.1205846528623684</v>
       </c>
       <c r="BA309" s="9">
         <v>1.2658227848101347</v>
       </c>
     </row>
     <row r="310" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A310" s="7"/>
+      <c r="A310" s="7">
+        <v>42491</v>
+      </c>
+      <c r="B310" s="9">
+        <v>0.49572494087684188</v>
+      </c>
+      <c r="C310" s="9">
+        <v>-0.95288512440445272</v>
+      </c>
+      <c r="D310" s="9">
+        <v>0.60386473429951693</v>
+      </c>
+      <c r="E310" s="9">
+        <v>4.948045522018521E-2</v>
+      </c>
+      <c r="F310" s="9">
+        <v>0.28261893546867373</v>
+      </c>
+      <c r="G310" s="9">
+        <v>2.6889862071788078</v>
+      </c>
+      <c r="H310" s="9">
+        <v>2.38209817131857</v>
+      </c>
+      <c r="I310" s="9">
+        <v>-0.33388981636059389</v>
+      </c>
+      <c r="J310" s="9">
+        <v>-0.91743119266056339</v>
+      </c>
+      <c r="K310" s="9">
+        <v>1.9739605207895912</v>
+      </c>
+      <c r="L310" s="9">
+        <v>1.3713862120088911</v>
+      </c>
+      <c r="M310" s="9">
+        <v>1.091928581968419</v>
+      </c>
+      <c r="N310" s="9">
+        <v>0.15898251192369067</v>
+      </c>
+      <c r="O310" s="9">
+        <v>1.675041876046901</v>
+      </c>
+      <c r="P310" s="9">
+        <v>-9.6606690013291655E-2</v>
+      </c>
+      <c r="Q310" s="9">
+        <v>0.56311590802440969</v>
+      </c>
+      <c r="R310" s="9">
+        <v>0.86410054988217477</v>
+      </c>
+      <c r="S310" s="9">
+        <v>-0.46674445740957482</v>
+      </c>
+      <c r="T310" s="9">
+        <v>-1.1915961116337268</v>
+      </c>
+      <c r="U310" s="9">
+        <v>-1.0384850335980382</v>
+      </c>
+      <c r="V310" s="9">
+        <v>-0.80808080808080518</v>
+      </c>
+      <c r="W310" s="9">
+        <v>0.15891934843067371</v>
+      </c>
+      <c r="X310" s="9">
+        <v>1.155555555555553</v>
+      </c>
+      <c r="Y310" s="9">
+        <v>-0.13468013468012704</v>
+      </c>
+      <c r="Z310" s="9">
+        <v>-9.4944220270599122E-2</v>
+      </c>
+      <c r="AA310" s="9">
+        <v>0.98522167487684975</v>
+      </c>
+      <c r="AB310" s="9">
+        <v>-1.2666973744818055</v>
+      </c>
+      <c r="AC310" s="9">
+        <v>0.22148394241417813</v>
+      </c>
+      <c r="AD310" s="9">
+        <v>0.6451612903225773</v>
+      </c>
+      <c r="AE310" s="9">
+        <v>1.2297734627831751</v>
+      </c>
+      <c r="AF310" s="9">
+        <v>-2.8665931642778482</v>
+      </c>
+      <c r="AG310" s="9">
+        <v>0.32446463335496434</v>
+      </c>
+      <c r="AH310" s="9">
+        <v>0.73723012111638009</v>
+      </c>
+      <c r="AI310" s="9">
+        <v>0.4594820384294005</v>
+      </c>
+      <c r="AJ310" s="9">
+        <v>0.33310201249132232</v>
+      </c>
+      <c r="AK310" s="9">
+        <v>3.5980148883374765</v>
+      </c>
+      <c r="AL310" s="9">
+        <v>5.2076552532219406E-2</v>
+      </c>
+      <c r="AM310" s="9">
+        <v>0.39840637450200173</v>
+      </c>
+      <c r="AN310" s="9">
+        <v>2.7768484442957551</v>
+      </c>
+      <c r="AO310" s="9">
+        <v>2.8388928317962449E-2</v>
+      </c>
+      <c r="AP310" s="9">
+        <v>-0.82644628099173556</v>
+      </c>
+      <c r="AQ310" s="9">
+        <v>1.0005558643690844</v>
+      </c>
+      <c r="AR310" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS310" s="9">
+        <v>-0.30842230130486631</v>
+      </c>
+      <c r="AT310" s="9">
+        <v>1.960360749581463</v>
+      </c>
+      <c r="AU310" s="9">
+        <v>2.1422450728363325</v>
+      </c>
+      <c r="AV310" s="9">
+        <v>1.7953321364452424</v>
+      </c>
+      <c r="AW310" s="9">
+        <v>0.23862998315553699</v>
+      </c>
+      <c r="AX310" s="9">
+        <v>2.408563782337199</v>
+      </c>
+      <c r="AY310" s="9">
+        <v>6.9645203679369407</v>
+      </c>
+      <c r="AZ310" s="9">
+        <v>0.953312148618914</v>
+      </c>
+      <c r="BA310" s="9">
+        <v>1.1235955056179736</v>
+      </c>
     </row>
     <row r="311" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A311" s="7"/>
+      <c r="A311" s="7">
+        <v>42522</v>
+      </c>
+      <c r="B311" s="9">
+        <v>0.58663028649386084</v>
+      </c>
+      <c r="C311" s="9">
+        <v>-0.42305658381807665</v>
+      </c>
+      <c r="D311" s="9">
+        <v>1.8315018315018312</v>
+      </c>
+      <c r="E311" s="9">
+        <v>-1.5697817022320277</v>
+      </c>
+      <c r="F311" s="9">
+        <v>0.32910202162671232</v>
+      </c>
+      <c r="G311" s="9">
+        <v>2.5286045848772307</v>
+      </c>
+      <c r="H311" s="9">
+        <v>2.0633397312859802</v>
+      </c>
+      <c r="I311" s="9">
+        <v>0.62709030100334451</v>
+      </c>
+      <c r="J311" s="9">
+        <v>-0.45731707317072745</v>
+      </c>
+      <c r="K311" s="9">
+        <v>2.4390243902438953</v>
+      </c>
+      <c r="L311" s="9">
+        <v>1.6302334197851185</v>
+      </c>
+      <c r="M311" s="9">
+        <v>1.0154525386313431</v>
+      </c>
+      <c r="N311" s="9">
+        <v>-7.9239302694143046E-2</v>
+      </c>
+      <c r="O311" s="9">
+        <v>2.0134228187919394</v>
+      </c>
+      <c r="P311" s="9">
+        <v>-0.16891891891891617</v>
+      </c>
+      <c r="Q311" s="9">
+        <v>0.82217524077989201</v>
+      </c>
+      <c r="R311" s="9">
+        <v>1.5013828526274133</v>
+      </c>
+      <c r="S311" s="9">
+        <v>0.31104199066874472</v>
+      </c>
+      <c r="T311" s="9">
+        <v>-0.97361809045225056</v>
+      </c>
+      <c r="U311" s="9">
+        <v>-0.76312576312576308</v>
+      </c>
+      <c r="V311" s="9">
+        <v>-2.0040080160320639</v>
+      </c>
+      <c r="W311" s="9">
+        <v>-0.19868865487780649</v>
+      </c>
+      <c r="X311" s="9">
+        <v>0.39761431411531073</v>
+      </c>
+      <c r="Y311" s="9">
+        <v>0.40506329113923661</v>
+      </c>
+      <c r="Z311" s="9">
+        <v>0.14224751066855523</v>
+      </c>
+      <c r="AA311" s="9">
+        <v>0.12320328542094923</v>
+      </c>
+      <c r="AB311" s="9">
+        <v>-1.0782289515943999</v>
+      </c>
+      <c r="AC311" s="9">
+        <v>-0.11086474501109593</v>
+      </c>
+      <c r="AD311" s="9">
+        <v>1.2903225806451546</v>
+      </c>
+      <c r="AE311" s="9">
+        <v>1.8745959922430548</v>
+      </c>
+      <c r="AF311" s="9">
+        <v>-2.101769911504431</v>
+      </c>
+      <c r="AG311" s="9">
+        <v>-1.6217969510221007E-2</v>
+      </c>
+      <c r="AH311" s="9">
+        <v>0.63424947145878285</v>
+      </c>
+      <c r="AI311" s="9">
+        <v>0.44478421016052977</v>
+      </c>
+      <c r="AJ311" s="9">
+        <v>1.357152748926735</v>
+      </c>
+      <c r="AK311" s="9">
+        <v>2.2249690976514178</v>
+      </c>
+      <c r="AL311" s="9">
+        <v>1.2887268940380079</v>
+      </c>
+      <c r="AM311" s="9">
+        <v>0.65508402164624158</v>
+      </c>
+      <c r="AN311" s="9">
+        <v>2.563249001331573</v>
+      </c>
+      <c r="AO311" s="9">
+        <v>0.5982053838484449</v>
+      </c>
+      <c r="AP311" s="9">
+        <v>-0.66225165562913668</v>
+      </c>
+      <c r="AQ311" s="9">
+        <v>1.6949152542372947</v>
+      </c>
+      <c r="AR311" s="9">
+        <v>1.7902813299232627</v>
+      </c>
+      <c r="AS311" s="9">
+        <v>-0.14197823000473797</v>
+      </c>
+      <c r="AT311" s="9">
+        <v>2.6023913866796589</v>
+      </c>
+      <c r="AU311" s="9">
+        <v>1.6723842195540333</v>
+      </c>
+      <c r="AV311" s="9">
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="AW311" s="9">
+        <v>-0.26689141733389199</v>
+      </c>
+      <c r="AX311" s="9">
+        <v>1.9408831908831869</v>
+      </c>
+      <c r="AY311" s="9">
+        <v>0.92409240924092795</v>
+      </c>
+      <c r="AZ311" s="9">
+        <v>-0.51282051282051833</v>
+      </c>
+      <c r="BA311" s="9">
+        <v>0.56100981767181723</v>
+      </c>
     </row>
     <row r="312" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A312" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Government Employment; Year/Year: January 1990 -- June 2016</t>
   </si>
   <si>
-    <t>Invalid data manipulation</t>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -1646,8 +1646,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D311" sqref="D311"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1778,7 +1778,9 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1934,8 +1936,12 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>33239</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1.7795162800947606</v>
+      </c>
       <c r="C6" s="8">
         <v>2.5744416873449172</v>
       </c>
@@ -2252,8 +2258,8 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>54</v>
+      <c r="A8" s="7">
+        <v>33298</v>
       </c>
       <c r="B8" s="8">
         <v>1.0604569804307424</v>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -175,10 +175,10 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- June 2016</t>
+    <t>United States</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>Government Employment; Year/Year: January 1990 -- July 2016</t>
   </si>
 </sst>
 </file>
@@ -1646,8 +1646,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="5" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1709,7 +1709,7 @@
   <sheetData>
     <row r="1" spans="1:53" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -50884,7 +50884,7 @@
         <v>42491</v>
       </c>
       <c r="B310" s="9">
-        <v>0.49572494087684188</v>
+        <v>0.53210842277605974</v>
       </c>
       <c r="C310" s="9">
         <v>-0.95288512440445272</v>
@@ -51045,164 +51045,322 @@
         <v>42522</v>
       </c>
       <c r="B311" s="9">
-        <v>0.58663028649386084</v>
+        <v>0.67303319690768537</v>
       </c>
       <c r="C311" s="9">
-        <v>-0.42305658381807665</v>
+        <v>-0.76679005817027424</v>
       </c>
       <c r="D311" s="9">
-        <v>1.8315018315018312</v>
+        <v>1.4652014652014511</v>
       </c>
       <c r="E311" s="9">
-        <v>-1.5697817022320277</v>
+        <v>-1.815060093205783</v>
       </c>
       <c r="F311" s="9">
         <v>0.32910202162671232</v>
       </c>
       <c r="G311" s="9">
-        <v>2.5286045848772307</v>
+        <v>2.1824992874302662</v>
       </c>
       <c r="H311" s="9">
-        <v>2.0633397312859802</v>
+        <v>2.1353166986564243</v>
       </c>
       <c r="I311" s="9">
-        <v>0.62709030100334451</v>
+        <v>0.58528428093645724</v>
       </c>
       <c r="J311" s="9">
-        <v>-0.45731707317072745</v>
+        <v>-1.9817073170731665</v>
       </c>
       <c r="K311" s="9">
-        <v>2.4390243902438953</v>
+        <v>2.3549201009251446</v>
       </c>
       <c r="L311" s="9">
-        <v>1.6302334197851185</v>
+        <v>1.6209707298999632</v>
       </c>
       <c r="M311" s="9">
-        <v>1.0154525386313431</v>
+        <v>1.0596026490066293</v>
       </c>
       <c r="N311" s="9">
-        <v>-7.9239302694143046E-2</v>
+        <v>0.31695721077653843</v>
       </c>
       <c r="O311" s="9">
-        <v>2.0134228187919394</v>
+        <v>1.8456375838926196</v>
       </c>
       <c r="P311" s="9">
-        <v>-0.16891891891891617</v>
+        <v>-0.18098455598455598</v>
       </c>
       <c r="Q311" s="9">
-        <v>0.82217524077989201</v>
+        <v>-2.1141649048625792</v>
       </c>
       <c r="R311" s="9">
-        <v>1.5013828526274133</v>
+        <v>1.6594231529039973</v>
       </c>
       <c r="S311" s="9">
-        <v>0.31104199066874472</v>
+        <v>-0.42768273716950467</v>
       </c>
       <c r="T311" s="9">
         <v>-0.97361809045225056</v>
       </c>
       <c r="U311" s="9">
-        <v>-0.76312576312576308</v>
+        <v>-0.7936507936508006</v>
       </c>
       <c r="V311" s="9">
-        <v>-2.0040080160320639</v>
+        <v>-2.1042084168336617</v>
       </c>
       <c r="W311" s="9">
-        <v>-0.19868865487780649</v>
+        <v>1.9868865487773873E-2</v>
       </c>
       <c r="X311" s="9">
-        <v>0.39761431411531073</v>
+        <v>0.41970399823283283</v>
       </c>
       <c r="Y311" s="9">
-        <v>0.40506329113923661</v>
+        <v>0.32067510548522821</v>
       </c>
       <c r="Z311" s="9">
-        <v>0.14224751066855523</v>
+        <v>-0.18966334755808709</v>
       </c>
       <c r="AA311" s="9">
-        <v>0.12320328542094923</v>
+        <v>1.3141683778234039</v>
       </c>
       <c r="AB311" s="9">
-        <v>-1.0782289515943999</v>
+        <v>0.22941041523285155</v>
       </c>
       <c r="AC311" s="9">
-        <v>-0.11086474501109593</v>
+        <v>-0.33259423503325625</v>
       </c>
       <c r="AD311" s="9">
-        <v>1.2903225806451546</v>
+        <v>1.1730205278592376</v>
       </c>
       <c r="AE311" s="9">
-        <v>1.8745959922430548</v>
+        <v>-0.64641241111829351</v>
       </c>
       <c r="AF311" s="9">
-        <v>-2.101769911504431</v>
+        <v>-2.2123893805309733</v>
       </c>
       <c r="AG311" s="9">
-        <v>-1.6217969510221007E-2</v>
+        <v>-0.29192345118392282</v>
       </c>
       <c r="AH311" s="9">
         <v>0.63424947145878285</v>
       </c>
       <c r="AI311" s="9">
-        <v>0.44478421016052977</v>
+        <v>0.41698519702550557</v>
       </c>
       <c r="AJ311" s="9">
-        <v>1.357152748926735</v>
+        <v>1.3433042514887039</v>
       </c>
       <c r="AK311" s="9">
         <v>2.2249690976514178</v>
       </c>
       <c r="AL311" s="9">
-        <v>1.2887268940380079</v>
+        <v>1.1845873470450285</v>
       </c>
       <c r="AM311" s="9">
-        <v>0.65508402164624158</v>
+        <v>0.6266021076616316</v>
       </c>
       <c r="AN311" s="9">
-        <v>2.563249001331573</v>
+        <v>2.0639147802929578</v>
       </c>
       <c r="AO311" s="9">
-        <v>0.5982053838484449</v>
+        <v>0.17091582395669161</v>
       </c>
       <c r="AP311" s="9">
-        <v>-0.66225165562913668</v>
+        <v>-0.49668874172184962</v>
       </c>
       <c r="AQ311" s="9">
-        <v>1.6949152542372947</v>
+        <v>1.667129758266185</v>
       </c>
       <c r="AR311" s="9">
-        <v>1.7902813299232627</v>
+        <v>1.9181585677749362</v>
       </c>
       <c r="AS311" s="9">
-        <v>-0.14197823000473797</v>
+        <v>-0.236630383341221</v>
       </c>
       <c r="AT311" s="9">
-        <v>2.6023913866796589</v>
+        <v>2.607801763782938</v>
       </c>
       <c r="AU311" s="9">
         <v>1.6723842195540333</v>
       </c>
       <c r="AV311" s="9">
-        <v>1.7857142857142856</v>
+        <v>1.6071428571428545</v>
       </c>
       <c r="AW311" s="9">
-        <v>-0.26689141733389199</v>
+        <v>-0.21070375052675938</v>
       </c>
       <c r="AX311" s="9">
-        <v>1.9408831908831869</v>
+        <v>1.7628205128205086</v>
       </c>
       <c r="AY311" s="9">
         <v>0.92409240924092795</v>
       </c>
       <c r="AZ311" s="9">
-        <v>-0.51282051282051833</v>
+        <v>-0.78144078144077866</v>
       </c>
       <c r="BA311" s="9">
-        <v>0.56100981767181723</v>
+        <v>0.84151472650772585</v>
       </c>
     </row>
     <row r="312" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A312" s="7"/>
+      <c r="A312" s="7">
+        <v>42552</v>
+      </c>
+      <c r="B312" s="9">
+        <v>0.69930069930069927</v>
+      </c>
+      <c r="C312" s="9">
+        <v>-1.0815088367185497</v>
+      </c>
+      <c r="D312" s="9">
+        <v>1.5853658536585331</v>
+      </c>
+      <c r="E312" s="9">
+        <v>-0.61530888506030024</v>
+      </c>
+      <c r="F312" s="9">
+        <v>0.18761726078799515</v>
+      </c>
+      <c r="G312" s="9">
+        <v>1.8111675126903517</v>
+      </c>
+      <c r="H312" s="9">
+        <v>2.7817745803357368</v>
+      </c>
+      <c r="I312" s="9">
+        <v>4.1806020066899138E-2</v>
+      </c>
+      <c r="J312" s="9">
+        <v>-2.130898021308989</v>
+      </c>
+      <c r="K312" s="9">
+        <v>1.0901467505241065</v>
+      </c>
+      <c r="L312" s="9">
+        <v>1.6844053678852426</v>
+      </c>
+      <c r="M312" s="9">
+        <v>0.69107484193499957</v>
+      </c>
+      <c r="N312" s="9">
+        <v>-7.936507936507485E-2</v>
+      </c>
+      <c r="O312" s="9">
+        <v>2.1739130434782683</v>
+      </c>
+      <c r="P312" s="9">
+        <v>-6.0291812371879902E-2</v>
+      </c>
+      <c r="Q312" s="9">
+        <v>-0.20944845240865193</v>
+      </c>
+      <c r="R312" s="9">
+        <v>1.6554986204178119</v>
+      </c>
+      <c r="S312" s="9">
+        <v>-0.62329567588624635</v>
+      </c>
+      <c r="T312" s="9">
+        <v>-1.1972274732198975</v>
+      </c>
+      <c r="U312" s="9">
+        <v>-1.0709914320685434</v>
+      </c>
+      <c r="V312" s="9">
+        <v>-1.5888778550149041</v>
+      </c>
+      <c r="W312" s="9">
+        <v>-0.21995600879824487</v>
+      </c>
+      <c r="X312" s="9">
+        <v>0.61946902654867508</v>
+      </c>
+      <c r="Y312" s="9">
+        <v>1.4676113360323964</v>
+      </c>
+      <c r="Z312" s="9">
+        <v>4.7449584816130159E-2</v>
+      </c>
+      <c r="AA312" s="9">
+        <v>1.0594947025264849</v>
+      </c>
+      <c r="AB312" s="9">
+        <v>0.34411562284927738</v>
+      </c>
+      <c r="AC312" s="9">
+        <v>-0.66592674805770735</v>
+      </c>
+      <c r="AD312" s="9">
+        <v>0.99589923843000416</v>
+      </c>
+      <c r="AE312" s="9">
+        <v>-0.7746933505487521</v>
+      </c>
+      <c r="AF312" s="9">
+        <v>-3.1868131868131928</v>
+      </c>
+      <c r="AG312" s="9">
+        <v>-0.27588445309965032</v>
+      </c>
+      <c r="AH312" s="9">
+        <v>2.6315789473684243</v>
+      </c>
+      <c r="AI312" s="9">
+        <v>0.11768778123918626</v>
+      </c>
+      <c r="AJ312" s="9">
+        <v>2.0634261182661651</v>
+      </c>
+      <c r="AK312" s="9">
+        <v>4.7215496368038812</v>
+      </c>
+      <c r="AL312" s="9">
+        <v>1.8627067865051392</v>
+      </c>
+      <c r="AM312" s="9">
+        <v>0.62624537432393634</v>
+      </c>
+      <c r="AN312" s="9">
+        <v>2.2355689022355651</v>
+      </c>
+      <c r="AO312" s="9">
+        <v>0.41304657456202493</v>
+      </c>
+      <c r="AP312" s="9">
+        <v>0.49751243781095239</v>
+      </c>
+      <c r="AQ312" s="9">
+        <v>2.05213533000554</v>
+      </c>
+      <c r="AR312" s="9">
+        <v>0.89743589743590102</v>
+      </c>
+      <c r="AS312" s="9">
+        <v>0.14191106906337889</v>
+      </c>
+      <c r="AT312" s="9">
+        <v>2.1006140256382637</v>
+      </c>
+      <c r="AU312" s="9">
+        <v>1.9999999999999951</v>
+      </c>
+      <c r="AV312" s="9">
+        <v>2.6501766784452299</v>
+      </c>
+      <c r="AW312" s="9">
+        <v>-0.33613445378150941</v>
+      </c>
+      <c r="AX312" s="9">
+        <v>2.1492007104795778</v>
+      </c>
+      <c r="AY312" s="9">
+        <v>0.52875082617315461</v>
+      </c>
+      <c r="AZ312" s="9">
+        <v>0.41595302177636134</v>
+      </c>
+      <c r="BA312" s="9">
+        <v>-0.69832402234636881</v>
+      </c>
     </row>
     <row r="313" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A313" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- July 2016</t>
+    <t>Government Employment; Year/Year: January 1990 -- August 2016</t>
   </si>
 </sst>
 </file>
@@ -1646,8 +1646,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A312" sqref="A312"/>
+      <pane ySplit="5" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B312" sqref="B312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -51206,31 +51206,31 @@
         <v>42552</v>
       </c>
       <c r="B312" s="9">
-        <v>0.69930069930069927</v>
+        <v>0.75379166288257193</v>
       </c>
       <c r="C312" s="9">
-        <v>-1.0815088367185497</v>
+        <v>-0.44843049327355455</v>
       </c>
       <c r="D312" s="9">
         <v>1.5853658536585331</v>
       </c>
       <c r="E312" s="9">
-        <v>-0.61530888506030024</v>
+        <v>-0.6645335958651214</v>
       </c>
       <c r="F312" s="9">
         <v>0.18761726078799515</v>
       </c>
       <c r="G312" s="9">
-        <v>1.8111675126903517</v>
+        <v>1.4335025380710733</v>
       </c>
       <c r="H312" s="9">
-        <v>2.7817745803357368</v>
+        <v>2.7577937649880093</v>
       </c>
       <c r="I312" s="9">
         <v>4.1806020066899138E-2</v>
       </c>
       <c r="J312" s="9">
-        <v>-2.130898021308989</v>
+        <v>-0.76103500761035003</v>
       </c>
       <c r="K312" s="9">
         <v>1.0901467505241065</v>
@@ -51239,7 +51239,7 @@
         <v>1.6844053678852426</v>
       </c>
       <c r="M312" s="9">
-        <v>0.69107484193499957</v>
+        <v>0.41170416115276498</v>
       </c>
       <c r="N312" s="9">
         <v>-7.936507936507485E-2</v>
@@ -51251,13 +51251,13 @@
         <v>-6.0291812371879902E-2</v>
       </c>
       <c r="Q312" s="9">
-        <v>-0.20944845240865193</v>
+        <v>-0.46544100535257155</v>
       </c>
       <c r="R312" s="9">
         <v>1.6554986204178119</v>
       </c>
       <c r="S312" s="9">
-        <v>-0.62329567588624635</v>
+        <v>-0.42851577717179362</v>
       </c>
       <c r="T312" s="9">
         <v>-1.1972274732198975</v>
@@ -51275,13 +51275,13 @@
         <v>0.61946902654867508</v>
       </c>
       <c r="Y312" s="9">
-        <v>1.4676113360323964</v>
+        <v>1.4507422402159285</v>
       </c>
       <c r="Z312" s="9">
-        <v>4.7449584816130159E-2</v>
+        <v>9.4899169632260319E-2</v>
       </c>
       <c r="AA312" s="9">
-        <v>1.0594947025264849</v>
+        <v>1.7522412387937991</v>
       </c>
       <c r="AB312" s="9">
         <v>0.34411562284927738</v>
@@ -51290,52 +51290,52 @@
         <v>-0.66592674805770735</v>
       </c>
       <c r="AD312" s="9">
-        <v>0.99589923843000416</v>
+        <v>0.93731693028706664</v>
       </c>
       <c r="AE312" s="9">
-        <v>-0.7746933505487521</v>
+        <v>2.5823111684958038</v>
       </c>
       <c r="AF312" s="9">
         <v>-3.1868131868131928</v>
       </c>
       <c r="AG312" s="9">
-        <v>-0.27588445309965032</v>
+        <v>-0.25965595585849116</v>
       </c>
       <c r="AH312" s="9">
-        <v>2.6315789473684243</v>
+        <v>2.6852846401718584</v>
       </c>
       <c r="AI312" s="9">
-        <v>0.11768778123918626</v>
+        <v>0.14537902388369048</v>
       </c>
       <c r="AJ312" s="9">
         <v>2.0634261182661651</v>
       </c>
       <c r="AK312" s="9">
-        <v>4.7215496368038812</v>
+        <v>4.6004842615012249</v>
       </c>
       <c r="AL312" s="9">
-        <v>1.8627067865051392</v>
+        <v>1.9148104728409447</v>
       </c>
       <c r="AM312" s="9">
         <v>0.62624537432393634</v>
       </c>
       <c r="AN312" s="9">
-        <v>2.2355689022355651</v>
+        <v>2.969636302969648</v>
       </c>
       <c r="AO312" s="9">
-        <v>0.41304657456202493</v>
+        <v>1.7803731662156388</v>
       </c>
       <c r="AP312" s="9">
-        <v>0.49751243781095239</v>
+        <v>1.3266998341625278</v>
       </c>
       <c r="AQ312" s="9">
-        <v>2.05213533000554</v>
+        <v>2.0244037714919449</v>
       </c>
       <c r="AR312" s="9">
         <v>0.89743589743590102</v>
       </c>
       <c r="AS312" s="9">
-        <v>0.14191106906337889</v>
+        <v>0.33112582781456418</v>
       </c>
       <c r="AT312" s="9">
         <v>2.1006140256382637</v>
@@ -51344,26 +51344,184 @@
         <v>1.9999999999999951</v>
       </c>
       <c r="AV312" s="9">
-        <v>2.6501766784452299</v>
+        <v>2.1201413427561762</v>
       </c>
       <c r="AW312" s="9">
-        <v>-0.33613445378150941</v>
+        <v>0.33613445378150941</v>
       </c>
       <c r="AX312" s="9">
-        <v>2.1492007104795778</v>
+        <v>2.3623445825932423</v>
       </c>
       <c r="AY312" s="9">
         <v>0.52875082617315461</v>
       </c>
       <c r="AZ312" s="9">
-        <v>0.41595302177636134</v>
+        <v>0.78297039393197665</v>
       </c>
       <c r="BA312" s="9">
-        <v>-0.69832402234636881</v>
+        <v>-0.27932960893853165</v>
       </c>
     </row>
     <row r="313" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A313" s="7"/>
+      <c r="A313" s="7">
+        <v>42583</v>
+      </c>
+      <c r="B313" s="9">
+        <v>0.74379790466687834</v>
+      </c>
+      <c r="C313" s="9">
+        <v>-0.55277704659119931</v>
+      </c>
+      <c r="D313" s="9">
+        <v>0.85574572127139703</v>
+      </c>
+      <c r="E313" s="9">
+        <v>-1.0760577158229341</v>
+      </c>
+      <c r="F313" s="9">
+        <v>0.28129395218002545</v>
+      </c>
+      <c r="G313" s="9">
+        <v>1.8222132634549411</v>
+      </c>
+      <c r="H313" s="9">
+        <v>2.6057853215395594</v>
+      </c>
+      <c r="I313" s="9">
+        <v>1.0054461667364918</v>
+      </c>
+      <c r="J313" s="9">
+        <v>-0.15313935681469268</v>
+      </c>
+      <c r="K313" s="9">
+        <v>2.2334597555836422</v>
+      </c>
+      <c r="L313" s="9">
+        <v>1.7096386655577118</v>
+      </c>
+      <c r="M313" s="9">
+        <v>0.20482809070957969</v>
+      </c>
+      <c r="N313" s="9">
+        <v>-2.4748646558391467</v>
+      </c>
+      <c r="O313" s="9">
+        <v>3.2800672834314475</v>
+      </c>
+      <c r="P313" s="9">
+        <v>-0.14464802314368919</v>
+      </c>
+      <c r="Q313" s="9">
+        <v>-1.0700162828564703</v>
+      </c>
+      <c r="R313" s="9">
+        <v>1.8897637795275635</v>
+      </c>
+      <c r="S313" s="9">
+        <v>-1.5984405458089646</v>
+      </c>
+      <c r="T313" s="9">
+        <v>-0.63051702395964693</v>
+      </c>
+      <c r="U313" s="9">
+        <v>-1.0088657902782059</v>
+      </c>
+      <c r="V313" s="9">
+        <v>-1.4940239043824699</v>
+      </c>
+      <c r="W313" s="9">
+        <v>0.41757804732551657</v>
+      </c>
+      <c r="X313" s="9">
+        <v>0.62084257206208682</v>
+      </c>
+      <c r="Y313" s="9">
+        <v>0.2685464921114506</v>
+      </c>
+      <c r="Z313" s="9">
+        <v>-0.18899125915426682</v>
+      </c>
+      <c r="AA313" s="9">
+        <v>1.5963978714694953</v>
+      </c>
+      <c r="AB313" s="9">
+        <v>-0.13758312313690041</v>
+      </c>
+      <c r="AC313" s="9">
+        <v>-0.44345898004435214</v>
+      </c>
+      <c r="AD313" s="9">
+        <v>0.93403385872737543</v>
+      </c>
+      <c r="AE313" s="9">
+        <v>2.2493573264781492</v>
+      </c>
+      <c r="AF313" s="9">
+        <v>-2.094818081587658</v>
+      </c>
+      <c r="AG313" s="9">
+        <v>-0.32420165342843249</v>
+      </c>
+      <c r="AH313" s="9">
+        <v>0.36784025223330979</v>
+      </c>
+      <c r="AI313" s="9">
+        <v>0.34652436066255454</v>
+      </c>
+      <c r="AJ313" s="9">
+        <v>0.63764901580260924</v>
+      </c>
+      <c r="AK313" s="9">
+        <v>5.9829059829059723</v>
+      </c>
+      <c r="AL313" s="9">
+        <v>2.2390002603488584</v>
+      </c>
+      <c r="AM313" s="9">
+        <v>0.48295454545454225</v>
+      </c>
+      <c r="AN313" s="9">
+        <v>2.4958402662229617</v>
+      </c>
+      <c r="AO313" s="9">
+        <v>1.3826185101580233</v>
+      </c>
+      <c r="AP313" s="9">
+        <v>1.6583747927031509</v>
+      </c>
+      <c r="AQ313" s="9">
+        <v>2.4505708716234902</v>
+      </c>
+      <c r="AR313" s="9">
+        <v>2.4484536082474304</v>
+      </c>
+      <c r="AS313" s="9">
+        <v>-0.49633656346018024</v>
+      </c>
+      <c r="AT313" s="9">
+        <v>2.1357865289434068</v>
+      </c>
+      <c r="AU313" s="9">
+        <v>0.64405324173465006</v>
+      </c>
+      <c r="AV313" s="9">
+        <v>1.9677996422182493</v>
+      </c>
+      <c r="AW313" s="9">
+        <v>0.53273517454087604</v>
+      </c>
+      <c r="AX313" s="9">
+        <v>2.2682970051391229</v>
+      </c>
+      <c r="AY313" s="9">
+        <v>0.33112582781456956</v>
+      </c>
+      <c r="AZ313" s="9">
+        <v>1.6650342801175346</v>
+      </c>
+      <c r="BA313" s="9">
+        <v>-0.27972027972028368</v>
+      </c>
     </row>
     <row r="314" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A314" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- August 2016</t>
+    <t>Government Employment; Year/Year: January 1990 -- September 2016</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B312" sqref="B312"/>
+      <selection pane="bottomLeft" activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -51206,7 +51206,7 @@
         <v>42552</v>
       </c>
       <c r="B312" s="9">
-        <v>0.75379166288257193</v>
+        <v>0.6675143038779402</v>
       </c>
       <c r="C312" s="9">
         <v>-0.44843049327355455</v>
@@ -51370,55 +51370,55 @@
         <v>0.74379790466687834</v>
       </c>
       <c r="C313" s="9">
-        <v>-0.55277704659119931</v>
+        <v>-0.3948407475651487</v>
       </c>
       <c r="D313" s="9">
-        <v>0.85574572127139703</v>
+        <v>0.73349633251834789</v>
       </c>
       <c r="E313" s="9">
-        <v>-1.0760577158229341</v>
+        <v>-0.855955001222793</v>
       </c>
       <c r="F313" s="9">
         <v>0.28129395218002545</v>
       </c>
       <c r="G313" s="9">
-        <v>1.8222132634549411</v>
+        <v>1.588389437613388</v>
       </c>
       <c r="H313" s="9">
-        <v>2.6057853215395594</v>
+        <v>2.8926607697824442</v>
       </c>
       <c r="I313" s="9">
         <v>1.0054461667364918</v>
       </c>
       <c r="J313" s="9">
-        <v>-0.15313935681469268</v>
+        <v>0.15313935681471444</v>
       </c>
       <c r="K313" s="9">
         <v>2.2334597555836422</v>
       </c>
       <c r="L313" s="9">
-        <v>1.7096386655577118</v>
+        <v>1.7003973754736248</v>
       </c>
       <c r="M313" s="9">
-        <v>0.20482809070957969</v>
+        <v>0.29261155815654721</v>
       </c>
       <c r="N313" s="9">
-        <v>-2.4748646558391467</v>
+        <v>-2.3975251353441673</v>
       </c>
       <c r="O313" s="9">
-        <v>3.2800672834314475</v>
+        <v>3.0277544154751843</v>
       </c>
       <c r="P313" s="9">
         <v>-0.14464802314368919</v>
       </c>
       <c r="Q313" s="9">
-        <v>-1.0700162828564703</v>
+        <v>-1.3026285182600528</v>
       </c>
       <c r="R313" s="9">
         <v>1.8897637795275635</v>
       </c>
       <c r="S313" s="9">
-        <v>-1.5984405458089646</v>
+        <v>-0.46783625730993711</v>
       </c>
       <c r="T313" s="9">
         <v>-0.63051702395964693</v>
@@ -51436,34 +51436,34 @@
         <v>0.62084257206208682</v>
       </c>
       <c r="Y313" s="9">
-        <v>0.2685464921114506</v>
+        <v>0.43638804968110484</v>
       </c>
       <c r="Z313" s="9">
         <v>-0.18899125915426682</v>
       </c>
       <c r="AA313" s="9">
-        <v>1.5963978714694953</v>
+        <v>0.65493246009005091</v>
       </c>
       <c r="AB313" s="9">
-        <v>-0.13758312313690041</v>
+        <v>-0.11465260261407932</v>
       </c>
       <c r="AC313" s="9">
         <v>-0.44345898004435214</v>
       </c>
       <c r="AD313" s="9">
-        <v>0.93403385872737543</v>
+        <v>-0.46701692936369604</v>
       </c>
       <c r="AE313" s="9">
-        <v>2.2493573264781492</v>
+        <v>1.9280205655526992</v>
       </c>
       <c r="AF313" s="9">
-        <v>-2.094818081587658</v>
+        <v>-1.984564498346193</v>
       </c>
       <c r="AG313" s="9">
         <v>-0.32420165342843249</v>
       </c>
       <c r="AH313" s="9">
-        <v>0.36784025223330979</v>
+        <v>0.21019442984759706</v>
       </c>
       <c r="AI313" s="9">
         <v>0.34652436066255454</v>
@@ -51472,19 +51472,19 @@
         <v>0.63764901580260924</v>
       </c>
       <c r="AK313" s="9">
-        <v>5.9829059829059723</v>
+        <v>5.8608058608058569</v>
       </c>
       <c r="AL313" s="9">
-        <v>2.2390002603488584</v>
+        <v>2.1478781567300183</v>
       </c>
       <c r="AM313" s="9">
         <v>0.48295454545454225</v>
       </c>
       <c r="AN313" s="9">
-        <v>2.4958402662229617</v>
+        <v>2.5623960066555704</v>
       </c>
       <c r="AO313" s="9">
-        <v>1.3826185101580233</v>
+        <v>0.90293453724606265</v>
       </c>
       <c r="AP313" s="9">
         <v>1.6583747927031509</v>
@@ -51493,38 +51493,196 @@
         <v>2.4505708716234902</v>
       </c>
       <c r="AR313" s="9">
-        <v>2.4484536082474304</v>
+        <v>1.6752577319587778</v>
       </c>
       <c r="AS313" s="9">
         <v>-0.49633656346018024</v>
       </c>
       <c r="AT313" s="9">
-        <v>2.1357865289434068</v>
+        <v>2.1949644932214305</v>
       </c>
       <c r="AU313" s="9">
         <v>0.64405324173465006</v>
       </c>
       <c r="AV313" s="9">
-        <v>1.9677996422182493</v>
+        <v>1.610017889087654</v>
       </c>
       <c r="AW313" s="9">
         <v>0.53273517454087604</v>
       </c>
       <c r="AX313" s="9">
-        <v>2.2682970051391229</v>
+        <v>1.7898281056175833</v>
       </c>
       <c r="AY313" s="9">
         <v>0.33112582781456956</v>
       </c>
       <c r="AZ313" s="9">
-        <v>1.6650342801175346</v>
+        <v>1.542605288932422</v>
       </c>
       <c r="BA313" s="9">
-        <v>-0.27972027972028368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A314" s="7"/>
+      <c r="A314" s="7">
+        <v>42614</v>
+      </c>
+      <c r="B314" s="9">
+        <v>0.81684516246142669</v>
+      </c>
+      <c r="C314" s="9">
+        <v>-0.68619688572181736</v>
+      </c>
+      <c r="D314" s="9">
+        <v>0.12210012210011516</v>
+      </c>
+      <c r="E314" s="9">
+        <v>-0.5371093750000111</v>
+      </c>
+      <c r="F314" s="9">
+        <v>0.23441162681669009</v>
+      </c>
+      <c r="G314" s="9">
+        <v>2.2786142140197394</v>
+      </c>
+      <c r="H314" s="9">
+        <v>2.321685016754425</v>
+      </c>
+      <c r="I314" s="9">
+        <v>-0.16736401673640405</v>
+      </c>
+      <c r="J314" s="9">
+        <v>0.76452599388379194</v>
+      </c>
+      <c r="K314" s="9">
+        <v>1.8417748011720407</v>
+      </c>
+      <c r="L314" s="9">
+        <v>2.2094850697975281</v>
+      </c>
+      <c r="M314" s="9">
+        <v>1.6376512245500181</v>
+      </c>
+      <c r="N314" s="9">
+        <v>1.5055467511885827</v>
+      </c>
+      <c r="O314" s="9">
+        <v>3.015075376884417</v>
+      </c>
+      <c r="P314" s="9">
+        <v>-4.8198578141942075E-2</v>
+      </c>
+      <c r="Q314" s="9">
+        <v>0.6546644844517211</v>
+      </c>
+      <c r="R314" s="9">
+        <v>1.5748031496062991</v>
+      </c>
+      <c r="S314" s="9">
+        <v>0.15600624024962331</v>
+      </c>
+      <c r="T314" s="9">
+        <v>-0.66058508965082297</v>
+      </c>
+      <c r="U314" s="9">
+        <v>-0.79535026001834386</v>
+      </c>
+      <c r="V314" s="9">
+        <v>1.2048192771084365</v>
+      </c>
+      <c r="W314" s="9">
+        <v>1.2711022840119122</v>
+      </c>
+      <c r="X314" s="9">
+        <v>1.2672298799466404</v>
+      </c>
+      <c r="Y314" s="9">
+        <v>1.3367174280879826</v>
+      </c>
+      <c r="Z314" s="9">
+        <v>0.49763033175355992</v>
+      </c>
+      <c r="AA314" s="9">
+        <v>1.8480492813141685</v>
+      </c>
+      <c r="AB314" s="9">
+        <v>1.5281315119240617</v>
+      </c>
+      <c r="AC314" s="9">
+        <v>-0.3311258278145664</v>
+      </c>
+      <c r="AD314" s="9">
+        <v>1.6383850204798027</v>
+      </c>
+      <c r="AE314" s="9">
+        <v>2.5064267352185126</v>
+      </c>
+      <c r="AF314" s="9">
+        <v>-0.77951002227171806</v>
+      </c>
+      <c r="AG314" s="9">
+        <v>-0.13006015282069067</v>
+      </c>
+      <c r="AH314" s="9">
+        <v>-1.1554621848739586</v>
+      </c>
+      <c r="AI314" s="9">
+        <v>0.60324504229649456</v>
+      </c>
+      <c r="AJ314" s="9">
+        <v>0.94352712640487779</v>
+      </c>
+      <c r="AK314" s="9">
+        <v>3.3457249070632002</v>
+      </c>
+      <c r="AL314" s="9">
+        <v>1.8364157332638738</v>
+      </c>
+      <c r="AM314" s="9">
+        <v>-8.5178875638844798E-2</v>
+      </c>
+      <c r="AN314" s="9">
+        <v>3.3167495854063018</v>
+      </c>
+      <c r="AO314" s="9">
+        <v>0.51049347702778058</v>
+      </c>
+      <c r="AP314" s="9">
+        <v>0.49751243781095239</v>
+      </c>
+      <c r="AQ314" s="9">
+        <v>0.88422216081791816</v>
+      </c>
+      <c r="AR314" s="9">
+        <v>3.0888030888030777</v>
+      </c>
+      <c r="AS314" s="9">
+        <v>1.036269430051808</v>
+      </c>
+      <c r="AT314" s="9">
+        <v>2.3736641426346625</v>
+      </c>
+      <c r="AU314" s="9">
+        <v>1.5805211448099175</v>
+      </c>
+      <c r="AV314" s="9">
+        <v>2.1543985637342828</v>
+      </c>
+      <c r="AW314" s="9">
+        <v>0.59005338578252964</v>
+      </c>
+      <c r="AX314" s="9">
+        <v>2.3826332509707022</v>
+      </c>
+      <c r="AY314" s="9">
+        <v>0.59327620303230444</v>
+      </c>
+      <c r="AZ314" s="9">
+        <v>1.1024007839294465</v>
+      </c>
+      <c r="BA314" s="9">
+        <v>-0.41841004184100022</v>
+      </c>
     </row>
     <row r="315" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A315" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -1646,8 +1646,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B298" sqref="B298"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- September 2016</t>
+    <t>Government Employment; Year/Year: January 1990 -- October 2016</t>
   </si>
 </sst>
 </file>
@@ -1646,8 +1646,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="5" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -51531,25 +51531,25 @@
         <v>0.81684516246142669</v>
       </c>
       <c r="C314" s="9">
-        <v>-0.68619688572181736</v>
+        <v>2.639218791238394E-2</v>
       </c>
       <c r="D314" s="9">
         <v>0.12210012210011516</v>
       </c>
       <c r="E314" s="9">
-        <v>-0.5371093750000111</v>
+        <v>-0.75683593750000555</v>
       </c>
       <c r="F314" s="9">
         <v>0.23441162681669009</v>
       </c>
       <c r="G314" s="9">
-        <v>2.2786142140197394</v>
+        <v>2.5376396308887732</v>
       </c>
       <c r="H314" s="9">
-        <v>2.321685016754425</v>
+        <v>2.2020105313547123</v>
       </c>
       <c r="I314" s="9">
-        <v>-0.16736401673640405</v>
+        <v>-0.125523012552306</v>
       </c>
       <c r="J314" s="9">
         <v>0.76452599388379194</v>
@@ -51561,25 +51561,25 @@
         <v>2.2094850697975281</v>
       </c>
       <c r="M314" s="9">
-        <v>1.6376512245500181</v>
+        <v>1.5786367660076788</v>
       </c>
       <c r="N314" s="9">
         <v>1.5055467511885827</v>
       </c>
       <c r="O314" s="9">
-        <v>3.015075376884417</v>
+        <v>2.4288107202679994</v>
       </c>
       <c r="P314" s="9">
-        <v>-4.8198578141942075E-2</v>
+        <v>0.51813471502591502</v>
       </c>
       <c r="Q314" s="9">
-        <v>0.6546644844517211</v>
+        <v>0.58452186111760573</v>
       </c>
       <c r="R314" s="9">
         <v>1.5748031496062991</v>
       </c>
       <c r="S314" s="9">
-        <v>0.15600624024962331</v>
+        <v>3.9001560062411365E-2</v>
       </c>
       <c r="T314" s="9">
         <v>-0.66058508965082297</v>
@@ -51588,7 +51588,7 @@
         <v>-0.79535026001834386</v>
       </c>
       <c r="V314" s="9">
-        <v>1.2048192771084365</v>
+        <v>1.1044176706827395</v>
       </c>
       <c r="W314" s="9">
         <v>1.2711022840119122</v>
@@ -51597,13 +51597,13 @@
         <v>1.2672298799466404</v>
       </c>
       <c r="Y314" s="9">
-        <v>1.3367174280879826</v>
+        <v>2.1827411167512651</v>
       </c>
       <c r="Z314" s="9">
         <v>0.49763033175355992</v>
       </c>
       <c r="AA314" s="9">
-        <v>1.8480492813141685</v>
+        <v>0.90349075975358872</v>
       </c>
       <c r="AB314" s="9">
         <v>1.5281315119240617</v>
@@ -51612,19 +51612,19 @@
         <v>-0.3311258278145664</v>
       </c>
       <c r="AD314" s="9">
-        <v>1.6383850204798027</v>
+        <v>1.813926272674075</v>
       </c>
       <c r="AE314" s="9">
-        <v>2.5064267352185126</v>
+        <v>1.4138817480719905</v>
       </c>
       <c r="AF314" s="9">
-        <v>-0.77951002227171806</v>
+        <v>-1.2249443207126887</v>
       </c>
       <c r="AG314" s="9">
-        <v>-0.13006015282069067</v>
+        <v>-6.5030076410336077E-2</v>
       </c>
       <c r="AH314" s="9">
-        <v>-1.1554621848739586</v>
+        <v>-1.0504201680672267</v>
       </c>
       <c r="AI314" s="9">
         <v>0.60324504229649456</v>
@@ -51636,22 +51636,22 @@
         <v>3.3457249070632002</v>
       </c>
       <c r="AL314" s="9">
-        <v>1.8364157332638738</v>
+        <v>1.9015368585569188</v>
       </c>
       <c r="AM314" s="9">
         <v>-8.5178875638844798E-2</v>
       </c>
       <c r="AN314" s="9">
-        <v>3.3167495854063018</v>
+        <v>3.4162520729684944</v>
       </c>
       <c r="AO314" s="9">
-        <v>0.51049347702778058</v>
+        <v>0.79410096426544374</v>
       </c>
       <c r="AP314" s="9">
         <v>0.49751243781095239</v>
       </c>
       <c r="AQ314" s="9">
-        <v>0.88422216081791816</v>
+        <v>0.71843050566455458</v>
       </c>
       <c r="AR314" s="9">
         <v>3.0888030888030777</v>
@@ -51666,26 +51666,184 @@
         <v>1.5805211448099175</v>
       </c>
       <c r="AV314" s="9">
-        <v>2.1543985637342828</v>
+        <v>2.33393177737881</v>
       </c>
       <c r="AW314" s="9">
         <v>0.59005338578252964</v>
       </c>
       <c r="AX314" s="9">
-        <v>2.3826332509707022</v>
+        <v>2.9827038475114676</v>
       </c>
       <c r="AY314" s="9">
-        <v>0.59327620303230444</v>
+        <v>0.65919578114700073</v>
       </c>
       <c r="AZ314" s="9">
-        <v>1.1024007839294465</v>
+        <v>2.4497795198437713E-2</v>
       </c>
       <c r="BA314" s="9">
-        <v>-0.41841004184100022</v>
+        <v>-0.83682008368202032</v>
       </c>
     </row>
     <row r="315" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A315" s="7"/>
+      <c r="A315" s="7">
+        <v>42644</v>
+      </c>
+      <c r="B315" s="9">
+        <v>0.88981704272029782</v>
+      </c>
+      <c r="C315" s="9">
+        <v>1.3553016210470277</v>
+      </c>
+      <c r="D315" s="9">
+        <v>3.0674846625766872</v>
+      </c>
+      <c r="E315" s="9">
+        <v>-4.9091801669118466E-2</v>
+      </c>
+      <c r="F315" s="9">
+        <v>9.3852651337408291E-2</v>
+      </c>
+      <c r="G315" s="9">
+        <v>2.2110147266491902</v>
+      </c>
+      <c r="H315" s="9">
+        <v>1.5007146260123896</v>
+      </c>
+      <c r="I315" s="9">
+        <v>-0.75789473684211006</v>
+      </c>
+      <c r="J315" s="9">
+        <v>-0.30349013657056578</v>
+      </c>
+      <c r="K315" s="9">
+        <v>2.1775544388609664</v>
+      </c>
+      <c r="L315" s="9">
+        <v>1.491438040876454</v>
+      </c>
+      <c r="M315" s="9">
+        <v>1.0858400586940538</v>
+      </c>
+      <c r="N315" s="9">
+        <v>0.15723270440251794</v>
+      </c>
+      <c r="O315" s="9">
+        <v>0.16542597187757538</v>
+      </c>
+      <c r="P315" s="9">
+        <v>0.26378896882494551</v>
+      </c>
+      <c r="Q315" s="9">
+        <v>0.77592287796849546</v>
+      </c>
+      <c r="R315" s="9">
+        <v>-0.19554165037152915</v>
+      </c>
+      <c r="S315" s="9">
+        <v>0.15618898867628944</v>
+      </c>
+      <c r="T315" s="9">
+        <v>-0.7893905904641616</v>
+      </c>
+      <c r="U315" s="9">
+        <v>-0.76781326781326775</v>
+      </c>
+      <c r="V315" s="9">
+        <v>0.1008064516128975</v>
+      </c>
+      <c r="W315" s="9">
+        <v>1.0133121398768061</v>
+      </c>
+      <c r="X315" s="9">
+        <v>1.1529933481152967</v>
+      </c>
+      <c r="Y315" s="9">
+        <v>1.0043521928356212</v>
+      </c>
+      <c r="Z315" s="9">
+        <v>0.71208165202943274</v>
+      </c>
+      <c r="AA315" s="9">
+        <v>0.24420024420025349</v>
+      </c>
+      <c r="AB315" s="9">
+        <v>1.1337343822304569</v>
+      </c>
+      <c r="AC315" s="9">
+        <v>-0.11086474501109593</v>
+      </c>
+      <c r="AD315" s="9">
+        <v>0.58309037900874638</v>
+      </c>
+      <c r="AE315" s="9">
+        <v>1.1538461538461613</v>
+      </c>
+      <c r="AF315" s="9">
+        <v>-2.783964365256125</v>
+      </c>
+      <c r="AG315" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH315" s="9">
+        <v>-0.57925223802000747</v>
+      </c>
+      <c r="AI315" s="9">
+        <v>0.2838155890904151</v>
+      </c>
+      <c r="AJ315" s="9">
+        <v>1.0987482614742667</v>
+      </c>
+      <c r="AK315" s="9">
+        <v>0.85889570552147598</v>
+      </c>
+      <c r="AL315" s="9">
+        <v>1.5773693129970048</v>
+      </c>
+      <c r="AM315" s="9">
+        <v>5.6737588652479048E-2</v>
+      </c>
+      <c r="AN315" s="9">
+        <v>3.4733708236850811</v>
+      </c>
+      <c r="AO315" s="9">
+        <v>0.43896913055790265</v>
+      </c>
+      <c r="AP315" s="9">
+        <v>0.16556291390728714</v>
+      </c>
+      <c r="AQ315" s="9">
+        <v>0.19315673289184479</v>
+      </c>
+      <c r="AR315" s="9">
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="AS315" s="9">
+        <v>0.98452883263009572</v>
+      </c>
+      <c r="AT315" s="9">
+        <v>2.4061442612385173</v>
+      </c>
+      <c r="AU315" s="9">
+        <v>0.85070182900893243</v>
+      </c>
+      <c r="AV315" s="9">
+        <v>0.71301247771835752</v>
+      </c>
+      <c r="AW315" s="9">
+        <v>0.22500351567993571</v>
+      </c>
+      <c r="AX315" s="9">
+        <v>3.3753775093267011</v>
+      </c>
+      <c r="AY315" s="9">
+        <v>-0.32786885245901637</v>
+      </c>
+      <c r="AZ315" s="9">
+        <v>0.12130033964095101</v>
+      </c>
+      <c r="BA315" s="9">
+        <v>-0.83682008368202032</v>
+      </c>
     </row>
     <row r="316" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A316" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- October 2016</t>
+    <t>Government Employment; Year/Year: January 1990 -- December 2016</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B315" sqref="B315"/>
+      <selection pane="bottomLeft" activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42512,7 +42512,7 @@
         <v>40909</v>
       </c>
       <c r="B258" s="8">
-        <v>-1.4062359601042322</v>
+        <v>-1.4017431934585318</v>
       </c>
       <c r="C258" s="8">
         <v>-1.5316718587746567</v>
@@ -42673,7 +42673,7 @@
         <v>40940</v>
       </c>
       <c r="B259" s="8">
-        <v>-1.2334008552779654</v>
+        <v>-1.2063920774251633</v>
       </c>
       <c r="C259" s="8">
         <v>-1.4549233567160214</v>
@@ -42995,7 +42995,7 @@
         <v>41000</v>
       </c>
       <c r="B261" s="8">
-        <v>-1.153984853948792</v>
+        <v>-1.1404615939415794</v>
       </c>
       <c r="C261" s="8">
         <v>-1.4047866805410971</v>
@@ -43156,7 +43156,7 @@
         <v>41030</v>
       </c>
       <c r="B262" s="8">
-        <v>-0.97609471733923814</v>
+        <v>-0.98513263138867557</v>
       </c>
       <c r="C262" s="8">
         <v>-1.3584117032392864</v>
@@ -43317,7 +43317,7 @@
         <v>41061</v>
       </c>
       <c r="B263" s="8">
-        <v>-1.064789749142754</v>
+        <v>-1.0557661072008662</v>
       </c>
       <c r="C263" s="8">
         <v>-1.1780104712041886</v>
@@ -43478,7 +43478,7 @@
         <v>41091</v>
       </c>
       <c r="B264" s="8">
-        <v>-0.62587872465871464</v>
+        <v>-0.6168080185042405</v>
       </c>
       <c r="C264" s="8">
         <v>-1.5432906094690124</v>
@@ -43639,7 +43639,7 @@
         <v>41122</v>
       </c>
       <c r="B265" s="8">
-        <v>-0.40877503747104516</v>
+        <v>-0.45873643093972838</v>
       </c>
       <c r="C265" s="8">
         <v>-1.3899816417519042</v>
@@ -43800,7 +43800,7 @@
         <v>41153</v>
       </c>
       <c r="B266" s="8">
-        <v>-0.25019333121048082</v>
+        <v>-0.26384024018559799</v>
       </c>
       <c r="C266" s="8">
         <v>-1.3347291285003984</v>
@@ -43961,7 +43961,7 @@
         <v>41183</v>
       </c>
       <c r="B267" s="8">
-        <v>-0.46367851622874806</v>
+        <v>-0.43185744158559869</v>
       </c>
       <c r="C267" s="8">
         <v>-0.55263157894737436</v>
@@ -44122,7 +44122,7 @@
         <v>41214</v>
       </c>
       <c r="B268" s="8">
-        <v>-0.4414910563925174</v>
+        <v>-0.40052796868599516</v>
       </c>
       <c r="C268" s="8">
         <v>-0.65754865860073641</v>
@@ -44283,7 +44283,7 @@
         <v>41244</v>
       </c>
       <c r="B269" s="8">
-        <v>-0.31884850141204335</v>
+        <v>-0.30518356563724147</v>
       </c>
       <c r="C269" s="8">
         <v>-0.23815824292140178</v>
@@ -44444,7 +44444,7 @@
         <v>41275</v>
       </c>
       <c r="B270" s="8">
-        <v>-0.33720665299612668</v>
+        <v>-0.33719128770618789</v>
       </c>
       <c r="C270" s="8">
         <v>-0.4481940416556785</v>
@@ -44605,7 +44605,7 @@
         <v>41306</v>
       </c>
       <c r="B271" s="8">
-        <v>-0.25522993482521306</v>
+        <v>-0.25516015856381286</v>
       </c>
       <c r="C271" s="8">
         <v>-0.31637226469812513</v>
@@ -44766,7 +44766,7 @@
         <v>41334</v>
       </c>
       <c r="B272" s="8">
-        <v>-0.3326801257804311</v>
+        <v>-0.33723738777742329</v>
       </c>
       <c r="C272" s="8">
         <v>-0.26315789473684209</v>
@@ -44927,7 +44927,7 @@
         <v>41365</v>
       </c>
       <c r="B273" s="8">
-        <v>-0.26906238599051441</v>
+        <v>-0.2735853358259997</v>
       </c>
       <c r="C273" s="8">
         <v>-7.9155672823222001E-2</v>
@@ -45088,7 +45088,7 @@
         <v>41395</v>
       </c>
       <c r="B274" s="8">
-        <v>-0.23273855702094648</v>
+        <v>-0.25557938934781615</v>
       </c>
       <c r="C274" s="8">
         <v>-7.9449152542375889E-2</v>
@@ -45249,7 +45249,7 @@
         <v>41426</v>
       </c>
       <c r="B275" s="8">
-        <v>-0.42411528639182777</v>
+        <v>-0.41951664386684906</v>
       </c>
       <c r="C275" s="8">
         <v>-0.3443708609271553</v>
@@ -45410,7 +45410,7 @@
         <v>41456</v>
       </c>
       <c r="B276" s="8">
-        <v>-0.44726393135867831</v>
+        <v>-0.45178661068771958</v>
       </c>
       <c r="C276" s="8">
         <v>0.87672688629118267</v>
@@ -45571,7 +45571,7 @@
         <v>41487</v>
       </c>
       <c r="B277" s="8">
-        <v>-0.39677110411821043</v>
+        <v>-0.37871874429640445</v>
       </c>
       <c r="C277" s="8">
         <v>0.71808510638297574</v>
@@ -45732,7 +45732,7 @@
         <v>41518</v>
       </c>
       <c r="B278" s="8">
-        <v>-0.37395111273257936</v>
+        <v>-0.39224629418472057</v>
       </c>
       <c r="C278" s="8">
         <v>5.3050397877981069E-2</v>
@@ -45893,7 +45893,7 @@
         <v>41548</v>
       </c>
       <c r="B279" s="8">
-        <v>-0.29229082937522832</v>
+        <v>-0.30132858512532529</v>
       </c>
       <c r="C279" s="8">
         <v>-0.29108229690393383</v>
@@ -46054,7 +46054,7 @@
         <v>41579</v>
       </c>
       <c r="B280" s="8">
-        <v>-0.14172076437780012</v>
+        <v>-0.17365077914362748</v>
       </c>
       <c r="C280" s="8">
         <v>-0.23828435266083592</v>
@@ -46215,7 +46215,7 @@
         <v>41609</v>
       </c>
       <c r="B281" s="8">
-        <v>-0.30615975141656004</v>
+        <v>-0.31068670900534567</v>
       </c>
       <c r="C281" s="8">
         <v>-0.45092838196286167</v>
@@ -46376,7 +46376,7 @@
         <v>41640</v>
       </c>
       <c r="B282" s="8">
-        <v>-0.29262493713136117</v>
+        <v>-0.30632772494513533</v>
       </c>
       <c r="C282" s="8">
         <v>-7.9449152542375889E-2</v>
@@ -46537,7 +46537,7 @@
         <v>41671</v>
       </c>
       <c r="B283" s="8">
-        <v>-0.31071510166780902</v>
+        <v>-0.3380384632954182</v>
       </c>
       <c r="C283" s="8">
         <v>-0.2380322665961476</v>
@@ -46698,7 +46698,7 @@
         <v>41699</v>
       </c>
       <c r="B284" s="8">
-        <v>-0.19204389574759945</v>
+        <v>-0.18747999451278063</v>
       </c>
       <c r="C284" s="8">
         <v>-0.47493403693931702</v>
@@ -46859,7 +46859,7 @@
         <v>41730</v>
       </c>
       <c r="B285" s="8">
-        <v>-5.9444876308930444E-2</v>
+        <v>-5.9439440354807735E-2</v>
       </c>
       <c r="C285" s="8">
         <v>-0.2112490097702697</v>
@@ -47020,7 +47020,7 @@
         <v>41760</v>
       </c>
       <c r="B286" s="8">
-        <v>-3.6593175372792976E-2</v>
+        <v>-1.3726835964310225E-2</v>
       </c>
       <c r="C286" s="8">
         <v>0.29154518950436409</v>
@@ -47181,7 +47181,7 @@
         <v>41791</v>
       </c>
       <c r="B287" s="8">
-        <v>0.26562857797114725</v>
+        <v>0.27017126110449674</v>
       </c>
       <c r="C287" s="8">
         <v>0.69112174375332869</v>
@@ -47342,7 +47342,7 @@
         <v>41821</v>
       </c>
       <c r="B288" s="8">
-        <v>0.31174070508412416</v>
+        <v>0.27046850646373888</v>
       </c>
       <c r="C288" s="8">
         <v>-0.50039504872266982</v>
@@ -47503,7 +47503,7 @@
         <v>41852</v>
       </c>
       <c r="B289" s="8">
-        <v>0.12820512820512819</v>
+        <v>0.14656712316218568</v>
       </c>
       <c r="C289" s="8">
         <v>7.921837866385302E-2</v>
@@ -47664,7 +47664,7 @@
         <v>41883</v>
       </c>
       <c r="B290" s="8">
-        <v>0.32500228874851234</v>
+        <v>0.31594853244196164</v>
       </c>
       <c r="C290" s="8">
         <v>0.76882290562036959</v>
@@ -47825,7 +47825,7 @@
         <v>41913</v>
       </c>
       <c r="B291" s="8">
-        <v>0.4351410773176988</v>
+        <v>0.38466822365709574</v>
       </c>
       <c r="C291" s="8">
         <v>0.34501061571125563</v>
@@ -47986,7 +47986,7 @@
         <v>41944</v>
       </c>
       <c r="B292" s="8">
-        <v>0.41660944009522499</v>
+        <v>0.39368276493476767</v>
       </c>
       <c r="C292" s="8">
         <v>0.31847133757961482</v>
@@ -48147,7 +48147,7 @@
         <v>41974</v>
       </c>
       <c r="B293" s="8">
-        <v>0.59586560938717514</v>
+        <v>0.58206150602685736</v>
       </c>
       <c r="C293" s="8">
         <v>0.74606981081801527</v>
@@ -48308,7 +48308,7 @@
         <v>42005</v>
       </c>
       <c r="B294" s="8">
-        <v>0.67409547393038938</v>
+        <v>0.67874340747534967</v>
       </c>
       <c r="C294" s="8">
         <v>-2.6504108136767224E-2</v>
@@ -48469,7 +48469,7 @@
         <v>42036</v>
       </c>
       <c r="B295" s="8">
-        <v>0.68753724160058671</v>
+        <v>0.69670440482192786</v>
       </c>
       <c r="C295" s="8">
         <v>-0.13255567338282079</v>
@@ -48630,7 +48630,7 @@
         <v>42064</v>
       </c>
       <c r="B296" s="8">
-        <v>0.60930914421843496</v>
+        <v>0.59556532893531244</v>
       </c>
       <c r="C296" s="8">
         <v>-0.2386002120890714</v>
@@ -48791,7 +48791,7 @@
         <v>42095</v>
       </c>
       <c r="B297" s="8">
-        <v>0.52617130307467064</v>
+        <v>0.58102296641961759</v>
       </c>
       <c r="C297" s="8">
         <v>-0.15877216194759616</v>
@@ -48952,7 +48952,7 @@
         <v>42125</v>
       </c>
       <c r="B298" s="8">
-        <v>0.61316006223117048</v>
+        <v>0.70016474464579903</v>
       </c>
       <c r="C298" s="8">
         <v>-0.15856236786468444</v>
@@ -49113,7 +49113,7 @@
         <v>42156</v>
       </c>
       <c r="B299" s="8">
-        <v>0.4430639930571415</v>
+        <v>0.54345344111065441</v>
       </c>
       <c r="C299" s="8">
         <v>-0.1583949313622024</v>
@@ -49274,7 +49274,7 @@
         <v>42186</v>
       </c>
       <c r="B300" s="8">
-        <v>0.64439468031625613</v>
+        <v>0.72235175787500572</v>
       </c>
       <c r="C300" s="8">
         <v>0.3440974060349421</v>
@@ -49435,7 +49435,7 @@
         <v>42217</v>
       </c>
       <c r="B301" s="8">
-        <v>0.82769343332723611</v>
+        <v>0.95129201920878126</v>
       </c>
       <c r="C301" s="8">
         <v>0.23746701846965099</v>
@@ -49596,7 +49596,7 @@
         <v>42248</v>
       </c>
       <c r="B302" s="8">
-        <v>0.54295752155860744</v>
+        <v>0.6801168522914004</v>
       </c>
       <c r="C302" s="8">
         <v>-0.31570639305447129</v>
@@ -49757,7 +49757,7 @@
         <v>42278</v>
       </c>
       <c r="B303" s="8">
-        <v>0.45605874036575911</v>
+        <v>0.65234250262305549</v>
       </c>
       <c r="C303" s="8">
         <v>-0.47606453319228015</v>
@@ -49918,7 +49918,7 @@
         <v>42309</v>
       </c>
       <c r="B304" s="8">
-        <v>0.42855840248016774</v>
+        <v>0.66116456157949932</v>
       </c>
       <c r="C304" s="8">
         <v>-0.58201058201057898</v>
@@ -50079,7 +50079,7 @@
         <v>42339</v>
       </c>
       <c r="B305" s="9">
-        <v>0.4237481204720463</v>
+        <v>0.69260913150460224</v>
       </c>
       <c r="C305" s="9">
         <v>-0.71409679978842777</v>
@@ -50240,7 +50240,7 @@
         <v>42370</v>
       </c>
       <c r="B306" s="9">
-        <v>0.45094288056846132</v>
+        <v>0.73338495877556598</v>
       </c>
       <c r="C306" s="9">
         <v>-0.47720042417815789</v>
@@ -50401,7 +50401,7 @@
         <v>42401</v>
       </c>
       <c r="B307" s="9">
-        <v>0.44157144808121274</v>
+        <v>0.73285083526787742</v>
       </c>
       <c r="C307" s="9">
         <v>-0.47783382001593083</v>
@@ -50562,7 +50562,7 @@
         <v>42430</v>
       </c>
       <c r="B308" s="9">
-        <v>0.55553025818496427</v>
+        <v>0.94726295655342008</v>
       </c>
       <c r="C308" s="9">
         <v>-0.37204358224821527</v>
@@ -50723,7 +50723,7 @@
         <v>42461</v>
       </c>
       <c r="B309" s="9">
-        <v>0.49610850666788037</v>
+        <v>0.80054582670002272</v>
       </c>
       <c r="C309" s="9">
         <v>-0.4505698383249373</v>
@@ -50884,7 +50884,7 @@
         <v>42491</v>
       </c>
       <c r="B310" s="9">
-        <v>0.53210842277605974</v>
+        <v>0.82708475346512156</v>
       </c>
       <c r="C310" s="9">
         <v>-0.95288512440445272</v>
@@ -51045,7 +51045,7 @@
         <v>42522</v>
       </c>
       <c r="B311" s="9">
-        <v>0.67303319690768537</v>
+        <v>0.90388808139534893</v>
       </c>
       <c r="C311" s="9">
         <v>-0.76679005817027424</v>
@@ -51206,7 +51206,7 @@
         <v>42552</v>
       </c>
       <c r="B312" s="9">
-        <v>0.6675143038779402</v>
+        <v>1.0258272434297127</v>
       </c>
       <c r="C312" s="9">
         <v>-0.44843049327355455</v>
@@ -51367,7 +51367,7 @@
         <v>42583</v>
       </c>
       <c r="B313" s="9">
-        <v>0.74379790466687834</v>
+        <v>0.98310152675214058</v>
       </c>
       <c r="C313" s="9">
         <v>-0.3948407475651487</v>
@@ -51528,7 +51528,7 @@
         <v>42614</v>
       </c>
       <c r="B314" s="9">
-        <v>0.81684516246142669</v>
+        <v>1.1742304030466519</v>
       </c>
       <c r="C314" s="9">
         <v>2.639218791238394E-2</v>
@@ -51689,13 +51689,13 @@
         <v>42644</v>
       </c>
       <c r="B315" s="9">
-        <v>0.88981704272029782</v>
+        <v>1.1058738216098623</v>
       </c>
       <c r="C315" s="9">
-        <v>1.3553016210470277</v>
+        <v>1.0895562051554519</v>
       </c>
       <c r="D315" s="9">
-        <v>3.0674846625766872</v>
+        <v>0.61349693251533743</v>
       </c>
       <c r="E315" s="9">
         <v>-4.9091801669118466E-2</v>
@@ -51704,67 +51704,67 @@
         <v>9.3852651337408291E-2</v>
       </c>
       <c r="G315" s="9">
-        <v>2.2110147266491902</v>
+        <v>2.78797659874924</v>
       </c>
       <c r="H315" s="9">
-        <v>1.5007146260123896</v>
+        <v>1.6912815626488724</v>
       </c>
       <c r="I315" s="9">
         <v>-0.75789473684211006</v>
       </c>
       <c r="J315" s="9">
-        <v>-0.30349013657056578</v>
+        <v>-1.0622154779969692</v>
       </c>
       <c r="K315" s="9">
         <v>2.1775544388609664</v>
       </c>
       <c r="L315" s="9">
-        <v>1.491438040876454</v>
+        <v>1.2888970723623641</v>
       </c>
       <c r="M315" s="9">
-        <v>1.0858400586940538</v>
+        <v>1.3059427732942006</v>
       </c>
       <c r="N315" s="9">
         <v>0.15723270440251794</v>
       </c>
       <c r="O315" s="9">
-        <v>0.16542597187757538</v>
+        <v>0.90984284532671156</v>
       </c>
       <c r="P315" s="9">
-        <v>0.26378896882494551</v>
+        <v>0.10791366906474546</v>
       </c>
       <c r="Q315" s="9">
-        <v>0.77592287796849546</v>
+        <v>0.82294850693628019</v>
       </c>
       <c r="R315" s="9">
         <v>-0.19554165037152915</v>
       </c>
       <c r="S315" s="9">
-        <v>0.15618898867628944</v>
+        <v>0</v>
       </c>
       <c r="T315" s="9">
         <v>-0.7893905904641616</v>
       </c>
       <c r="U315" s="9">
-        <v>-0.76781326781326775</v>
+        <v>-0.79852579852580552</v>
       </c>
       <c r="V315" s="9">
         <v>0.1008064516128975</v>
       </c>
       <c r="W315" s="9">
-        <v>1.0133121398768061</v>
+        <v>0.99344327438903246</v>
       </c>
       <c r="X315" s="9">
-        <v>1.1529933481152967</v>
+        <v>1.1751662971175192</v>
       </c>
       <c r="Y315" s="9">
-        <v>1.0043521928356212</v>
+        <v>1.0713090056913253</v>
       </c>
       <c r="Z315" s="9">
         <v>0.71208165202943274</v>
       </c>
       <c r="AA315" s="9">
-        <v>0.24420024420025349</v>
+        <v>0.40700040700040707</v>
       </c>
       <c r="AB315" s="9">
         <v>1.1337343822304569</v>
@@ -51776,13 +51776,13 @@
         <v>0.58309037900874638</v>
       </c>
       <c r="AE315" s="9">
-        <v>1.1538461538461613</v>
+        <v>1.9230769230769231</v>
       </c>
       <c r="AF315" s="9">
         <v>-2.783964365256125</v>
       </c>
       <c r="AG315" s="9">
-        <v>0</v>
+        <v>-6.5178425941028337E-2</v>
       </c>
       <c r="AH315" s="9">
         <v>-0.57925223802000747</v>
@@ -51797,59 +51797,375 @@
         <v>0.85889570552147598</v>
       </c>
       <c r="AL315" s="9">
-        <v>1.5773693129970048</v>
+        <v>1.5643332029722332</v>
       </c>
       <c r="AM315" s="9">
         <v>5.6737588652479048E-2</v>
       </c>
       <c r="AN315" s="9">
-        <v>3.4733708236850811</v>
+        <v>2.4809791597750581</v>
       </c>
       <c r="AO315" s="9">
-        <v>0.43896913055790265</v>
+        <v>-0.26904559614841278</v>
       </c>
       <c r="AP315" s="9">
         <v>0.16556291390728714</v>
       </c>
       <c r="AQ315" s="9">
-        <v>0.19315673289184479</v>
+        <v>0.16556291390729105</v>
       </c>
       <c r="AR315" s="9">
-        <v>1.9230769230769231</v>
+        <v>1.410256410256403</v>
       </c>
       <c r="AS315" s="9">
-        <v>0.98452883263009572</v>
+        <v>1.0079699953117567</v>
       </c>
       <c r="AT315" s="9">
-        <v>2.4061442612385173</v>
+        <v>1.8905419195445412</v>
       </c>
       <c r="AU315" s="9">
         <v>0.85070182900893243</v>
       </c>
       <c r="AV315" s="9">
-        <v>0.71301247771835752</v>
+        <v>2.317290552584665</v>
       </c>
       <c r="AW315" s="9">
-        <v>0.22500351567993571</v>
+        <v>0.32344255378989656</v>
       </c>
       <c r="AX315" s="9">
-        <v>3.3753775093267011</v>
+        <v>2.984544324036253</v>
       </c>
       <c r="AY315" s="9">
         <v>-0.32786885245901637</v>
       </c>
       <c r="AZ315" s="9">
-        <v>0.12130033964095101</v>
+        <v>7.2780203784573352E-2</v>
       </c>
       <c r="BA315" s="9">
-        <v>-0.83682008368202032</v>
+        <v>-0.69735006973500702</v>
       </c>
     </row>
     <row r="316" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A316" s="7"/>
+      <c r="A316" s="7">
+        <v>42675</v>
+      </c>
+      <c r="B316" s="9">
+        <v>0.98749773509693783</v>
+      </c>
+      <c r="C316" s="9">
+        <v>1.2772751463544469</v>
+      </c>
+      <c r="D316" s="9">
+        <v>0.24509803921568979</v>
+      </c>
+      <c r="E316" s="9">
+        <v>-0.5617977528089777</v>
+      </c>
+      <c r="F316" s="9">
+        <v>9.3764650726670701E-2</v>
+      </c>
+      <c r="G316" s="9">
+        <v>2.507672427717651</v>
+      </c>
+      <c r="H316" s="9">
+        <v>1.6686531585220501</v>
+      </c>
+      <c r="I316" s="9">
+        <v>-0.46276819520403628</v>
+      </c>
+      <c r="J316" s="9">
+        <v>-1.8237082066869346</v>
+      </c>
+      <c r="K316" s="9">
+        <v>2.260359983256595</v>
+      </c>
+      <c r="L316" s="9">
+        <v>1.2158054711246242</v>
+      </c>
+      <c r="M316" s="9">
+        <v>1.4516129032258029</v>
+      </c>
+      <c r="N316" s="9">
+        <v>2.839116719242909</v>
+      </c>
+      <c r="O316" s="9">
+        <v>0.991735537190085</v>
+      </c>
+      <c r="P316" s="9">
+        <v>0.31238736032680797</v>
+      </c>
+      <c r="Q316" s="9">
+        <v>0.77537593984961339</v>
+      </c>
+      <c r="R316" s="9">
+        <v>-0.50840829096596907</v>
+      </c>
+      <c r="S316" s="9">
+        <v>-0.19538882375928096</v>
+      </c>
+      <c r="T316" s="9">
+        <v>-0.85227272727272374</v>
+      </c>
+      <c r="U316" s="9">
+        <v>-0.95004596996629576</v>
+      </c>
+      <c r="V316" s="9">
+        <v>-0.50403225806451613</v>
+      </c>
+      <c r="W316" s="9">
+        <v>1.3701350277998365</v>
+      </c>
+      <c r="X316" s="9">
+        <v>1.749335695305575</v>
+      </c>
+      <c r="Y316" s="9">
+        <v>1.4233087742799733</v>
+      </c>
+      <c r="Z316" s="9">
+        <v>0.47449584816132861</v>
+      </c>
+      <c r="AA316" s="9">
+        <v>0.28466856445709171</v>
+      </c>
+      <c r="AB316" s="9">
+        <v>0.85648148148147896</v>
+      </c>
+      <c r="AC316" s="9">
+        <v>-0.11074197120708119</v>
+      </c>
+      <c r="AD316" s="9">
+        <v>0.34985422740524452</v>
+      </c>
+      <c r="AE316" s="9">
+        <v>1.4039566049776753</v>
+      </c>
+      <c r="AF316" s="9">
+        <v>-1.4541387024608627</v>
+      </c>
+      <c r="AG316" s="9">
+        <v>-0.244140625</v>
+      </c>
+      <c r="AH316" s="9">
+        <v>-0.10526315789473085</v>
+      </c>
+      <c r="AI316" s="9">
+        <v>0.23531040210394236</v>
+      </c>
+      <c r="AJ316" s="9">
+        <v>0.87646076794658712</v>
+      </c>
+      <c r="AK316" s="9">
+        <v>0.60827250608272498</v>
+      </c>
+      <c r="AL316" s="9">
+        <v>1.4826375341396771</v>
+      </c>
+      <c r="AM316" s="9">
+        <v>-5.6705415367164343E-2</v>
+      </c>
+      <c r="AN316" s="9">
+        <v>2.5793650793650835</v>
+      </c>
+      <c r="AO316" s="9">
+        <v>-0.52407932011332092</v>
+      </c>
+      <c r="AP316" s="9">
+        <v>0.83056478405315604</v>
+      </c>
+      <c r="AQ316" s="9">
+        <v>0.77348066298342855</v>
+      </c>
+      <c r="AR316" s="9">
+        <v>2.051282051282044</v>
+      </c>
+      <c r="AS316" s="9">
+        <v>0.53826351509478387</v>
+      </c>
+      <c r="AT316" s="9">
+        <v>2.0770717045942488</v>
+      </c>
+      <c r="AU316" s="9">
+        <v>0.46728971962616578</v>
+      </c>
+      <c r="AV316" s="9">
+        <v>1.779359430604982</v>
+      </c>
+      <c r="AW316" s="9">
+        <v>0.40804840298297129</v>
+      </c>
+      <c r="AX316" s="9">
+        <v>2.5464190981432324</v>
+      </c>
+      <c r="AY316" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="AZ316" s="9">
+        <v>1.6070124178232343</v>
+      </c>
+      <c r="BA316" s="9">
+        <v>-1.3908205841446453</v>
+      </c>
     </row>
     <row r="317" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A317" s="7"/>
+      <c r="A317" s="7">
+        <v>42705</v>
+      </c>
+      <c r="B317" s="9">
+        <v>0.85075572449995474</v>
+      </c>
+      <c r="C317" s="9">
+        <v>1.7314864144912097</v>
+      </c>
+      <c r="D317" s="9">
+        <v>-0.85784313725488814</v>
+      </c>
+      <c r="E317" s="9">
+        <v>4.9031625398393106E-2</v>
+      </c>
+      <c r="F317" s="9">
+        <v>4.6860356138703985E-2</v>
+      </c>
+      <c r="G317" s="9">
+        <v>2.4983855343881216</v>
+      </c>
+      <c r="H317" s="9">
+        <v>1.3555291319857286</v>
+      </c>
+      <c r="I317" s="9">
+        <v>-0.42105263157894735</v>
+      </c>
+      <c r="J317" s="9">
+        <v>-1.0670731707316901</v>
+      </c>
+      <c r="K317" s="9">
+        <v>2.5555090071219198</v>
+      </c>
+      <c r="L317" s="9">
+        <v>1.2973868237026258</v>
+      </c>
+      <c r="M317" s="9">
+        <v>1.8793128762296218</v>
+      </c>
+      <c r="N317" s="9">
+        <v>0.23640661938534052</v>
+      </c>
+      <c r="O317" s="9">
+        <v>0.74318744838976525</v>
+      </c>
+      <c r="P317" s="9">
+        <v>0.20417967811673454</v>
+      </c>
+      <c r="Q317" s="9">
+        <v>0.25785278949835111</v>
+      </c>
+      <c r="R317" s="9">
+        <v>0.58869701726844581</v>
+      </c>
+      <c r="S317" s="9">
+        <v>3.9077764751853976E-2</v>
+      </c>
+      <c r="T317" s="9">
+        <v>-0.82122552116235714</v>
+      </c>
+      <c r="U317" s="9">
+        <v>-0.86074392868122074</v>
+      </c>
+      <c r="V317" s="9">
+        <v>0</v>
+      </c>
+      <c r="W317" s="9">
+        <v>1.4521583449373405</v>
+      </c>
+      <c r="X317" s="9">
+        <v>0.61946902654867508</v>
+      </c>
+      <c r="Y317" s="9">
+        <v>0.78516538590042284</v>
+      </c>
+      <c r="Z317" s="9">
+        <v>0.56497175141242395</v>
+      </c>
+      <c r="AA317" s="9">
+        <v>-0.77267181781212102</v>
+      </c>
+      <c r="AB317" s="9">
+        <v>0.81093605189990725</v>
+      </c>
+      <c r="AC317" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD317" s="9">
+        <v>0.23269342641070717</v>
+      </c>
+      <c r="AE317" s="9">
+        <v>2.1059349074665041</v>
+      </c>
+      <c r="AF317" s="9">
+        <v>-3.1319910514541514</v>
+      </c>
+      <c r="AG317" s="9">
+        <v>-0.19524894240156937</v>
+      </c>
+      <c r="AH317" s="9">
+        <v>-0.62926061877293593</v>
+      </c>
+      <c r="AI317" s="9">
+        <v>0.29759844971970062</v>
+      </c>
+      <c r="AJ317" s="9">
+        <v>0.79320901753408457</v>
+      </c>
+      <c r="AK317" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL317" s="9">
+        <v>0.42547705002578062</v>
+      </c>
+      <c r="AM317" s="9">
+        <v>5.6753688989797248E-2</v>
+      </c>
+      <c r="AN317" s="9">
+        <v>2.6038233355306639</v>
+      </c>
+      <c r="AO317" s="9">
+        <v>-0.65082059988680097</v>
+      </c>
+      <c r="AP317" s="9">
+        <v>1.4999999999999978</v>
+      </c>
+      <c r="AQ317" s="9">
+        <v>0.91034482758621005</v>
+      </c>
+      <c r="AR317" s="9">
+        <v>1.6624040920716077</v>
+      </c>
+      <c r="AS317" s="9">
+        <v>0.28063610851262594</v>
+      </c>
+      <c r="AT317" s="9">
+        <v>2.01392608462774</v>
+      </c>
+      <c r="AU317" s="9">
+        <v>0.59397539244802955</v>
+      </c>
+      <c r="AV317" s="9">
+        <v>2.862254025044725</v>
+      </c>
+      <c r="AW317" s="9">
+        <v>0.5208333333333397</v>
+      </c>
+      <c r="AX317" s="9">
+        <v>2.1877205363444054</v>
+      </c>
+      <c r="AY317" s="9">
+        <v>-0.72131147540983231</v>
+      </c>
+      <c r="AZ317" s="9">
+        <v>-4.8437878420922412E-2</v>
+      </c>
+      <c r="BA317" s="9">
+        <v>-1.112656467315732</v>
+      </c>
     </row>
     <row r="318" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A318" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- January 2017</t>
+    <t>Government Employment; Year/Year: January 1990 -- February 2017</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B290" sqref="B290"/>
+      <selection pane="bottomLeft" activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52178,52 +52178,52 @@
         <v>0.53008216273522391</v>
       </c>
       <c r="D318" s="9">
-        <v>-1.4652014652014684</v>
+        <v>-0.8547008547008581</v>
       </c>
       <c r="E318" s="9">
-        <v>0.14659174199852576</v>
+        <v>0.31761544099682659</v>
       </c>
       <c r="F318" s="9">
         <v>-0.70488721804511278</v>
       </c>
       <c r="G318" s="9">
-        <v>2.4006755669937192</v>
+        <v>2.1272317838185471</v>
       </c>
       <c r="H318" s="9">
-        <v>1.8160377358490538</v>
+        <v>2.1462264150943451</v>
       </c>
       <c r="I318" s="9">
         <v>-1.8479630407391878</v>
       </c>
       <c r="J318" s="9">
-        <v>-0.92024539877301925</v>
+        <v>-0.30674846625767305</v>
       </c>
       <c r="K318" s="9">
         <v>0.50146259924780134</v>
       </c>
       <c r="L318" s="9">
-        <v>1.5924153166421164</v>
+        <v>1.5555964653902672</v>
       </c>
       <c r="M318" s="9">
-        <v>1.65835045494571</v>
+        <v>1.7170531259172359</v>
       </c>
       <c r="N318" s="9">
-        <v>1.2038523274478332</v>
+        <v>1.0433386837881313</v>
       </c>
       <c r="O318" s="9">
-        <v>2.1648626144879337</v>
+        <v>3.330557868442964</v>
       </c>
       <c r="P318" s="9">
-        <v>-0.14478764478763656</v>
+        <v>8.4459459459464953E-2</v>
       </c>
       <c r="Q318" s="9">
-        <v>1.2195121951219621</v>
+        <v>1.0553470919324579</v>
       </c>
       <c r="R318" s="9">
         <v>0.5058365758754908</v>
       </c>
       <c r="S318" s="9">
-        <v>-3.9169604387004599E-2</v>
+        <v>-7.8339208773998054E-2</v>
       </c>
       <c r="T318" s="9">
         <v>-0.18796992481201941</v>
@@ -52235,31 +52235,31 @@
         <v>0.30272452068618705</v>
       </c>
       <c r="W318" s="9">
-        <v>0.47723205408630626</v>
+        <v>1.2925034798170612</v>
       </c>
       <c r="X318" s="9">
         <v>2.1068973164781553</v>
       </c>
       <c r="Y318" s="9">
-        <v>2.6559085560598534</v>
+        <v>2.4541939821818834</v>
       </c>
       <c r="Z318" s="9">
         <v>1.041173686701367</v>
       </c>
       <c r="AA318" s="9">
-        <v>0.65573770491803041</v>
+        <v>0.53278688524590634</v>
       </c>
       <c r="AB318" s="9">
-        <v>0.50878815911194397</v>
+        <v>0.64754856614246337</v>
       </c>
       <c r="AC318" s="9">
         <v>0.9933774834437149</v>
       </c>
       <c r="AD318" s="9">
-        <v>-0.17472335468840008</v>
+        <v>-0.29120559114735006</v>
       </c>
       <c r="AE318" s="9">
-        <v>2.0525978191148098</v>
+        <v>2.3733162283514999</v>
       </c>
       <c r="AF318" s="9">
         <v>0.88593576965669674</v>
@@ -52268,7 +52268,7 @@
         <v>-0.61969993476843899</v>
       </c>
       <c r="AH318" s="9">
-        <v>-1.3061650992685474</v>
+        <v>-0.99268547544409913</v>
       </c>
       <c r="AI318" s="9">
         <v>0.5472809144440659</v>
@@ -52280,31 +52280,31 @@
         <v>1.5643802647412892</v>
       </c>
       <c r="AL318" s="9">
-        <v>-0.42591636551367512</v>
+        <v>-0.27103768714505799</v>
       </c>
       <c r="AM318" s="9">
         <v>0.19790783149561453</v>
       </c>
       <c r="AN318" s="9">
-        <v>1.2179065174456842</v>
+        <v>0.42791310072416433</v>
       </c>
       <c r="AO318" s="9">
-        <v>-9.9686698946175656E-2</v>
+        <v>-0.25633722586158758</v>
       </c>
       <c r="AP318" s="9">
         <v>0.49833887043188896</v>
       </c>
       <c r="AQ318" s="9">
-        <v>0.66280033140015937</v>
+        <v>0.71803369235017001</v>
       </c>
       <c r="AR318" s="9">
-        <v>2.051282051282044</v>
+        <v>2.1794871794871833</v>
       </c>
       <c r="AS318" s="9">
-        <v>0.28202115158636631</v>
+        <v>1.6451233842538191</v>
       </c>
       <c r="AT318" s="9">
-        <v>2.2168522798907362</v>
+        <v>2.1328010086152625</v>
       </c>
       <c r="AU318" s="9">
         <v>1.9982993197278986</v>
@@ -52313,23 +52313,181 @@
         <v>0.36036036036036551</v>
       </c>
       <c r="AW318" s="9">
-        <v>0.37985368598762598</v>
+        <v>0.36578503095104431</v>
       </c>
       <c r="AX318" s="9">
-        <v>1.8005295675198669</v>
+        <v>2.0300088261253313</v>
       </c>
       <c r="AY318" s="9">
         <v>0.71197411003235878</v>
       </c>
       <c r="AZ318" s="9">
-        <v>0.60960741282613995</v>
+        <v>0.7559131919044052</v>
       </c>
       <c r="BA318" s="9">
-        <v>-1.8105849582172664</v>
+        <v>-1.9498607242339716</v>
       </c>
     </row>
     <row r="319" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A319" s="7"/>
+      <c r="A319" s="7">
+        <v>42767</v>
+      </c>
+      <c r="B319" s="9">
+        <v>0.87663804789877997</v>
+      </c>
+      <c r="C319" s="9">
+        <v>0.90209604669674559</v>
+      </c>
+      <c r="D319" s="9">
+        <v>-0.85679314565483811</v>
+      </c>
+      <c r="E319" s="9">
+        <v>0.29275433032448051</v>
+      </c>
+      <c r="F319" s="9">
+        <v>-0.79812206572769417</v>
+      </c>
+      <c r="G319" s="9">
+        <v>1.862107713299608</v>
+      </c>
+      <c r="H319" s="9">
+        <v>1.1997177134791732</v>
+      </c>
+      <c r="I319" s="9">
+        <v>-1.8899622007559851</v>
+      </c>
+      <c r="J319" s="9">
+        <v>-0.92449922958398845</v>
+      </c>
+      <c r="K319" s="9">
+        <v>-0.20885547201336674</v>
+      </c>
+      <c r="L319" s="9">
+        <v>0.8272819192940527</v>
+      </c>
+      <c r="M319" s="9">
+        <v>1.5975377399970823</v>
+      </c>
+      <c r="N319" s="9">
+        <v>0.55599682287528884</v>
+      </c>
+      <c r="O319" s="9">
+        <v>3.4912718204488802</v>
+      </c>
+      <c r="P319" s="9">
+        <v>1.2324794586756804</v>
+      </c>
+      <c r="Q319" s="9">
+        <v>1.4499532273152451</v>
+      </c>
+      <c r="R319" s="9">
+        <v>0.31128404669261145</v>
+      </c>
+      <c r="S319" s="9">
+        <v>-0.66536203522504445</v>
+      </c>
+      <c r="T319" s="9">
+        <v>-0.81530260269675958</v>
+      </c>
+      <c r="U319" s="9">
+        <v>-0.82745939319644157</v>
+      </c>
+      <c r="V319" s="9">
+        <v>0.10030090270811867</v>
+      </c>
+      <c r="W319" s="9">
+        <v>1.9736842105263113</v>
+      </c>
+      <c r="X319" s="9">
+        <v>1.6168327796234796</v>
+      </c>
+      <c r="Y319" s="9">
+        <v>2.3341729638958819</v>
+      </c>
+      <c r="Z319" s="9">
+        <v>0.83115649489432442</v>
+      </c>
+      <c r="AA319" s="9">
+        <v>0.69586573884567682</v>
+      </c>
+      <c r="AB319" s="9">
+        <v>1.3519813519813546</v>
+      </c>
+      <c r="AC319" s="9">
+        <v>1.2141280353200978</v>
+      </c>
+      <c r="AD319" s="9">
+        <v>-0.46592894583575017</v>
+      </c>
+      <c r="AE319" s="9">
+        <v>0.9590792838874681</v>
+      </c>
+      <c r="AF319" s="9">
+        <v>-0.43811610076669388</v>
+      </c>
+      <c r="AG319" s="9">
+        <v>-0.65178425941013518</v>
+      </c>
+      <c r="AH319" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI319" s="9">
+        <v>0.60299417798725019</v>
+      </c>
+      <c r="AJ319" s="9">
+        <v>0.83090984628167841</v>
+      </c>
+      <c r="AK319" s="9">
+        <v>0.9580838323353259</v>
+      </c>
+      <c r="AL319" s="9">
+        <v>-0.59255442483574761</v>
+      </c>
+      <c r="AM319" s="9">
+        <v>0.22611644997173863</v>
+      </c>
+      <c r="AN319" s="9">
+        <v>1.5753199868723373</v>
+      </c>
+      <c r="AO319" s="9">
+        <v>-0.47001851588093829</v>
+      </c>
+      <c r="AP319" s="9">
+        <v>0.33112582781457428</v>
+      </c>
+      <c r="AQ319" s="9">
+        <v>0.55202870549268557</v>
+      </c>
+      <c r="AR319" s="9">
+        <v>2.1766965428937297</v>
+      </c>
+      <c r="AS319" s="9">
+        <v>1.6897441915043392</v>
+      </c>
+      <c r="AT319" s="9">
+        <v>1.7424162905426583</v>
+      </c>
+      <c r="AU319" s="9">
+        <v>2.2495755517826876</v>
+      </c>
+      <c r="AV319" s="9">
+        <v>-0.17985611510791621</v>
+      </c>
+      <c r="AW319" s="9">
+        <v>0.65909409619968184</v>
+      </c>
+      <c r="AX319" s="9">
+        <v>2.2026431718061676</v>
+      </c>
+      <c r="AY319" s="9">
+        <v>0.84251458198313856</v>
+      </c>
+      <c r="AZ319" s="9">
+        <v>1.6341463414634119</v>
+      </c>
+      <c r="BA319" s="9">
+        <v>-1.6736401673640207</v>
+      </c>
     </row>
     <row r="320" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A320" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Historical\Employment\PUBLISHED\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -178,13 +183,13 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- February 2017</t>
+    <t>Government Employment; Year/Year: January 1990 -- May 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -196,7 +201,7 @@
     <numFmt numFmtId="170" formatCode="0.0000000000"/>
     <numFmt numFmtId="171" formatCode="0%_);\(0%\)"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,32 +215,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -557,6 +536,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -700,192 +711,192 @@
   <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="39" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" applyFill="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFont="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" applyFill="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" applyFill="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" applyFill="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFill="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0">
+    <xf numFmtId="14" fontId="25" fillId="4" borderId="6">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyFill="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyFill="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="4" borderId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
@@ -894,214 +905,213 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6">
+    <xf numFmtId="15" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="39" fontId="8" fillId="0" borderId="5" applyBorder="0">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="39" fontId="4" fillId="0" borderId="5" applyBorder="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" applyFill="0">
+    <xf numFmtId="39" fontId="5" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="39" fontId="19" fillId="0" borderId="0" applyFill="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="39" fontId="19" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="39" fontId="19" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="39" fontId="19" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="39" fontId="19" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="39" fontId="19" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="39" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="39" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="39" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="39" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="39" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="8"/>
     </xf>
-    <xf numFmtId="39" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="8"/>
     </xf>
-    <xf numFmtId="39" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="8"/>
     </xf>
-    <xf numFmtId="39" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="8"/>
     </xf>
-    <xf numFmtId="39" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="9"/>
     </xf>
-    <xf numFmtId="39" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="9"/>
     </xf>
-    <xf numFmtId="39" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="9"/>
     </xf>
-    <xf numFmtId="39" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="57" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="241">
     <cellStyle name="active" xfId="3"/>
@@ -1352,6 +1362,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1399,7 +1412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1432,9 +1445,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1467,6 +1497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1646,65 +1693,13 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B304" sqref="B304"/>
+      <pane ySplit="5" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="16384" width="12" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1722,216 +1717,162 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-    </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AC5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AD5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AE5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AF5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AG5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AH5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AI5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AK5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AL5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AM5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AN5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AO5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP5" s="5" t="s">
+      <c r="AP5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AQ5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AR5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AS5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AT5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AU5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AV5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AW5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="AX5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY5" s="5" t="s">
+      <c r="AY5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ5" s="5" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA5" s="5" t="s">
+      <c r="BA5" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -50078,160 +50019,160 @@
       <c r="A305" s="7">
         <v>42339</v>
       </c>
-      <c r="B305" s="9">
+      <c r="B305" s="8">
         <v>0.69260913150460224</v>
       </c>
-      <c r="C305" s="9">
+      <c r="C305" s="8">
         <v>-0.65876152832674573</v>
       </c>
-      <c r="D305" s="9">
+      <c r="D305" s="8">
         <v>-0.60753341433778862</v>
       </c>
-      <c r="E305" s="9">
+      <c r="E305" s="8">
         <v>0</v>
       </c>
-      <c r="F305" s="9">
+      <c r="F305" s="8">
         <v>-0.18761726078798185</v>
       </c>
-      <c r="G305" s="9">
+      <c r="G305" s="8">
         <v>2.0520397274891242</v>
       </c>
-      <c r="H305" s="9">
+      <c r="H305" s="8">
         <v>2.6718484333252368</v>
       </c>
-      <c r="I305" s="9">
+      <c r="I305" s="8">
         <v>-0.66722268557131881</v>
       </c>
-      <c r="J305" s="9">
+      <c r="J305" s="8">
         <v>0.46224961479198329</v>
       </c>
-      <c r="K305" s="9">
+      <c r="K305" s="8">
         <v>0.92944655682298993</v>
       </c>
-      <c r="L305" s="9">
+      <c r="L305" s="8">
         <v>0.73331476840249621</v>
       </c>
-      <c r="M305" s="9">
+      <c r="M305" s="8">
         <v>0.29450743631276688</v>
       </c>
-      <c r="N305" s="9">
+      <c r="N305" s="8">
         <v>2.8478437754271764</v>
       </c>
-      <c r="O305" s="9">
+      <c r="O305" s="8">
         <v>1.3536379018612472</v>
       </c>
-      <c r="P305" s="9">
+      <c r="P305" s="8">
         <v>4.8262548262559241E-2</v>
       </c>
-      <c r="Q305" s="9">
+      <c r="Q305" s="8">
         <v>0.18770530267480323</v>
       </c>
-      <c r="R305" s="9">
+      <c r="R305" s="8">
         <v>0.46966731898238306</v>
       </c>
-      <c r="S305" s="9">
+      <c r="S305" s="8">
         <v>-0.62184220753984565</v>
       </c>
-      <c r="T305" s="9">
+      <c r="T305" s="8">
         <v>-0.24960998439937954</v>
       </c>
-      <c r="U305" s="9">
+      <c r="U305" s="8">
         <v>-0.91435537945748246</v>
       </c>
-      <c r="V305" s="9">
+      <c r="V305" s="8">
         <v>-0.89730807577267346</v>
       </c>
-      <c r="W305" s="9">
+      <c r="W305" s="8">
         <v>0.57861133280128374</v>
       </c>
-      <c r="X305" s="9">
+      <c r="X305" s="8">
         <v>-0.48554403001545909</v>
       </c>
-      <c r="Y305" s="9">
+      <c r="Y305" s="8">
         <v>3.3619095646334758E-2</v>
       </c>
-      <c r="Z305" s="9">
+      <c r="Z305" s="8">
         <v>-0.35680304471931495</v>
       </c>
-      <c r="AA305" s="9">
+      <c r="AA305" s="8">
         <v>-0.28676771814829521</v>
       </c>
-      <c r="AB305" s="9">
+      <c r="AB305" s="8">
         <v>0.37131585054537547</v>
       </c>
-      <c r="AC305" s="9">
+      <c r="AC305" s="8">
         <v>1.1111111111111112</v>
       </c>
-      <c r="AD305" s="9">
+      <c r="AD305" s="8">
         <v>0.94062316284538183</v>
       </c>
-      <c r="AE305" s="9">
+      <c r="AE305" s="8">
         <v>2.0261437908496696</v>
       </c>
-      <c r="AF305" s="9">
+      <c r="AF305" s="8">
         <v>-0.77007700770077314</v>
       </c>
-      <c r="AG305" s="9">
+      <c r="AG305" s="8">
         <v>-0.84074373484236786</v>
       </c>
-      <c r="AH305" s="9">
+      <c r="AH305" s="8">
         <v>-0.31315240083507012</v>
       </c>
-      <c r="AI305" s="9">
+      <c r="AI305" s="8">
         <v>0.47363655359754508</v>
       </c>
-      <c r="AJ305" s="9">
+      <c r="AJ305" s="8">
         <v>1.1623021985716222</v>
       </c>
-      <c r="AK305" s="9">
+      <c r="AK305" s="8">
         <v>2.9850746268656607</v>
       </c>
-      <c r="AL305" s="9">
+      <c r="AL305" s="8">
         <v>0.4021273835776395</v>
       </c>
-      <c r="AM305" s="9">
+      <c r="AM305" s="8">
         <v>1.2890289315382411</v>
       </c>
-      <c r="AN305" s="9">
+      <c r="AN305" s="8">
         <v>2.0875420875420838</v>
       </c>
-      <c r="AO305" s="9">
+      <c r="AO305" s="8">
         <v>-0.98884023167113999</v>
       </c>
-      <c r="AP305" s="9">
+      <c r="AP305" s="8">
         <v>0</v>
       </c>
-      <c r="AQ305" s="9">
+      <c r="AQ305" s="8">
         <v>1.2290502793296025</v>
       </c>
-      <c r="AR305" s="9">
+      <c r="AR305" s="8">
         <v>0.51413881748072709</v>
       </c>
-      <c r="AS305" s="9">
+      <c r="AS305" s="8">
         <v>-4.6992481203018202E-2</v>
       </c>
-      <c r="AT305" s="9">
+      <c r="AT305" s="8">
         <v>1.5058471725316411</v>
       </c>
-      <c r="AU305" s="9">
+      <c r="AU305" s="8">
         <v>1.5982721382289369</v>
       </c>
-      <c r="AV305" s="9">
+      <c r="AV305" s="8">
         <v>-0.35971223021583243</v>
       </c>
-      <c r="AW305" s="9">
+      <c r="AW305" s="8">
         <v>0.3095975232198046</v>
       </c>
-      <c r="AX305" s="9">
+      <c r="AX305" s="8">
         <v>1.8365142239827235</v>
       </c>
-      <c r="AY305" s="9">
+      <c r="AY305" s="8">
         <v>0.9156311314584733</v>
       </c>
-      <c r="AZ305" s="9">
+      <c r="AZ305" s="8">
         <v>-0.5350194552529155</v>
       </c>
-      <c r="BA305" s="9">
+      <c r="BA305" s="8">
         <v>1.2693935119887043</v>
       </c>
     </row>
@@ -50239,160 +50180,160 @@
       <c r="A306" s="7">
         <v>42370</v>
       </c>
-      <c r="B306" s="9">
+      <c r="B306" s="8">
         <v>0.73338495877556598</v>
       </c>
-      <c r="C306" s="9">
+      <c r="C306" s="8">
         <v>-2.6497085320605698E-2</v>
       </c>
-      <c r="D306" s="9">
+      <c r="D306" s="8">
         <v>-0.48602673147022052</v>
       </c>
-      <c r="E306" s="9">
+      <c r="E306" s="8">
         <v>-0.26803118908381235</v>
       </c>
-      <c r="F306" s="9">
+      <c r="F306" s="8">
         <v>-9.389671361501814E-2</v>
       </c>
-      <c r="G306" s="9">
+      <c r="G306" s="8">
         <v>1.8846279908226811</v>
       </c>
-      <c r="H306" s="9">
+      <c r="H306" s="8">
         <v>2.6137463697967114</v>
       </c>
-      <c r="I306" s="9">
+      <c r="I306" s="8">
         <v>-0.75031263026261419</v>
       </c>
-      <c r="J306" s="9">
+      <c r="J306" s="8">
         <v>0.6172839506172928</v>
       </c>
-      <c r="K306" s="9">
+      <c r="K306" s="8">
         <v>0.84281500210703753</v>
       </c>
-      <c r="L306" s="9">
+      <c r="L306" s="8">
         <v>1.0134821013482187</v>
       </c>
-      <c r="M306" s="9">
+      <c r="M306" s="8">
         <v>0.32391048292107355</v>
       </c>
-      <c r="N306" s="9">
+      <c r="N306" s="8">
         <v>-1.5797788309636653</v>
       </c>
-      <c r="O306" s="9">
+      <c r="O306" s="8">
         <v>1.1794439764111133</v>
       </c>
-      <c r="P306" s="9">
+      <c r="P306" s="8">
         <v>0.19342359767890582</v>
       </c>
-      <c r="Q306" s="9">
+      <c r="Q306" s="8">
         <v>0</v>
       </c>
-      <c r="R306" s="9">
+      <c r="R306" s="8">
         <v>0.4298554122704159</v>
       </c>
-      <c r="S306" s="9">
+      <c r="S306" s="8">
         <v>-0.73872472783824938</v>
       </c>
-      <c r="T306" s="9">
+      <c r="T306" s="8">
         <v>-0.4056162246489895</v>
       </c>
-      <c r="U306" s="9">
+      <c r="U306" s="8">
         <v>-0.45717768972874123</v>
       </c>
-      <c r="V306" s="9">
+      <c r="V306" s="8">
         <v>-0.70140280561122537</v>
       </c>
-      <c r="W306" s="9">
+      <c r="W306" s="8">
         <v>0.31917015759025852</v>
       </c>
-      <c r="X306" s="9">
+      <c r="X306" s="8">
         <v>0.19999999999999493</v>
       </c>
-      <c r="Y306" s="9">
+      <c r="Y306" s="8">
         <v>0.18524755810037433</v>
       </c>
-      <c r="Z306" s="9">
+      <c r="Z306" s="8">
         <v>0.5711565920990086</v>
       </c>
-      <c r="AA306" s="9">
+      <c r="AA306" s="8">
         <v>0.1231021748050929</v>
       </c>
-      <c r="AB306" s="9">
+      <c r="AB306" s="8">
         <v>-0.32272936837252975</v>
       </c>
-      <c r="AC306" s="9">
+      <c r="AC306" s="8">
         <v>0.33222591362125931</v>
       </c>
-      <c r="AD306" s="9">
+      <c r="AD306" s="8">
         <v>1.2382075471698082</v>
       </c>
-      <c r="AE306" s="9">
+      <c r="AE306" s="8">
         <v>1.4973958333333408</v>
       </c>
-      <c r="AF306" s="9">
+      <c r="AF306" s="8">
         <v>-0.87815587266739537</v>
       </c>
-      <c r="AG306" s="9">
+      <c r="AG306" s="8">
         <v>-0.26024723487311469</v>
       </c>
-      <c r="AH306" s="9">
+      <c r="AH306" s="8">
         <v>0.10460251046025996</v>
       </c>
-      <c r="AI306" s="9">
+      <c r="AI306" s="8">
         <v>0.78195908678349824</v>
       </c>
-      <c r="AJ306" s="9">
+      <c r="AJ306" s="8">
         <v>-0.27731558513588461</v>
       </c>
-      <c r="AK306" s="9">
+      <c r="AK306" s="8">
         <v>3.3582089552238661</v>
       </c>
-      <c r="AL306" s="9">
+      <c r="AL306" s="8">
         <v>1.2942868348803735</v>
       </c>
-      <c r="AM306" s="9">
+      <c r="AM306" s="8">
         <v>1.2017167381974216</v>
       </c>
-      <c r="AN306" s="9">
+      <c r="AN306" s="8">
         <v>1.9463087248322186</v>
       </c>
-      <c r="AO306" s="9">
+      <c r="AO306" s="8">
         <v>-0.41128917883987764</v>
       </c>
-      <c r="AP306" s="9">
+      <c r="AP306" s="8">
         <v>-0.33112582781456246</v>
       </c>
-      <c r="AQ306" s="9">
+      <c r="AQ306" s="8">
         <v>0.97601784718349127</v>
       </c>
-      <c r="AR306" s="9">
+      <c r="AR306" s="8">
         <v>0.64516129032258063</v>
       </c>
-      <c r="AS306" s="9">
+      <c r="AS306" s="8">
         <v>7.0555032925684699E-2</v>
       </c>
-      <c r="AT306" s="9">
+      <c r="AT306" s="8">
         <v>1.7750213857998192</v>
       </c>
-      <c r="AU306" s="9">
+      <c r="AU306" s="8">
         <v>1.1612903225806401</v>
       </c>
-      <c r="AV306" s="9">
+      <c r="AV306" s="8">
         <v>-1.4209591474245065</v>
       </c>
-      <c r="AW306" s="9">
+      <c r="AW306" s="8">
         <v>5.6306306306303108E-2</v>
       </c>
-      <c r="AX306" s="9">
+      <c r="AX306" s="8">
         <v>1.8152408339324269</v>
       </c>
-      <c r="AY306" s="9">
+      <c r="AY306" s="8">
         <v>1.377952755905508</v>
       </c>
-      <c r="AZ306" s="9">
+      <c r="AZ306" s="8">
         <v>4.8792388387422662E-2</v>
       </c>
-      <c r="BA306" s="9">
+      <c r="BA306" s="8">
         <v>1.2693935119887043</v>
       </c>
     </row>
@@ -50400,160 +50341,160 @@
       <c r="A307" s="7">
         <v>42401</v>
       </c>
-      <c r="B307" s="9">
+      <c r="B307" s="8">
         <v>0.73285083526787742</v>
       </c>
-      <c r="C307" s="9">
+      <c r="C307" s="8">
         <v>-5.3036329885983946E-2</v>
       </c>
-      <c r="D307" s="9">
+      <c r="D307" s="8">
         <v>-0.48721071863579962</v>
       </c>
-      <c r="E307" s="9">
+      <c r="E307" s="8">
         <v>-4.8768593026102286E-2</v>
       </c>
-      <c r="F307" s="9">
+      <c r="F307" s="8">
         <v>0.14104372355430719</v>
       </c>
-      <c r="G307" s="9">
+      <c r="G307" s="8">
         <v>1.9641541861036091</v>
       </c>
-      <c r="H307" s="9">
+      <c r="H307" s="8">
         <v>2.805320435308349</v>
       </c>
-      <c r="I307" s="9">
+      <c r="I307" s="8">
         <v>-0.41823504809703055</v>
       </c>
-      <c r="J307" s="9">
+      <c r="J307" s="8">
         <v>0.15432098765433416</v>
       </c>
-      <c r="K307" s="9">
+      <c r="K307" s="8">
         <v>0.84245998315080028</v>
       </c>
-      <c r="L307" s="9">
+      <c r="L307" s="8">
         <v>0.91836734693878397</v>
       </c>
-      <c r="M307" s="9">
+      <c r="M307" s="8">
         <v>0.47121189810041697</v>
       </c>
-      <c r="N307" s="9">
+      <c r="N307" s="8">
         <v>-0.23771790808240661</v>
       </c>
-      <c r="O307" s="9">
+      <c r="O307" s="8">
         <v>1.6906170752324601</v>
       </c>
-      <c r="P307" s="9">
+      <c r="P307" s="8">
         <v>-0.19295706705258353</v>
       </c>
-      <c r="Q307" s="9">
+      <c r="Q307" s="8">
         <v>0.49353701527615107</v>
       </c>
-      <c r="R307" s="9">
+      <c r="R307" s="8">
         <v>0.4298554122704159</v>
       </c>
-      <c r="S307" s="9">
+      <c r="S307" s="8">
         <v>-0.66096423017106876</v>
       </c>
-      <c r="T307" s="9">
+      <c r="T307" s="8">
         <v>-0.2814258911819994</v>
       </c>
-      <c r="U307" s="9">
+      <c r="U307" s="8">
         <v>-0.6091989034419738</v>
       </c>
-      <c r="V307" s="9">
+      <c r="V307" s="8">
         <v>0.10040160642571137</v>
       </c>
-      <c r="W307" s="9">
+      <c r="W307" s="8">
         <v>-0.19896538002387582</v>
       </c>
-      <c r="X307" s="9">
+      <c r="X307" s="8">
         <v>4.4316419233323426E-2</v>
       </c>
-      <c r="Y307" s="9">
+      <c r="Y307" s="8">
         <v>0.32008086253368889</v>
       </c>
-      <c r="Z307" s="9">
+      <c r="Z307" s="8">
         <v>0.21418372203713329</v>
       </c>
-      <c r="AA307" s="9">
+      <c r="AA307" s="8">
         <v>0.36976170912079115</v>
       </c>
-      <c r="AB307" s="9">
+      <c r="AB307" s="8">
         <v>-1.4699127239320113</v>
       </c>
-      <c r="AC307" s="9">
+      <c r="AC307" s="8">
         <v>0.1104972375690545</v>
       </c>
-      <c r="AD307" s="9">
+      <c r="AD307" s="8">
         <v>0.99999999999999323</v>
       </c>
-      <c r="AE307" s="9">
+      <c r="AE307" s="8">
         <v>1.8229166666666741</v>
       </c>
-      <c r="AF307" s="9">
+      <c r="AF307" s="8">
         <v>1.4444444444444413</v>
       </c>
-      <c r="AG307" s="9">
+      <c r="AG307" s="8">
         <v>-0.29244516653126801</v>
       </c>
-      <c r="AH307" s="9">
+      <c r="AH307" s="8">
         <v>0.52410901467505233</v>
       </c>
-      <c r="AI307" s="9">
+      <c r="AI307" s="8">
         <v>0.59262357944641986</v>
       </c>
-      <c r="AJ307" s="9">
+      <c r="AJ307" s="8">
         <v>0.33347228011671215</v>
       </c>
-      <c r="AK307" s="9">
+      <c r="AK307" s="8">
         <v>3.8557213930348189</v>
       </c>
-      <c r="AL307" s="9">
+      <c r="AL307" s="8">
         <v>1.0018214936247634</v>
       </c>
-      <c r="AM307" s="9">
+      <c r="AM307" s="8">
         <v>1.1724335144409559</v>
       </c>
-      <c r="AN307" s="9">
+      <c r="AN307" s="8">
         <v>2.2140221402213904</v>
       </c>
-      <c r="AO307" s="9">
+      <c r="AO307" s="8">
         <v>-0.51013178404421455</v>
       </c>
-      <c r="AP307" s="9">
+      <c r="AP307" s="8">
         <v>0</v>
       </c>
-      <c r="AQ307" s="9">
+      <c r="AQ307" s="8">
         <v>0.80690038953812859</v>
       </c>
-      <c r="AR307" s="9">
+      <c r="AR307" s="8">
         <v>0.64432989690721654</v>
       </c>
-      <c r="AS307" s="9">
+      <c r="AS307" s="8">
         <v>0.37691401648999362</v>
       </c>
-      <c r="AT307" s="9">
+      <c r="AT307" s="8">
         <v>1.6918396755083549</v>
       </c>
-      <c r="AU307" s="9">
+      <c r="AU307" s="8">
         <v>1.2462397937258296</v>
       </c>
-      <c r="AV307" s="9">
+      <c r="AV307" s="8">
         <v>-0.53667262969588048</v>
       </c>
-      <c r="AW307" s="9">
+      <c r="AW307" s="8">
         <v>8.4210526315792664E-2</v>
       </c>
-      <c r="AX307" s="9">
+      <c r="AX307" s="8">
         <v>1.8668102674564666</v>
       </c>
-      <c r="AY307" s="9">
+      <c r="AY307" s="8">
         <v>1.2467191601049905</v>
       </c>
-      <c r="AZ307" s="9">
+      <c r="AZ307" s="8">
         <v>-0.2190313944998728</v>
       </c>
-      <c r="BA307" s="9">
+      <c r="BA307" s="8">
         <v>1.1283497884344105</v>
       </c>
     </row>
@@ -50561,160 +50502,160 @@
       <c r="A308" s="7">
         <v>42430</v>
       </c>
-      <c r="B308" s="9">
+      <c r="B308" s="8">
         <v>0.94726295655342008</v>
       </c>
-      <c r="C308" s="9">
+      <c r="C308" s="8">
         <v>2.6532236667557111E-2</v>
       </c>
-      <c r="D308" s="9">
+      <c r="D308" s="8">
         <v>-0.73081607795370807</v>
       </c>
-      <c r="E308" s="9">
+      <c r="E308" s="8">
         <v>0.19526482792287317</v>
       </c>
-      <c r="F308" s="9">
+      <c r="F308" s="8">
         <v>0.70688030160226212</v>
       </c>
-      <c r="G308" s="9">
+      <c r="G308" s="8">
         <v>2.271796970937372</v>
       </c>
-      <c r="H308" s="9">
+      <c r="H308" s="8">
         <v>3.0947775628626584</v>
       </c>
-      <c r="I308" s="9">
+      <c r="I308" s="8">
         <v>-0.37672666387610115</v>
       </c>
-      <c r="J308" s="9">
+      <c r="J308" s="8">
         <v>-1.5082956259426847</v>
       </c>
-      <c r="K308" s="9">
+      <c r="K308" s="8">
         <v>0.84281500210703753</v>
       </c>
-      <c r="L308" s="9">
+      <c r="L308" s="8">
         <v>0.9456703133691865</v>
       </c>
-      <c r="M308" s="9">
+      <c r="M308" s="8">
         <v>-0.2652519893899305</v>
       </c>
-      <c r="N308" s="9">
+      <c r="N308" s="8">
         <v>0.23809523809523581</v>
       </c>
-      <c r="O308" s="9">
+      <c r="O308" s="8">
         <v>1.6020236087689761</v>
       </c>
-      <c r="P308" s="9">
+      <c r="P308" s="8">
         <v>0.16920473773265376</v>
       </c>
-      <c r="Q308" s="9">
+      <c r="Q308" s="8">
         <v>1.1071849234393378</v>
       </c>
-      <c r="R308" s="9">
+      <c r="R308" s="8">
         <v>0.58685446009390785</v>
       </c>
-      <c r="S308" s="9">
+      <c r="S308" s="8">
         <v>-0.38910505836575876</v>
       </c>
-      <c r="T308" s="9">
+      <c r="T308" s="8">
         <v>0.34569453174105053</v>
       </c>
-      <c r="U308" s="9">
+      <c r="U308" s="8">
         <v>-0.42761148442271762</v>
       </c>
-      <c r="V308" s="9">
+      <c r="V308" s="8">
         <v>0.20080321285140845</v>
       </c>
-      <c r="W308" s="9">
+      <c r="W308" s="8">
         <v>0.3587801474985074</v>
       </c>
-      <c r="X308" s="9">
+      <c r="X308" s="8">
         <v>0.61687596386869614</v>
       </c>
-      <c r="Y308" s="9">
+      <c r="Y308" s="8">
         <v>0.72463768115943183</v>
       </c>
-      <c r="Z308" s="9">
+      <c r="Z308" s="8">
         <v>0.71445582281495601</v>
       </c>
-      <c r="AA308" s="9">
+      <c r="AA308" s="8">
         <v>0.28747433264886596</v>
       </c>
-      <c r="AB308" s="9">
+      <c r="AB308" s="8">
         <v>-1.2402388608176338</v>
       </c>
-      <c r="AC308" s="9">
+      <c r="AC308" s="8">
         <v>0.22099447513812467</v>
       </c>
-      <c r="AD308" s="9">
+      <c r="AD308" s="8">
         <v>1.1750881316098707</v>
       </c>
-      <c r="AE308" s="9">
+      <c r="AE308" s="8">
         <v>2.0156046814044175</v>
       </c>
-      <c r="AF308" s="9">
+      <c r="AF308" s="8">
         <v>-0.2202643171806199</v>
       </c>
-      <c r="AG308" s="9">
+      <c r="AG308" s="8">
         <v>0.1465320742429139</v>
       </c>
-      <c r="AH308" s="9">
+      <c r="AH308" s="8">
         <v>0.41950707918196717</v>
       </c>
-      <c r="AI308" s="9">
+      <c r="AI308" s="8">
         <v>0.73221757322175729</v>
       </c>
-      <c r="AJ308" s="9">
+      <c r="AJ308" s="8">
         <v>1.0442773600668338</v>
       </c>
-      <c r="AK308" s="9">
+      <c r="AK308" s="8">
         <v>3.2178217821782282</v>
       </c>
-      <c r="AL308" s="9">
+      <c r="AL308" s="8">
         <v>1.1060507482108002</v>
       </c>
-      <c r="AM308" s="9">
+      <c r="AM308" s="8">
         <v>1.460481099656364</v>
       </c>
-      <c r="AN308" s="9">
+      <c r="AN308" s="8">
         <v>2.1404682274247415</v>
       </c>
-      <c r="AO308" s="9">
+      <c r="AO308" s="8">
         <v>-0.18463286464991735</v>
       </c>
-      <c r="AP308" s="9">
+      <c r="AP308" s="8">
         <v>0.33277870216305444</v>
       </c>
-      <c r="AQ308" s="9">
+      <c r="AQ308" s="8">
         <v>1.0869565217391239</v>
       </c>
-      <c r="AR308" s="9">
+      <c r="AR308" s="8">
         <v>0.64432989690721654</v>
       </c>
-      <c r="AS308" s="9">
+      <c r="AS308" s="8">
         <v>1.4629542236904172</v>
       </c>
-      <c r="AT308" s="9">
+      <c r="AT308" s="8">
         <v>1.8464165643844339</v>
       </c>
-      <c r="AU308" s="9">
+      <c r="AU308" s="8">
         <v>1.3293310463121881</v>
       </c>
-      <c r="AV308" s="9">
+      <c r="AV308" s="8">
         <v>0</v>
       </c>
-      <c r="AW308" s="9">
+      <c r="AW308" s="8">
         <v>0.8044030482641733</v>
       </c>
-      <c r="AX308" s="9">
+      <c r="AX308" s="8">
         <v>1.6097299230906814</v>
       </c>
-      <c r="AY308" s="9">
+      <c r="AY308" s="8">
         <v>2.1782178217821855</v>
       </c>
-      <c r="AZ308" s="9">
+      <c r="AZ308" s="8">
         <v>-0.14619883040934842</v>
       </c>
-      <c r="BA308" s="9">
+      <c r="BA308" s="8">
         <v>1.1283497884344105</v>
       </c>
     </row>
@@ -50722,160 +50663,160 @@
       <c r="A309" s="7">
         <v>42461</v>
       </c>
-      <c r="B309" s="9">
+      <c r="B309" s="8">
         <v>0.80054582670002272</v>
       </c>
-      <c r="C309" s="9">
+      <c r="C309" s="8">
         <v>0.13255567338282079</v>
       </c>
-      <c r="D309" s="9">
+      <c r="D309" s="8">
         <v>-0.97442143727161667</v>
       </c>
-      <c r="E309" s="9">
+      <c r="E309" s="8">
         <v>0.29332681495966478</v>
       </c>
-      <c r="F309" s="9">
+      <c r="F309" s="8">
         <v>0.32987747408106366</v>
       </c>
-      <c r="G309" s="9">
+      <c r="G309" s="8">
         <v>2.0117522239451637</v>
       </c>
-      <c r="H309" s="9">
+      <c r="H309" s="8">
         <v>2.963141411708011</v>
       </c>
-      <c r="I309" s="9">
+      <c r="I309" s="8">
         <v>-0.71040534893439911</v>
       </c>
-      <c r="J309" s="9">
+      <c r="J309" s="8">
         <v>0.928792569659456</v>
       </c>
-      <c r="K309" s="9">
+      <c r="K309" s="8">
         <v>0.79932688262516016</v>
       </c>
-      <c r="L309" s="9">
+      <c r="L309" s="8">
         <v>1.0376134889753399</v>
       </c>
-      <c r="M309" s="9">
+      <c r="M309" s="8">
         <v>0.72143698468786466</v>
       </c>
-      <c r="N309" s="9">
+      <c r="N309" s="8">
         <v>-1.5797788309636653</v>
       </c>
-      <c r="O309" s="9">
+      <c r="O309" s="8">
         <v>1.1774600504625663</v>
       </c>
-      <c r="P309" s="9">
+      <c r="P309" s="8">
         <v>-0.38572806171649537</v>
       </c>
-      <c r="Q309" s="9">
+      <c r="Q309" s="8">
         <v>0.28122802906022698</v>
       </c>
-      <c r="R309" s="9">
+      <c r="R309" s="8">
         <v>0.94043887147336769</v>
       </c>
-      <c r="S309" s="9">
+      <c r="S309" s="8">
         <v>-0.23364485981309294</v>
       </c>
-      <c r="T309" s="9">
+      <c r="T309" s="8">
         <v>-0.3758221108675191</v>
       </c>
-      <c r="U309" s="9">
+      <c r="U309" s="8">
         <v>-0.67073170731706966</v>
       </c>
-      <c r="V309" s="9">
+      <c r="V309" s="8">
         <v>0.50301810865191143</v>
       </c>
-      <c r="W309" s="9">
+      <c r="W309" s="8">
         <v>-1.9876764062815092E-2</v>
       </c>
-      <c r="X309" s="9">
+      <c r="X309" s="8">
         <v>-0.22123893805309736</v>
       </c>
-      <c r="Y309" s="9">
+      <c r="Y309" s="8">
         <v>0.69221678203613424</v>
       </c>
-      <c r="Z309" s="9">
+      <c r="Z309" s="8">
         <v>0.69031183051653822</v>
       </c>
-      <c r="AA309" s="9">
+      <c r="AA309" s="8">
         <v>0.86455331412103509</v>
       </c>
-      <c r="AB309" s="9">
+      <c r="AB309" s="8">
         <v>-0.89986155976003179</v>
       </c>
-      <c r="AC309" s="9">
+      <c r="AC309" s="8">
         <v>0.2202643171806199</v>
       </c>
-      <c r="AD309" s="9">
+      <c r="AD309" s="8">
         <v>0.46756282875512062</v>
       </c>
-      <c r="AE309" s="9">
+      <c r="AE309" s="8">
         <v>1.3601036269430016</v>
       </c>
-      <c r="AF309" s="9">
+      <c r="AF309" s="8">
         <v>0.11013215859031777</v>
       </c>
-      <c r="AG309" s="9">
+      <c r="AG309" s="8">
         <v>-0.34151894617011269</v>
       </c>
-      <c r="AH309" s="9">
+      <c r="AH309" s="8">
         <v>0.57712486883525416</v>
       </c>
-      <c r="AI309" s="9">
+      <c r="AI309" s="8">
         <v>0.78201368523949477</v>
       </c>
-      <c r="AJ309" s="9">
+      <c r="AJ309" s="8">
         <v>0.48658417906297796</v>
       </c>
-      <c r="AK309" s="9">
+      <c r="AK309" s="8">
         <v>2.716049382716053</v>
       </c>
-      <c r="AL309" s="9">
+      <c r="AL309" s="8">
         <v>0.73968336361276044</v>
       </c>
-      <c r="AM309" s="9">
+      <c r="AM309" s="8">
         <v>1.0562375107051067</v>
       </c>
-      <c r="AN309" s="9">
+      <c r="AN309" s="8">
         <v>1.2227362855254422</v>
       </c>
-      <c r="AO309" s="9">
+      <c r="AO309" s="8">
         <v>-0.70831562544269722</v>
       </c>
-      <c r="AP309" s="9">
+      <c r="AP309" s="8">
         <v>-0.33057851239669894</v>
       </c>
-      <c r="AQ309" s="9">
+      <c r="AQ309" s="8">
         <v>0.89037284362828206</v>
       </c>
-      <c r="AR309" s="9">
+      <c r="AR309" s="8">
         <v>0.77319587628867081</v>
       </c>
-      <c r="AS309" s="9">
+      <c r="AS309" s="8">
         <v>0.5185010605703485</v>
       </c>
-      <c r="AT309" s="9">
+      <c r="AT309" s="8">
         <v>2.0953294945617502</v>
       </c>
-      <c r="AU309" s="9">
+      <c r="AU309" s="8">
         <v>2.112979732643383</v>
       </c>
-      <c r="AV309" s="9">
+      <c r="AV309" s="8">
         <v>-0.53667262969588048</v>
       </c>
-      <c r="AW309" s="9">
+      <c r="AW309" s="8">
         <v>0.67596113223489007</v>
       </c>
-      <c r="AX309" s="9">
+      <c r="AX309" s="8">
         <v>1.6258710023226566</v>
       </c>
-      <c r="AY309" s="9">
+      <c r="AY309" s="8">
         <v>1.8384766907419452</v>
       </c>
-      <c r="AZ309" s="9">
+      <c r="AZ309" s="8">
         <v>4.8744820862780557E-2</v>
       </c>
-      <c r="BA309" s="9">
+      <c r="BA309" s="8">
         <v>1.1283497884344105</v>
       </c>
     </row>
@@ -50883,160 +50824,160 @@
       <c r="A310" s="7">
         <v>42491</v>
       </c>
-      <c r="B310" s="9">
+      <c r="B310" s="8">
         <v>0.82708475346512156</v>
       </c>
-      <c r="C310" s="9">
+      <c r="C310" s="8">
         <v>0</v>
       </c>
-      <c r="D310" s="9">
+      <c r="D310" s="8">
         <v>-1.2180267965895251</v>
       </c>
-      <c r="E310" s="9">
+      <c r="E310" s="8">
         <v>0.19550342130987569</v>
       </c>
-      <c r="F310" s="9">
+      <c r="F310" s="8">
         <v>9.416195856873287E-2</v>
       </c>
-      <c r="G310" s="9">
+      <c r="G310" s="8">
         <v>2.3721063160903078</v>
       </c>
-      <c r="H310" s="9">
+      <c r="H310" s="8">
         <v>1.0584556170315214</v>
       </c>
-      <c r="I310" s="9">
+      <c r="I310" s="8">
         <v>-0.29300962745919507</v>
       </c>
-      <c r="J310" s="9">
+      <c r="J310" s="8">
         <v>-0.30487804878047053</v>
       </c>
-      <c r="K310" s="9">
+      <c r="K310" s="8">
         <v>0.88421052631578712</v>
       </c>
-      <c r="L310" s="9">
+      <c r="L310" s="8">
         <v>1.2033694344163659</v>
       </c>
-      <c r="M310" s="9">
+      <c r="M310" s="8">
         <v>1.0312315851502651</v>
       </c>
-      <c r="N310" s="9">
+      <c r="N310" s="8">
         <v>-0.158730158730161</v>
       </c>
-      <c r="O310" s="9">
+      <c r="O310" s="8">
         <v>0.66722268557130704</v>
       </c>
-      <c r="P310" s="9">
+      <c r="P310" s="8">
         <v>-0.63886210221794459</v>
       </c>
-      <c r="Q310" s="9">
+      <c r="Q310" s="8">
         <v>0.14031805425630633</v>
       </c>
-      <c r="R310" s="9">
+      <c r="R310" s="8">
         <v>0.82320658565268301</v>
       </c>
-      <c r="S310" s="9">
+      <c r="S310" s="8">
         <v>-0.6225680933852118</v>
       </c>
-      <c r="T310" s="9">
+      <c r="T310" s="8">
         <v>-0.12539184952977345</v>
       </c>
-      <c r="U310" s="9">
+      <c r="U310" s="8">
         <v>6.1143381228978479E-2</v>
       </c>
-      <c r="V310" s="9">
+      <c r="V310" s="8">
         <v>0.6048387096774136</v>
       </c>
-      <c r="W310" s="9">
+      <c r="W310" s="8">
         <v>3.9729837107676892E-2</v>
       </c>
-      <c r="X310" s="9">
+      <c r="X310" s="8">
         <v>0.64387211367673935</v>
       </c>
-      <c r="Y310" s="9">
+      <c r="Y310" s="8">
         <v>-0.43690136111578265</v>
       </c>
-      <c r="Z310" s="9">
+      <c r="Z310" s="8">
         <v>0.47483380816714149</v>
       </c>
-      <c r="AA310" s="9">
+      <c r="AA310" s="8">
         <v>0.2464065708418868</v>
       </c>
-      <c r="AB310" s="9">
+      <c r="AB310" s="8">
         <v>-0.78250863060989118</v>
       </c>
-      <c r="AC310" s="9">
+      <c r="AC310" s="8">
         <v>1.2181616832779718</v>
       </c>
-      <c r="AD310" s="9">
+      <c r="AD310" s="8">
         <v>0.93841642228738675</v>
       </c>
-      <c r="AE310" s="9">
+      <c r="AE310" s="8">
         <v>1.6170763260025873</v>
       </c>
-      <c r="AF310" s="9">
+      <c r="AF310" s="8">
         <v>-0.6615214994487415</v>
       </c>
-      <c r="AG310" s="9">
+      <c r="AG310" s="8">
         <v>-6.5061808718278671E-2</v>
       </c>
-      <c r="AH310" s="9">
+      <c r="AH310" s="8">
         <v>0.63124671225671602</v>
       </c>
-      <c r="AI310" s="9">
+      <c r="AI310" s="8">
         <v>0.25057423261640627</v>
       </c>
-      <c r="AJ310" s="9">
+      <c r="AJ310" s="8">
         <v>0.49972237645752682</v>
       </c>
-      <c r="AK310" s="9">
+      <c r="AK310" s="8">
         <v>3.0864197530864197</v>
       </c>
-      <c r="AL310" s="9">
+      <c r="AL310" s="8">
         <v>0.34928848641656474</v>
       </c>
-      <c r="AM310" s="9">
+      <c r="AM310" s="8">
         <v>0.5701254275940707</v>
       </c>
-      <c r="AN310" s="9">
+      <c r="AN310" s="8">
         <v>1.2203166226912892</v>
       </c>
-      <c r="AO310" s="9">
+      <c r="AO310" s="8">
         <v>-0.79286422200196927</v>
       </c>
-      <c r="AP310" s="9">
+      <c r="AP310" s="8">
         <v>-0.49668874172184962</v>
       </c>
-      <c r="AQ310" s="9">
+      <c r="AQ310" s="8">
         <v>0.75041689827681723</v>
       </c>
-      <c r="AR310" s="9">
+      <c r="AR310" s="8">
         <v>0.51150895140663877</v>
       </c>
-      <c r="AS310" s="9">
+      <c r="AS310" s="8">
         <v>0.21161533035503813</v>
       </c>
-      <c r="AT310" s="9">
+      <c r="AT310" s="8">
         <v>2.1876829722680529</v>
       </c>
-      <c r="AU310" s="9">
+      <c r="AU310" s="8">
         <v>2.2834984920293029</v>
       </c>
-      <c r="AV310" s="9">
+      <c r="AV310" s="8">
         <v>-0.72202166064981688</v>
       </c>
-      <c r="AW310" s="9">
+      <c r="AW310" s="8">
         <v>0.40787623066103756</v>
       </c>
-      <c r="AX310" s="9">
+      <c r="AX310" s="8">
         <v>2.000000000000008</v>
       </c>
-      <c r="AY310" s="9">
+      <c r="AY310" s="8">
         <v>7.0175438596491269</v>
       </c>
-      <c r="AZ310" s="9">
+      <c r="AZ310" s="8">
         <v>-0.43977522599560503</v>
       </c>
-      <c r="BA310" s="9">
+      <c r="BA310" s="8">
         <v>1.1283497884344105</v>
       </c>
     </row>
@@ -51044,160 +50985,160 @@
       <c r="A311" s="7">
         <v>42522</v>
       </c>
-      <c r="B311" s="9">
+      <c r="B311" s="8">
         <v>0.90388808139534893</v>
       </c>
-      <c r="C311" s="9">
+      <c r="C311" s="8">
         <v>0.34455340577789856</v>
       </c>
-      <c r="D311" s="9">
+      <c r="D311" s="8">
         <v>-1.096224116930562</v>
       </c>
-      <c r="E311" s="9">
+      <c r="E311" s="8">
         <v>0.83374203040705674</v>
       </c>
-      <c r="F311" s="9">
+      <c r="F311" s="8">
         <v>0</v>
       </c>
-      <c r="G311" s="9">
+      <c r="G311" s="8">
         <v>2.188593279635513</v>
       </c>
-      <c r="H311" s="9">
+      <c r="H311" s="8">
         <v>2.0658179197693887</v>
       </c>
-      <c r="I311" s="9">
+      <c r="I311" s="8">
         <v>-0.50146259924781322</v>
       </c>
-      <c r="J311" s="9">
+      <c r="J311" s="8">
         <v>-0.91185410334345651</v>
       </c>
-      <c r="K311" s="9">
+      <c r="K311" s="8">
         <v>1.1368421052631532</v>
       </c>
-      <c r="L311" s="9">
+      <c r="L311" s="8">
         <v>1.248728147257423</v>
       </c>
-      <c r="M311" s="9">
+      <c r="M311" s="8">
         <v>1.1920529801324538</v>
       </c>
-      <c r="N311" s="9">
+      <c r="N311" s="8">
         <v>0</v>
       </c>
-      <c r="O311" s="9">
+      <c r="O311" s="8">
         <v>1.9327731092436951</v>
       </c>
-      <c r="P311" s="9">
+      <c r="P311" s="8">
         <v>-0.60204695966285371</v>
       </c>
-      <c r="Q311" s="9">
+      <c r="Q311" s="8">
         <v>-0.50961315728514911</v>
       </c>
-      <c r="R311" s="9">
+      <c r="R311" s="8">
         <v>1.3747054202670967</v>
       </c>
-      <c r="S311" s="9">
+      <c r="S311" s="8">
         <v>-0.46674445740957482</v>
       </c>
-      <c r="T311" s="9">
+      <c r="T311" s="8">
         <v>-0.4700720777185835</v>
       </c>
-      <c r="U311" s="9">
+      <c r="U311" s="8">
         <v>-0.61087354917532077</v>
       </c>
-      <c r="V311" s="9">
+      <c r="V311" s="8">
         <v>0.80321285140563381</v>
       </c>
-      <c r="W311" s="9">
+      <c r="W311" s="8">
         <v>-0.21730541288027772</v>
       </c>
-      <c r="X311" s="9">
+      <c r="X311" s="8">
         <v>-0.32959789057350031</v>
       </c>
-      <c r="Y311" s="9">
+      <c r="Y311" s="8">
         <v>1.6031049611879851</v>
       </c>
-      <c r="Z311" s="9">
+      <c r="Z311" s="8">
         <v>0.68949120304326617</v>
       </c>
-      <c r="AA311" s="9">
+      <c r="AA311" s="8">
         <v>0.36991368680640246</v>
       </c>
-      <c r="AB311" s="9">
+      <c r="AB311" s="8">
         <v>0.29830197338228803</v>
       </c>
-      <c r="AC311" s="9">
+      <c r="AC311" s="8">
         <v>1.7797552836484918</v>
       </c>
-      <c r="AD311" s="9">
+      <c r="AD311" s="8">
         <v>2.4018746338605879</v>
       </c>
-      <c r="AE311" s="9">
+      <c r="AE311" s="8">
         <v>-0.12911555842480119</v>
       </c>
-      <c r="AF311" s="9">
+      <c r="AF311" s="8">
         <v>1.0011123470522707</v>
       </c>
-      <c r="AG311" s="9">
+      <c r="AG311" s="8">
         <v>-6.5114764772908562E-2</v>
       </c>
-      <c r="AH311" s="9">
+      <c r="AH311" s="8">
         <v>0.26178010471204188</v>
       </c>
-      <c r="AI311" s="9">
+      <c r="AI311" s="8">
         <v>0.24317376502466476</v>
       </c>
-      <c r="AJ311" s="9">
+      <c r="AJ311" s="8">
         <v>1.334816462736361</v>
       </c>
-      <c r="AK311" s="9">
+      <c r="AK311" s="8">
         <v>2.7093596059113332</v>
       </c>
-      <c r="AL311" s="9">
+      <c r="AL311" s="8">
         <v>0.86922677737416265</v>
       </c>
-      <c r="AM311" s="9">
+      <c r="AM311" s="8">
         <v>0.74095183813052801</v>
       </c>
-      <c r="AN311" s="9">
+      <c r="AN311" s="8">
         <v>0.62274664044574801</v>
       </c>
-      <c r="AO311" s="9">
+      <c r="AO311" s="8">
         <v>-0.28421202216853769</v>
       </c>
-      <c r="AP311" s="9">
+      <c r="AP311" s="8">
         <v>0.6644518272425225</v>
       </c>
-      <c r="AQ311" s="9">
+      <c r="AQ311" s="8">
         <v>0.91692136704640492</v>
       </c>
-      <c r="AR311" s="9">
+      <c r="AR311" s="8">
         <v>1.5404364569961342</v>
       </c>
-      <c r="AS311" s="9">
+      <c r="AS311" s="8">
         <v>-7.0621468926556352E-2</v>
       </c>
-      <c r="AT311" s="9">
+      <c r="AT311" s="8">
         <v>2.1179468124634995</v>
       </c>
-      <c r="AU311" s="9">
+      <c r="AU311" s="8">
         <v>2.4117140396210259</v>
       </c>
-      <c r="AV311" s="9">
+      <c r="AV311" s="8">
         <v>-0.71301247771835752</v>
       </c>
-      <c r="AW311" s="9">
+      <c r="AW311" s="8">
         <v>0.30929284408829549</v>
       </c>
-      <c r="AX311" s="9">
+      <c r="AX311" s="8">
         <v>1.6014234875444839</v>
       </c>
-      <c r="AY311" s="9">
+      <c r="AY311" s="8">
         <v>1.4332247557003182</v>
       </c>
-      <c r="AZ311" s="9">
+      <c r="AZ311" s="8">
         <v>9.7680097680092129E-2</v>
       </c>
-      <c r="BA311" s="9">
+      <c r="BA311" s="8">
         <v>1.2711864406779743</v>
       </c>
     </row>
@@ -51205,160 +51146,160 @@
       <c r="A312" s="7">
         <v>42552</v>
       </c>
-      <c r="B312" s="9">
+      <c r="B312" s="8">
         <v>1.0258272434297127</v>
       </c>
-      <c r="C312" s="9">
+      <c r="C312" s="8">
         <v>0.66260270341902994</v>
       </c>
-      <c r="D312" s="9">
+      <c r="D312" s="8">
         <v>-1.9370460048426081</v>
       </c>
-      <c r="E312" s="9">
+      <c r="E312" s="8">
         <v>1.2801575578532716</v>
       </c>
-      <c r="F312" s="9">
+      <c r="F312" s="8">
         <v>-0.14091122592767091</v>
       </c>
-      <c r="G312" s="9">
+      <c r="G312" s="8">
         <v>1.8762410341613724</v>
       </c>
-      <c r="H312" s="9">
+      <c r="H312" s="8">
         <v>2.3032629558541187</v>
       </c>
-      <c r="I312" s="9">
+      <c r="I312" s="8">
         <v>-1.2965286491007924</v>
       </c>
-      <c r="J312" s="9">
+      <c r="J312" s="8">
         <v>0</v>
       </c>
-      <c r="K312" s="9">
+      <c r="K312" s="8">
         <v>-0.20973154362416108</v>
       </c>
-      <c r="L312" s="9">
+      <c r="L312" s="8">
         <v>1.3950480413894963</v>
       </c>
-      <c r="M312" s="9">
+      <c r="M312" s="8">
         <v>1.0285042609462238</v>
       </c>
-      <c r="N312" s="9">
+      <c r="N312" s="8">
         <v>0.15898251192369067</v>
       </c>
-      <c r="O312" s="9">
+      <c r="O312" s="8">
         <v>1.9230769230769325</v>
       </c>
-      <c r="P312" s="9">
+      <c r="P312" s="8">
         <v>-0.34935549933742649</v>
       </c>
-      <c r="Q312" s="9">
+      <c r="Q312" s="8">
         <v>-0.97515672161597144</v>
       </c>
-      <c r="R312" s="9">
+      <c r="R312" s="8">
         <v>1.3338564142801121</v>
       </c>
-      <c r="S312" s="9">
+      <c r="S312" s="8">
         <v>-0.38971161340609056</v>
       </c>
-      <c r="T312" s="9">
+      <c r="T312" s="8">
         <v>0.25180988353793243</v>
       </c>
-      <c r="U312" s="9">
+      <c r="U312" s="8">
         <v>-0.82568807339449202</v>
       </c>
-      <c r="V312" s="9">
+      <c r="V312" s="8">
         <v>0.50100200400801598</v>
       </c>
-      <c r="W312" s="9">
+      <c r="W312" s="8">
         <v>0.45780254777070295</v>
       </c>
-      <c r="X312" s="9">
+      <c r="X312" s="8">
         <v>0.6190581472474046</v>
       </c>
-      <c r="Y312" s="9">
+      <c r="Y312" s="8">
         <v>1.0248655913978342</v>
       </c>
-      <c r="Z312" s="9">
+      <c r="Z312" s="8">
         <v>1.6086434573829504</v>
       </c>
-      <c r="AA312" s="9">
+      <c r="AA312" s="8">
         <v>0.24600246002459791</v>
       </c>
-      <c r="AB312" s="9">
+      <c r="AB312" s="8">
         <v>0.48264766720293401</v>
       </c>
-      <c r="AC312" s="9">
+      <c r="AC312" s="8">
         <v>1.8909899888765167</v>
       </c>
-      <c r="AD312" s="9">
+      <c r="AD312" s="8">
         <v>1.813926272674075</v>
       </c>
-      <c r="AE312" s="9">
+      <c r="AE312" s="8">
         <v>2.9754204398447568</v>
       </c>
-      <c r="AF312" s="9">
+      <c r="AF312" s="8">
         <v>-0.7709251101321617</v>
       </c>
-      <c r="AG312" s="9">
+      <c r="AG312" s="8">
         <v>0.29320736276267606</v>
       </c>
-      <c r="AH312" s="9">
+      <c r="AH312" s="8">
         <v>0.10487676979549926</v>
       </c>
-      <c r="AI312" s="9">
+      <c r="AI312" s="8">
         <v>0.56328233657857496</v>
       </c>
-      <c r="AJ312" s="9">
+      <c r="AJ312" s="8">
         <v>1.3885031935573451</v>
       </c>
-      <c r="AK312" s="9">
+      <c r="AK312" s="8">
         <v>2.9556650246305312</v>
       </c>
-      <c r="AL312" s="9">
+      <c r="AL312" s="8">
         <v>0.86832555728355765</v>
       </c>
-      <c r="AM312" s="9">
+      <c r="AM312" s="8">
         <v>0.68337129840547672</v>
       </c>
-      <c r="AN312" s="9">
+      <c r="AN312" s="8">
         <v>2.6631158455392812</v>
       </c>
-      <c r="AO312" s="9">
+      <c r="AO312" s="8">
         <v>0.96577190739951058</v>
       </c>
-      <c r="AP312" s="9">
+      <c r="AP312" s="8">
         <v>0.99667774086377792</v>
       </c>
-      <c r="AQ312" s="9">
+      <c r="AQ312" s="8">
         <v>1.8857459789240028</v>
       </c>
-      <c r="AR312" s="9">
+      <c r="AR312" s="8">
         <v>1.5404364569961342</v>
       </c>
-      <c r="AS312" s="9">
+      <c r="AS312" s="8">
         <v>0.51776888679690414</v>
       </c>
-      <c r="AT312" s="9">
+      <c r="AT312" s="8">
         <v>2.2722457627118691</v>
       </c>
-      <c r="AU312" s="9">
+      <c r="AU312" s="8">
         <v>2.6202749140893444</v>
       </c>
-      <c r="AV312" s="9">
+      <c r="AV312" s="8">
         <v>2.3090586145648389</v>
       </c>
-      <c r="AW312" s="9">
+      <c r="AW312" s="8">
         <v>0.19635343618513004</v>
       </c>
-      <c r="AX312" s="9">
+      <c r="AX312" s="8">
         <v>1.9562511115063135</v>
       </c>
-      <c r="AY312" s="9">
+      <c r="AY312" s="8">
         <v>0.71289695398573838</v>
       </c>
-      <c r="AZ312" s="9">
+      <c r="AZ312" s="8">
         <v>1.0526315789473712</v>
       </c>
-      <c r="BA312" s="9">
+      <c r="BA312" s="8">
         <v>0.42194092827005819</v>
       </c>
     </row>
@@ -51366,160 +51307,160 @@
       <c r="A313" s="7">
         <v>42583</v>
       </c>
-      <c r="B313" s="9">
+      <c r="B313" s="8">
         <v>0.98310152675214058</v>
       </c>
-      <c r="C313" s="9">
+      <c r="C313" s="8">
         <v>0.81858991285978944</v>
       </c>
-      <c r="D313" s="9">
+      <c r="D313" s="8">
         <v>-1.3414634146341393</v>
       </c>
-      <c r="E313" s="9">
+      <c r="E313" s="8">
         <v>0.39119804400978553</v>
       </c>
-      <c r="F313" s="9">
+      <c r="F313" s="8">
         <v>-0.18788163457022344</v>
       </c>
-      <c r="G313" s="9">
+      <c r="G313" s="8">
         <v>1.8448840878747568</v>
       </c>
-      <c r="H313" s="9">
+      <c r="H313" s="8">
         <v>2.775119617224886</v>
       </c>
-      <c r="I313" s="9">
+      <c r="I313" s="8">
         <v>-1.4632107023411371</v>
       </c>
-      <c r="J313" s="9">
+      <c r="J313" s="8">
         <v>0.46082949308757515</v>
       </c>
-      <c r="K313" s="9">
+      <c r="K313" s="8">
         <v>0.16785564414602486</v>
       </c>
-      <c r="L313" s="9">
+      <c r="L313" s="8">
         <v>1.5225615945372335</v>
       </c>
-      <c r="M313" s="9">
+      <c r="M313" s="8">
         <v>1.0990621336459556</v>
       </c>
-      <c r="N313" s="9">
+      <c r="N313" s="8">
         <v>-1.3107170393215026</v>
       </c>
-      <c r="O313" s="9">
+      <c r="O313" s="8">
         <v>2.6072329688814082</v>
       </c>
-      <c r="P313" s="9">
+      <c r="P313" s="8">
         <v>-0.22875030098723539</v>
       </c>
-      <c r="Q313" s="9">
+      <c r="Q313" s="8">
         <v>0.94929381801343449</v>
       </c>
-      <c r="R313" s="9">
+      <c r="R313" s="8">
         <v>1.4106583072100403</v>
       </c>
-      <c r="S313" s="9">
+      <c r="S313" s="8">
         <v>-0.31201248049921332</v>
       </c>
-      <c r="T313" s="9">
+      <c r="T313" s="8">
         <v>0.59899117276167535</v>
       </c>
-      <c r="U313" s="9">
+      <c r="U313" s="8">
         <v>-1.2202562538133006</v>
       </c>
-      <c r="V313" s="9">
+      <c r="V313" s="8">
         <v>0.50050050050050054</v>
       </c>
-      <c r="W313" s="9">
+      <c r="W313" s="8">
         <v>0.67648229208117339</v>
       </c>
-      <c r="X313" s="9">
+      <c r="X313" s="8">
         <v>1.2430632630410705</v>
       </c>
-      <c r="Y313" s="9">
+      <c r="Y313" s="8">
         <v>1.2277161116717044</v>
       </c>
-      <c r="Z313" s="9">
+      <c r="Z313" s="8">
         <v>1.6232991167343069</v>
       </c>
-      <c r="AA313" s="9">
+      <c r="AA313" s="8">
         <v>-8.1766148814386194E-2</v>
       </c>
-      <c r="AB313" s="9">
+      <c r="AB313" s="8">
         <v>0.64293915040183958</v>
       </c>
-      <c r="AC313" s="9">
+      <c r="AC313" s="8">
         <v>1.6666666666666667</v>
       </c>
-      <c r="AD313" s="9">
+      <c r="AD313" s="8">
         <v>-0.35067212156633221</v>
       </c>
-      <c r="AE313" s="9">
+      <c r="AE313" s="8">
         <v>2.7688345138441615</v>
       </c>
-      <c r="AF313" s="9">
+      <c r="AF313" s="8">
         <v>1.766004415011047</v>
       </c>
-      <c r="AG313" s="9">
+      <c r="AG313" s="8">
         <v>0.21110750243586687</v>
       </c>
-      <c r="AH313" s="9">
+      <c r="AH313" s="8">
         <v>0</v>
       </c>
-      <c r="AI313" s="9">
+      <c r="AI313" s="8">
         <v>0.52836484983314158</v>
       </c>
-      <c r="AJ313" s="9">
+      <c r="AJ313" s="8">
         <v>1.0402219140083218</v>
       </c>
-      <c r="AK313" s="9">
+      <c r="AK313" s="8">
         <v>3.0788177339901477</v>
       </c>
-      <c r="AL313" s="9">
+      <c r="AL313" s="8">
         <v>0.97087378640776689</v>
       </c>
-      <c r="AM313" s="9">
+      <c r="AM313" s="8">
         <v>0.79749359156934041</v>
       </c>
-      <c r="AN313" s="9">
+      <c r="AN313" s="8">
         <v>2.206619859578725</v>
       </c>
-      <c r="AO313" s="9">
+      <c r="AO313" s="8">
         <v>-1.4064697609004605E-2</v>
       </c>
-      <c r="AP313" s="9">
+      <c r="AP313" s="8">
         <v>1.4975041597337746</v>
       </c>
-      <c r="AQ313" s="9">
+      <c r="AQ313" s="8">
         <v>1.4750904536598974</v>
       </c>
-      <c r="AR313" s="9">
+      <c r="AR313" s="8">
         <v>1.5424164524421631</v>
       </c>
-      <c r="AS313" s="9">
+      <c r="AS313" s="8">
         <v>0.68299576071596257</v>
       </c>
-      <c r="AT313" s="9">
+      <c r="AT313" s="8">
         <v>2.19588338007302</v>
       </c>
-      <c r="AU313" s="9">
+      <c r="AU313" s="8">
         <v>2.3136246786632415</v>
       </c>
-      <c r="AV313" s="9">
+      <c r="AV313" s="8">
         <v>1.2567324955116619</v>
       </c>
-      <c r="AW313" s="9">
+      <c r="AW313" s="8">
         <v>0.49122807017543862</v>
       </c>
-      <c r="AX313" s="9">
+      <c r="AX313" s="8">
         <v>1.6640113294388348</v>
       </c>
-      <c r="AY313" s="9">
+      <c r="AY313" s="8">
         <v>0.97276264591439687</v>
       </c>
-      <c r="AZ313" s="9">
+      <c r="AZ313" s="8">
         <v>1.5927468757657437</v>
       </c>
-      <c r="BA313" s="9">
+      <c r="BA313" s="8">
         <v>-0.55710306406684051</v>
       </c>
     </row>
@@ -51527,160 +51468,160 @@
       <c r="A314" s="7">
         <v>42614</v>
       </c>
-      <c r="B314" s="9">
+      <c r="B314" s="8">
         <v>1.1742304030466519</v>
       </c>
-      <c r="C314" s="9">
+      <c r="C314" s="8">
         <v>0.63593004769476269</v>
       </c>
-      <c r="D314" s="9">
+      <c r="D314" s="8">
         <v>-1.5853658536585331</v>
       </c>
-      <c r="E314" s="9">
+      <c r="E314" s="8">
         <v>1.1005135730007336</v>
       </c>
-      <c r="F314" s="9">
+      <c r="F314" s="8">
         <v>-0.61032863849765795</v>
       </c>
-      <c r="G314" s="9">
+      <c r="G314" s="8">
         <v>2.1245657969141249</v>
       </c>
-      <c r="H314" s="9">
+      <c r="H314" s="8">
         <v>2.4326258049129477</v>
       </c>
-      <c r="I314" s="9">
+      <c r="I314" s="8">
         <v>-1.5468227424749117</v>
       </c>
-      <c r="J314" s="9">
+      <c r="J314" s="8">
         <v>0.15290519877674968</v>
       </c>
-      <c r="K314" s="9">
+      <c r="K314" s="8">
         <v>0.25199496010079564</v>
       </c>
-      <c r="L314" s="9">
+      <c r="L314" s="8">
         <v>2.0238425284169757</v>
       </c>
-      <c r="M314" s="9">
+      <c r="M314" s="8">
         <v>1.9043401240035396</v>
       </c>
-      <c r="N314" s="9">
+      <c r="N314" s="8">
         <v>0.47543581616481323</v>
       </c>
-      <c r="O314" s="9">
+      <c r="O314" s="8">
         <v>2.1739130434782683</v>
       </c>
-      <c r="P314" s="9">
+      <c r="P314" s="8">
         <v>0.51894762249577053</v>
       </c>
-      <c r="Q314" s="9">
+      <c r="Q314" s="8">
         <v>0.97993467102192922</v>
       </c>
-      <c r="R314" s="9">
+      <c r="R314" s="8">
         <v>1.5288122304978462</v>
       </c>
-      <c r="S314" s="9">
+      <c r="S314" s="8">
         <v>0.1953125</v>
       </c>
-      <c r="T314" s="9">
+      <c r="T314" s="8">
         <v>0.22012578616351844</v>
       </c>
-      <c r="U314" s="9">
+      <c r="U314" s="8">
         <v>-9.1715071843476409E-2</v>
       </c>
-      <c r="V314" s="9">
+      <c r="V314" s="8">
         <v>0.90543259557343203</v>
       </c>
-      <c r="W314" s="9">
+      <c r="W314" s="8">
         <v>-7.9255002972058106E-2</v>
       </c>
-      <c r="X314" s="9">
+      <c r="X314" s="8">
         <v>1.7172167707404207</v>
       </c>
-      <c r="Y314" s="9">
+      <c r="Y314" s="8">
         <v>2.2022700321870237</v>
       </c>
-      <c r="Z314" s="9">
+      <c r="Z314" s="8">
         <v>1.696535244922347</v>
       </c>
-      <c r="AA314" s="9">
+      <c r="AA314" s="8">
         <v>0.49301561216104706</v>
       </c>
-      <c r="AB314" s="9">
+      <c r="AB314" s="8">
         <v>0.94797687861272206</v>
       </c>
-      <c r="AC314" s="9">
+      <c r="AC314" s="8">
         <v>1.4396456256921342</v>
       </c>
-      <c r="AD314" s="9">
+      <c r="AD314" s="8">
         <v>1.69789227166275</v>
       </c>
-      <c r="AE314" s="9">
+      <c r="AE314" s="8">
         <v>1.8577834721332516</v>
       </c>
-      <c r="AF314" s="9">
+      <c r="AF314" s="8">
         <v>1.0011123470522707</v>
       </c>
-      <c r="AG314" s="9">
+      <c r="AG314" s="8">
         <v>0.27705345501954559</v>
       </c>
-      <c r="AH314" s="9">
+      <c r="AH314" s="8">
         <v>-0.20909566126503168</v>
       </c>
-      <c r="AI314" s="9">
+      <c r="AI314" s="8">
         <v>0.51328292987444424</v>
       </c>
-      <c r="AJ314" s="9">
+      <c r="AJ314" s="8">
         <v>1.9204007792930633</v>
       </c>
-      <c r="AK314" s="9">
+      <c r="AK314" s="8">
         <v>2.9666254635352178</v>
       </c>
-      <c r="AL314" s="9">
+      <c r="AL314" s="8">
         <v>0.89320388349514268</v>
       </c>
-      <c r="AM314" s="9">
+      <c r="AM314" s="8">
         <v>0.34052213393871894</v>
       </c>
-      <c r="AN314" s="9">
+      <c r="AN314" s="8">
         <v>2.9950083194675541</v>
       </c>
-      <c r="AO314" s="9">
+      <c r="AO314" s="8">
         <v>0.89311029203289882</v>
       </c>
-      <c r="AP314" s="9">
+      <c r="AP314" s="8">
         <v>1.6666666666666667</v>
       </c>
-      <c r="AQ314" s="9">
+      <c r="AQ314" s="8">
         <v>0.58027079303675688</v>
       </c>
-      <c r="AR314" s="9">
+      <c r="AR314" s="8">
         <v>1.4120667522464623</v>
       </c>
-      <c r="AS314" s="9">
+      <c r="AS314" s="8">
         <v>0.30502111684655359</v>
       </c>
-      <c r="AT314" s="9">
+      <c r="AT314" s="8">
         <v>2.2843847496166281</v>
       </c>
-      <c r="AU314" s="9">
+      <c r="AU314" s="8">
         <v>2.8706083976006807</v>
       </c>
-      <c r="AV314" s="9">
+      <c r="AV314" s="8">
         <v>1.0810810810810836</v>
       </c>
-      <c r="AW314" s="9">
+      <c r="AW314" s="8">
         <v>0.36552790664979939</v>
       </c>
-      <c r="AX314" s="9">
+      <c r="AX314" s="8">
         <v>2.0789288231148615</v>
       </c>
-      <c r="AY314" s="9">
+      <c r="AY314" s="8">
         <v>0.32530904359141188</v>
       </c>
-      <c r="AZ314" s="9">
+      <c r="AZ314" s="8">
         <v>0.2939735423811829</v>
       </c>
-      <c r="BA314" s="9">
+      <c r="BA314" s="8">
         <v>-0.69735006973500702</v>
       </c>
     </row>
@@ -51688,160 +51629,160 @@
       <c r="A315" s="7">
         <v>42644</v>
       </c>
-      <c r="B315" s="9">
+      <c r="B315" s="8">
         <v>1.1058738216098623</v>
       </c>
-      <c r="C315" s="9">
+      <c r="C315" s="8">
         <v>1.0087602867002952</v>
       </c>
-      <c r="D315" s="9">
+      <c r="D315" s="8">
         <v>-0.85679314565483811</v>
       </c>
-      <c r="E315" s="9">
+      <c r="E315" s="8">
         <v>0.46307579819643607</v>
       </c>
-      <c r="F315" s="9">
+      <c r="F315" s="8">
         <v>-0.84546735556599883</v>
       </c>
-      <c r="G315" s="9">
+      <c r="G315" s="8">
         <v>2.6888449271266466</v>
       </c>
-      <c r="H315" s="9">
+      <c r="H315" s="8">
         <v>1.7631641648796843</v>
       </c>
-      <c r="I315" s="9">
+      <c r="I315" s="8">
         <v>-2.0108923334729716</v>
       </c>
-      <c r="J315" s="9">
+      <c r="J315" s="8">
         <v>0.76804915514592942</v>
       </c>
-      <c r="K315" s="9">
+      <c r="K315" s="8">
         <v>0.54598908021840042</v>
       </c>
-      <c r="L315" s="9">
+      <c r="L315" s="8">
         <v>1.3367751452014383</v>
       </c>
-      <c r="M315" s="9">
+      <c r="M315" s="8">
         <v>1.7375938742453179</v>
       </c>
-      <c r="N315" s="9">
+      <c r="N315" s="8">
         <v>0.23734177215189647</v>
       </c>
-      <c r="O315" s="9">
+      <c r="O315" s="8">
         <v>2.8428093645485002</v>
       </c>
-      <c r="P315" s="9">
+      <c r="P315" s="8">
         <v>0.4826254826254826</v>
       </c>
-      <c r="Q315" s="9">
+      <c r="Q315" s="8">
         <v>1.6725559481743282</v>
       </c>
-      <c r="R315" s="9">
+      <c r="R315" s="8">
         <v>1.0152284263959257</v>
       </c>
-      <c r="S315" s="9">
+      <c r="S315" s="8">
         <v>0.27375831052013638</v>
       </c>
-      <c r="T315" s="9">
+      <c r="T315" s="8">
         <v>9.4132412927521614E-2</v>
       </c>
-      <c r="U315" s="9">
+      <c r="U315" s="8">
         <v>-0.70508890251379874</v>
       </c>
-      <c r="V315" s="9">
+      <c r="V315" s="8">
         <v>0.90634441087613871</v>
       </c>
-      <c r="W315" s="9">
+      <c r="W315" s="8">
         <v>0.41791044776119857</v>
       </c>
-      <c r="X315" s="9">
+      <c r="X315" s="8">
         <v>2.0208749722407209</v>
       </c>
-      <c r="Y315" s="9">
+      <c r="Y315" s="8">
         <v>2.304069963000325</v>
       </c>
-      <c r="Z315" s="9">
+      <c r="Z315" s="8">
         <v>2.5818790341859934</v>
       </c>
-      <c r="AA315" s="9">
+      <c r="AA315" s="8">
         <v>0.78060805258833432</v>
       </c>
-      <c r="AB315" s="9">
+      <c r="AB315" s="8">
         <v>1.0660486674391709</v>
       </c>
-      <c r="AC315" s="9">
+      <c r="AC315" s="8">
         <v>1.5435501653803654</v>
       </c>
-      <c r="AD315" s="9">
+      <c r="AD315" s="8">
         <v>5.8309037900871316E-2</v>
       </c>
-      <c r="AE315" s="9">
+      <c r="AE315" s="8">
         <v>3.3744321868916396</v>
       </c>
-      <c r="AF315" s="9">
+      <c r="AF315" s="8">
         <v>1.5538290788013382</v>
       </c>
-      <c r="AG315" s="9">
+      <c r="AG315" s="8">
         <v>-9.7895252080277828E-2</v>
       </c>
-      <c r="AH315" s="9">
+      <c r="AH315" s="8">
         <v>0</v>
       </c>
-      <c r="AI315" s="9">
+      <c r="AI315" s="8">
         <v>0.84103704733439266</v>
       </c>
-      <c r="AJ315" s="9">
+      <c r="AJ315" s="8">
         <v>1.6404838036980494</v>
       </c>
-      <c r="AK315" s="9">
+      <c r="AK315" s="8">
         <v>0.8505467800729074</v>
       </c>
-      <c r="AL315" s="9">
+      <c r="AL315" s="8">
         <v>0.16815418445219951</v>
       </c>
-      <c r="AM315" s="9">
+      <c r="AM315" s="8">
         <v>0.17006802721087469</v>
       </c>
-      <c r="AN315" s="9">
+      <c r="AN315" s="8">
         <v>2.0881670533642729</v>
       </c>
-      <c r="AO315" s="9">
+      <c r="AO315" s="8">
         <v>0.45629545130472626</v>
       </c>
-      <c r="AP315" s="9">
+      <c r="AP315" s="8">
         <v>0.99833610648918714</v>
       </c>
-      <c r="AQ315" s="9">
+      <c r="AQ315" s="8">
         <v>0.58075221238937103</v>
       </c>
-      <c r="AR315" s="9">
+      <c r="AR315" s="8">
         <v>0.76923076923076195</v>
       </c>
-      <c r="AS315" s="9">
+      <c r="AS315" s="8">
         <v>1.3856270549553729</v>
       </c>
-      <c r="AT315" s="9">
+      <c r="AT315" s="8">
         <v>2.1656454679907036</v>
       </c>
-      <c r="AU315" s="9">
+      <c r="AU315" s="8">
         <v>2.7789653698161607</v>
       </c>
-      <c r="AV315" s="9">
+      <c r="AV315" s="8">
         <v>0.18050541516245744</v>
       </c>
-      <c r="AW315" s="9">
+      <c r="AW315" s="8">
         <v>0.5049796605414536</v>
       </c>
-      <c r="AX315" s="9">
+      <c r="AX315" s="8">
         <v>2.6086956521739211</v>
       </c>
-      <c r="AY315" s="9">
+      <c r="AY315" s="8">
         <v>0.97276264591439687</v>
       </c>
-      <c r="AZ315" s="9">
+      <c r="AZ315" s="8">
         <v>1.8627450980392213</v>
       </c>
-      <c r="BA315" s="9">
+      <c r="BA315" s="8">
         <v>-1.1157601115760072</v>
       </c>
     </row>
@@ -51849,160 +51790,160 @@
       <c r="A316" s="7">
         <v>42675</v>
       </c>
-      <c r="B316" s="9">
+      <c r="B316" s="8">
         <v>0.98749773509693783</v>
       </c>
-      <c r="C316" s="9">
+      <c r="C316" s="8">
         <v>0.98221396336607081</v>
       </c>
-      <c r="D316" s="9">
+      <c r="D316" s="8">
         <v>-0.97799511002444639</v>
       </c>
-      <c r="E316" s="9">
+      <c r="E316" s="8">
         <v>7.2904009720537385E-2</v>
       </c>
-      <c r="F316" s="9">
+      <c r="F316" s="8">
         <v>-0.5183788878416562</v>
       </c>
-      <c r="G316" s="9">
+      <c r="G316" s="8">
         <v>2.3666491956618074</v>
       </c>
-      <c r="H316" s="9">
+      <c r="H316" s="8">
         <v>1.4705882352941149</v>
       </c>
-      <c r="I316" s="9">
+      <c r="I316" s="8">
         <v>-1.8844221105527637</v>
       </c>
-      <c r="J316" s="9">
+      <c r="J316" s="8">
         <v>-0.15337423312884743</v>
       </c>
-      <c r="K316" s="9">
+      <c r="K316" s="8">
         <v>0.54484492875105262</v>
       </c>
-      <c r="L316" s="9">
+      <c r="L316" s="8">
         <v>1.2815784621058539</v>
       </c>
-      <c r="M316" s="9">
+      <c r="M316" s="8">
         <v>1.8842926542028662</v>
       </c>
-      <c r="N316" s="9">
+      <c r="N316" s="8">
         <v>2.8067361668003095</v>
       </c>
-      <c r="O316" s="9">
+      <c r="O316" s="8">
         <v>2.8380634390651136</v>
       </c>
-      <c r="P316" s="9">
+      <c r="P316" s="8">
         <v>0.44691387848774555</v>
       </c>
-      <c r="Q316" s="9">
+      <c r="Q316" s="8">
         <v>1.3627819548872071</v>
       </c>
-      <c r="R316" s="9">
+      <c r="R316" s="8">
         <v>0.62426843542722033</v>
       </c>
-      <c r="S316" s="9">
+      <c r="S316" s="8">
         <v>0.11737089201878378</v>
       </c>
-      <c r="T316" s="9">
+      <c r="T316" s="8">
         <v>-6.267627702915872E-2</v>
       </c>
-      <c r="U316" s="9">
+      <c r="U316" s="8">
         <v>-0.73597056117756332</v>
       </c>
-      <c r="V316" s="9">
+      <c r="V316" s="8">
         <v>0.40241448692152054</v>
       </c>
-      <c r="W316" s="9">
+      <c r="W316" s="8">
         <v>0.6567164179104501</v>
       </c>
-      <c r="X316" s="9">
+      <c r="X316" s="8">
         <v>3.0053428317008013</v>
       </c>
-      <c r="Y316" s="9">
+      <c r="Y316" s="8">
         <v>2.6107461680983661</v>
       </c>
-      <c r="Z316" s="9">
+      <c r="Z316" s="8">
         <v>2.4617590822179758</v>
       </c>
-      <c r="AA316" s="9">
+      <c r="AA316" s="8">
         <v>0.73952341824157064</v>
       </c>
-      <c r="AB316" s="9">
+      <c r="AB316" s="8">
         <v>0.9031959240389017</v>
       </c>
-      <c r="AC316" s="9">
+      <c r="AC316" s="8">
         <v>1.5469613259668571</v>
       </c>
-      <c r="AD316" s="9">
+      <c r="AD316" s="8">
         <v>-0.11655011655010994</v>
       </c>
-      <c r="AE316" s="9">
+      <c r="AE316" s="8">
         <v>2.5112685125563279</v>
       </c>
-      <c r="AF316" s="9">
+      <c r="AF316" s="8">
         <v>1.2195121951219448</v>
       </c>
-      <c r="AG316" s="9">
+      <c r="AG316" s="8">
         <v>-0.19569471624266885</v>
       </c>
-      <c r="AH316" s="9">
+      <c r="AH316" s="8">
         <v>0.4177545691906065</v>
       </c>
-      <c r="AI316" s="9">
+      <c r="AI316" s="8">
         <v>0.70095079464223109</v>
       </c>
-      <c r="AJ316" s="9">
+      <c r="AJ316" s="8">
         <v>1.5420950263962243</v>
       </c>
-      <c r="AK316" s="9">
+      <c r="AK316" s="8">
         <v>0.84745762711864758</v>
       </c>
-      <c r="AL316" s="9">
+      <c r="AL316" s="8">
         <v>0.27166882276843762</v>
       </c>
-      <c r="AM316" s="9">
+      <c r="AM316" s="8">
         <v>8.4985835694054213E-2</v>
       </c>
-      <c r="AN316" s="9">
+      <c r="AN316" s="8">
         <v>2.0509427720807105</v>
       </c>
-      <c r="AO316" s="9">
+      <c r="AO316" s="8">
         <v>0.28506271379703535</v>
       </c>
-      <c r="AP316" s="9">
+      <c r="AP316" s="8">
         <v>1.5025041736227021</v>
       </c>
-      <c r="AQ316" s="9">
+      <c r="AQ316" s="8">
         <v>0.85635359116022736</v>
       </c>
-      <c r="AR316" s="9">
+      <c r="AR316" s="8">
         <v>1.5384615384615421</v>
       </c>
-      <c r="AS316" s="9">
+      <c r="AS316" s="8">
         <v>0.84646132142016595</v>
       </c>
-      <c r="AT316" s="9">
+      <c r="AT316" s="8">
         <v>2.1834291440324929</v>
       </c>
-      <c r="AU316" s="9">
+      <c r="AU316" s="8">
         <v>2.4754588134869753</v>
       </c>
-      <c r="AV316" s="9">
+      <c r="AV316" s="8">
         <v>0</v>
       </c>
-      <c r="AW316" s="9">
+      <c r="AW316" s="8">
         <v>0.26662924501823987</v>
       </c>
-      <c r="AX316" s="9">
+      <c r="AX316" s="8">
         <v>2.5336640680368654</v>
       </c>
-      <c r="AY316" s="9">
+      <c r="AY316" s="8">
         <v>6.7401166558651822</v>
       </c>
-      <c r="AZ316" s="9">
+      <c r="AZ316" s="8">
         <v>3.8784584980237122</v>
       </c>
-      <c r="BA316" s="9">
+      <c r="BA316" s="8">
         <v>-1.392757660167131</v>
       </c>
     </row>
@@ -52010,160 +51951,160 @@
       <c r="A317" s="7">
         <v>42705</v>
       </c>
-      <c r="B317" s="9">
+      <c r="B317" s="8">
         <v>0.90958457778984525</v>
       </c>
-      <c r="C317" s="9">
+      <c r="C317" s="8">
         <v>0.74270557029178019</v>
       </c>
-      <c r="D317" s="9">
+      <c r="D317" s="8">
         <v>-1.2224938875305624</v>
       </c>
-      <c r="E317" s="9">
+      <c r="E317" s="8">
         <v>0.31676413255360902</v>
       </c>
-      <c r="F317" s="9">
+      <c r="F317" s="8">
         <v>-0.75187969924813092</v>
       </c>
-      <c r="G317" s="9">
+      <c r="G317" s="8">
         <v>2.3727177672323658</v>
       </c>
-      <c r="H317" s="9">
+      <c r="H317" s="8">
         <v>1.2538443340430594</v>
       </c>
-      <c r="I317" s="9">
+      <c r="I317" s="8">
         <v>-1.8052057094878182</v>
       </c>
-      <c r="J317" s="9">
+      <c r="J317" s="8">
         <v>-0.30674846625767305</v>
       </c>
-      <c r="K317" s="9">
+      <c r="K317" s="8">
         <v>0.58601925491837825</v>
       </c>
-      <c r="L317" s="9">
+      <c r="L317" s="8">
         <v>1.3730187983781665</v>
       </c>
-      <c r="M317" s="9">
+      <c r="M317" s="8">
         <v>1.4682131845543973</v>
       </c>
-      <c r="N317" s="9">
+      <c r="N317" s="8">
         <v>-0.15822784810126805</v>
       </c>
-      <c r="O317" s="9">
+      <c r="O317" s="8">
         <v>2.6711185308848107</v>
       </c>
-      <c r="P317" s="9">
+      <c r="P317" s="8">
         <v>0.28943560057886847</v>
       </c>
-      <c r="Q317" s="9">
+      <c r="Q317" s="8">
         <v>0.84309133489461896</v>
       </c>
-      <c r="R317" s="9">
+      <c r="R317" s="8">
         <v>0.70120763537203401</v>
       </c>
-      <c r="S317" s="9">
+      <c r="S317" s="8">
         <v>0.62573328118890215</v>
       </c>
-      <c r="T317" s="9">
+      <c r="T317" s="8">
         <v>-0.28151391929933606</v>
       </c>
-      <c r="U317" s="9">
+      <c r="U317" s="8">
         <v>-0.6151953245155336</v>
       </c>
-      <c r="V317" s="9">
+      <c r="V317" s="8">
         <v>0.10060362173037658</v>
       </c>
-      <c r="W317" s="9">
+      <c r="W317" s="8">
         <v>0.39674667724657808</v>
       </c>
-      <c r="X317" s="9">
+      <c r="X317" s="8">
         <v>1.4637391882900916</v>
       </c>
-      <c r="Y317" s="9">
+      <c r="Y317" s="8">
         <v>2.4869769786590412</v>
       </c>
-      <c r="Z317" s="9">
+      <c r="Z317" s="8">
         <v>2.5781809501074271</v>
       </c>
-      <c r="AA317" s="9">
+      <c r="AA317" s="8">
         <v>0.61626951520131468</v>
       </c>
-      <c r="AB317" s="9">
+      <c r="AB317" s="8">
         <v>0.78612716763005253</v>
       </c>
-      <c r="AC317" s="9">
+      <c r="AC317" s="8">
         <v>0.98901098901099527</v>
       </c>
-      <c r="AD317" s="9">
+      <c r="AD317" s="8">
         <v>-0.40768782760628347</v>
       </c>
-      <c r="AE317" s="9">
+      <c r="AE317" s="8">
         <v>1.8577834721332516</v>
       </c>
-      <c r="AF317" s="9">
+      <c r="AF317" s="8">
         <v>0.44345898004433643</v>
       </c>
-      <c r="AG317" s="9">
+      <c r="AG317" s="8">
         <v>-0.30979944562204098</v>
       </c>
-      <c r="AH317" s="9">
+      <c r="AH317" s="8">
         <v>0.20942408376963648</v>
       </c>
-      <c r="AI317" s="9">
+      <c r="AI317" s="8">
         <v>0.60311958405546251</v>
       </c>
-      <c r="AJ317" s="9">
+      <c r="AJ317" s="8">
         <v>1.3842746400885937</v>
       </c>
-      <c r="AK317" s="9">
+      <c r="AK317" s="8">
         <v>0.72463768115943061</v>
       </c>
-      <c r="AL317" s="9">
+      <c r="AL317" s="8">
         <v>-0.31007751937984201</v>
       </c>
-      <c r="AM317" s="9">
+      <c r="AM317" s="8">
         <v>-2.8280542986431765E-2</v>
       </c>
-      <c r="AN317" s="9">
+      <c r="AN317" s="8">
         <v>1.7480211081794232</v>
       </c>
-      <c r="AO317" s="9">
+      <c r="AO317" s="8">
         <v>0.31388215151948146</v>
       </c>
-      <c r="AP317" s="9">
+      <c r="AP317" s="8">
         <v>0.83056478405315604</v>
       </c>
-      <c r="AQ317" s="9">
+      <c r="AQ317" s="8">
         <v>0.74503311258279403</v>
       </c>
-      <c r="AR317" s="9">
+      <c r="AR317" s="8">
         <v>1.0230179028132955</v>
       </c>
-      <c r="AS317" s="9">
+      <c r="AS317" s="8">
         <v>0.68171133051246691</v>
       </c>
-      <c r="AT317" s="9">
+      <c r="AT317" s="8">
         <v>2.0779630701246776</v>
       </c>
-      <c r="AU317" s="9">
+      <c r="AU317" s="8">
         <v>2.3384353741496602</v>
       </c>
-      <c r="AV317" s="9">
+      <c r="AV317" s="8">
         <v>0.54151624548737232</v>
       </c>
-      <c r="AW317" s="9">
+      <c r="AW317" s="8">
         <v>0.32267115600449892</v>
       </c>
-      <c r="AX317" s="9">
+      <c r="AX317" s="8">
         <v>2.5990099009900867</v>
       </c>
-      <c r="AY317" s="9">
+      <c r="AY317" s="8">
         <v>0.97213220998055727</v>
       </c>
-      <c r="AZ317" s="9">
+      <c r="AZ317" s="8">
         <v>2.2493887530562322</v>
       </c>
-      <c r="BA317" s="9">
+      <c r="BA317" s="8">
         <v>-1.253481894150406</v>
       </c>
     </row>
@@ -52171,160 +52112,160 @@
       <c r="A318" s="7">
         <v>42736</v>
       </c>
-      <c r="B318" s="9">
-        <v>0.91344849416659135</v>
-      </c>
-      <c r="C318" s="9">
+      <c r="B318" s="8">
+        <v>0.89083838292484396</v>
+      </c>
+      <c r="C318" s="8">
         <v>0.53008216273522391</v>
       </c>
-      <c r="D318" s="9">
+      <c r="D318" s="8">
         <v>-0.8547008547008581</v>
       </c>
-      <c r="E318" s="9">
+      <c r="E318" s="8">
         <v>0.31761544099682659</v>
       </c>
-      <c r="F318" s="9">
+      <c r="F318" s="8">
         <v>-0.70488721804511278</v>
       </c>
-      <c r="G318" s="9">
+      <c r="G318" s="8">
         <v>2.1272317838185471</v>
       </c>
-      <c r="H318" s="9">
+      <c r="H318" s="8">
         <v>2.1462264150943451</v>
       </c>
-      <c r="I318" s="9">
+      <c r="I318" s="8">
         <v>-1.8479630407391878</v>
       </c>
-      <c r="J318" s="9">
+      <c r="J318" s="8">
         <v>-0.30674846625767305</v>
       </c>
-      <c r="K318" s="9">
+      <c r="K318" s="8">
         <v>0.50146259924780134</v>
       </c>
-      <c r="L318" s="9">
+      <c r="L318" s="8">
         <v>1.5555964653902672</v>
       </c>
-      <c r="M318" s="9">
+      <c r="M318" s="8">
         <v>1.7170531259172359</v>
       </c>
-      <c r="N318" s="9">
+      <c r="N318" s="8">
         <v>1.0433386837881313</v>
       </c>
-      <c r="O318" s="9">
+      <c r="O318" s="8">
         <v>3.330557868442964</v>
       </c>
-      <c r="P318" s="9">
+      <c r="P318" s="8">
         <v>8.4459459459464953E-2</v>
       </c>
-      <c r="Q318" s="9">
+      <c r="Q318" s="8">
         <v>1.0553470919324579</v>
       </c>
-      <c r="R318" s="9">
+      <c r="R318" s="8">
         <v>0.5058365758754908</v>
       </c>
-      <c r="S318" s="9">
+      <c r="S318" s="8">
         <v>-7.8339208773998054E-2</v>
       </c>
-      <c r="T318" s="9">
+      <c r="T318" s="8">
         <v>-0.18796992481201941</v>
       </c>
-      <c r="U318" s="9">
+      <c r="U318" s="8">
         <v>-0.70422535211267945</v>
       </c>
-      <c r="V318" s="9">
+      <c r="V318" s="8">
         <v>0.30272452068618705</v>
       </c>
-      <c r="W318" s="9">
+      <c r="W318" s="8">
         <v>1.2925034798170612</v>
       </c>
-      <c r="X318" s="9">
+      <c r="X318" s="8">
         <v>2.1068973164781553</v>
       </c>
-      <c r="Y318" s="9">
+      <c r="Y318" s="8">
         <v>2.4541939821818834</v>
       </c>
-      <c r="Z318" s="9">
+      <c r="Z318" s="8">
         <v>1.041173686701367</v>
       </c>
-      <c r="AA318" s="9">
+      <c r="AA318" s="8">
         <v>0.53278688524590634</v>
       </c>
-      <c r="AB318" s="9">
+      <c r="AB318" s="8">
         <v>0.64754856614246337</v>
       </c>
-      <c r="AC318" s="9">
+      <c r="AC318" s="8">
         <v>0.9933774834437149</v>
       </c>
-      <c r="AD318" s="9">
+      <c r="AD318" s="8">
         <v>-0.29120559114735006</v>
       </c>
-      <c r="AE318" s="9">
+      <c r="AE318" s="8">
         <v>2.3733162283514999</v>
       </c>
-      <c r="AF318" s="9">
+      <c r="AF318" s="8">
         <v>0.88593576965669674</v>
       </c>
-      <c r="AG318" s="9">
+      <c r="AG318" s="8">
         <v>-0.61969993476843899</v>
       </c>
-      <c r="AH318" s="9">
+      <c r="AH318" s="8">
         <v>-0.99268547544409913</v>
       </c>
-      <c r="AI318" s="9">
+      <c r="AI318" s="8">
         <v>0.5472809144440659</v>
       </c>
-      <c r="AJ318" s="9">
+      <c r="AJ318" s="8">
         <v>1.1123470522803114</v>
       </c>
-      <c r="AK318" s="9">
+      <c r="AK318" s="8">
         <v>1.5643802647412892</v>
       </c>
-      <c r="AL318" s="9">
+      <c r="AL318" s="8">
         <v>-0.27103768714505799</v>
       </c>
-      <c r="AM318" s="9">
+      <c r="AM318" s="8">
         <v>0.19790783149561453</v>
       </c>
-      <c r="AN318" s="9">
+      <c r="AN318" s="8">
         <v>0.42791310072416433</v>
       </c>
-      <c r="AO318" s="9">
+      <c r="AO318" s="8">
         <v>-0.25633722586158758</v>
       </c>
-      <c r="AP318" s="9">
+      <c r="AP318" s="8">
         <v>0.49833887043188896</v>
       </c>
-      <c r="AQ318" s="9">
+      <c r="AQ318" s="8">
         <v>0.71803369235017001</v>
       </c>
-      <c r="AR318" s="9">
+      <c r="AR318" s="8">
         <v>2.1794871794871833</v>
       </c>
-      <c r="AS318" s="9">
+      <c r="AS318" s="8">
         <v>1.6451233842538191</v>
       </c>
-      <c r="AT318" s="9">
+      <c r="AT318" s="8">
         <v>2.1328010086152625</v>
       </c>
-      <c r="AU318" s="9">
+      <c r="AU318" s="8">
         <v>1.9982993197278986</v>
       </c>
-      <c r="AV318" s="9">
+      <c r="AV318" s="8">
         <v>0.36036036036036551</v>
       </c>
-      <c r="AW318" s="9">
+      <c r="AW318" s="8">
         <v>0.36578503095104431</v>
       </c>
-      <c r="AX318" s="9">
+      <c r="AX318" s="8">
         <v>2.0300088261253313</v>
       </c>
-      <c r="AY318" s="9">
+      <c r="AY318" s="8">
         <v>0.71197411003235878</v>
       </c>
-      <c r="AZ318" s="9">
+      <c r="AZ318" s="8">
         <v>0.7559131919044052</v>
       </c>
-      <c r="BA318" s="9">
+      <c r="BA318" s="8">
         <v>-1.9498607242339716</v>
       </c>
     </row>
@@ -52332,974 +52273,1448 @@
       <c r="A319" s="7">
         <v>42767</v>
       </c>
-      <c r="B319" s="9">
-        <v>0.87663804789877997</v>
-      </c>
-      <c r="C319" s="9">
-        <v>0.90209604669674559</v>
-      </c>
-      <c r="D319" s="9">
-        <v>-0.85679314565483811</v>
-      </c>
-      <c r="E319" s="9">
-        <v>0.29275433032448051</v>
-      </c>
-      <c r="F319" s="9">
+      <c r="B319" s="8">
+        <v>0.86308178942611835</v>
+      </c>
+      <c r="C319" s="8">
+        <v>0.82249933669408937</v>
+      </c>
+      <c r="D319" s="8">
+        <v>-0.36719706242349709</v>
+      </c>
+      <c r="E319" s="8">
+        <v>0.19516955354964904</v>
+      </c>
+      <c r="F319" s="8">
         <v>-0.79812206572769417</v>
       </c>
-      <c r="G319" s="9">
-        <v>1.862107713299608</v>
-      </c>
-      <c r="H319" s="9">
-        <v>1.1997177134791732</v>
-      </c>
-      <c r="I319" s="9">
+      <c r="G319" s="8">
+        <v>2.0788185247612057</v>
+      </c>
+      <c r="H319" s="8">
+        <v>1.2232415902140645</v>
+      </c>
+      <c r="I319" s="8">
         <v>-1.8899622007559851</v>
       </c>
-      <c r="J319" s="9">
-        <v>-0.92449922958398845</v>
-      </c>
-      <c r="K319" s="9">
+      <c r="J319" s="8">
+        <v>0.92449922958396658</v>
+      </c>
+      <c r="K319" s="8">
         <v>-0.20885547201336674</v>
       </c>
-      <c r="L319" s="9">
-        <v>0.8272819192940527</v>
-      </c>
-      <c r="M319" s="9">
-        <v>1.5975377399970823</v>
-      </c>
-      <c r="N319" s="9">
-        <v>0.55599682287528884</v>
-      </c>
-      <c r="O319" s="9">
-        <v>3.4912718204488802</v>
-      </c>
-      <c r="P319" s="9">
-        <v>1.2324794586756804</v>
-      </c>
-      <c r="Q319" s="9">
-        <v>1.4499532273152451</v>
-      </c>
-      <c r="R319" s="9">
-        <v>0.31128404669261145</v>
-      </c>
-      <c r="S319" s="9">
-        <v>-0.66536203522504445</v>
-      </c>
-      <c r="T319" s="9">
+      <c r="L319" s="8">
+        <v>0.79970585531756755</v>
+      </c>
+      <c r="M319" s="8">
+        <v>1.6415066686208482</v>
+      </c>
+      <c r="N319" s="8">
+        <v>0.63542494042890951</v>
+      </c>
+      <c r="O319" s="8">
+        <v>2.3275145469659164</v>
+      </c>
+      <c r="P319" s="8">
+        <v>-8.4581923634611575E-2</v>
+      </c>
+      <c r="Q319" s="8">
+        <v>1.4265668849391875</v>
+      </c>
+      <c r="R319" s="8">
+        <v>-3.8910505836584723E-2</v>
+      </c>
+      <c r="S319" s="8">
+        <v>-0.54794520547945436</v>
+      </c>
+      <c r="T319" s="8">
         <v>-0.81530260269675958</v>
       </c>
-      <c r="U319" s="9">
+      <c r="U319" s="8">
         <v>-0.82745939319644157</v>
       </c>
-      <c r="V319" s="9">
+      <c r="V319" s="8">
         <v>0.10030090270811867</v>
       </c>
-      <c r="W319" s="9">
-        <v>1.9736842105263113</v>
-      </c>
-      <c r="X319" s="9">
+      <c r="W319" s="8">
+        <v>1.9338118022328525</v>
+      </c>
+      <c r="X319" s="8">
         <v>1.6168327796234796</v>
       </c>
-      <c r="Y319" s="9">
-        <v>2.3341729638958819</v>
-      </c>
-      <c r="Z319" s="9">
+      <c r="Y319" s="8">
+        <v>2.2502099076406346</v>
+      </c>
+      <c r="Z319" s="8">
         <v>0.83115649489432442</v>
       </c>
-      <c r="AA319" s="9">
-        <v>0.69586573884567682</v>
-      </c>
-      <c r="AB319" s="9">
-        <v>1.3519813519813546</v>
-      </c>
-      <c r="AC319" s="9">
+      <c r="AA319" s="8">
+        <v>0.45026606631190919</v>
+      </c>
+      <c r="AB319" s="8">
+        <v>0.88578088578088843</v>
+      </c>
+      <c r="AC319" s="8">
         <v>1.2141280353200978</v>
       </c>
-      <c r="AD319" s="9">
+      <c r="AD319" s="8">
         <v>-0.46592894583575017</v>
       </c>
-      <c r="AE319" s="9">
-        <v>0.9590792838874681</v>
-      </c>
-      <c r="AF319" s="9">
-        <v>-0.43811610076669388</v>
-      </c>
-      <c r="AG319" s="9">
-        <v>-0.65178425941013518</v>
-      </c>
-      <c r="AH319" s="9">
+      <c r="AE319" s="8">
+        <v>2.2378516624040921</v>
+      </c>
+      <c r="AF319" s="8">
+        <v>-0.32858707557502431</v>
+      </c>
+      <c r="AG319" s="8">
+        <v>-0.74955189832165925</v>
+      </c>
+      <c r="AH319" s="8">
+        <v>-0.10427528675704748</v>
+      </c>
+      <c r="AI319" s="8">
+        <v>0.61685611311339694</v>
+      </c>
+      <c r="AJ319" s="8">
+        <v>0.83090984628167841</v>
+      </c>
+      <c r="AK319" s="8">
+        <v>0.9580838323353259</v>
+      </c>
+      <c r="AL319" s="8">
+        <v>-0.87595001932242111</v>
+      </c>
+      <c r="AM319" s="8">
+        <v>0.22611644997173863</v>
+      </c>
+      <c r="AN319" s="8">
+        <v>1.3127666557269446</v>
+      </c>
+      <c r="AO319" s="8">
+        <v>-4.2728955989185045E-2</v>
+      </c>
+      <c r="AP319" s="8">
+        <v>0.33112582781457428</v>
+      </c>
+      <c r="AQ319" s="8">
+        <v>0.52442727021804503</v>
+      </c>
+      <c r="AR319" s="8">
+        <v>2.1766965428937297</v>
+      </c>
+      <c r="AS319" s="8">
+        <v>0.89180943440505844</v>
+      </c>
+      <c r="AT319" s="8">
+        <v>2.052062559042716</v>
+      </c>
+      <c r="AU319" s="8">
+        <v>2.2495755517826876</v>
+      </c>
+      <c r="AV319" s="8">
+        <v>-0.17985611510791621</v>
+      </c>
+      <c r="AW319" s="8">
+        <v>0.65909409619968184</v>
+      </c>
+      <c r="AX319" s="8">
+        <v>2.2202643171806207</v>
+      </c>
+      <c r="AY319" s="8">
+        <v>0.84251458198313856</v>
+      </c>
+      <c r="AZ319" s="8">
+        <v>1.4634146341463417</v>
+      </c>
+      <c r="BA319" s="8">
+        <v>-1.8131101813110142</v>
+      </c>
+    </row>
+    <row r="320" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A320" s="7">
+        <v>42795</v>
+      </c>
+      <c r="B320" s="8">
+        <v>0.65866642605792658</v>
+      </c>
+      <c r="C320" s="8">
+        <v>1.0344827586206835</v>
+      </c>
+      <c r="D320" s="8">
+        <v>0.1226993865030605</v>
+      </c>
+      <c r="E320" s="8">
+        <v>-0.38976857490865352</v>
+      </c>
+      <c r="F320" s="8">
+        <v>-0.84230229293401171</v>
+      </c>
+      <c r="G320" s="8">
+        <v>2.017210326195721</v>
+      </c>
+      <c r="H320" s="8">
+        <v>0.8677298311444761</v>
+      </c>
+      <c r="I320" s="8">
+        <v>-1.8067226890756349</v>
+      </c>
+      <c r="J320" s="8">
         <v>0</v>
       </c>
-      <c r="AI319" s="9">
-        <v>0.60299417798725019</v>
-      </c>
-      <c r="AJ319" s="9">
-        <v>0.83090984628167841</v>
-      </c>
-      <c r="AK319" s="9">
-        <v>0.9580838323353259</v>
-      </c>
-      <c r="AL319" s="9">
-        <v>-0.59255442483574761</v>
-      </c>
-      <c r="AM319" s="9">
-        <v>0.22611644997173863</v>
-      </c>
-      <c r="AN319" s="9">
-        <v>1.5753199868723373</v>
-      </c>
-      <c r="AO319" s="9">
-        <v>-0.47001851588093829</v>
-      </c>
-      <c r="AP319" s="9">
-        <v>0.33112582781457428</v>
-      </c>
-      <c r="AQ319" s="9">
-        <v>0.55202870549268557</v>
-      </c>
-      <c r="AR319" s="9">
-        <v>2.1766965428937297</v>
-      </c>
-      <c r="AS319" s="9">
-        <v>1.6897441915043392</v>
-      </c>
-      <c r="AT319" s="9">
-        <v>1.7424162905426583</v>
-      </c>
-      <c r="AU319" s="9">
-        <v>2.2495755517826876</v>
-      </c>
-      <c r="AV319" s="9">
-        <v>-0.17985611510791621</v>
-      </c>
-      <c r="AW319" s="9">
-        <v>0.65909409619968184</v>
-      </c>
-      <c r="AX319" s="9">
-        <v>2.2026431718061676</v>
-      </c>
-      <c r="AY319" s="9">
-        <v>0.84251458198313856</v>
-      </c>
-      <c r="AZ319" s="9">
-        <v>1.6341463414634119</v>
-      </c>
-      <c r="BA319" s="9">
+      <c r="K320" s="8">
+        <v>0.66861679899707238</v>
+      </c>
+      <c r="L320" s="8">
+        <v>1.1204996326230754</v>
+      </c>
+      <c r="M320" s="8">
+        <v>2.2310874704491761</v>
+      </c>
+      <c r="N320" s="8">
+        <v>7.9176563737140562E-2</v>
+      </c>
+      <c r="O320" s="8">
+        <v>2.4066390041493824</v>
+      </c>
+      <c r="P320" s="8">
+        <v>-0.4826254826254826</v>
+      </c>
+      <c r="Q320" s="8">
+        <v>0.7222739981360724</v>
+      </c>
+      <c r="R320" s="8">
+        <v>-0.11668611435239648</v>
+      </c>
+      <c r="S320" s="8">
+        <v>-0.390625</v>
+      </c>
+      <c r="T320" s="8">
+        <v>-0.34450360162856958</v>
+      </c>
+      <c r="U320" s="8">
+        <v>-0.85889570552147598</v>
+      </c>
+      <c r="V320" s="8">
+        <v>0</v>
+      </c>
+      <c r="W320" s="8">
+        <v>1.429990069513404</v>
+      </c>
+      <c r="X320" s="8">
+        <v>0.65688635865995182</v>
+      </c>
+      <c r="Y320" s="8">
+        <v>1.7901957503764314</v>
+      </c>
+      <c r="Z320" s="8">
+        <v>0.40198628517381069</v>
+      </c>
+      <c r="AA320" s="8">
+        <v>0.65520065520066451</v>
+      </c>
+      <c r="AB320" s="8">
+        <v>0.60465116279070297</v>
+      </c>
+      <c r="AC320" s="8">
+        <v>1.3230429988974672</v>
+      </c>
+      <c r="AD320" s="8">
+        <v>-0.5226480836236802</v>
+      </c>
+      <c r="AE320" s="8">
+        <v>1.8483110261312976</v>
+      </c>
+      <c r="AF320" s="8">
+        <v>0.11037527593819926</v>
+      </c>
+      <c r="AG320" s="8">
+        <v>-0.71533084051373397</v>
+      </c>
+      <c r="AH320" s="8">
+        <v>-5.2219321148822093E-2</v>
+      </c>
+      <c r="AI320" s="8">
+        <v>0.58843890619591555</v>
+      </c>
+      <c r="AJ320" s="8">
+        <v>1.0059253134904167</v>
+      </c>
+      <c r="AK320" s="8">
+        <v>0.23980815347720458</v>
+      </c>
+      <c r="AL320" s="8">
+        <v>-1.0296010296010296</v>
+      </c>
+      <c r="AM320" s="8">
+        <v>8.467400508044351E-2</v>
+      </c>
+      <c r="AN320" s="8">
+        <v>1.4079895219384453</v>
+      </c>
+      <c r="AO320" s="8">
+        <v>-0.28457598178713722</v>
+      </c>
+      <c r="AP320" s="8">
+        <v>0.33167495854063489</v>
+      </c>
+      <c r="AQ320" s="8">
+        <v>0.66170388751034859</v>
+      </c>
+      <c r="AR320" s="8">
+        <v>2.3047375160051362</v>
+      </c>
+      <c r="AS320" s="8">
+        <v>1.1395348837209249</v>
+      </c>
+      <c r="AT320" s="8">
+        <v>2.0172910662824206</v>
+      </c>
+      <c r="AU320" s="8">
+        <v>2.2852306390181876</v>
+      </c>
+      <c r="AV320" s="8">
+        <v>0.71813285457809439</v>
+      </c>
+      <c r="AW320" s="8">
+        <v>-4.1999160016793304E-2</v>
+      </c>
+      <c r="AX320" s="8">
+        <v>2.1475092413307397</v>
+      </c>
+      <c r="AY320" s="8">
+        <v>-0.19379844961241044</v>
+      </c>
+      <c r="AZ320" s="8">
+        <v>0.41483650561249114</v>
+      </c>
+      <c r="BA320" s="8">
+        <v>-1.394700139470014</v>
+      </c>
+    </row>
+    <row r="321" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A321" s="7">
+        <v>42826</v>
+      </c>
+      <c r="B321" s="8">
+        <v>0.68588962591940805</v>
+      </c>
+      <c r="C321" s="8">
+        <v>0.60894890124437695</v>
+      </c>
+      <c r="D321" s="8">
+        <v>-0.12300123001229314</v>
+      </c>
+      <c r="E321" s="8">
+        <v>-0.2924689251766972</v>
+      </c>
+      <c r="F321" s="8">
+        <v>-0.65758572099577539</v>
+      </c>
+      <c r="G321" s="8">
+        <v>1.6840673626945042</v>
+      </c>
+      <c r="H321" s="8">
+        <v>0.30416471689284308</v>
+      </c>
+      <c r="I321" s="8">
+        <v>-1.8518518518518541</v>
+      </c>
+      <c r="J321" s="8">
+        <v>0.46012269938649869</v>
+      </c>
+      <c r="K321" s="8">
+        <v>-0.25041736227044842</v>
+      </c>
+      <c r="L321" s="8">
+        <v>0.61434072987346833</v>
+      </c>
+      <c r="M321" s="8">
+        <v>1.315597134921795</v>
+      </c>
+      <c r="N321" s="8">
+        <v>1.5248796147672599</v>
+      </c>
+      <c r="O321" s="8">
+        <v>2.9925187032419025</v>
+      </c>
+      <c r="P321" s="8">
+        <v>-0.12100677637947724</v>
+      </c>
+      <c r="Q321" s="8">
+        <v>1.1217574199579368</v>
+      </c>
+      <c r="R321" s="8">
+        <v>-0.73757763975156598</v>
+      </c>
+      <c r="S321" s="8">
+        <v>-0.31225604996096135</v>
+      </c>
+      <c r="T321" s="8">
+        <v>-0.12574662055958316</v>
+      </c>
+      <c r="U321" s="8">
+        <v>-0.95150399017803022</v>
+      </c>
+      <c r="V321" s="8">
+        <v>0.40040040040039182</v>
+      </c>
+      <c r="W321" s="8">
+        <v>1.8489065606361739</v>
+      </c>
+      <c r="X321" s="8">
+        <v>1.707317073170729</v>
+      </c>
+      <c r="Y321" s="8">
+        <v>2.2132796780684179</v>
+      </c>
+      <c r="Z321" s="8">
+        <v>1.0874704491725822</v>
+      </c>
+      <c r="AA321" s="8">
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="AB321" s="8">
+        <v>0.37252619324796804</v>
+      </c>
+      <c r="AC321" s="8">
+        <v>1.2087912087912025</v>
+      </c>
+      <c r="AD321" s="8">
+        <v>-0.46538685282141434</v>
+      </c>
+      <c r="AE321" s="8">
+        <v>1.0862619808306637</v>
+      </c>
+      <c r="AF321" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG321" s="8">
+        <v>-0.70169712793732952</v>
+      </c>
+      <c r="AH321" s="8">
+        <v>-0.31298904538340866</v>
+      </c>
+      <c r="AI321" s="8">
+        <v>0.72744907856450047</v>
+      </c>
+      <c r="AJ321" s="8">
+        <v>0.88544548976204918</v>
+      </c>
+      <c r="AK321" s="8">
+        <v>0.60096153846153844</v>
+      </c>
+      <c r="AL321" s="8">
+        <v>-1.2108720855339401</v>
+      </c>
+      <c r="AM321" s="8">
+        <v>5.6497175141239732E-2</v>
+      </c>
+      <c r="AN321" s="8">
+        <v>0.97943192948090096</v>
+      </c>
+      <c r="AO321" s="8">
+        <v>-0.11413896418889351</v>
+      </c>
+      <c r="AP321" s="8">
+        <v>0.49751243781095239</v>
+      </c>
+      <c r="AQ321" s="8">
+        <v>0.88251516822945075</v>
+      </c>
+      <c r="AR321" s="8">
+        <v>2.1739130434782643</v>
+      </c>
+      <c r="AS321" s="8">
+        <v>0.70339976553341155</v>
+      </c>
+      <c r="AT321" s="8">
+        <v>1.8068828659459975</v>
+      </c>
+      <c r="AU321" s="8">
+        <v>2.4070945945945899</v>
+      </c>
+      <c r="AV321" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW321" s="8">
+        <v>5.5951881382008288E-2</v>
+      </c>
+      <c r="AX321" s="8">
+        <v>2.3382559774964959</v>
+      </c>
+      <c r="AY321" s="8">
+        <v>-0.32237266279819476</v>
+      </c>
+      <c r="AZ321" s="8">
+        <v>1.973203410475036</v>
+      </c>
+      <c r="BA321" s="8">
         <v>-1.6736401673640207</v>
       </c>
     </row>
-    <row r="320" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A320" s="7"/>
-    </row>
-    <row r="321" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="7"/>
-    </row>
-    <row r="322" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="7"/>
-    </row>
-    <row r="323" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A322" s="7">
+        <v>42856</v>
+      </c>
+      <c r="B322" s="8">
+        <v>0.52733582728624862</v>
+      </c>
+      <c r="C322" s="8">
+        <v>1.0328389830508413</v>
+      </c>
+      <c r="D322" s="8">
+        <v>1.356350184956854</v>
+      </c>
+      <c r="E322" s="8">
+        <v>0.48780487804878048</v>
+      </c>
+      <c r="F322" s="8">
+        <v>-0.65851364063970164</v>
+      </c>
+      <c r="G322" s="8">
+        <v>1.8704634282523767</v>
+      </c>
+      <c r="H322" s="8">
+        <v>1.8328969293025441</v>
+      </c>
+      <c r="I322" s="8">
+        <v>-1.8052057094878182</v>
+      </c>
+      <c r="J322" s="8">
+        <v>0.30581039755349937</v>
+      </c>
+      <c r="K322" s="8">
+        <v>-0.16694490818030286</v>
+      </c>
+      <c r="L322" s="8">
+        <v>1.0701545778834762</v>
+      </c>
+      <c r="M322" s="8">
+        <v>1.4144065325167754</v>
+      </c>
+      <c r="N322" s="8">
+        <v>0.55643879173291166</v>
+      </c>
+      <c r="O322" s="8">
+        <v>2.651201325600665</v>
+      </c>
+      <c r="P322" s="8">
+        <v>-0.16984107727768741</v>
+      </c>
+      <c r="Q322" s="8">
+        <v>1.3078000934142977</v>
+      </c>
+      <c r="R322" s="8">
+        <v>-0.77760497667185069</v>
+      </c>
+      <c r="S322" s="8">
+        <v>0.11746280344556888</v>
+      </c>
+      <c r="T322" s="8">
+        <v>-0.34526051475204728</v>
+      </c>
+      <c r="U322" s="8">
+        <v>-0.97769630308585043</v>
+      </c>
+      <c r="V322" s="8">
+        <v>0.10020040080161176</v>
+      </c>
+      <c r="W322" s="8">
+        <v>1.6679904686258888</v>
+      </c>
+      <c r="X322" s="8">
+        <v>1.1912640635340783</v>
+      </c>
+      <c r="Y322" s="8">
+        <v>2.2616033755274221</v>
+      </c>
+      <c r="Z322" s="8">
+        <v>0.42533081285444502</v>
+      </c>
+      <c r="AA322" s="8">
+        <v>0.36870135190495928</v>
+      </c>
+      <c r="AB322" s="8">
+        <v>-0.1623753189515299</v>
+      </c>
+      <c r="AC322" s="8">
+        <v>0.98468271334791191</v>
+      </c>
+      <c r="AD322" s="8">
+        <v>-0.87158628704241714</v>
+      </c>
+      <c r="AE322" s="8">
+        <v>1.273074474856779</v>
+      </c>
+      <c r="AF322" s="8">
+        <v>0.22197558268590772</v>
+      </c>
+      <c r="AG322" s="8">
+        <v>-0.81380208333333337</v>
+      </c>
+      <c r="AH322" s="8">
+        <v>-1.0977522216414128</v>
+      </c>
+      <c r="AI322" s="8">
+        <v>0.63875581476081689</v>
+      </c>
+      <c r="AJ322" s="8">
+        <v>0.64917127071823832</v>
+      </c>
+      <c r="AK322" s="8">
+        <v>0.35928143712574512</v>
+      </c>
+      <c r="AL322" s="8">
+        <v>-0.27072321773881947</v>
+      </c>
+      <c r="AM322" s="8">
+        <v>0.22675736961451567</v>
+      </c>
+      <c r="AN322" s="8">
+        <v>0.91234929944607746</v>
+      </c>
+      <c r="AO322" s="8">
+        <v>5.7085771371482415E-2</v>
+      </c>
+      <c r="AP322" s="8">
+        <v>0.83194675540765384</v>
+      </c>
+      <c r="AQ322" s="8">
+        <v>0.79999999999999383</v>
+      </c>
+      <c r="AR322" s="8">
+        <v>1.6539440203562485</v>
+      </c>
+      <c r="AS322" s="8">
+        <v>1.6189582355701628</v>
+      </c>
+      <c r="AT322" s="8">
+        <v>1.7397645588082138</v>
+      </c>
+      <c r="AU322" s="8">
+        <v>2.8222409435551761</v>
+      </c>
+      <c r="AV322" s="8">
+        <v>1.4545454545454493</v>
+      </c>
+      <c r="AW322" s="8">
+        <v>0.21011346126908531</v>
+      </c>
+      <c r="AX322" s="8">
+        <v>1.803221288515398</v>
+      </c>
+      <c r="AY322" s="8">
+        <v>-3.2156368221941953</v>
+      </c>
+      <c r="AZ322" s="8">
+        <v>2.3803680981595061</v>
+      </c>
+      <c r="BA322" s="8">
+        <v>-1.8131101813110142</v>
+      </c>
+    </row>
+    <row r="323" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A323" s="7"/>
     </row>
-    <row r="324" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A324" s="7"/>
     </row>
-    <row r="325" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A325" s="7"/>
     </row>
-    <row r="326" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A326" s="7"/>
     </row>
-    <row r="327" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A327" s="7"/>
     </row>
-    <row r="328" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A328" s="7"/>
     </row>
-    <row r="329" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A329" s="7"/>
     </row>
-    <row r="330" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A330" s="7"/>
     </row>
-    <row r="331" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A331" s="7"/>
     </row>
-    <row r="332" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A332" s="7"/>
     </row>
-    <row r="333" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A333" s="7"/>
     </row>
-    <row r="334" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A334" s="7"/>
     </row>
-    <row r="335" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A335" s="7"/>
     </row>
-    <row r="336" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A336" s="7"/>
     </row>
-    <row r="337" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="7"/>
     </row>
-    <row r="338" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="7"/>
     </row>
-    <row r="339" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="7"/>
     </row>
-    <row r="340" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="7"/>
     </row>
-    <row r="341" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="7"/>
     </row>
-    <row r="342" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="7"/>
     </row>
-    <row r="343" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="7"/>
     </row>
-    <row r="344" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="7"/>
     </row>
-    <row r="345" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="7"/>
     </row>
-    <row r="346" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="7"/>
     </row>
-    <row r="347" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="7"/>
     </row>
-    <row r="348" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="7"/>
     </row>
-    <row r="349" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="7"/>
     </row>
-    <row r="350" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="7"/>
     </row>
-    <row r="351" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="7"/>
     </row>
-    <row r="352" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="7"/>
     </row>
-    <row r="353" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="7"/>
     </row>
-    <row r="354" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="7"/>
     </row>
-    <row r="355" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="7"/>
     </row>
-    <row r="356" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="7"/>
     </row>
-    <row r="357" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="7"/>
     </row>
-    <row r="358" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="7"/>
     </row>
-    <row r="359" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="7"/>
     </row>
-    <row r="360" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="7"/>
     </row>
-    <row r="361" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="7"/>
     </row>
-    <row r="362" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="7"/>
     </row>
-    <row r="363" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="7"/>
     </row>
-    <row r="364" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="7"/>
     </row>
-    <row r="365" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="7"/>
     </row>
-    <row r="366" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="7"/>
     </row>
-    <row r="367" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="7"/>
     </row>
-    <row r="368" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="7"/>
     </row>
-    <row r="369" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="7"/>
     </row>
-    <row r="370" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="7"/>
     </row>
-    <row r="371" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="7"/>
     </row>
-    <row r="372" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="7"/>
     </row>
-    <row r="373" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="7"/>
     </row>
-    <row r="374" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="7"/>
     </row>
-    <row r="375" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="7"/>
     </row>
-    <row r="376" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="7"/>
     </row>
-    <row r="377" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="7"/>
     </row>
-    <row r="378" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="7"/>
     </row>
-    <row r="379" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="7"/>
     </row>
-    <row r="380" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="7"/>
     </row>
-    <row r="381" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="7"/>
     </row>
-    <row r="382" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="7"/>
     </row>
-    <row r="383" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="7"/>
     </row>
-    <row r="384" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="7"/>
     </row>
-    <row r="385" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="7"/>
     </row>
-    <row r="386" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="7"/>
     </row>
-    <row r="387" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="7"/>
     </row>
-    <row r="388" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="7"/>
     </row>
-    <row r="389" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="7"/>
     </row>
-    <row r="390" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="7"/>
     </row>
-    <row r="391" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="7"/>
     </row>
-    <row r="392" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="7"/>
     </row>
-    <row r="393" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="7"/>
     </row>
-    <row r="394" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="7"/>
     </row>
-    <row r="395" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="7"/>
     </row>
-    <row r="396" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="7"/>
     </row>
-    <row r="397" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="7"/>
     </row>
-    <row r="398" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="7"/>
     </row>
-    <row r="399" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="7"/>
     </row>
-    <row r="400" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="7"/>
     </row>
-    <row r="401" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="7"/>
     </row>
-    <row r="402" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="7"/>
     </row>
-    <row r="403" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="7"/>
     </row>
-    <row r="404" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="7"/>
     </row>
-    <row r="405" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="7"/>
     </row>
-    <row r="406" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="7"/>
     </row>
-    <row r="407" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="7"/>
     </row>
-    <row r="408" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="7"/>
     </row>
-    <row r="409" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="7"/>
     </row>
-    <row r="410" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="7"/>
     </row>
-    <row r="411" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="7"/>
     </row>
-    <row r="412" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="7"/>
     </row>
-    <row r="413" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="7"/>
     </row>
-    <row r="414" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="7"/>
     </row>
-    <row r="415" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="7"/>
     </row>
-    <row r="416" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="7"/>
     </row>
-    <row r="417" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="7"/>
     </row>
-    <row r="418" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="7"/>
     </row>
-    <row r="419" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="7"/>
     </row>
-    <row r="420" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="7"/>
     </row>
-    <row r="421" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="7"/>
     </row>
-    <row r="422" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="7"/>
     </row>
-    <row r="423" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="7"/>
     </row>
-    <row r="424" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="7"/>
     </row>
-    <row r="425" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="7"/>
     </row>
-    <row r="426" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="7"/>
     </row>
-    <row r="427" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="7"/>
     </row>
-    <row r="428" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="7"/>
     </row>
-    <row r="429" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="7"/>
     </row>
-    <row r="430" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="7"/>
     </row>
-    <row r="431" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="7"/>
     </row>
-    <row r="432" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="7"/>
     </row>
-    <row r="433" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="7"/>
     </row>
-    <row r="434" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="7"/>
     </row>
-    <row r="435" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="7"/>
     </row>
-    <row r="436" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="7"/>
     </row>
-    <row r="437" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="7"/>
     </row>
-    <row r="438" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="7"/>
     </row>
-    <row r="439" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="7"/>
     </row>
-    <row r="440" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="7"/>
     </row>
-    <row r="441" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="7"/>
     </row>
-    <row r="442" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="7"/>
     </row>
-    <row r="443" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="7"/>
     </row>
-    <row r="444" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="7"/>
     </row>
-    <row r="445" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="7"/>
     </row>
-    <row r="446" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="7"/>
     </row>
-    <row r="447" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="7"/>
     </row>
-    <row r="448" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="7"/>
     </row>
-    <row r="449" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="7"/>
     </row>
-    <row r="450" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="7"/>
     </row>
-    <row r="451" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="7"/>
     </row>
-    <row r="452" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="7"/>
     </row>
-    <row r="453" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="7"/>
     </row>
-    <row r="454" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="7"/>
     </row>
-    <row r="455" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="7"/>
     </row>
-    <row r="456" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="7"/>
     </row>
-    <row r="457" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="7"/>
     </row>
-    <row r="458" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="7"/>
     </row>
-    <row r="459" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="7"/>
     </row>
-    <row r="460" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="7"/>
     </row>
-    <row r="461" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="7"/>
     </row>
-    <row r="462" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="7"/>
     </row>
-    <row r="463" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="7"/>
     </row>
-    <row r="464" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="7"/>
     </row>
-    <row r="465" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="7"/>
     </row>
-    <row r="466" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="7"/>
     </row>
-    <row r="467" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="7"/>
     </row>
-    <row r="468" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="7"/>
     </row>
-    <row r="469" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="7"/>
     </row>
-    <row r="470" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="7"/>
     </row>
-    <row r="471" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="7"/>
     </row>
-    <row r="472" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="7"/>
     </row>
-    <row r="473" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="7"/>
     </row>
-    <row r="474" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="7"/>
     </row>
-    <row r="475" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="7"/>
     </row>
-    <row r="476" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="7"/>
     </row>
-    <row r="477" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="7"/>
     </row>
-    <row r="478" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="7"/>
     </row>
-    <row r="479" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="7"/>
     </row>
-    <row r="480" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="7"/>
     </row>
-    <row r="481" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="7"/>
     </row>
-    <row r="482" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="7"/>
     </row>
-    <row r="483" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="7"/>
     </row>
-    <row r="484" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="7"/>
     </row>
-    <row r="485" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="7"/>
     </row>
-    <row r="486" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="7"/>
     </row>
-    <row r="487" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="7"/>
     </row>
-    <row r="488" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="7"/>
     </row>
-    <row r="489" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="7"/>
     </row>
-    <row r="490" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="7"/>
     </row>
-    <row r="491" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="7"/>
     </row>
-    <row r="492" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="7"/>
     </row>
-    <row r="493" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="7"/>
     </row>
-    <row r="494" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="7"/>
     </row>
-    <row r="495" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="7"/>
     </row>
-    <row r="496" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="7"/>
     </row>
-    <row r="497" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="7"/>
     </row>
-    <row r="498" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="7"/>
     </row>
-    <row r="499" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="7"/>
     </row>
-    <row r="500" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="7"/>
     </row>
-    <row r="501" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="7"/>
     </row>
-    <row r="502" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="7"/>
     </row>
-    <row r="503" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="7"/>
     </row>
-    <row r="504" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="7"/>
     </row>
-    <row r="505" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="7"/>
     </row>
-    <row r="506" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="7"/>
     </row>
-    <row r="507" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="7"/>
     </row>
-    <row r="508" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="7"/>
     </row>
-    <row r="509" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="7"/>
     </row>
-    <row r="510" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="7"/>
     </row>
-    <row r="511" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="7"/>
     </row>
-    <row r="512" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="7"/>
     </row>
-    <row r="513" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="7"/>
     </row>
-    <row r="514" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="7"/>
     </row>
-    <row r="515" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="7"/>
     </row>
-    <row r="516" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="7"/>
     </row>
-    <row r="517" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="7"/>
     </row>
-    <row r="518" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="7"/>
     </row>
-    <row r="519" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="7"/>
     </row>
-    <row r="520" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="7"/>
     </row>
-    <row r="521" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="7"/>
     </row>
-    <row r="522" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="7"/>
     </row>
-    <row r="523" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="7"/>
     </row>
-    <row r="524" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="7"/>
     </row>
-    <row r="525" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="7"/>
     </row>
-    <row r="526" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="7"/>
     </row>
-    <row r="527" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="7"/>
     </row>
-    <row r="528" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="7"/>
     </row>
-    <row r="529" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="7"/>
     </row>
-    <row r="530" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="7"/>
     </row>
-    <row r="531" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="7"/>
     </row>
-    <row r="532" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="7"/>
     </row>
-    <row r="533" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="7"/>
     </row>
-    <row r="534" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="7"/>
     </row>
-    <row r="535" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="7"/>
     </row>
-    <row r="536" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="7"/>
     </row>
-    <row r="537" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="7"/>
     </row>
-    <row r="538" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="7"/>
     </row>
-    <row r="539" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="7"/>
     </row>
-    <row r="540" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="7"/>
     </row>
-    <row r="541" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="7"/>
     </row>
-    <row r="542" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="7"/>
     </row>
-    <row r="543" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="7"/>
     </row>
-    <row r="544" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="7"/>
     </row>
-    <row r="545" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="7"/>
     </row>
-    <row r="546" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="7"/>
     </row>
-    <row r="547" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="7"/>
     </row>
-    <row r="548" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="7"/>
     </row>
-    <row r="549" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="7"/>
     </row>
-    <row r="550" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="7"/>
     </row>
-    <row r="551" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="7"/>
     </row>
-    <row r="552" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="7"/>
     </row>
-    <row r="553" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="7"/>
     </row>
-    <row r="554" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="7"/>
     </row>
-    <row r="555" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="7"/>
     </row>
-    <row r="556" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="7"/>
     </row>
-    <row r="557" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="7"/>
     </row>
-    <row r="558" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="7"/>
     </row>
-    <row r="559" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="7"/>
     </row>
-    <row r="560" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="7"/>
     </row>
-    <row r="561" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="7"/>
     </row>
-    <row r="562" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="7"/>
     </row>
-    <row r="563" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="7"/>
     </row>
-    <row r="564" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="7"/>
     </row>
-    <row r="565" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="7"/>
     </row>
-    <row r="566" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="7"/>
     </row>
-    <row r="567" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="7"/>
     </row>
-    <row r="568" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="7"/>
     </row>
-    <row r="569" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="7"/>
     </row>
-    <row r="570" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="7"/>
     </row>
-    <row r="571" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="7"/>
     </row>
-    <row r="572" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="7"/>
     </row>
-    <row r="573" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="7"/>
     </row>
-    <row r="574" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="7"/>
     </row>
-    <row r="575" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="7"/>
     </row>
-    <row r="576" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="7"/>
     </row>
-    <row r="577" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="7"/>
     </row>
-    <row r="578" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="7"/>
     </row>
-    <row r="579" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="7"/>
     </row>
-    <row r="580" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="7"/>
     </row>
-    <row r="581" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="7"/>
     </row>
-    <row r="582" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="7"/>
     </row>
-    <row r="583" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="7"/>
     </row>
-    <row r="584" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="7"/>
     </row>
-    <row r="585" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="7"/>
     </row>
-    <row r="586" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="7"/>
     </row>
-    <row r="587" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="7"/>
     </row>
-    <row r="588" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="7"/>
     </row>
-    <row r="589" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="7"/>
     </row>
-    <row r="590" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="7"/>
     </row>
   </sheetData>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- May 2017</t>
+    <t>Government Employment; Year/Year: January 1990 -- July 2017</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1102,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1112,6 +1112,7 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="59" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="241">
     <cellStyle name="active" xfId="3"/>
@@ -1693,8 +1694,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D311" sqref="D311"/>
+      <pane ySplit="5" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM294" sqref="AM294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52596,7 +52597,7 @@
         <v>42826</v>
       </c>
       <c r="B321" s="8">
-        <v>0.68588962591940805</v>
+        <v>0.74003880691304547</v>
       </c>
       <c r="C321" s="8">
         <v>0.60894890124437695</v>
@@ -52757,22 +52758,22 @@
         <v>42856</v>
       </c>
       <c r="B322" s="8">
-        <v>0.52733582728624862</v>
+        <v>0.58592869698472083</v>
       </c>
       <c r="C322" s="8">
-        <v>1.0328389830508413</v>
+        <v>0.50317796610168886</v>
       </c>
       <c r="D322" s="8">
-        <v>1.356350184956854</v>
+        <v>1.2330456226880395</v>
       </c>
       <c r="E322" s="8">
-        <v>0.48780487804878048</v>
+        <v>0.26829268292683478</v>
       </c>
       <c r="F322" s="8">
-        <v>-0.65851364063970164</v>
+        <v>-0.70555032925682037</v>
       </c>
       <c r="G322" s="8">
-        <v>1.8704634282523767</v>
+        <v>1.9063571827390813</v>
       </c>
       <c r="H322" s="8">
         <v>1.8328969293025441</v>
@@ -52781,34 +52782,34 @@
         <v>-1.8052057094878182</v>
       </c>
       <c r="J322" s="8">
-        <v>0.30581039755349937</v>
+        <v>-0.15290519877677144</v>
       </c>
       <c r="K322" s="8">
-        <v>-0.16694490818030286</v>
+        <v>-0.20868113522537562</v>
       </c>
       <c r="L322" s="8">
-        <v>1.0701545778834762</v>
+        <v>0.9603951339979877</v>
       </c>
       <c r="M322" s="8">
-        <v>1.4144065325167754</v>
+        <v>1.1665208515602217</v>
       </c>
       <c r="N322" s="8">
         <v>0.55643879173291166</v>
       </c>
       <c r="O322" s="8">
-        <v>2.651201325600665</v>
+        <v>2.7340513670256814</v>
       </c>
       <c r="P322" s="8">
-        <v>-0.16984107727768741</v>
+        <v>-0.2183670993570247</v>
       </c>
       <c r="Q322" s="8">
-        <v>1.3078000934142977</v>
+        <v>-2.335357309667583E-2</v>
       </c>
       <c r="R322" s="8">
-        <v>-0.77760497667185069</v>
+        <v>-0.97200622083981336</v>
       </c>
       <c r="S322" s="8">
-        <v>0.11746280344556888</v>
+        <v>0.23492560689114891</v>
       </c>
       <c r="T322" s="8">
         <v>-0.34526051475204728</v>
@@ -52820,37 +52821,37 @@
         <v>0.10020040080161176</v>
       </c>
       <c r="W322" s="8">
-        <v>1.6679904686258888</v>
+        <v>1.6084193804606763</v>
       </c>
       <c r="X322" s="8">
         <v>1.1912640635340783</v>
       </c>
       <c r="Y322" s="8">
-        <v>2.2616033755274221</v>
+        <v>2.4810126582278555</v>
       </c>
       <c r="Z322" s="8">
         <v>0.42533081285444502</v>
       </c>
       <c r="AA322" s="8">
-        <v>0.36870135190495928</v>
+        <v>0.61450225317492835</v>
       </c>
       <c r="AB322" s="8">
-        <v>-0.1623753189515299</v>
+        <v>-0.18557179308745334</v>
       </c>
       <c r="AC322" s="8">
         <v>0.98468271334791191</v>
       </c>
       <c r="AD322" s="8">
-        <v>-0.87158628704241714</v>
+        <v>-0.81348053457292613</v>
       </c>
       <c r="AE322" s="8">
-        <v>1.273074474856779</v>
+        <v>1.5276893698281386</v>
       </c>
       <c r="AF322" s="8">
         <v>0.22197558268590772</v>
       </c>
       <c r="AG322" s="8">
-        <v>-0.81380208333333337</v>
+        <v>-0.732421875</v>
       </c>
       <c r="AH322" s="8">
         <v>-1.0977522216414128</v>
@@ -52859,31 +52860,31 @@
         <v>0.63875581476081689</v>
       </c>
       <c r="AJ322" s="8">
-        <v>0.64917127071823832</v>
+        <v>0.6353591160221026</v>
       </c>
       <c r="AK322" s="8">
         <v>0.35928143712574512</v>
       </c>
       <c r="AL322" s="8">
-        <v>-0.27072321773881947</v>
+        <v>-0.2836147995359089</v>
       </c>
       <c r="AM322" s="8">
         <v>0.22675736961451567</v>
       </c>
       <c r="AN322" s="8">
-        <v>0.91234929944607746</v>
+        <v>0.87976539589444303</v>
       </c>
       <c r="AO322" s="8">
-        <v>5.7085771371482415E-2</v>
+        <v>0</v>
       </c>
       <c r="AP322" s="8">
         <v>0.83194675540765384</v>
       </c>
       <c r="AQ322" s="8">
-        <v>0.79999999999999383</v>
+        <v>0.85517241379310971</v>
       </c>
       <c r="AR322" s="8">
-        <v>1.6539440203562485</v>
+        <v>2.4173027989821958</v>
       </c>
       <c r="AS322" s="8">
         <v>1.6189582355701628</v>
@@ -52898,26 +52899,342 @@
         <v>1.4545454545454493</v>
       </c>
       <c r="AW322" s="8">
-        <v>0.21011346126908531</v>
+        <v>8.4045384507637322E-2</v>
       </c>
       <c r="AX322" s="8">
-        <v>1.803221288515398</v>
+        <v>1.9257703081232491</v>
       </c>
       <c r="AY322" s="8">
-        <v>-3.2156368221941953</v>
+        <v>-2.9634300126103335</v>
       </c>
       <c r="AZ322" s="8">
-        <v>2.3803680981595061</v>
+        <v>2.4539877300613497</v>
       </c>
       <c r="BA322" s="8">
         <v>-1.8131101813110142</v>
       </c>
     </row>
     <row r="323" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A323" s="7"/>
+      <c r="A323" s="7">
+        <v>42887</v>
+      </c>
+      <c r="B323" s="9">
+        <v>0.47265361242403781</v>
+      </c>
+      <c r="C323" s="9">
+        <v>-2.6413100898051434E-2</v>
+      </c>
+      <c r="D323" s="9">
+        <v>0.61576354679802947</v>
+      </c>
+      <c r="E323" s="9">
+        <v>1.2402723735408616</v>
+      </c>
+      <c r="F323" s="9">
+        <v>-0.65882352941176747</v>
+      </c>
+      <c r="G323" s="9">
+        <v>1.2818471337579544</v>
+      </c>
+      <c r="H323" s="9">
+        <v>0.44716403859732506</v>
+      </c>
+      <c r="I323" s="9">
+        <v>-1.8059638807223783</v>
+      </c>
+      <c r="J323" s="9">
+        <v>-0.76687116564417179</v>
+      </c>
+      <c r="K323" s="9">
+        <v>-0.83263946711074099</v>
+      </c>
+      <c r="L323" s="9">
+        <v>0.97752603690846385</v>
+      </c>
+      <c r="M323" s="9">
+        <v>1.1052937754508467</v>
+      </c>
+      <c r="N323" s="9">
+        <v>-0.39651070578905628</v>
+      </c>
+      <c r="O323" s="9">
+        <v>2.7205276174773267</v>
+      </c>
+      <c r="P323" s="9">
+        <v>-0.19382192610539342</v>
+      </c>
+      <c r="Q323" s="9">
+        <v>0.53550640279394912</v>
+      </c>
+      <c r="R323" s="9">
+        <v>-0.6586594343277975</v>
+      </c>
+      <c r="S323" s="9">
+        <v>-0.58616647127784294</v>
+      </c>
+      <c r="T323" s="9">
+        <v>-0.44080604534006107</v>
+      </c>
+      <c r="U323" s="9">
+        <v>-0.52243392747387485</v>
+      </c>
+      <c r="V323" s="9">
+        <v>0.69721115537847467</v>
+      </c>
+      <c r="W323" s="9">
+        <v>2.5341516531379833</v>
+      </c>
+      <c r="X323" s="9">
+        <v>1.2125220458553791</v>
+      </c>
+      <c r="Y323" s="9">
+        <v>1.6608536787908985</v>
+      </c>
+      <c r="Z323" s="9">
+        <v>0.70838252656434475</v>
+      </c>
+      <c r="AA323" s="9">
+        <v>0.4095004095004095</v>
+      </c>
+      <c r="AB323" s="9">
+        <v>0.41180507892929635</v>
+      </c>
+      <c r="AC323" s="9">
+        <v>1.0928961748633881</v>
+      </c>
+      <c r="AD323" s="9">
+        <v>-0.80091533180778351</v>
+      </c>
+      <c r="AE323" s="9">
+        <v>2.9734970911441647</v>
+      </c>
+      <c r="AF323" s="9">
+        <v>-0.33039647577092202</v>
+      </c>
+      <c r="AG323" s="9">
+        <v>-0.58641472552533358</v>
+      </c>
+      <c r="AH323" s="9">
+        <v>-3.6553524804177546</v>
+      </c>
+      <c r="AI323" s="9">
+        <v>0.60992514555031574</v>
+      </c>
+      <c r="AJ323" s="9">
+        <v>1.2211855104281135</v>
+      </c>
+      <c r="AK323" s="9">
+        <v>0.11990407673860229</v>
+      </c>
+      <c r="AL323" s="9">
+        <v>0.19292604501607716</v>
+      </c>
+      <c r="AM323" s="9">
+        <v>0.14144271570014144</v>
+      </c>
+      <c r="AN323" s="9">
+        <v>1.1726384364820921</v>
+      </c>
+      <c r="AO323" s="9">
+        <v>-0.96907510332051705</v>
+      </c>
+      <c r="AP323" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ323" s="9">
+        <v>0.7709251101321617</v>
+      </c>
+      <c r="AR323" s="9">
+        <v>2.1491782553729495</v>
+      </c>
+      <c r="AS323" s="9">
+        <v>2.1201413427561837</v>
+      </c>
+      <c r="AT323" s="9">
+        <v>1.84010811934713</v>
+      </c>
+      <c r="AU323" s="9">
+        <v>1.8923465096719931</v>
+      </c>
+      <c r="AV323" s="9">
+        <v>0.5385996409335676</v>
+      </c>
+      <c r="AW323" s="9">
+        <v>0.16818500350386062</v>
+      </c>
+      <c r="AX323" s="9">
+        <v>2.3817863397548202</v>
+      </c>
+      <c r="AY323" s="9">
+        <v>-1.0276172125883074</v>
+      </c>
+      <c r="AZ323" s="9">
+        <v>0.21956574774336038</v>
+      </c>
+      <c r="BA323" s="9">
+        <v>-2.3709902370990275</v>
+      </c>
     </row>
     <row r="324" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A324" s="7"/>
+      <c r="A324" s="7">
+        <v>42917</v>
+      </c>
+      <c r="B324" s="9">
+        <v>0.22464842521453926</v>
+      </c>
+      <c r="C324" s="9">
+        <v>-0.50026329647183621</v>
+      </c>
+      <c r="D324" s="9">
+        <v>-0.37037037037036685</v>
+      </c>
+      <c r="E324" s="9">
+        <v>0.8750607681089021</v>
+      </c>
+      <c r="F324" s="9">
+        <v>-0.51740357478833221</v>
+      </c>
+      <c r="G324" s="9">
+        <v>1.9490851233094668</v>
+      </c>
+      <c r="H324" s="9">
+        <v>0.91463414634147155</v>
+      </c>
+      <c r="I324" s="9">
+        <v>-1.3135593220338959</v>
+      </c>
+      <c r="J324" s="9">
+        <v>-1.2176560121765556</v>
+      </c>
+      <c r="K324" s="9">
+        <v>0.33627574611180455</v>
+      </c>
+      <c r="L324" s="9">
+        <v>1.2938496583143551</v>
+      </c>
+      <c r="M324" s="9">
+        <v>0.74171029668412192</v>
+      </c>
+      <c r="N324" s="9">
+        <v>-2.0634920634920588</v>
+      </c>
+      <c r="O324" s="9">
+        <v>2.8712059064807218</v>
+      </c>
+      <c r="P324" s="9">
+        <v>-0.27804642166345117</v>
+      </c>
+      <c r="Q324" s="9">
+        <v>0.11723329425556857</v>
+      </c>
+      <c r="R324" s="9">
+        <v>-0.92915214866434592</v>
+      </c>
+      <c r="S324" s="9">
+        <v>0.50860719874803717</v>
+      </c>
+      <c r="T324" s="9">
+        <v>-0.18838304552590981</v>
+      </c>
+      <c r="U324" s="9">
+        <v>-1.1100832562442253</v>
+      </c>
+      <c r="V324" s="9">
+        <v>1.595214356929221</v>
+      </c>
+      <c r="W324" s="9">
+        <v>0.49534376857539136</v>
+      </c>
+      <c r="X324" s="9">
+        <v>0.50538343221269055</v>
+      </c>
+      <c r="Y324" s="9">
+        <v>2.494595044071179</v>
+      </c>
+      <c r="Z324" s="9">
+        <v>1.1578449905482122</v>
+      </c>
+      <c r="AA324" s="9">
+        <v>0.32719836400818458</v>
+      </c>
+      <c r="AB324" s="9">
+        <v>2.9277218664226923</v>
+      </c>
+      <c r="AC324" s="9">
+        <v>0.76419213973799449</v>
+      </c>
+      <c r="AD324" s="9">
+        <v>-1.494252873563215</v>
+      </c>
+      <c r="AE324" s="9">
+        <v>0.94221105527638205</v>
+      </c>
+      <c r="AF324" s="9">
+        <v>1.4428412874583922</v>
+      </c>
+      <c r="AG324" s="9">
+        <v>-0.47100860808836942</v>
+      </c>
+      <c r="AH324" s="9">
+        <v>-2.8287061288632822</v>
+      </c>
+      <c r="AI324" s="9">
+        <v>0.57395754097228291</v>
+      </c>
+      <c r="AJ324" s="9">
+        <v>1.2873185428649654</v>
+      </c>
+      <c r="AK324" s="9">
+        <v>-0.59808612440191389</v>
+      </c>
+      <c r="AL324" s="9">
+        <v>0.61672876782732466</v>
+      </c>
+      <c r="AM324" s="9">
+        <v>0.2545248868778216</v>
+      </c>
+      <c r="AN324" s="9">
+        <v>0.45395590142672959</v>
+      </c>
+      <c r="AO324" s="9">
+        <v>-1.8990012660008442</v>
+      </c>
+      <c r="AP324" s="9">
+        <v>0.16447368421052866</v>
+      </c>
+      <c r="AQ324" s="9">
+        <v>0.21774632553075976</v>
+      </c>
+      <c r="AR324" s="9">
+        <v>1.5170670037926712</v>
+      </c>
+      <c r="AS324" s="9">
+        <v>1.6857878716928094</v>
+      </c>
+      <c r="AT324" s="9">
+        <v>1.419027396550824</v>
+      </c>
+      <c r="AU324" s="9">
+        <v>1.7580577647551228</v>
+      </c>
+      <c r="AV324" s="9">
+        <v>-2.9513888888888937</v>
+      </c>
+      <c r="AW324" s="9">
+        <v>0.19596864501679415</v>
+      </c>
+      <c r="AX324" s="9">
+        <v>2.8955171812314711</v>
+      </c>
+      <c r="AY324" s="9">
+        <v>-1.2226512226512263</v>
+      </c>
+      <c r="AZ324" s="9">
+        <v>0.36337209302325579</v>
+      </c>
+      <c r="BA324" s="9">
+        <v>-1.9607843137254981</v>
+      </c>
     </row>
     <row r="325" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A325" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- July 2017</t>
+    <t>Government Employment; Year/Year: January 1990 -- August 2017</t>
   </si>
 </sst>
 </file>
@@ -1694,8 +1694,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM294" sqref="AM294"/>
+      <pane ySplit="5" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM297" sqref="AM297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53083,61 +53083,61 @@
         <v>0.22464842521453926</v>
       </c>
       <c r="C324" s="9">
-        <v>-0.50026329647183621</v>
+        <v>-0.36861506055819748</v>
       </c>
       <c r="D324" s="9">
-        <v>-0.37037037037036685</v>
+        <v>-0.24691358024691709</v>
       </c>
       <c r="E324" s="9">
-        <v>0.8750607681089021</v>
+        <v>0.6806028196402556</v>
       </c>
       <c r="F324" s="9">
         <v>-0.51740357478833221</v>
       </c>
       <c r="G324" s="9">
-        <v>1.9490851233094668</v>
+        <v>1.9451073985680227</v>
       </c>
       <c r="H324" s="9">
-        <v>0.91463414634147155</v>
+        <v>0.89118198874296706</v>
       </c>
       <c r="I324" s="9">
         <v>-1.3135593220338959</v>
       </c>
       <c r="J324" s="9">
-        <v>-1.2176560121765556</v>
+        <v>-0.30441400304414434</v>
       </c>
       <c r="K324" s="9">
         <v>0.33627574611180455</v>
       </c>
       <c r="L324" s="9">
-        <v>1.2938496583143551</v>
+        <v>1.2300683371298404</v>
       </c>
       <c r="M324" s="9">
-        <v>0.74171029668412192</v>
+        <v>1.9051774287376415</v>
       </c>
       <c r="N324" s="9">
-        <v>-2.0634920634920588</v>
+        <v>-1.984126984126984</v>
       </c>
       <c r="O324" s="9">
-        <v>2.8712059064807218</v>
+        <v>2.7071369975389636</v>
       </c>
       <c r="P324" s="9">
         <v>-0.27804642166345117</v>
       </c>
       <c r="Q324" s="9">
-        <v>0.11723329425556857</v>
+        <v>2.7198124267291965</v>
       </c>
       <c r="R324" s="9">
-        <v>-0.92915214866434592</v>
+        <v>-0.58072009291521487</v>
       </c>
       <c r="S324" s="9">
-        <v>0.50860719874803717</v>
+        <v>0.23474178403755647</v>
       </c>
       <c r="T324" s="9">
         <v>-0.18838304552590981</v>
       </c>
       <c r="U324" s="9">
-        <v>-1.1100832562442253</v>
+        <v>-1.1409189022509985</v>
       </c>
       <c r="V324" s="9">
         <v>1.595214356929221</v>
@@ -53149,16 +53149,16 @@
         <v>0.50538343221269055</v>
       </c>
       <c r="Y324" s="9">
-        <v>2.494595044071179</v>
+        <v>2.3615499750540572</v>
       </c>
       <c r="Z324" s="9">
         <v>1.1578449905482122</v>
       </c>
       <c r="AA324" s="9">
-        <v>0.32719836400818458</v>
+        <v>1.2678936605316948</v>
       </c>
       <c r="AB324" s="9">
-        <v>2.9277218664226923</v>
+        <v>3.2021957913998174</v>
       </c>
       <c r="AC324" s="9">
         <v>0.76419213973799449</v>
@@ -53167,19 +53167,19 @@
         <v>-1.494252873563215</v>
       </c>
       <c r="AE324" s="9">
-        <v>0.94221105527638205</v>
+        <v>2.0100502512562923</v>
       </c>
       <c r="AF324" s="9">
         <v>1.4428412874583922</v>
       </c>
       <c r="AG324" s="9">
-        <v>-0.47100860808836942</v>
+        <v>-0.6171836933571655</v>
       </c>
       <c r="AH324" s="9">
-        <v>-2.8287061288632822</v>
+        <v>-2.6715557883708718</v>
       </c>
       <c r="AI324" s="9">
-        <v>0.57395754097228291</v>
+        <v>0.6154484475485853</v>
       </c>
       <c r="AJ324" s="9">
         <v>1.2873185428649654</v>
@@ -53188,31 +53188,31 @@
         <v>-0.59808612440191389</v>
       </c>
       <c r="AL324" s="9">
-        <v>0.61672876782732466</v>
+        <v>0.43684954387769381</v>
       </c>
       <c r="AM324" s="9">
         <v>0.2545248868778216</v>
       </c>
       <c r="AN324" s="9">
-        <v>0.45395590142672959</v>
+        <v>1.4267185473411266</v>
       </c>
       <c r="AO324" s="9">
-        <v>-1.8990012660008442</v>
+        <v>-0.73146715431142662</v>
       </c>
       <c r="AP324" s="9">
         <v>0.16447368421052866</v>
       </c>
       <c r="AQ324" s="9">
-        <v>0.21774632553075976</v>
+        <v>0.29940119760479666</v>
       </c>
       <c r="AR324" s="9">
-        <v>1.5170670037926712</v>
+        <v>1.769911504424786</v>
       </c>
       <c r="AS324" s="9">
         <v>1.6857878716928094</v>
       </c>
       <c r="AT324" s="9">
-        <v>1.419027396550824</v>
+        <v>1.4086695323424214</v>
       </c>
       <c r="AU324" s="9">
         <v>1.7580577647551228</v>
@@ -53221,23 +53221,181 @@
         <v>-2.9513888888888937</v>
       </c>
       <c r="AW324" s="9">
-        <v>0.19596864501679415</v>
+        <v>2.7995520716691695E-2</v>
       </c>
       <c r="AX324" s="9">
-        <v>2.8955171812314711</v>
+        <v>3.1746031746031829</v>
       </c>
       <c r="AY324" s="9">
         <v>-1.2226512226512263</v>
       </c>
       <c r="AZ324" s="9">
-        <v>0.36337209302325579</v>
+        <v>1.0416666666666694</v>
       </c>
       <c r="BA324" s="9">
-        <v>-1.9607843137254981</v>
+        <v>-2.2408963585434294</v>
       </c>
     </row>
     <row r="325" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A325" s="7"/>
+      <c r="A325" s="7">
+        <v>42948</v>
+      </c>
+      <c r="B325" s="9">
+        <v>3.5890533871691339E-2</v>
+      </c>
+      <c r="C325" s="9">
+        <v>-0.7595599790466302</v>
+      </c>
+      <c r="D325" s="9">
+        <v>0.61804697156983934</v>
+      </c>
+      <c r="E325" s="9">
+        <v>0.97418412079883099</v>
+      </c>
+      <c r="F325" s="9">
+        <v>-0.61176470588235832</v>
+      </c>
+      <c r="G325" s="9">
+        <v>1.5611965200810283</v>
+      </c>
+      <c r="H325" s="9">
+        <v>0.53538175046553871</v>
+      </c>
+      <c r="I325" s="9">
+        <v>-1.2728044123886295</v>
+      </c>
+      <c r="J325" s="9">
+        <v>-0.30581039755352118</v>
+      </c>
+      <c r="K325" s="9">
+        <v>-0.37704231252617398</v>
+      </c>
+      <c r="L325" s="9">
+        <v>0.79985457189601472</v>
+      </c>
+      <c r="M325" s="9">
+        <v>2.1887230033338199</v>
+      </c>
+      <c r="N325" s="9">
+        <v>-3.125</v>
+      </c>
+      <c r="O325" s="9">
+        <v>2.9508196721311428</v>
+      </c>
+      <c r="P325" s="9">
+        <v>-0.37407988415590954</v>
+      </c>
+      <c r="Q325" s="9">
+        <v>1.4220183486238507</v>
+      </c>
+      <c r="R325" s="9">
+        <v>-0.77279752704791349</v>
+      </c>
+      <c r="S325" s="9">
+        <v>-1.0563380281690098</v>
+      </c>
+      <c r="T325" s="9">
+        <v>-0.37605766217488101</v>
+      </c>
+      <c r="U325" s="9">
+        <v>-0.7411982705373793</v>
+      </c>
+      <c r="V325" s="9">
+        <v>1.1952191235059646</v>
+      </c>
+      <c r="W325" s="9">
+        <v>1.1264822134387331</v>
+      </c>
+      <c r="X325" s="9">
+        <v>0.48235036176276885</v>
+      </c>
+      <c r="Y325" s="9">
+        <v>2.2761256022595191</v>
+      </c>
+      <c r="Z325" s="9">
+        <v>0.75170307728446994</v>
+      </c>
+      <c r="AA325" s="9">
+        <v>1.0229132569558101</v>
+      </c>
+      <c r="AB325" s="9">
+        <v>1.528633356148754</v>
+      </c>
+      <c r="AC325" s="9">
+        <v>1.2021857923497206</v>
+      </c>
+      <c r="AD325" s="9">
+        <v>5.865102639295855E-2</v>
+      </c>
+      <c r="AE325" s="9">
+        <v>1.8170426065162943</v>
+      </c>
+      <c r="AF325" s="9">
+        <v>0.97613882863339629</v>
+      </c>
+      <c r="AG325" s="9">
+        <v>-0.69680764867931744</v>
+      </c>
+      <c r="AH325" s="9">
+        <v>-1.8315018315018317</v>
+      </c>
+      <c r="AI325" s="9">
+        <v>0.65698478561549101</v>
+      </c>
+      <c r="AJ325" s="9">
+        <v>0.83733699382292692</v>
+      </c>
+      <c r="AK325" s="9">
+        <v>-0.23894862604540359</v>
+      </c>
+      <c r="AL325" s="9">
+        <v>-0.53846153846154421</v>
+      </c>
+      <c r="AM325" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN325" s="9">
+        <v>1.2757605495584019</v>
+      </c>
+      <c r="AO325" s="9">
+        <v>-1.3504009002672701</v>
+      </c>
+      <c r="AP325" s="9">
+        <v>-0.98360655737705149</v>
+      </c>
+      <c r="AQ325" s="9">
+        <v>1.5359297860669132</v>
+      </c>
+      <c r="AR325" s="9">
+        <v>1.6455696202531609</v>
+      </c>
+      <c r="AS325" s="9">
+        <v>1.3099415204678415</v>
+      </c>
+      <c r="AT325" s="9">
+        <v>1.4393704048876437</v>
+      </c>
+      <c r="AU325" s="9">
+        <v>1.3819095477386862</v>
+      </c>
+      <c r="AV325" s="9">
+        <v>-0.35460992907800665</v>
+      </c>
+      <c r="AW325" s="9">
+        <v>-0.18156424581004951</v>
+      </c>
+      <c r="AX325" s="9">
+        <v>2.4899878112484886</v>
+      </c>
+      <c r="AY325" s="9">
+        <v>-1.0276172125883074</v>
+      </c>
+      <c r="AZ325" s="9">
+        <v>-0.26531596719730405</v>
+      </c>
+      <c r="BA325" s="9">
+        <v>-2.3809523809523845</v>
+      </c>
     </row>
     <row r="326" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A326" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- August 2017</t>
+    <t>Government Employment; Year/Year: January 1990 -- September 2017</t>
   </si>
 </sst>
 </file>
@@ -1694,8 +1694,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM297" sqref="AM297"/>
+      <pane ySplit="5" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53080,7 +53080,7 @@
         <v>42917</v>
       </c>
       <c r="B324" s="9">
-        <v>0.22464842521453926</v>
+        <v>0.30552185829177336</v>
       </c>
       <c r="C324" s="9">
         <v>-0.36861506055819748</v>
@@ -53241,28 +53241,28 @@
         <v>42948</v>
       </c>
       <c r="B325" s="9">
-        <v>3.5890533871691339E-2</v>
+        <v>0.17945266935845669</v>
       </c>
       <c r="C325" s="9">
-        <v>-0.7595599790466302</v>
+        <v>-0.28810895756941401</v>
       </c>
       <c r="D325" s="9">
-        <v>0.61804697156983934</v>
+        <v>0.74165636588380013</v>
       </c>
       <c r="E325" s="9">
-        <v>0.97418412079883099</v>
+        <v>1.3882123721383313</v>
       </c>
       <c r="F325" s="9">
         <v>-0.61176470588235832</v>
       </c>
       <c r="G325" s="9">
-        <v>1.5611965200810283</v>
+        <v>1.6565367655821641</v>
       </c>
       <c r="H325" s="9">
-        <v>0.53538175046553871</v>
+        <v>0.86126629422718548</v>
       </c>
       <c r="I325" s="9">
-        <v>-1.2728044123886295</v>
+        <v>-1.2303775986423324</v>
       </c>
       <c r="J325" s="9">
         <v>-0.30581039755352118</v>
@@ -53271,13 +53271,13 @@
         <v>-0.37704231252617398</v>
       </c>
       <c r="L325" s="9">
-        <v>0.79985457189601472</v>
+        <v>0.78167605889837377</v>
       </c>
       <c r="M325" s="9">
-        <v>2.1887230033338199</v>
+        <v>1.4060008696912663</v>
       </c>
       <c r="N325" s="9">
-        <v>-3.125</v>
+        <v>-2.9687499999999978</v>
       </c>
       <c r="O325" s="9">
         <v>2.9508196721311428</v>
@@ -53286,16 +53286,16 @@
         <v>-0.37407988415590954</v>
       </c>
       <c r="Q325" s="9">
-        <v>1.4220183486238507</v>
+        <v>0.27522935779816254</v>
       </c>
       <c r="R325" s="9">
-        <v>-0.77279752704791349</v>
+        <v>-7.7279752704786958E-2</v>
       </c>
       <c r="S325" s="9">
-        <v>-1.0563380281690098</v>
+        <v>0.50860719874803717</v>
       </c>
       <c r="T325" s="9">
-        <v>-0.37605766217488101</v>
+        <v>-0.40739580068944259</v>
       </c>
       <c r="U325" s="9">
         <v>-0.7411982705373793</v>
@@ -53304,73 +53304,73 @@
         <v>1.1952191235059646</v>
       </c>
       <c r="W325" s="9">
-        <v>1.1264822134387331</v>
+        <v>1.1660079051383354</v>
       </c>
       <c r="X325" s="9">
         <v>0.48235036176276885</v>
       </c>
       <c r="Y325" s="9">
-        <v>2.2761256022595191</v>
+        <v>2.5585645456055786</v>
       </c>
       <c r="Z325" s="9">
         <v>0.75170307728446994</v>
       </c>
       <c r="AA325" s="9">
-        <v>1.0229132569558101</v>
+        <v>0.12274959083469024</v>
       </c>
       <c r="AB325" s="9">
-        <v>1.528633356148754</v>
+        <v>2.4868811316449868</v>
       </c>
       <c r="AC325" s="9">
         <v>1.2021857923497206</v>
       </c>
       <c r="AD325" s="9">
-        <v>5.865102639295855E-2</v>
+        <v>0.2932551319648094</v>
       </c>
       <c r="AE325" s="9">
-        <v>1.8170426065162943</v>
+        <v>2.7568922305764447</v>
       </c>
       <c r="AF325" s="9">
-        <v>0.97613882863339629</v>
+        <v>1.3015184381778773</v>
       </c>
       <c r="AG325" s="9">
-        <v>-0.69680764867931744</v>
+        <v>-0.66439799060120275</v>
       </c>
       <c r="AH325" s="9">
-        <v>-1.8315018315018317</v>
+        <v>-1.1512297226582882</v>
       </c>
       <c r="AI325" s="9">
-        <v>0.65698478561549101</v>
+        <v>0.66390041493775309</v>
       </c>
       <c r="AJ325" s="9">
         <v>0.83733699382292692</v>
       </c>
       <c r="AK325" s="9">
-        <v>-0.23894862604540359</v>
+        <v>-0.35842293906809691</v>
       </c>
       <c r="AL325" s="9">
-        <v>-0.53846153846154421</v>
+        <v>-0.47435897435898022</v>
       </c>
       <c r="AM325" s="9">
         <v>0</v>
       </c>
       <c r="AN325" s="9">
-        <v>1.2757605495584019</v>
+        <v>1.2103369316323156</v>
       </c>
       <c r="AO325" s="9">
-        <v>-1.3504009002672701</v>
+        <v>-0.71740047826698872</v>
       </c>
       <c r="AP325" s="9">
         <v>-0.98360655737705149</v>
       </c>
       <c r="AQ325" s="9">
-        <v>1.5359297860669132</v>
+        <v>1.7553483269336194</v>
       </c>
       <c r="AR325" s="9">
-        <v>1.6455696202531609</v>
+        <v>1.7721518987341847</v>
       </c>
       <c r="AS325" s="9">
-        <v>1.3099415204678415</v>
+        <v>1.3333333333333306</v>
       </c>
       <c r="AT325" s="9">
         <v>1.4393704048876437</v>
@@ -53385,20 +53385,178 @@
         <v>-0.18156424581004951</v>
       </c>
       <c r="AX325" s="9">
-        <v>2.4899878112484886</v>
+        <v>2.1939752742469136</v>
       </c>
       <c r="AY325" s="9">
         <v>-1.0276172125883074</v>
       </c>
       <c r="AZ325" s="9">
-        <v>-0.26531596719730405</v>
+        <v>-0.50651230101303002</v>
       </c>
       <c r="BA325" s="9">
-        <v>-2.3809523809523845</v>
+        <v>-2.1008403361344534</v>
       </c>
     </row>
     <row r="326" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A326" s="7"/>
+      <c r="A326" s="7">
+        <v>42979</v>
+      </c>
+      <c r="B326" s="9">
+        <v>9.4102885821831864E-2</v>
+      </c>
+      <c r="C326" s="9">
+        <v>-0.47393364928910253</v>
+      </c>
+      <c r="D326" s="9">
+        <v>0.86741016109046198</v>
+      </c>
+      <c r="E326" s="9">
+        <v>0.29027576197388621</v>
+      </c>
+      <c r="F326" s="9">
+        <v>-0.47236655644780345</v>
+      </c>
+      <c r="G326" s="9">
+        <v>2.278120550545796</v>
+      </c>
+      <c r="H326" s="9">
+        <v>-6.9848661233995663E-2</v>
+      </c>
+      <c r="I326" s="9">
+        <v>-1.5286624203821633</v>
+      </c>
+      <c r="J326" s="9">
+        <v>-0.15267175572518216</v>
+      </c>
+      <c r="K326" s="9">
+        <v>0.20946795140343527</v>
+      </c>
+      <c r="L326" s="9">
+        <v>0.44384057971015317</v>
+      </c>
+      <c r="M326" s="9">
+        <v>1.1154570476604442</v>
+      </c>
+      <c r="N326" s="9">
+        <v>-0.78864353312302837</v>
+      </c>
+      <c r="O326" s="9">
+        <v>3.6824877250409163</v>
+      </c>
+      <c r="P326" s="9">
+        <v>-0.85244327050066315</v>
+      </c>
+      <c r="Q326" s="9">
+        <v>1.756007393715334</v>
+      </c>
+      <c r="R326" s="9">
+        <v>-0.50193050193050637</v>
+      </c>
+      <c r="S326" s="9">
+        <v>-3.8986354775837326E-2</v>
+      </c>
+      <c r="T326" s="9">
+        <v>-0.56479447756511181</v>
+      </c>
+      <c r="U326" s="9">
+        <v>-1.805385556915555</v>
+      </c>
+      <c r="V326" s="9">
+        <v>0.49850448654037888</v>
+      </c>
+      <c r="W326" s="9">
+        <v>1.6260162601625994</v>
+      </c>
+      <c r="X326" s="9">
+        <v>0.63582547686910262</v>
+      </c>
+      <c r="Y326" s="9">
+        <v>2.0387866732968787</v>
+      </c>
+      <c r="Z326" s="9">
+        <v>1.1748120300751879</v>
+      </c>
+      <c r="AA326" s="9">
+        <v>1.2673753066230558</v>
+      </c>
+      <c r="AB326" s="9">
+        <v>0.54970224461749362</v>
+      </c>
+      <c r="AC326" s="9">
+        <v>1.2008733624454242</v>
+      </c>
+      <c r="AD326" s="9">
+        <v>-0.3454231433506012</v>
+      </c>
+      <c r="AE326" s="9">
+        <v>3.2704402515723201</v>
+      </c>
+      <c r="AF326" s="9">
+        <v>0.55066079295154191</v>
+      </c>
+      <c r="AG326" s="9">
+        <v>-0.43881033642124684</v>
+      </c>
+      <c r="AH326" s="9">
+        <v>-1.6238868517548424</v>
+      </c>
+      <c r="AI326" s="9">
+        <v>0.61417431509213249</v>
+      </c>
+      <c r="AJ326" s="9">
+        <v>1.1059530311305328</v>
+      </c>
+      <c r="AK326" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL326" s="9">
+        <v>-0.39774185270721357</v>
+      </c>
+      <c r="AM326" s="9">
+        <v>0.19796380090497415</v>
+      </c>
+      <c r="AN326" s="9">
+        <v>0.4200323101777097</v>
+      </c>
+      <c r="AO326" s="9">
+        <v>-0.74469579879163528</v>
+      </c>
+      <c r="AP326" s="9">
+        <v>-0.32786885245902103</v>
+      </c>
+      <c r="AQ326" s="9">
+        <v>1.3186813186813218</v>
+      </c>
+      <c r="AR326" s="9">
+        <v>2.405063291139248</v>
+      </c>
+      <c r="AS326" s="9">
+        <v>1.4035087719298245</v>
+      </c>
+      <c r="AT326" s="9">
+        <v>1.3338158506953397</v>
+      </c>
+      <c r="AU326" s="9">
+        <v>1.9991670137442779</v>
+      </c>
+      <c r="AV326" s="9">
+        <v>1.0695187165775426</v>
+      </c>
+      <c r="AW326" s="9">
+        <v>0.14007564084605686</v>
+      </c>
+      <c r="AX326" s="9">
+        <v>2.6406627545737091</v>
+      </c>
+      <c r="AY326" s="9">
+        <v>6.485084306097455E-2</v>
+      </c>
+      <c r="AZ326" s="9">
+        <v>1.4167073766487572</v>
+      </c>
+      <c r="BA326" s="9">
+        <v>-2.2471910112359668</v>
+      </c>
     </row>
     <row r="327" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A327" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- September 2017</t>
+    <t>Government Employment; Year/Year: January 1990 -- August 2017</t>
   </si>
 </sst>
 </file>
@@ -1694,8 +1694,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C325" sqref="C325"/>
+      <pane ySplit="5" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM297" sqref="AM297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53080,7 +53080,7 @@
         <v>42917</v>
       </c>
       <c r="B324" s="9">
-        <v>0.30552185829177336</v>
+        <v>0.22464842521453926</v>
       </c>
       <c r="C324" s="9">
         <v>-0.36861506055819748</v>
@@ -53241,28 +53241,28 @@
         <v>42948</v>
       </c>
       <c r="B325" s="9">
-        <v>0.17945266935845669</v>
+        <v>3.5890533871691339E-2</v>
       </c>
       <c r="C325" s="9">
-        <v>-0.28810895756941401</v>
+        <v>-0.7595599790466302</v>
       </c>
       <c r="D325" s="9">
-        <v>0.74165636588380013</v>
+        <v>0.61804697156983934</v>
       </c>
       <c r="E325" s="9">
-        <v>1.3882123721383313</v>
+        <v>0.97418412079883099</v>
       </c>
       <c r="F325" s="9">
         <v>-0.61176470588235832</v>
       </c>
       <c r="G325" s="9">
-        <v>1.6565367655821641</v>
+        <v>1.5611965200810283</v>
       </c>
       <c r="H325" s="9">
-        <v>0.86126629422718548</v>
+        <v>0.53538175046553871</v>
       </c>
       <c r="I325" s="9">
-        <v>-1.2303775986423324</v>
+        <v>-1.2728044123886295</v>
       </c>
       <c r="J325" s="9">
         <v>-0.30581039755352118</v>
@@ -53271,13 +53271,13 @@
         <v>-0.37704231252617398</v>
       </c>
       <c r="L325" s="9">
-        <v>0.78167605889837377</v>
+        <v>0.79985457189601472</v>
       </c>
       <c r="M325" s="9">
-        <v>1.4060008696912663</v>
+        <v>2.1887230033338199</v>
       </c>
       <c r="N325" s="9">
-        <v>-2.9687499999999978</v>
+        <v>-3.125</v>
       </c>
       <c r="O325" s="9">
         <v>2.9508196721311428</v>
@@ -53286,16 +53286,16 @@
         <v>-0.37407988415590954</v>
       </c>
       <c r="Q325" s="9">
-        <v>0.27522935779816254</v>
+        <v>1.4220183486238507</v>
       </c>
       <c r="R325" s="9">
-        <v>-7.7279752704786958E-2</v>
+        <v>-0.77279752704791349</v>
       </c>
       <c r="S325" s="9">
-        <v>0.50860719874803717</v>
+        <v>-1.0563380281690098</v>
       </c>
       <c r="T325" s="9">
-        <v>-0.40739580068944259</v>
+        <v>-0.37605766217488101</v>
       </c>
       <c r="U325" s="9">
         <v>-0.7411982705373793</v>
@@ -53304,73 +53304,73 @@
         <v>1.1952191235059646</v>
       </c>
       <c r="W325" s="9">
-        <v>1.1660079051383354</v>
+        <v>1.1264822134387331</v>
       </c>
       <c r="X325" s="9">
         <v>0.48235036176276885</v>
       </c>
       <c r="Y325" s="9">
-        <v>2.5585645456055786</v>
+        <v>2.2761256022595191</v>
       </c>
       <c r="Z325" s="9">
         <v>0.75170307728446994</v>
       </c>
       <c r="AA325" s="9">
-        <v>0.12274959083469024</v>
+        <v>1.0229132569558101</v>
       </c>
       <c r="AB325" s="9">
-        <v>2.4868811316449868</v>
+        <v>1.528633356148754</v>
       </c>
       <c r="AC325" s="9">
         <v>1.2021857923497206</v>
       </c>
       <c r="AD325" s="9">
-        <v>0.2932551319648094</v>
+        <v>5.865102639295855E-2</v>
       </c>
       <c r="AE325" s="9">
-        <v>2.7568922305764447</v>
+        <v>1.8170426065162943</v>
       </c>
       <c r="AF325" s="9">
-        <v>1.3015184381778773</v>
+        <v>0.97613882863339629</v>
       </c>
       <c r="AG325" s="9">
-        <v>-0.66439799060120275</v>
+        <v>-0.69680764867931744</v>
       </c>
       <c r="AH325" s="9">
-        <v>-1.1512297226582882</v>
+        <v>-1.8315018315018317</v>
       </c>
       <c r="AI325" s="9">
-        <v>0.66390041493775309</v>
+        <v>0.65698478561549101</v>
       </c>
       <c r="AJ325" s="9">
         <v>0.83733699382292692</v>
       </c>
       <c r="AK325" s="9">
-        <v>-0.35842293906809691</v>
+        <v>-0.23894862604540359</v>
       </c>
       <c r="AL325" s="9">
-        <v>-0.47435897435898022</v>
+        <v>-0.53846153846154421</v>
       </c>
       <c r="AM325" s="9">
         <v>0</v>
       </c>
       <c r="AN325" s="9">
-        <v>1.2103369316323156</v>
+        <v>1.2757605495584019</v>
       </c>
       <c r="AO325" s="9">
-        <v>-0.71740047826698872</v>
+        <v>-1.3504009002672701</v>
       </c>
       <c r="AP325" s="9">
         <v>-0.98360655737705149</v>
       </c>
       <c r="AQ325" s="9">
-        <v>1.7553483269336194</v>
+        <v>1.5359297860669132</v>
       </c>
       <c r="AR325" s="9">
-        <v>1.7721518987341847</v>
+        <v>1.6455696202531609</v>
       </c>
       <c r="AS325" s="9">
-        <v>1.3333333333333306</v>
+        <v>1.3099415204678415</v>
       </c>
       <c r="AT325" s="9">
         <v>1.4393704048876437</v>
@@ -53385,178 +53385,20 @@
         <v>-0.18156424581004951</v>
       </c>
       <c r="AX325" s="9">
-        <v>2.1939752742469136</v>
+        <v>2.4899878112484886</v>
       </c>
       <c r="AY325" s="9">
         <v>-1.0276172125883074</v>
       </c>
       <c r="AZ325" s="9">
-        <v>-0.50651230101303002</v>
+        <v>-0.26531596719730405</v>
       </c>
       <c r="BA325" s="9">
-        <v>-2.1008403361344534</v>
+        <v>-2.3809523809523845</v>
       </c>
     </row>
     <row r="326" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A326" s="7">
-        <v>42979</v>
-      </c>
-      <c r="B326" s="9">
-        <v>9.4102885821831864E-2</v>
-      </c>
-      <c r="C326" s="9">
-        <v>-0.47393364928910253</v>
-      </c>
-      <c r="D326" s="9">
-        <v>0.86741016109046198</v>
-      </c>
-      <c r="E326" s="9">
-        <v>0.29027576197388621</v>
-      </c>
-      <c r="F326" s="9">
-        <v>-0.47236655644780345</v>
-      </c>
-      <c r="G326" s="9">
-        <v>2.278120550545796</v>
-      </c>
-      <c r="H326" s="9">
-        <v>-6.9848661233995663E-2</v>
-      </c>
-      <c r="I326" s="9">
-        <v>-1.5286624203821633</v>
-      </c>
-      <c r="J326" s="9">
-        <v>-0.15267175572518216</v>
-      </c>
-      <c r="K326" s="9">
-        <v>0.20946795140343527</v>
-      </c>
-      <c r="L326" s="9">
-        <v>0.44384057971015317</v>
-      </c>
-      <c r="M326" s="9">
-        <v>1.1154570476604442</v>
-      </c>
-      <c r="N326" s="9">
-        <v>-0.78864353312302837</v>
-      </c>
-      <c r="O326" s="9">
-        <v>3.6824877250409163</v>
-      </c>
-      <c r="P326" s="9">
-        <v>-0.85244327050066315</v>
-      </c>
-      <c r="Q326" s="9">
-        <v>1.756007393715334</v>
-      </c>
-      <c r="R326" s="9">
-        <v>-0.50193050193050637</v>
-      </c>
-      <c r="S326" s="9">
-        <v>-3.8986354775837326E-2</v>
-      </c>
-      <c r="T326" s="9">
-        <v>-0.56479447756511181</v>
-      </c>
-      <c r="U326" s="9">
-        <v>-1.805385556915555</v>
-      </c>
-      <c r="V326" s="9">
-        <v>0.49850448654037888</v>
-      </c>
-      <c r="W326" s="9">
-        <v>1.6260162601625994</v>
-      </c>
-      <c r="X326" s="9">
-        <v>0.63582547686910262</v>
-      </c>
-      <c r="Y326" s="9">
-        <v>2.0387866732968787</v>
-      </c>
-      <c r="Z326" s="9">
-        <v>1.1748120300751879</v>
-      </c>
-      <c r="AA326" s="9">
-        <v>1.2673753066230558</v>
-      </c>
-      <c r="AB326" s="9">
-        <v>0.54970224461749362</v>
-      </c>
-      <c r="AC326" s="9">
-        <v>1.2008733624454242</v>
-      </c>
-      <c r="AD326" s="9">
-        <v>-0.3454231433506012</v>
-      </c>
-      <c r="AE326" s="9">
-        <v>3.2704402515723201</v>
-      </c>
-      <c r="AF326" s="9">
-        <v>0.55066079295154191</v>
-      </c>
-      <c r="AG326" s="9">
-        <v>-0.43881033642124684</v>
-      </c>
-      <c r="AH326" s="9">
-        <v>-1.6238868517548424</v>
-      </c>
-      <c r="AI326" s="9">
-        <v>0.61417431509213249</v>
-      </c>
-      <c r="AJ326" s="9">
-        <v>1.1059530311305328</v>
-      </c>
-      <c r="AK326" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL326" s="9">
-        <v>-0.39774185270721357</v>
-      </c>
-      <c r="AM326" s="9">
-        <v>0.19796380090497415</v>
-      </c>
-      <c r="AN326" s="9">
-        <v>0.4200323101777097</v>
-      </c>
-      <c r="AO326" s="9">
-        <v>-0.74469579879163528</v>
-      </c>
-      <c r="AP326" s="9">
-        <v>-0.32786885245902103</v>
-      </c>
-      <c r="AQ326" s="9">
-        <v>1.3186813186813218</v>
-      </c>
-      <c r="AR326" s="9">
-        <v>2.405063291139248</v>
-      </c>
-      <c r="AS326" s="9">
-        <v>1.4035087719298245</v>
-      </c>
-      <c r="AT326" s="9">
-        <v>1.3338158506953397</v>
-      </c>
-      <c r="AU326" s="9">
-        <v>1.9991670137442779</v>
-      </c>
-      <c r="AV326" s="9">
-        <v>1.0695187165775426</v>
-      </c>
-      <c r="AW326" s="9">
-        <v>0.14007564084605686</v>
-      </c>
-      <c r="AX326" s="9">
-        <v>2.6406627545737091</v>
-      </c>
-      <c r="AY326" s="9">
-        <v>6.485084306097455E-2</v>
-      </c>
-      <c r="AZ326" s="9">
-        <v>1.4167073766487572</v>
-      </c>
-      <c r="BA326" s="9">
-        <v>-2.2471910112359668</v>
-      </c>
+      <c r="A326" s="7"/>
     </row>
     <row r="327" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A327" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- September 2017</t>
+    <t>Government Employment; Year/Year: January 1990 -- October 2017</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C325" sqref="C325"/>
+      <selection pane="bottomLeft" activeCell="AS324" sqref="AS324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53241,7 +53241,7 @@
         <v>42948</v>
       </c>
       <c r="B325" s="9">
-        <v>0.17945266935845669</v>
+        <v>0.26469268730372364</v>
       </c>
       <c r="C325" s="9">
         <v>-0.28810895756941401</v>
@@ -53402,58 +53402,58 @@
         <v>42979</v>
       </c>
       <c r="B326" s="9">
-        <v>9.4102885821831864E-2</v>
+        <v>0.16131923283742605</v>
       </c>
       <c r="C326" s="9">
-        <v>-0.47393364928910253</v>
+        <v>0.526592943654555</v>
       </c>
       <c r="D326" s="9">
         <v>0.86741016109046198</v>
       </c>
       <c r="E326" s="9">
-        <v>0.29027576197388621</v>
+        <v>0.21770682148041465</v>
       </c>
       <c r="F326" s="9">
-        <v>-0.47236655644780345</v>
+        <v>-0.5196032120925812</v>
       </c>
       <c r="G326" s="9">
-        <v>2.278120550545796</v>
+        <v>1.8074671729156708</v>
       </c>
       <c r="H326" s="9">
-        <v>-6.9848661233995663E-2</v>
+        <v>0.20954598370197375</v>
       </c>
       <c r="I326" s="9">
         <v>-1.5286624203821633</v>
       </c>
       <c r="J326" s="9">
-        <v>-0.15267175572518216</v>
+        <v>1.0687022900763403</v>
       </c>
       <c r="K326" s="9">
         <v>0.20946795140343527</v>
       </c>
       <c r="L326" s="9">
-        <v>0.44384057971015317</v>
+        <v>0.45289855072463769</v>
       </c>
       <c r="M326" s="9">
-        <v>1.1154570476604442</v>
+        <v>1.0864841373315952</v>
       </c>
       <c r="N326" s="9">
         <v>-0.78864353312302837</v>
       </c>
       <c r="O326" s="9">
-        <v>3.6824877250409163</v>
+        <v>3.6006546644844448</v>
       </c>
       <c r="P326" s="9">
-        <v>-0.85244327050066315</v>
+        <v>-0.93648697322607199</v>
       </c>
       <c r="Q326" s="9">
-        <v>1.756007393715334</v>
+        <v>1.6635859519408478</v>
       </c>
       <c r="R326" s="9">
-        <v>-0.50193050193050637</v>
+        <v>-0.5791505791505791</v>
       </c>
       <c r="S326" s="9">
-        <v>-3.8986354775837326E-2</v>
+        <v>-0.23391812865496855</v>
       </c>
       <c r="T326" s="9">
         <v>-0.56479447756511181</v>
@@ -53468,98 +53468,256 @@
         <v>1.6260162601625994</v>
       </c>
       <c r="X326" s="9">
-        <v>0.63582547686910262</v>
+        <v>0.65775049331286994</v>
       </c>
       <c r="Y326" s="9">
-        <v>2.0387866732968787</v>
+        <v>2.5526272169733284</v>
       </c>
       <c r="Z326" s="9">
         <v>1.1748120300751879</v>
       </c>
       <c r="AA326" s="9">
-        <v>1.2673753066230558</v>
+        <v>0.2861815208503749</v>
       </c>
       <c r="AB326" s="9">
-        <v>0.54970224461749362</v>
+        <v>0.52679798442509262</v>
       </c>
       <c r="AC326" s="9">
         <v>1.2008733624454242</v>
       </c>
       <c r="AD326" s="9">
-        <v>-0.3454231433506012</v>
+        <v>-0.28785261945883706</v>
       </c>
       <c r="AE326" s="9">
         <v>3.2704402515723201</v>
       </c>
       <c r="AF326" s="9">
-        <v>0.55066079295154191</v>
+        <v>-0.11013215859030212</v>
       </c>
       <c r="AG326" s="9">
-        <v>-0.43881033642124684</v>
+        <v>-1.0076385503006553</v>
       </c>
       <c r="AH326" s="9">
-        <v>-1.6238868517548424</v>
+        <v>-0.78575170246202208</v>
       </c>
       <c r="AI326" s="9">
         <v>0.61417431509213249</v>
       </c>
       <c r="AJ326" s="9">
-        <v>1.1059530311305328</v>
+        <v>1.1469142545057316</v>
       </c>
       <c r="AK326" s="9">
         <v>0</v>
       </c>
       <c r="AL326" s="9">
-        <v>-0.39774185270721357</v>
+        <v>-1.2958686168847862</v>
       </c>
       <c r="AM326" s="9">
-        <v>0.19796380090497415</v>
+        <v>0.14140271493212669</v>
       </c>
       <c r="AN326" s="9">
-        <v>0.4200323101777097</v>
+        <v>0.90468497576737039</v>
       </c>
       <c r="AO326" s="9">
-        <v>-0.74469579879163528</v>
+        <v>-0.99761135309821869</v>
       </c>
       <c r="AP326" s="9">
         <v>-0.32786885245902103</v>
       </c>
       <c r="AQ326" s="9">
-        <v>1.3186813186813218</v>
+        <v>1.291208791208788</v>
       </c>
       <c r="AR326" s="9">
-        <v>2.405063291139248</v>
+        <v>2.0253164556961951</v>
       </c>
       <c r="AS326" s="9">
-        <v>1.4035087719298245</v>
+        <v>1.4736842105263186</v>
       </c>
       <c r="AT326" s="9">
-        <v>1.3338158506953397</v>
+        <v>1.5147598614485838</v>
       </c>
       <c r="AU326" s="9">
-        <v>1.9991670137442779</v>
+        <v>2.0408163265306145</v>
       </c>
       <c r="AV326" s="9">
         <v>1.0695187165775426</v>
       </c>
       <c r="AW326" s="9">
-        <v>0.14007564084605686</v>
+        <v>0.23812858943830306</v>
       </c>
       <c r="AX326" s="9">
-        <v>2.6406627545737091</v>
+        <v>2.019330341732835</v>
       </c>
       <c r="AY326" s="9">
         <v>6.485084306097455E-2</v>
       </c>
       <c r="AZ326" s="9">
-        <v>1.4167073766487572</v>
+        <v>2.0029311187103187</v>
       </c>
       <c r="BA326" s="9">
         <v>-2.2471910112359668</v>
       </c>
     </row>
     <row r="327" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A327" s="7"/>
+      <c r="A327" s="7">
+        <v>43009</v>
+      </c>
+      <c r="B327" s="9">
+        <v>0.23758292989062221</v>
+      </c>
+      <c r="C327" s="9">
+        <v>0.31537450722732951</v>
+      </c>
+      <c r="D327" s="9">
+        <v>0</v>
+      </c>
+      <c r="E327" s="9">
+        <v>-7.2780203784573352E-2</v>
+      </c>
+      <c r="F327" s="9">
+        <v>-0.2842254855518685</v>
+      </c>
+      <c r="G327" s="9">
+        <v>1.391782976213882</v>
+      </c>
+      <c r="H327" s="9">
+        <v>9.3654881760706452E-2</v>
+      </c>
+      <c r="I327" s="9">
+        <v>-1.2825994014536126</v>
+      </c>
+      <c r="J327" s="9">
+        <v>0.76219512195121963</v>
+      </c>
+      <c r="K327" s="9">
+        <v>-0.37593984962406252</v>
+      </c>
+      <c r="L327" s="9">
+        <v>0.70050946142649606</v>
+      </c>
+      <c r="M327" s="9">
+        <v>1.4618613402807965</v>
+      </c>
+      <c r="N327" s="9">
+        <v>-1.1049723756906122</v>
+      </c>
+      <c r="O327" s="9">
+        <v>2.6016260162601652</v>
+      </c>
+      <c r="P327" s="9">
+        <v>-1.1407300672430356</v>
+      </c>
+      <c r="Q327" s="9">
+        <v>1.5755329008340953</v>
+      </c>
+      <c r="R327" s="9">
+        <v>-3.8654812524146077E-2</v>
+      </c>
+      <c r="S327" s="9">
+        <v>-0.19500780031200141</v>
+      </c>
+      <c r="T327" s="9">
+        <v>-0.56426332288401615</v>
+      </c>
+      <c r="U327" s="9">
+        <v>-1.2349490583513432</v>
+      </c>
+      <c r="V327" s="9">
+        <v>-0.49900199600798401</v>
+      </c>
+      <c r="W327" s="9">
+        <v>1.7439556084026859</v>
+      </c>
+      <c r="X327" s="9">
+        <v>8.7070091423603432E-2</v>
+      </c>
+      <c r="Y327" s="9">
+        <v>2.2850567154364771</v>
+      </c>
+      <c r="Z327" s="9">
+        <v>0.46609182008855737</v>
+      </c>
+      <c r="AA327" s="9">
+        <v>-0.48919690175296249</v>
+      </c>
+      <c r="AB327" s="9">
+        <v>-0.16051364365972151</v>
+      </c>
+      <c r="AC327" s="9">
+        <v>0.97719869706841012</v>
+      </c>
+      <c r="AD327" s="9">
+        <v>0.29137529137529139</v>
+      </c>
+      <c r="AE327" s="9">
+        <v>2.3226616446955357</v>
+      </c>
+      <c r="AF327" s="9">
+        <v>-0.76502732240437465</v>
+      </c>
+      <c r="AG327" s="9">
+        <v>-0.66960640209046374</v>
+      </c>
+      <c r="AH327" s="9">
+        <v>-0.3664921465968527</v>
+      </c>
+      <c r="AI327" s="9">
+        <v>0.3101736972704715</v>
+      </c>
+      <c r="AJ327" s="9">
+        <v>1.2310217480508823</v>
+      </c>
+      <c r="AK327" s="9">
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="AL327" s="9">
+        <v>-0.23243801652891977</v>
+      </c>
+      <c r="AM327" s="9">
+        <v>0.39615166949633107</v>
+      </c>
+      <c r="AN327" s="9">
+        <v>1.6558441558441634</v>
+      </c>
+      <c r="AO327" s="9">
+        <v>-0.39744499645137749</v>
+      </c>
+      <c r="AP327" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ327" s="9">
+        <v>1.7321968655485322</v>
+      </c>
+      <c r="AR327" s="9">
+        <v>1.9083969465648856</v>
+      </c>
+      <c r="AS327" s="9">
+        <v>1.0423905489923559</v>
+      </c>
+      <c r="AT327" s="9">
+        <v>1.9025953882742193</v>
+      </c>
+      <c r="AU327" s="9">
+        <v>1.8302828618968408</v>
+      </c>
+      <c r="AV327" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW327" s="9">
+        <v>-0.32100488485693712</v>
+      </c>
+      <c r="AX327" s="9">
+        <v>2.3867173988239285</v>
+      </c>
+      <c r="AY327" s="9">
+        <v>-6.4226075786765785E-2</v>
+      </c>
+      <c r="AZ327" s="9">
+        <v>0.72184793070259856</v>
+      </c>
+      <c r="BA327" s="9">
+        <v>-1.8335684062059396</v>
+      </c>
     </row>
     <row r="328" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A328" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1990 -- October 2017</t>
+    <t>Government Employment; Year/Year: January 1990 -- November 2017</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS324" sqref="AS324"/>
+      <selection pane="bottomLeft" activeCell="C328" sqref="C328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53402,7 +53402,7 @@
         <v>42979</v>
       </c>
       <c r="B326" s="9">
-        <v>0.16131923283742605</v>
+        <v>9.4102885821831864E-2</v>
       </c>
       <c r="C326" s="9">
         <v>0.526592943654555</v>
@@ -53563,55 +53563,55 @@
         <v>43009</v>
       </c>
       <c r="B327" s="9">
-        <v>0.23758292989062221</v>
+        <v>8.0688542227003765E-2</v>
       </c>
       <c r="C327" s="9">
-        <v>0.31537450722732951</v>
+        <v>0.57818659658343985</v>
       </c>
       <c r="D327" s="9">
-        <v>0</v>
+        <v>0.12345679012344976</v>
       </c>
       <c r="E327" s="9">
-        <v>-7.2780203784573352E-2</v>
+        <v>-2.4260067928181927E-2</v>
       </c>
       <c r="F327" s="9">
         <v>-0.2842254855518685</v>
       </c>
       <c r="G327" s="9">
-        <v>1.391782976213882</v>
+        <v>1.4507568311381991</v>
       </c>
       <c r="H327" s="9">
-        <v>9.3654881760706452E-2</v>
+        <v>0.1873097635214129</v>
       </c>
       <c r="I327" s="9">
-        <v>-1.2825994014536126</v>
+        <v>-1.2398460880718281</v>
       </c>
       <c r="J327" s="9">
-        <v>0.76219512195121963</v>
+        <v>-0.76219512195121963</v>
       </c>
       <c r="K327" s="9">
         <v>-0.37593984962406252</v>
       </c>
       <c r="L327" s="9">
-        <v>0.70050946142649606</v>
+        <v>1.1189956331877688</v>
       </c>
       <c r="M327" s="9">
-        <v>1.4618613402807965</v>
+        <v>1.5776523375307538</v>
       </c>
       <c r="N327" s="9">
         <v>-1.1049723756906122</v>
       </c>
       <c r="O327" s="9">
-        <v>2.6016260162601652</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="P327" s="9">
-        <v>-1.1407300672430356</v>
+        <v>-0.76849183477425287</v>
       </c>
       <c r="Q327" s="9">
-        <v>1.5755329008340953</v>
+        <v>1.714550509731227</v>
       </c>
       <c r="R327" s="9">
-        <v>-3.8654812524146077E-2</v>
+        <v>0</v>
       </c>
       <c r="S327" s="9">
         <v>-0.19500780031200141</v>
@@ -53632,34 +53632,34 @@
         <v>8.7070091423603432E-2</v>
       </c>
       <c r="Y327" s="9">
-        <v>2.2850567154364771</v>
+        <v>1.0849909584086836</v>
       </c>
       <c r="Z327" s="9">
         <v>0.46609182008855737</v>
       </c>
       <c r="AA327" s="9">
-        <v>-0.48919690175296249</v>
+        <v>-0.28536485935589773</v>
       </c>
       <c r="AB327" s="9">
-        <v>-0.16051364365972151</v>
+        <v>-0.13758312313690041</v>
       </c>
       <c r="AC327" s="9">
         <v>0.97719869706841012</v>
       </c>
       <c r="AD327" s="9">
-        <v>0.29137529137529139</v>
+        <v>0.34965034965034636</v>
       </c>
       <c r="AE327" s="9">
-        <v>2.3226616446955357</v>
+        <v>2.8876333961079683</v>
       </c>
       <c r="AF327" s="9">
         <v>-0.76502732240437465</v>
       </c>
       <c r="AG327" s="9">
-        <v>-0.66960640209046374</v>
+        <v>-0.63694267515923197</v>
       </c>
       <c r="AH327" s="9">
-        <v>-0.3664921465968527</v>
+        <v>-0.73298429319372027</v>
       </c>
       <c r="AI327" s="9">
         <v>0.3101736972704715</v>
@@ -53671,28 +53671,28 @@
         <v>0.60240963855421692</v>
       </c>
       <c r="AL327" s="9">
-        <v>-0.23243801652891977</v>
+        <v>-0.86518595041321433</v>
       </c>
       <c r="AM327" s="9">
         <v>0.39615166949633107</v>
       </c>
       <c r="AN327" s="9">
-        <v>1.6558441558441634</v>
+        <v>0.81168831168831157</v>
       </c>
       <c r="AO327" s="9">
-        <v>-0.39744499645137749</v>
+        <v>-0.69552874378991869</v>
       </c>
       <c r="AP327" s="9">
         <v>0</v>
       </c>
       <c r="AQ327" s="9">
-        <v>1.7321968655485322</v>
+        <v>1.6772064888644551</v>
       </c>
       <c r="AR327" s="9">
-        <v>1.9083969465648856</v>
+        <v>2.1628498727735406</v>
       </c>
       <c r="AS327" s="9">
-        <v>1.0423905489923559</v>
+        <v>1.0192263145703115</v>
       </c>
       <c r="AT327" s="9">
         <v>1.9025953882742193</v>
@@ -53704,23 +53704,181 @@
         <v>0</v>
       </c>
       <c r="AW327" s="9">
-        <v>-0.32100488485693712</v>
+        <v>-0.46057222609908649</v>
       </c>
       <c r="AX327" s="9">
-        <v>2.3867173988239285</v>
+        <v>2.1099965409892651</v>
       </c>
       <c r="AY327" s="9">
         <v>-6.4226075786765785E-2</v>
       </c>
       <c r="AZ327" s="9">
-        <v>0.72184793070259856</v>
+        <v>0.69778633301250648</v>
       </c>
       <c r="BA327" s="9">
         <v>-1.8335684062059396</v>
       </c>
     </row>
     <row r="328" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A328" s="7"/>
+      <c r="A328" s="7">
+        <v>43040</v>
+      </c>
+      <c r="B328" s="9">
+        <v>0.20184803086032116</v>
+      </c>
+      <c r="C328" s="9">
+        <v>0.86750788643533439</v>
+      </c>
+      <c r="D328" s="9">
+        <v>-0.12345679012344976</v>
+      </c>
+      <c r="E328" s="9">
+        <v>0.12141816415735794</v>
+      </c>
+      <c r="F328" s="9">
+        <v>-0.37896731406915346</v>
+      </c>
+      <c r="G328" s="9">
+        <v>1.6384403308389095</v>
+      </c>
+      <c r="H328" s="9">
+        <v>7.0126227208978806E-2</v>
+      </c>
+      <c r="I328" s="9">
+        <v>-1.4938113529662824</v>
+      </c>
+      <c r="J328" s="9">
+        <v>-0.30721966205835433</v>
+      </c>
+      <c r="K328" s="9">
+        <v>-0.66694456023342819</v>
+      </c>
+      <c r="L328" s="9">
+        <v>1.1106053709604047</v>
+      </c>
+      <c r="M328" s="9">
+        <v>1.3148388961132815</v>
+      </c>
+      <c r="N328" s="9">
+        <v>-3.4321372854914136</v>
+      </c>
+      <c r="O328" s="9">
+        <v>2.6785714285714262</v>
+      </c>
+      <c r="P328" s="9">
+        <v>-0.96200096200096208</v>
+      </c>
+      <c r="Q328" s="9">
+        <v>1.6921650440426546</v>
+      </c>
+      <c r="R328" s="9">
+        <v>0.15509887553316562</v>
+      </c>
+      <c r="S328" s="9">
+        <v>-0.19538882375928096</v>
+      </c>
+      <c r="T328" s="9">
+        <v>-0.68987143305110965</v>
+      </c>
+      <c r="U328" s="9">
+        <v>-1.3592832869941234</v>
+      </c>
+      <c r="V328" s="9">
+        <v>-0.40080160320640429</v>
+      </c>
+      <c r="W328" s="9">
+        <v>1.8189007512850908</v>
+      </c>
+      <c r="X328" s="9">
+        <v>-0.75642965204236012</v>
+      </c>
+      <c r="Y328" s="9">
+        <v>0.52527905449769063</v>
+      </c>
+      <c r="Z328" s="9">
+        <v>0.41987403778866605</v>
+      </c>
+      <c r="AA328" s="9">
+        <v>-0.12234910277323938</v>
+      </c>
+      <c r="AB328" s="9">
+        <v>-0.27541886619233158</v>
+      </c>
+      <c r="AC328" s="9">
+        <v>0.6528835690968382</v>
+      </c>
+      <c r="AD328" s="9">
+        <v>0.64177362893815304</v>
+      </c>
+      <c r="AE328" s="9">
+        <v>3.5175879396985068</v>
+      </c>
+      <c r="AF328" s="9">
+        <v>-0.547645125958379</v>
+      </c>
+      <c r="AG328" s="9">
+        <v>-0.57189542483660127</v>
+      </c>
+      <c r="AH328" s="9">
+        <v>-1.5080603224128994</v>
+      </c>
+      <c r="AI328" s="9">
+        <v>0.22053756030324229</v>
+      </c>
+      <c r="AJ328" s="9">
+        <v>1.2450403611985255</v>
+      </c>
+      <c r="AK328" s="9">
+        <v>0.12004801920769333</v>
+      </c>
+      <c r="AL328" s="9">
+        <v>-1.2514514256225062</v>
+      </c>
+      <c r="AM328" s="9">
+        <v>0.2830455703368242</v>
+      </c>
+      <c r="AN328" s="9">
+        <v>0.74554294975689184</v>
+      </c>
+      <c r="AO328" s="9">
+        <v>-0.48322910744741004</v>
+      </c>
+      <c r="AP328" s="9">
+        <v>-0.49342105263157432</v>
+      </c>
+      <c r="AQ328" s="9">
+        <v>1.122980005477942</v>
+      </c>
+      <c r="AR328" s="9">
+        <v>1.6414141414141377</v>
+      </c>
+      <c r="AS328" s="9">
+        <v>1.0491956166938681</v>
+      </c>
+      <c r="AT328" s="9">
+        <v>1.8580645161290321</v>
+      </c>
+      <c r="AU328" s="9">
+        <v>1.9991670137442779</v>
+      </c>
+      <c r="AV328" s="9">
+        <v>0.18050541516245744</v>
+      </c>
+      <c r="AW328" s="9">
+        <v>-0.30790762771169283</v>
+      </c>
+      <c r="AX328" s="9">
+        <v>1.4515292897874505</v>
+      </c>
+      <c r="AY328" s="9">
+        <v>-5.9502125075895469</v>
+      </c>
+      <c r="AZ328" s="9">
+        <v>-0.54696789536266621</v>
+      </c>
+      <c r="BA328" s="9">
+        <v>-1.8361581920903913</v>
+      </c>
     </row>
     <row r="329" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A329" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\5IccddUeiEeDq5il0jAe9w==\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1695,7 +1695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C328" sqref="C328"/>
+      <selection pane="bottomLeft" activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53881,10 +53881,326 @@
       </c>
     </row>
     <row r="329" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A329" s="7"/>
+      <c r="A329" s="7">
+        <v>43070</v>
+      </c>
+      <c r="B329" s="9">
+        <v>0.1435041930131396</v>
+      </c>
+      <c r="C329" s="9">
+        <v>1.2111637704054676</v>
+      </c>
+      <c r="D329" s="9">
+        <v>-0.4950495049504845</v>
+      </c>
+      <c r="E329" s="9">
+        <v>0.24289531212047608</v>
+      </c>
+      <c r="F329" s="9">
+        <v>4.7348484848495617E-2</v>
+      </c>
+      <c r="G329" s="9">
+        <v>1.3159962287869265</v>
+      </c>
+      <c r="H329" s="9">
+        <v>2.8037383177570092</v>
+      </c>
+      <c r="I329" s="9">
+        <v>-1.1970927746900433</v>
+      </c>
+      <c r="J329" s="9">
+        <v>2.1538461538461626</v>
+      </c>
+      <c r="K329" s="9">
+        <v>-0.74906367041198973</v>
+      </c>
+      <c r="L329" s="9">
+        <v>1.0271793473320772</v>
+      </c>
+      <c r="M329" s="9">
+        <v>-0.68007524236724726</v>
+      </c>
+      <c r="N329" s="9">
+        <v>-0.55467511885895626</v>
+      </c>
+      <c r="O329" s="9">
+        <v>1.707317073170727</v>
+      </c>
+      <c r="P329" s="9">
+        <v>-9.6200096200104404E-2</v>
+      </c>
+      <c r="Q329" s="9">
+        <v>-1.0682768230376272</v>
+      </c>
+      <c r="R329" s="9">
+        <v>0.27079303675047917</v>
+      </c>
+      <c r="S329" s="9">
+        <v>-0.19432568985619897</v>
+      </c>
+      <c r="T329" s="9">
+        <v>-1.3174404015056425</v>
+      </c>
+      <c r="U329" s="9">
+        <v>0.77375425564840605</v>
+      </c>
+      <c r="V329" s="9">
+        <v>0.30150753768843935</v>
+      </c>
+      <c r="W329" s="9">
+        <v>-0.53349140486070845</v>
+      </c>
+      <c r="X329" s="9">
+        <v>-1.0273224043715823</v>
+      </c>
+      <c r="Y329" s="9">
+        <v>1.6396130513202614E-2</v>
+      </c>
+      <c r="Z329" s="9">
+        <v>-0.62834535722596896</v>
+      </c>
+      <c r="AA329" s="9">
+        <v>-0.73499387505104585</v>
+      </c>
+      <c r="AB329" s="9">
+        <v>-0.8258774948382579</v>
+      </c>
+      <c r="AC329" s="9">
+        <v>-0.21762785636561788</v>
+      </c>
+      <c r="AD329" s="9">
+        <v>0.58479532163742687</v>
+      </c>
+      <c r="AE329" s="9">
+        <v>2.6415094339622569</v>
+      </c>
+      <c r="AF329" s="9">
+        <v>-0.88300220750551561</v>
+      </c>
+      <c r="AG329" s="9">
+        <v>0.4252535165194673</v>
+      </c>
+      <c r="AH329" s="9">
+        <v>-2.1943573667711687</v>
+      </c>
+      <c r="AI329" s="9">
+        <v>-0.14470782800441953</v>
+      </c>
+      <c r="AJ329" s="9">
+        <v>0.28672856362643673</v>
+      </c>
+      <c r="AK329" s="9">
+        <v>-2.1582733812949777</v>
+      </c>
+      <c r="AL329" s="9">
+        <v>1.3478486262312048</v>
+      </c>
+      <c r="AM329" s="9">
+        <v>-0.70721357850070721</v>
+      </c>
+      <c r="AN329" s="9">
+        <v>0.45380875202592458</v>
+      </c>
+      <c r="AO329" s="9">
+        <v>-0.48357274925330351</v>
+      </c>
+      <c r="AP329" s="9">
+        <v>0.32948929159801604</v>
+      </c>
+      <c r="AQ329" s="9">
+        <v>0.46562585592987915</v>
+      </c>
+      <c r="AR329" s="9">
+        <v>0.88607594936709233</v>
+      </c>
+      <c r="AS329" s="9">
+        <v>0.60705113238383512</v>
+      </c>
+      <c r="AT329" s="9">
+        <v>0.11853226138940189</v>
+      </c>
+      <c r="AU329" s="9">
+        <v>2.0772746157041961</v>
+      </c>
+      <c r="AV329" s="9">
+        <v>0.35906642728904081</v>
+      </c>
+      <c r="AW329" s="9">
+        <v>0.13984058173682001</v>
+      </c>
+      <c r="AX329" s="9">
+        <v>1.654316732724457</v>
+      </c>
+      <c r="AY329" s="9">
+        <v>-1.4120667522464807</v>
+      </c>
+      <c r="AZ329" s="9">
+        <v>-2.8455284552845477</v>
+      </c>
+      <c r="BA329" s="9">
+        <v>-2.1156558533145273</v>
+      </c>
     </row>
     <row r="330" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A330" s="7"/>
+      <c r="A330" s="7">
+        <v>43101</v>
+      </c>
+      <c r="B330" s="9">
+        <v>9.4123974720989642E-2</v>
+      </c>
+      <c r="C330" s="9">
+        <v>1.1600316372264639</v>
+      </c>
+      <c r="D330" s="9">
+        <v>-0.86206896551724488</v>
+      </c>
+      <c r="E330" s="9">
+        <v>0.31660983925960895</v>
+      </c>
+      <c r="F330" s="9">
+        <v>-4.732607666825496E-2</v>
+      </c>
+      <c r="G330" s="9">
+        <v>1.5946765365988109</v>
+      </c>
+      <c r="H330" s="9">
+        <v>1.5469868390671873</v>
+      </c>
+      <c r="I330" s="9">
+        <v>-1.2409071459135548</v>
+      </c>
+      <c r="J330" s="9">
+        <v>2.4615384615384528</v>
+      </c>
+      <c r="K330" s="9">
+        <v>-1.0810810810810787</v>
+      </c>
+      <c r="L330" s="9">
+        <v>0.72509743496782386</v>
+      </c>
+      <c r="M330" s="9">
+        <v>-1.0243832058865996</v>
+      </c>
+      <c r="N330" s="9">
+        <v>-0.71485305798253029</v>
+      </c>
+      <c r="O330" s="9">
+        <v>0.96696212731668241</v>
+      </c>
+      <c r="P330" s="9">
+        <v>4.8221820373716369E-2</v>
+      </c>
+      <c r="Q330" s="9">
+        <v>-1.5780923648178129</v>
+      </c>
+      <c r="R330" s="9">
+        <v>0.85172280294231062</v>
+      </c>
+      <c r="S330" s="9">
+        <v>0.62720501764013892</v>
+      </c>
+      <c r="T330" s="9">
+        <v>-1.0043942247332218</v>
+      </c>
+      <c r="U330" s="9">
+        <v>0.27752081406104756</v>
+      </c>
+      <c r="V330" s="9">
+        <v>0.40241448692152054</v>
+      </c>
+      <c r="W330" s="9">
+        <v>-1.5115822536317214</v>
+      </c>
+      <c r="X330" s="9">
+        <v>-2.0634231103388361</v>
+      </c>
+      <c r="Y330" s="9">
+        <v>3.2813781788358566E-2</v>
+      </c>
+      <c r="Z330" s="9">
+        <v>0.63231850117095756</v>
+      </c>
+      <c r="AA330" s="9">
+        <v>-0.65226253567061665</v>
+      </c>
+      <c r="AB330" s="9">
+        <v>-0.4595588235294118</v>
+      </c>
+      <c r="AC330" s="9">
+        <v>0.65573770491802652</v>
+      </c>
+      <c r="AD330" s="9">
+        <v>0.9929906542056175</v>
+      </c>
+      <c r="AE330" s="9">
+        <v>2.6315789473684315</v>
+      </c>
+      <c r="AF330" s="9">
+        <v>-1.3172338090010853</v>
+      </c>
+      <c r="AG330" s="9">
+        <v>1.0666229077781424</v>
+      </c>
+      <c r="AH330" s="9">
+        <v>-1.2137203166226973</v>
+      </c>
+      <c r="AI330" s="9">
+        <v>-4.8229295852283686E-2</v>
+      </c>
+      <c r="AJ330" s="9">
+        <v>1.155115511551152</v>
+      </c>
+      <c r="AK330" s="9">
+        <v>-3.7914691943127994</v>
+      </c>
+      <c r="AL330" s="9">
+        <v>1.6177041542642681</v>
+      </c>
+      <c r="AM330" s="9">
+        <v>-0.81828442437922611</v>
+      </c>
+      <c r="AN330" s="9">
+        <v>-3.9003605375286901</v>
+      </c>
+      <c r="AO330" s="9">
+        <v>-0.17133066818959622</v>
+      </c>
+      <c r="AP330" s="9">
+        <v>0.49586776859503656</v>
+      </c>
+      <c r="AQ330" s="9">
+        <v>0.6854949273375377</v>
+      </c>
+      <c r="AR330" s="9">
+        <v>0.3764115432873239</v>
+      </c>
+      <c r="AS330" s="9">
+        <v>-0.41618497109826857</v>
+      </c>
+      <c r="AT330" s="9">
+        <v>0.10801357884990788</v>
+      </c>
+      <c r="AU330" s="9">
+        <v>2.9178824510212586</v>
+      </c>
+      <c r="AV330" s="9">
+        <v>0.17953321364451402</v>
+      </c>
+      <c r="AW330" s="9">
+        <v>0.26633024950938844</v>
+      </c>
+      <c r="AX330" s="9">
+        <v>2.0069204152249176</v>
+      </c>
+      <c r="AY330" s="9">
+        <v>-1.2210796915167133</v>
+      </c>
+      <c r="AZ330" s="9">
+        <v>-1.379477250726038</v>
+      </c>
+      <c r="BA330" s="9">
+        <v>-1.4204545454545454</v>
+      </c>
     </row>
     <row r="331" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A331" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1991 -- February 2018</t>
+    <t>Government Employment; Year/Year: January 1991 -- April 2018</t>
   </si>
 </sst>
 </file>
@@ -54207,7 +54207,7 @@
         <v>43132</v>
       </c>
       <c r="B331" s="9">
-        <v>7.1719933659061361E-2</v>
+        <v>5.827244609798736E-2</v>
       </c>
       <c r="C331" s="9">
         <v>0.31241864097890876</v>
@@ -54364,10 +54364,326 @@
       </c>
     </row>
     <row r="332" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A332" s="7"/>
+      <c r="A332" s="7">
+        <v>43160</v>
+      </c>
+      <c r="B332" s="9">
+        <v>3.5851931522810791E-2</v>
+      </c>
+      <c r="C332" s="9">
+        <v>0.44224765868887761</v>
+      </c>
+      <c r="D332" s="9">
+        <v>-1.1042944785276143</v>
+      </c>
+      <c r="E332" s="9">
+        <v>-0.29069767441860189</v>
+      </c>
+      <c r="F332" s="9">
+        <v>0.18975332068310116</v>
+      </c>
+      <c r="G332" s="9">
+        <v>0.96305031446540879</v>
+      </c>
+      <c r="H332" s="9">
+        <v>0.9624197983501479</v>
+      </c>
+      <c r="I332" s="9">
+        <v>-1.9165247018739351</v>
+      </c>
+      <c r="J332" s="9">
+        <v>-0.15060240963856705</v>
+      </c>
+      <c r="K332" s="9">
+        <v>-1.5282940933498508</v>
+      </c>
+      <c r="L332" s="9">
+        <v>0.52417532760957564</v>
+      </c>
+      <c r="M332" s="9">
+        <v>0.72918185795537405</v>
+      </c>
+      <c r="N332" s="9">
+        <v>-0.94711917916338018</v>
+      </c>
+      <c r="O332" s="9">
+        <v>3.0303030303030329</v>
+      </c>
+      <c r="P332" s="9">
+        <v>0.92771084337349952</v>
+      </c>
+      <c r="Q332" s="9">
+        <v>7.0339976553343814E-2</v>
+      </c>
+      <c r="R332" s="9">
+        <v>7.7071290944118936E-2</v>
+      </c>
+      <c r="S332" s="9">
+        <v>0.58616647127783184</v>
+      </c>
+      <c r="T332" s="9">
+        <v>-0.28481012658227128</v>
+      </c>
+      <c r="U332" s="9">
+        <v>-0.88414634146340776</v>
+      </c>
+      <c r="V332" s="9">
+        <v>0</v>
+      </c>
+      <c r="W332" s="9">
+        <v>-0.39572615749901069</v>
+      </c>
+      <c r="X332" s="9">
+        <v>-0.44208664898320071</v>
+      </c>
+      <c r="Y332" s="9">
+        <v>1.4157228514323783</v>
+      </c>
+      <c r="Z332" s="9">
+        <v>1.7102137767220877</v>
+      </c>
+      <c r="AA332" s="9">
+        <v>-0.12330456226880861</v>
+      </c>
+      <c r="AB332" s="9">
+        <v>0.13840830449827513</v>
+      </c>
+      <c r="AC332" s="9">
+        <v>0.9933774834437149</v>
+      </c>
+      <c r="AD332" s="9">
+        <v>5.7836899942159813E-2</v>
+      </c>
+      <c r="AE332" s="9">
+        <v>2.5657071339173929</v>
+      </c>
+      <c r="AF332" s="9">
+        <v>-0.22123893805310046</v>
+      </c>
+      <c r="AG332" s="9">
+        <v>0.29320736276267606</v>
+      </c>
+      <c r="AH332" s="9">
+        <v>0.21401819154628446</v>
+      </c>
+      <c r="AI332" s="9">
+        <v>7.5914423740504416E-2</v>
+      </c>
+      <c r="AJ332" s="9">
+        <v>0.80799780881949845</v>
+      </c>
+      <c r="AK332" s="9">
+        <v>-2.5362318840579641</v>
+      </c>
+      <c r="AL332" s="9">
+        <v>0.35696073431923359</v>
+      </c>
+      <c r="AM332" s="9">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="AN332" s="9">
+        <v>-5.5966548729494949</v>
+      </c>
+      <c r="AO332" s="9">
+        <v>-0.29871977240398617</v>
+      </c>
+      <c r="AP332" s="9">
+        <v>0.33003300330032304</v>
+      </c>
+      <c r="AQ332" s="9">
+        <v>0.73992874760209526</v>
+      </c>
+      <c r="AR332" s="9">
+        <v>1.5209125475285026</v>
+      </c>
+      <c r="AS332" s="9">
+        <v>0.46554934823091243</v>
+      </c>
+      <c r="AT332" s="9">
+        <v>0.25763899623847064</v>
+      </c>
+      <c r="AU332" s="9">
+        <v>1.8121911037891174</v>
+      </c>
+      <c r="AV332" s="9">
+        <v>0.35906642728904081</v>
+      </c>
+      <c r="AW332" s="9">
+        <v>-4.1887740854519434E-2</v>
+      </c>
+      <c r="AX332" s="9">
+        <v>1.646937725167271</v>
+      </c>
+      <c r="AY332" s="9">
+        <v>-1.2795905310300704</v>
+      </c>
+      <c r="AZ332" s="9">
+        <v>0.5428077966938043</v>
+      </c>
+      <c r="BA332" s="9">
+        <v>-1.8465909090909252</v>
+      </c>
     </row>
     <row r="333" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A333" s="7"/>
+      <c r="A333" s="7">
+        <v>43191</v>
+      </c>
+      <c r="B333" s="9">
+        <v>1.3443871835088507E-2</v>
+      </c>
+      <c r="C333" s="9">
+        <v>0.4940197607904257</v>
+      </c>
+      <c r="D333" s="9">
+        <v>-1.1070110701106906</v>
+      </c>
+      <c r="E333" s="9">
+        <v>-0.24213075060532688</v>
+      </c>
+      <c r="F333" s="9">
+        <v>4.7348484848495617E-2</v>
+      </c>
+      <c r="G333" s="9">
+        <v>0.9626719056974461</v>
+      </c>
+      <c r="H333" s="9">
+        <v>1.3079394217530951</v>
+      </c>
+      <c r="I333" s="9">
+        <v>-0.98967297762478978</v>
+      </c>
+      <c r="J333" s="9">
+        <v>0.60422960725074237</v>
+      </c>
+      <c r="K333" s="9">
+        <v>-1.1608623548921986</v>
+      </c>
+      <c r="L333" s="9">
+        <v>0.72358900144717808</v>
+      </c>
+      <c r="M333" s="9">
+        <v>0.94793641534198625</v>
+      </c>
+      <c r="N333" s="9">
+        <v>-1.7268445839874433</v>
+      </c>
+      <c r="O333" s="9">
+        <v>2.6122448979591857</v>
+      </c>
+      <c r="P333" s="9">
+        <v>1.1741919864423112</v>
+      </c>
+      <c r="Q333" s="9">
+        <v>1.5899383009017669</v>
+      </c>
+      <c r="R333" s="9">
+        <v>0.15402387370043671</v>
+      </c>
+      <c r="S333" s="9">
+        <v>0.50721810378463184</v>
+      </c>
+      <c r="T333" s="9">
+        <v>-6.341154090044028E-2</v>
+      </c>
+      <c r="U333" s="9">
+        <v>-0.91268634012777616</v>
+      </c>
+      <c r="V333" s="9">
+        <v>0.40040040040039182</v>
+      </c>
+      <c r="W333" s="9">
+        <v>-0.65424266455193392</v>
+      </c>
+      <c r="X333" s="9">
+        <v>-0.22143489813994682</v>
+      </c>
+      <c r="Y333" s="9">
+        <v>1.296973727968086</v>
+      </c>
+      <c r="Z333" s="9">
+        <v>1.7577197149643651</v>
+      </c>
+      <c r="AA333" s="9">
+        <v>0.20635575732562939</v>
+      </c>
+      <c r="AB333" s="9">
+        <v>0.34618047542118624</v>
+      </c>
+      <c r="AC333" s="9">
+        <v>0.77177508269019057</v>
+      </c>
+      <c r="AD333" s="9">
+        <v>-0.17361111111111768</v>
+      </c>
+      <c r="AE333" s="9">
+        <v>3.0798240100565719</v>
+      </c>
+      <c r="AF333" s="9">
+        <v>-0.66445182724251861</v>
+      </c>
+      <c r="AG333" s="9">
+        <v>0.49043648847474253</v>
+      </c>
+      <c r="AH333" s="9">
+        <v>5.3447354355956336E-2</v>
+      </c>
+      <c r="AI333" s="9">
+        <v>0.1519337016574617</v>
+      </c>
+      <c r="AJ333" s="9">
+        <v>0.94481719841162415</v>
+      </c>
+      <c r="AK333" s="9">
+        <v>-2.5362318840579641</v>
+      </c>
+      <c r="AL333" s="9">
+        <v>0.58883768561186745</v>
+      </c>
+      <c r="AM333" s="9">
+        <v>0.48627002288329191</v>
+      </c>
+      <c r="AN333" s="9">
+        <v>-5.2002583979328234</v>
+      </c>
+      <c r="AO333" s="9">
+        <v>-0.3130781272235727</v>
+      </c>
+      <c r="AP333" s="9">
+        <v>0.16556291390728714</v>
+      </c>
+      <c r="AQ333" s="9">
+        <v>0.87767416346680971</v>
+      </c>
+      <c r="AR333" s="9">
+        <v>1.6455696202531609</v>
+      </c>
+      <c r="AS333" s="9">
+        <v>0.55852920642309389</v>
+      </c>
+      <c r="AT333" s="9">
+        <v>0.24709152681973551</v>
+      </c>
+      <c r="AU333" s="9">
+        <v>1.6872427983539071</v>
+      </c>
+      <c r="AV333" s="9">
+        <v>0.36036036036036551</v>
+      </c>
+      <c r="AW333" s="9">
+        <v>-0.19533975163947129</v>
+      </c>
+      <c r="AX333" s="9">
+        <v>1.4192886456908462</v>
+      </c>
+      <c r="AY333" s="9">
+        <v>-0.38935756002595351</v>
+      </c>
+      <c r="AZ333" s="9">
+        <v>0.44139283962727099</v>
+      </c>
+      <c r="BA333" s="9">
+        <v>-1.9858156028368874</v>
+      </c>
     </row>
     <row r="334" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A334" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box Sync\TPC\CENTER\SLFI\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\SEM\Historical\Employment\PUBLISHED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -1102,7 +1105,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1113,6 +1116,9 @@
     <xf numFmtId="14" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="59" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="241">
     <cellStyle name="active" xfId="3"/>
@@ -1368,6 +1374,670 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TABLE"/>
+      <sheetName val="FRED"/>
+      <sheetName val="fred1"/>
+      <sheetName val="fred2"/>
+      <sheetName val="fred3"/>
+      <sheetName val="fred4"/>
+      <sheetName val="KEY"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="336">
+          <cell r="B336">
+            <v>22305</v>
+          </cell>
+          <cell r="D336">
+            <v>81.7</v>
+          </cell>
+          <cell r="F336">
+            <v>384.8</v>
+          </cell>
+          <cell r="H336">
+            <v>211.2</v>
+          </cell>
+          <cell r="J336">
+            <v>413.1</v>
+          </cell>
+          <cell r="L336">
+            <v>2548.6999999999998</v>
+          </cell>
+          <cell r="N336">
+            <v>435.3</v>
+          </cell>
+          <cell r="P336">
+            <v>232.2</v>
+          </cell>
+          <cell r="R336">
+            <v>66.099999999999994</v>
+          </cell>
+          <cell r="T336">
+            <v>241.1</v>
+          </cell>
+          <cell r="V336">
+            <v>1105.9000000000001</v>
+          </cell>
+          <cell r="X336">
+            <v>685.3</v>
+          </cell>
+          <cell r="Z336">
+            <v>126.3</v>
+          </cell>
+          <cell r="AB336">
+            <v>259.2</v>
+          </cell>
+          <cell r="AD336">
+            <v>122.9</v>
+          </cell>
+          <cell r="AF336">
+            <v>824.2</v>
+          </cell>
+          <cell r="AH336">
+            <v>425</v>
+          </cell>
+          <cell r="AJ336">
+            <v>255.7</v>
+          </cell>
+          <cell r="AL336">
+            <v>316</v>
+          </cell>
+          <cell r="AN336">
+            <v>327.8</v>
+          </cell>
+          <cell r="AP336">
+            <v>452.1</v>
+          </cell>
+          <cell r="AR336">
+            <v>505.6</v>
+          </cell>
+          <cell r="AT336">
+            <v>100</v>
+          </cell>
+          <cell r="AV336">
+            <v>601.70000000000005</v>
+          </cell>
+          <cell r="AX336">
+            <v>421.8</v>
+          </cell>
+          <cell r="AZ336">
+            <v>434.3</v>
+          </cell>
+          <cell r="BB336">
+            <v>241.9</v>
+          </cell>
+          <cell r="BD336">
+            <v>90.6</v>
+          </cell>
+          <cell r="BF336">
+            <v>731.5</v>
+          </cell>
+          <cell r="BH336">
+            <v>82.7</v>
+          </cell>
+          <cell r="BJ336">
+            <v>172.7</v>
+          </cell>
+          <cell r="BL336">
+            <v>90.3</v>
+          </cell>
+          <cell r="BN336">
+            <v>612.5</v>
+          </cell>
+          <cell r="BP336">
+            <v>185.8</v>
+          </cell>
+          <cell r="BR336">
+            <v>159.9</v>
+          </cell>
+          <cell r="BT336">
+            <v>1447.4</v>
+          </cell>
+          <cell r="BV336">
+            <v>780.3</v>
+          </cell>
+          <cell r="BX336">
+            <v>349.5</v>
+          </cell>
+          <cell r="BZ336">
+            <v>309.60000000000002</v>
+          </cell>
+          <cell r="CB336">
+            <v>704</v>
+          </cell>
+          <cell r="CD336">
+            <v>60.5</v>
+          </cell>
+          <cell r="CF336">
+            <v>364.6</v>
+          </cell>
+          <cell r="CH336">
+            <v>79.5</v>
+          </cell>
+          <cell r="CJ336">
+            <v>429.7</v>
+          </cell>
+          <cell r="CL336">
+            <v>1941.4</v>
+          </cell>
+          <cell r="CN336">
+            <v>243.2</v>
+          </cell>
+          <cell r="CP336">
+            <v>716.8</v>
+          </cell>
+          <cell r="CR336">
+            <v>54.6</v>
+          </cell>
+          <cell r="CT336">
+            <v>585.9</v>
+          </cell>
+          <cell r="CV336">
+            <v>410.2</v>
+          </cell>
+          <cell r="CX336">
+            <v>153.80000000000001</v>
+          </cell>
+          <cell r="CZ336">
+            <v>70.5</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337">
+            <v>22324</v>
+          </cell>
+          <cell r="D337">
+            <v>81</v>
+          </cell>
+          <cell r="F337">
+            <v>385.3</v>
+          </cell>
+          <cell r="H337">
+            <v>211.7</v>
+          </cell>
+          <cell r="J337">
+            <v>414.3</v>
+          </cell>
+          <cell r="L337">
+            <v>2552</v>
+          </cell>
+          <cell r="N337">
+            <v>431.5</v>
+          </cell>
+          <cell r="P337">
+            <v>232.6</v>
+          </cell>
+          <cell r="R337">
+            <v>66.3</v>
+          </cell>
+          <cell r="T337">
+            <v>241</v>
+          </cell>
+          <cell r="V337">
+            <v>1106.8</v>
+          </cell>
+          <cell r="X337">
+            <v>687.6</v>
+          </cell>
+          <cell r="Z337">
+            <v>126</v>
+          </cell>
+          <cell r="AB337">
+            <v>260.39999999999998</v>
+          </cell>
+          <cell r="AD337">
+            <v>123.2</v>
+          </cell>
+          <cell r="AF337">
+            <v>832.8</v>
+          </cell>
+          <cell r="AH337">
+            <v>427.3</v>
+          </cell>
+          <cell r="AJ337">
+            <v>255.4</v>
+          </cell>
+          <cell r="AL337">
+            <v>315.7</v>
+          </cell>
+          <cell r="AN337">
+            <v>327.3</v>
+          </cell>
+          <cell r="AP337">
+            <v>454.3</v>
+          </cell>
+          <cell r="AR337">
+            <v>506.7</v>
+          </cell>
+          <cell r="AT337">
+            <v>100</v>
+          </cell>
+          <cell r="AV337">
+            <v>603.20000000000005</v>
+          </cell>
+          <cell r="AX337">
+            <v>420.7</v>
+          </cell>
+          <cell r="AZ337">
+            <v>436.4</v>
+          </cell>
+          <cell r="BB337">
+            <v>242</v>
+          </cell>
+          <cell r="BD337">
+            <v>91.3</v>
+          </cell>
+          <cell r="BF337">
+            <v>733.1</v>
+          </cell>
+          <cell r="BH337">
+            <v>82.7</v>
+          </cell>
+          <cell r="BJ337">
+            <v>172.9</v>
+          </cell>
+          <cell r="BL337">
+            <v>90.4</v>
+          </cell>
+          <cell r="BN337">
+            <v>614.79999999999995</v>
+          </cell>
+          <cell r="BP337">
+            <v>184.3</v>
+          </cell>
+          <cell r="BR337">
+            <v>160</v>
+          </cell>
+          <cell r="BT337">
+            <v>1448.1</v>
+          </cell>
+          <cell r="BV337">
+            <v>781.1</v>
+          </cell>
+          <cell r="BX337">
+            <v>349.8</v>
+          </cell>
+          <cell r="BZ337">
+            <v>309.8</v>
+          </cell>
+          <cell r="CB337">
+            <v>703.4</v>
+          </cell>
+          <cell r="CD337">
+            <v>60.8</v>
+          </cell>
+          <cell r="CF337">
+            <v>365</v>
+          </cell>
+          <cell r="CH337">
+            <v>78.900000000000006</v>
+          </cell>
+          <cell r="CJ337">
+            <v>430.3</v>
+          </cell>
+          <cell r="CL337">
+            <v>1939.3</v>
+          </cell>
+          <cell r="CN337">
+            <v>243.3</v>
+          </cell>
+          <cell r="CP337">
+            <v>717.8</v>
+          </cell>
+          <cell r="CR337">
+            <v>55.7</v>
+          </cell>
+          <cell r="CT337">
+            <v>587.6</v>
+          </cell>
+          <cell r="CV337">
+            <v>406.9</v>
+          </cell>
+          <cell r="CX337">
+            <v>153.69999999999999</v>
+          </cell>
+          <cell r="CZ337">
+            <v>70.3</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="A348">
+            <v>43221</v>
+          </cell>
+          <cell r="B348">
+            <v>22330</v>
+          </cell>
+          <cell r="D348">
+            <v>80.8</v>
+          </cell>
+          <cell r="F348">
+            <v>385.7</v>
+          </cell>
+          <cell r="H348">
+            <v>211.4</v>
+          </cell>
+          <cell r="J348">
+            <v>413.8</v>
+          </cell>
+          <cell r="L348">
+            <v>2571.6999999999998</v>
+          </cell>
+          <cell r="N348">
+            <v>442.3</v>
+          </cell>
+          <cell r="P348">
+            <v>229.6</v>
+          </cell>
+          <cell r="R348">
+            <v>66.5</v>
+          </cell>
+          <cell r="T348">
+            <v>238</v>
+          </cell>
+          <cell r="V348">
+            <v>1107.3</v>
+          </cell>
+          <cell r="X348">
+            <v>689.9</v>
+          </cell>
+          <cell r="Z348">
+            <v>125.8</v>
+          </cell>
+          <cell r="AB348">
+            <v>259.10000000000002</v>
+          </cell>
+          <cell r="AD348">
+            <v>125.8</v>
+          </cell>
+          <cell r="AF348">
+            <v>838.3</v>
+          </cell>
+          <cell r="AH348">
+            <v>427.2</v>
+          </cell>
+          <cell r="AJ348">
+            <v>257.7</v>
+          </cell>
+          <cell r="AL348">
+            <v>315</v>
+          </cell>
+          <cell r="AN348">
+            <v>324.89999999999998</v>
+          </cell>
+          <cell r="AP348">
+            <v>451.1</v>
+          </cell>
+          <cell r="AR348">
+            <v>503.8</v>
+          </cell>
+          <cell r="AT348">
+            <v>100.4</v>
+          </cell>
+          <cell r="AV348">
+            <v>607.4</v>
+          </cell>
+          <cell r="AX348">
+            <v>428.2</v>
+          </cell>
+          <cell r="AZ348">
+            <v>435.8</v>
+          </cell>
+          <cell r="BB348">
+            <v>242.1</v>
+          </cell>
+          <cell r="BD348">
+            <v>91.4</v>
+          </cell>
+          <cell r="BF348">
+            <v>736.4</v>
+          </cell>
+          <cell r="BH348">
+            <v>80.599999999999994</v>
+          </cell>
+          <cell r="BJ348">
+            <v>172.7</v>
+          </cell>
+          <cell r="BL348">
+            <v>90</v>
+          </cell>
+          <cell r="BN348">
+            <v>615.79999999999995</v>
+          </cell>
+          <cell r="BP348">
+            <v>184.7</v>
+          </cell>
+          <cell r="BR348">
+            <v>165.7</v>
+          </cell>
+          <cell r="BT348">
+            <v>1448.5</v>
+          </cell>
+          <cell r="BV348">
+            <v>785.5</v>
+          </cell>
+          <cell r="BX348">
+            <v>350.8</v>
+          </cell>
+          <cell r="BZ348">
+            <v>293.5</v>
+          </cell>
+          <cell r="CB348">
+            <v>702.2</v>
+          </cell>
+          <cell r="CD348">
+            <v>60.6</v>
+          </cell>
+          <cell r="CF348">
+            <v>368.1</v>
+          </cell>
+          <cell r="CH348">
+            <v>80.599999999999994</v>
+          </cell>
+          <cell r="CJ348">
+            <v>432.4</v>
+          </cell>
+          <cell r="CL348">
+            <v>1946.3</v>
+          </cell>
+          <cell r="CN348">
+            <v>247.5</v>
+          </cell>
+          <cell r="CP348">
+            <v>714.5</v>
+          </cell>
+          <cell r="CR348">
+            <v>55.3</v>
+          </cell>
+          <cell r="CT348">
+            <v>594</v>
+          </cell>
+          <cell r="CV348">
+            <v>409.1</v>
+          </cell>
+          <cell r="CX348">
+            <v>161.9</v>
+          </cell>
+          <cell r="CZ348">
+            <v>68.900000000000006</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="A349">
+            <v>43252</v>
+          </cell>
+          <cell r="B349">
+            <v>22341</v>
+          </cell>
+          <cell r="D349">
+            <v>80.3</v>
+          </cell>
+          <cell r="F349">
+            <v>388.5</v>
+          </cell>
+          <cell r="H349">
+            <v>211.4</v>
+          </cell>
+          <cell r="J349">
+            <v>414.4</v>
+          </cell>
+          <cell r="L349">
+            <v>2575.1999999999998</v>
+          </cell>
+          <cell r="N349">
+            <v>442.8</v>
+          </cell>
+          <cell r="P349">
+            <v>228.1</v>
+          </cell>
+          <cell r="R349">
+            <v>67.099999999999994</v>
+          </cell>
+          <cell r="T349">
+            <v>237.8</v>
+          </cell>
+          <cell r="V349">
+            <v>1104.7</v>
+          </cell>
+          <cell r="X349">
+            <v>691.7</v>
+          </cell>
+          <cell r="Z349">
+            <v>125.8</v>
+          </cell>
+          <cell r="AB349">
+            <v>262</v>
+          </cell>
+          <cell r="AD349">
+            <v>125.6</v>
+          </cell>
+          <cell r="AF349">
+            <v>845.7</v>
+          </cell>
+          <cell r="AH349">
+            <v>428</v>
+          </cell>
+          <cell r="AJ349">
+            <v>258</v>
+          </cell>
+          <cell r="AL349">
+            <v>314.2</v>
+          </cell>
+          <cell r="AN349">
+            <v>324.60000000000002</v>
+          </cell>
+          <cell r="AP349">
+            <v>454.3</v>
+          </cell>
+          <cell r="AR349">
+            <v>499.8</v>
+          </cell>
+          <cell r="AT349">
+            <v>100.5</v>
+          </cell>
+          <cell r="AV349">
+            <v>603.70000000000005</v>
+          </cell>
+          <cell r="AX349">
+            <v>427.2</v>
+          </cell>
+          <cell r="AZ349">
+            <v>436.5</v>
+          </cell>
+          <cell r="BB349">
+            <v>241</v>
+          </cell>
+          <cell r="BD349">
+            <v>91.2</v>
+          </cell>
+          <cell r="BF349">
+            <v>738.3</v>
+          </cell>
+          <cell r="BH349">
+            <v>80.5</v>
+          </cell>
+          <cell r="BJ349">
+            <v>172.8</v>
+          </cell>
+          <cell r="BL349">
+            <v>90.3</v>
+          </cell>
+          <cell r="BN349">
+            <v>616.6</v>
+          </cell>
+          <cell r="BP349">
+            <v>186.4</v>
+          </cell>
+          <cell r="BR349">
+            <v>166.7</v>
+          </cell>
+          <cell r="BT349">
+            <v>1449</v>
+          </cell>
+          <cell r="BV349">
+            <v>784.3</v>
+          </cell>
+          <cell r="BX349">
+            <v>351</v>
+          </cell>
+          <cell r="BZ349">
+            <v>293.8</v>
+          </cell>
+          <cell r="CB349">
+            <v>701.5</v>
+          </cell>
+          <cell r="CD349">
+            <v>60.5</v>
+          </cell>
+          <cell r="CF349">
+            <v>368.6</v>
+          </cell>
+          <cell r="CH349">
+            <v>79.8</v>
+          </cell>
+          <cell r="CJ349">
+            <v>432.5</v>
+          </cell>
+          <cell r="CL349">
+            <v>1947.1</v>
+          </cell>
+          <cell r="CN349">
+            <v>247.5</v>
+          </cell>
+          <cell r="CP349">
+            <v>712.3</v>
+          </cell>
+          <cell r="CR349">
+            <v>55.7</v>
+          </cell>
+          <cell r="CT349">
+            <v>593.29999999999995</v>
+          </cell>
+          <cell r="CV349">
+            <v>411</v>
+          </cell>
+          <cell r="CX349">
+            <v>154.6</v>
+          </cell>
+          <cell r="CZ349">
+            <v>68.8</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1694,8 +2364,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54685,11 +55355,433 @@
         <v>-1.9858156028368874</v>
       </c>
     </row>
-    <row r="334" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A334" s="7"/>
-    </row>
-    <row r="335" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A335" s="7"/>
+    <row r="334" spans="1:53" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="10">
+        <f>[1]FRED!A348</f>
+        <v>43221</v>
+      </c>
+      <c r="B334" s="11">
+        <f>(([1]FRED!B348-[1]FRED!B336)/[1]FRED!B336)*100</f>
+        <v>0.11208249271463797</v>
+      </c>
+      <c r="C334" s="11">
+        <f>(([1]FRED!F348-[1]FRED!F336)/[1]FRED!F336)*100</f>
+        <v>0.23388773388772796</v>
+      </c>
+      <c r="D334" s="11">
+        <f>(([1]FRED!D348-[1]FRED!D336)/[1]FRED!D336)*100</f>
+        <v>-1.1015911872705086</v>
+      </c>
+      <c r="E334" s="11">
+        <f>(([1]FRED!J348-[1]FRED!J336)/[1]FRED!J336)*100</f>
+        <v>0.16945049624787911</v>
+      </c>
+      <c r="F334" s="11">
+        <f>(([1]FRED!H348-[1]FRED!H336)/[1]FRED!H336)*100</f>
+        <v>9.4696969696977773E-2</v>
+      </c>
+      <c r="G334" s="11">
+        <f>(([1]FRED!L348-[1]FRED!L336)/[1]FRED!L336)*100</f>
+        <v>0.90242084199788131</v>
+      </c>
+      <c r="H334" s="11">
+        <f>(([1]FRED!N348-[1]FRED!N336)/[1]FRED!N336)*100</f>
+        <v>1.6080863772111189</v>
+      </c>
+      <c r="I334" s="11">
+        <f>(([1]FRED!P348-[1]FRED!P336)/[1]FRED!P336)*100</f>
+        <v>-1.1197243755383268</v>
+      </c>
+      <c r="J334" s="11">
+        <f>(([1]FRED!R348-[1]FRED!R336)/[1]FRED!R336)*100</f>
+        <v>0.60514372163389674</v>
+      </c>
+      <c r="K334" s="11">
+        <f>(([1]FRED!T348-[1]FRED!T336)/[1]FRED!T336)*100</f>
+        <v>-1.2857735379510553</v>
+      </c>
+      <c r="L334" s="11">
+        <f>(([1]FRED!V348-[1]FRED!V336)/[1]FRED!V336)*100</f>
+        <v>0.12659372456821263</v>
+      </c>
+      <c r="M334" s="11">
+        <f>(([1]FRED!X348-[1]FRED!X336)/[1]FRED!X336)*100</f>
+        <v>0.67123887348606792</v>
+      </c>
+      <c r="N334" s="11">
+        <f>(([1]FRED!Z348-[1]FRED!Z336)/[1]FRED!Z336)*100</f>
+        <v>-0.3958828186856691</v>
+      </c>
+      <c r="O334" s="11">
+        <f>(([1]FRED!AD348-[1]FRED!AD336)/[1]FRED!AD336)*100</f>
+        <v>2.3596419853539392</v>
+      </c>
+      <c r="P334" s="11">
+        <f>(([1]FRED!AF348-[1]FRED!AF336)/[1]FRED!AF336)*100</f>
+        <v>1.7107498180053273</v>
+      </c>
+      <c r="Q334" s="11">
+        <f>(([1]FRED!AH348-[1]FRED!AH336)/[1]FRED!AH336)*100</f>
+        <v>0.5176470588235268</v>
+      </c>
+      <c r="R334" s="11">
+        <f>(([1]FRED!AB348-[1]FRED!AB336)/[1]FRED!AB336)*100</f>
+        <v>-3.8580246913567089E-2</v>
+      </c>
+      <c r="S334" s="11">
+        <f>(([1]FRED!AJ348-[1]FRED!AJ336)/[1]FRED!AJ336)*100</f>
+        <v>0.78216660148611661</v>
+      </c>
+      <c r="T334" s="11">
+        <f>(([1]FRED!AL348-[1]FRED!AL336)/[1]FRED!AL336)*100</f>
+        <v>-0.31645569620253167</v>
+      </c>
+      <c r="U334" s="11">
+        <f>(([1]FRED!AN348-[1]FRED!AN336)/[1]FRED!AN336)*100</f>
+        <v>-0.88468578401465359</v>
+      </c>
+      <c r="V334" s="11">
+        <f>(([1]FRED!AT348-[1]FRED!AT336)/[1]FRED!AT336)*100</f>
+        <v>0.40000000000000563</v>
+      </c>
+      <c r="W334" s="11">
+        <f>(([1]FRED!AR348-[1]FRED!AR336)/[1]FRED!AR336)*100</f>
+        <v>-0.35601265822785033</v>
+      </c>
+      <c r="X334" s="11">
+        <f>(([1]FRED!AP348-[1]FRED!AP336)/[1]FRED!AP336)*100</f>
+        <v>-0.22119000221189999</v>
+      </c>
+      <c r="Y334" s="11">
+        <f>(([1]FRED!AV348-[1]FRED!AV336)/[1]FRED!AV336)*100</f>
+        <v>0.94731593817515891</v>
+      </c>
+      <c r="Z334" s="11">
+        <f>(([1]FRED!AX348-[1]FRED!AX336)/[1]FRED!AX336)*100</f>
+        <v>1.5173067804646698</v>
+      </c>
+      <c r="AA334" s="11">
+        <f>(([1]FRED!BB348-[1]FRED!BB336)/[1]FRED!BB336)*100</f>
+        <v>8.2678792889619115E-2</v>
+      </c>
+      <c r="AB334" s="11">
+        <f>(([1]FRED!AZ348-[1]FRED!AZ336)/[1]FRED!AZ336)*100</f>
+        <v>0.345383375546857</v>
+      </c>
+      <c r="AC334" s="11">
+        <f>(([1]FRED!BD348-[1]FRED!BD336)/[1]FRED!BD336)*100</f>
+        <v>0.88300220750553138</v>
+      </c>
+      <c r="AD334" s="11">
+        <f>(([1]FRED!BJ348-[1]FRED!BJ336)/[1]FRED!BJ336)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AE334" s="11">
+        <f>(([1]FRED!BR348-[1]FRED!BR336)/[1]FRED!BR336)*100</f>
+        <v>3.6272670419011774</v>
+      </c>
+      <c r="AF334" s="11">
+        <f>(([1]FRED!BL348-[1]FRED!BL336)/[1]FRED!BL336)*100</f>
+        <v>-0.33222591362125931</v>
+      </c>
+      <c r="AG334" s="11">
+        <f>(([1]FRED!BN348-[1]FRED!BN336)/[1]FRED!BN336)*100</f>
+        <v>0.53877551020407422</v>
+      </c>
+      <c r="AH334" s="11">
+        <f>(([1]FRED!BP348-[1]FRED!BP336)/[1]FRED!BP336)*100</f>
+        <v>-0.5920344456404858</v>
+      </c>
+      <c r="AI334" s="11">
+        <f>(([1]FRED!BT348-[1]FRED!BT336)/[1]FRED!BT336)*100</f>
+        <v>7.5998341854353252E-2</v>
+      </c>
+      <c r="AJ334" s="11">
+        <f>(([1]FRED!BF348-[1]FRED!BF336)/[1]FRED!BF336)*100</f>
+        <v>0.66985645933014037</v>
+      </c>
+      <c r="AK334" s="11">
+        <f>(([1]FRED!BH348-[1]FRED!BH336)/[1]FRED!BH336)*100</f>
+        <v>-2.539298669891183</v>
+      </c>
+      <c r="AL334" s="11">
+        <f>(([1]FRED!BV348-[1]FRED!BV336)/[1]FRED!BV336)*100</f>
+        <v>0.66641035499167578</v>
+      </c>
+      <c r="AM334" s="11">
+        <f>(([1]FRED!BX348-[1]FRED!BX336)/[1]FRED!BX336)*100</f>
+        <v>0.37195994277539668</v>
+      </c>
+      <c r="AN334" s="11">
+        <f>(([1]FRED!BZ348-[1]FRED!BZ336)/[1]FRED!BZ336)*100</f>
+        <v>-5.2002583979328234</v>
+      </c>
+      <c r="AO334" s="11">
+        <f>(([1]FRED!CB348-[1]FRED!CB336)/[1]FRED!CB336)*100</f>
+        <v>-0.25568181818181174</v>
+      </c>
+      <c r="AP334" s="11">
+        <f>(([1]FRED!CD348-[1]FRED!CD336)/[1]FRED!CD336)*100</f>
+        <v>0.16528925619834947</v>
+      </c>
+      <c r="AQ334" s="11">
+        <f>(([1]FRED!CF348-[1]FRED!CF336)/[1]FRED!CF336)*100</f>
+        <v>0.95995611629182653</v>
+      </c>
+      <c r="AR334" s="11">
+        <f>(([1]FRED!CH348-[1]FRED!CH336)/[1]FRED!CH336)*100</f>
+        <v>1.3836477987421314</v>
+      </c>
+      <c r="AS334" s="11">
+        <f>(([1]FRED!CJ348-[1]FRED!CJ336)/[1]FRED!CJ336)*100</f>
+        <v>0.62834535722596896</v>
+      </c>
+      <c r="AT334" s="11">
+        <f>(([1]FRED!CL348-[1]FRED!CL336)/[1]FRED!CL336)*100</f>
+        <v>0.25239517873698691</v>
+      </c>
+      <c r="AU334" s="11">
+        <f>(([1]FRED!CN348-[1]FRED!CN336)/[1]FRED!CN336)*100</f>
+        <v>1.7680921052631626</v>
+      </c>
+      <c r="AV334" s="11">
+        <f>(([1]FRED!CR348-[1]FRED!CR336)/[1]FRED!CR336)*100</f>
+        <v>1.2820512820512742</v>
+      </c>
+      <c r="AW334" s="11">
+        <f>(([1]FRED!CP348-[1]FRED!CP336)/[1]FRED!CP336)*100</f>
+        <v>-0.32087053571427937</v>
+      </c>
+      <c r="AX334" s="11">
+        <f>(([1]FRED!CT348-[1]FRED!CT336)/[1]FRED!CT336)*100</f>
+        <v>1.3824884792626768</v>
+      </c>
+      <c r="AY334" s="11">
+        <f>(([1]FRED!CX348-[1]FRED!CX336)/[1]FRED!CX336)*100</f>
+        <v>5.2665799739921937</v>
+      </c>
+      <c r="AZ334" s="11">
+        <f>(([1]FRED!CV348-[1]FRED!CV336)/[1]FRED!CV336)*100</f>
+        <v>-0.2681618722574271</v>
+      </c>
+      <c r="BA334" s="11">
+        <f>(([1]FRED!CZ348-[1]FRED!CZ336)/[1]FRED!CZ336)*100</f>
+        <v>-2.2695035460992825</v>
+      </c>
+    </row>
+    <row r="335" spans="1:53" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="10">
+        <f>[1]FRED!A349</f>
+        <v>43252</v>
+      </c>
+      <c r="B335" s="11">
+        <f>(([1]FRED!B349-[1]FRED!B337)/[1]FRED!B337)*100</f>
+        <v>7.6151227378605982E-2</v>
+      </c>
+      <c r="C335" s="11">
+        <f>(([1]FRED!F349-[1]FRED!F337)/[1]FRED!F337)*100</f>
+        <v>0.83052167142486066</v>
+      </c>
+      <c r="D335" s="11">
+        <f>(([1]FRED!D349-[1]FRED!D337)/[1]FRED!D337)*100</f>
+        <v>-0.86419753086420115</v>
+      </c>
+      <c r="E335" s="11">
+        <f>(([1]FRED!J349-[1]FRED!J337)/[1]FRED!J337)*100</f>
+        <v>2.4137098720725534E-2</v>
+      </c>
+      <c r="F335" s="11">
+        <f>(([1]FRED!H349-[1]FRED!H337)/[1]FRED!H337)*100</f>
+        <v>-0.14170996693433302</v>
+      </c>
+      <c r="G335" s="11">
+        <f>(([1]FRED!L349-[1]FRED!L337)/[1]FRED!L337)*100</f>
+        <v>0.90909090909090196</v>
+      </c>
+      <c r="H335" s="11">
+        <f>(([1]FRED!N349-[1]FRED!N337)/[1]FRED!N337)*100</f>
+        <v>2.6187717265353445</v>
+      </c>
+      <c r="I335" s="11">
+        <f>(([1]FRED!P349-[1]FRED!P337)/[1]FRED!P337)*100</f>
+        <v>-1.9346517626827171</v>
+      </c>
+      <c r="J335" s="11">
+        <f>(([1]FRED!R349-[1]FRED!R337)/[1]FRED!R337)*100</f>
+        <v>1.2066365007541435</v>
+      </c>
+      <c r="K335" s="11">
+        <f>(([1]FRED!T349-[1]FRED!T337)/[1]FRED!T337)*100</f>
+        <v>-1.327800829875514</v>
+      </c>
+      <c r="L335" s="11">
+        <f>(([1]FRED!V349-[1]FRED!V337)/[1]FRED!V337)*100</f>
+        <v>-0.18973617636428525</v>
+      </c>
+      <c r="M335" s="11">
+        <f>(([1]FRED!X349-[1]FRED!X337)/[1]FRED!X337)*100</f>
+        <v>0.59627690517743204</v>
+      </c>
+      <c r="N335" s="11">
+        <f>(([1]FRED!Z349-[1]FRED!Z337)/[1]FRED!Z337)*100</f>
+        <v>-0.158730158730161</v>
+      </c>
+      <c r="O335" s="11">
+        <f>(([1]FRED!AD349-[1]FRED!AD337)/[1]FRED!AD337)*100</f>
+        <v>1.9480519480519412</v>
+      </c>
+      <c r="P335" s="11">
+        <f>(([1]FRED!AF349-[1]FRED!AF337)/[1]FRED!AF337)*100</f>
+        <v>1.5489913544668699</v>
+      </c>
+      <c r="Q335" s="11">
+        <f>(([1]FRED!AH349-[1]FRED!AH337)/[1]FRED!AH337)*100</f>
+        <v>0.1638193306810177</v>
+      </c>
+      <c r="R335" s="11">
+        <f>(([1]FRED!AB349-[1]FRED!AB337)/[1]FRED!AB337)*100</f>
+        <v>0.61443932411675228</v>
+      </c>
+      <c r="S335" s="11">
+        <f>(([1]FRED!AJ349-[1]FRED!AJ337)/[1]FRED!AJ337)*100</f>
+        <v>1.0180109631949861</v>
+      </c>
+      <c r="T335" s="11">
+        <f>(([1]FRED!AL349-[1]FRED!AL337)/[1]FRED!AL337)*100</f>
+        <v>-0.47513462147608487</v>
+      </c>
+      <c r="U335" s="11">
+        <f>(([1]FRED!AN349-[1]FRED!AN337)/[1]FRED!AN337)*100</f>
+        <v>-0.82493125572868575</v>
+      </c>
+      <c r="V335" s="11">
+        <f>(([1]FRED!AT349-[1]FRED!AT337)/[1]FRED!AT337)*100</f>
+        <v>0.5</v>
+      </c>
+      <c r="W335" s="11">
+        <f>(([1]FRED!AR349-[1]FRED!AR337)/[1]FRED!AR337)*100</f>
+        <v>-1.3617525162818191</v>
+      </c>
+      <c r="X335" s="11">
+        <f>(([1]FRED!AP349-[1]FRED!AP337)/[1]FRED!AP337)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y335" s="11">
+        <f>(([1]FRED!AV349-[1]FRED!AV337)/[1]FRED!AV337)*100</f>
+        <v>8.289124668435012E-2</v>
+      </c>
+      <c r="Z335" s="11">
+        <f>(([1]FRED!AX349-[1]FRED!AX337)/[1]FRED!AX337)*100</f>
+        <v>1.5450439743285</v>
+      </c>
+      <c r="AA335" s="11">
+        <f>(([1]FRED!BB349-[1]FRED!BB337)/[1]FRED!BB337)*100</f>
+        <v>-0.41322314049586778</v>
+      </c>
+      <c r="AB335" s="11">
+        <f>(([1]FRED!AZ349-[1]FRED!AZ337)/[1]FRED!AZ337)*100</f>
+        <v>2.2914757103579913E-2</v>
+      </c>
+      <c r="AC335" s="11">
+        <f>(([1]FRED!BD349-[1]FRED!BD337)/[1]FRED!BD337)*100</f>
+        <v>-0.10952902519166957</v>
+      </c>
+      <c r="AD335" s="11">
+        <f>(([1]FRED!BJ349-[1]FRED!BJ337)/[1]FRED!BJ337)*100</f>
+        <v>-5.7836899942159813E-2</v>
+      </c>
+      <c r="AE335" s="11">
+        <f>(([1]FRED!BR349-[1]FRED!BR337)/[1]FRED!BR337)*100</f>
+        <v>4.1874999999999929</v>
+      </c>
+      <c r="AF335" s="11">
+        <f>(([1]FRED!BL349-[1]FRED!BL337)/[1]FRED!BL337)*100</f>
+        <v>-0.1106194690265581</v>
+      </c>
+      <c r="AG335" s="11">
+        <f>(([1]FRED!BN349-[1]FRED!BN337)/[1]FRED!BN337)*100</f>
+        <v>0.2927781392322818</v>
+      </c>
+      <c r="AH335" s="11">
+        <f>(([1]FRED!BP349-[1]FRED!BP337)/[1]FRED!BP337)*100</f>
+        <v>1.1394465545306534</v>
+      </c>
+      <c r="AI335" s="11">
+        <f>(([1]FRED!BT349-[1]FRED!BT337)/[1]FRED!BT337)*100</f>
+        <v>6.2150403977632142E-2</v>
+      </c>
+      <c r="AJ335" s="11">
+        <f>(([1]FRED!BF349-[1]FRED!BF337)/[1]FRED!BF337)*100</f>
+        <v>0.70931660073658875</v>
+      </c>
+      <c r="AK335" s="11">
+        <f>(([1]FRED!BH349-[1]FRED!BH337)/[1]FRED!BH337)*100</f>
+        <v>-2.6602176541717082</v>
+      </c>
+      <c r="AL335" s="11">
+        <f>(([1]FRED!BV349-[1]FRED!BV337)/[1]FRED!BV337)*100</f>
+        <v>0.40967865830238531</v>
+      </c>
+      <c r="AM335" s="11">
+        <f>(([1]FRED!BX349-[1]FRED!BX337)/[1]FRED!BX337)*100</f>
+        <v>0.34305317324184925</v>
+      </c>
+      <c r="AN335" s="11">
+        <f>(([1]FRED!BZ349-[1]FRED!BZ337)/[1]FRED!BZ337)*100</f>
+        <v>-5.1646223369916076</v>
+      </c>
+      <c r="AO335" s="11">
+        <f>(([1]FRED!CB349-[1]FRED!CB337)/[1]FRED!CB337)*100</f>
+        <v>-0.27011657662780453</v>
+      </c>
+      <c r="AP335" s="11">
+        <f>(([1]FRED!CD349-[1]FRED!CD337)/[1]FRED!CD337)*100</f>
+        <v>-0.49342105263157432</v>
+      </c>
+      <c r="AQ335" s="11">
+        <f>(([1]FRED!CF349-[1]FRED!CF337)/[1]FRED!CF337)*100</f>
+        <v>0.98630136986301986</v>
+      </c>
+      <c r="AR335" s="11">
+        <f>(([1]FRED!CH349-[1]FRED!CH337)/[1]FRED!CH337)*100</f>
+        <v>1.1406844106463769</v>
+      </c>
+      <c r="AS335" s="11">
+        <f>(([1]FRED!CJ349-[1]FRED!CJ337)/[1]FRED!CJ337)*100</f>
+        <v>0.51127120613525179</v>
+      </c>
+      <c r="AT335" s="11">
+        <f>(([1]FRED!CL349-[1]FRED!CL337)/[1]FRED!CL337)*100</f>
+        <v>0.40220698190068349</v>
+      </c>
+      <c r="AU335" s="11">
+        <f>(([1]FRED!CN349-[1]FRED!CN337)/[1]FRED!CN337)*100</f>
+        <v>1.7262638717632506</v>
+      </c>
+      <c r="AV335" s="11">
+        <f>(([1]FRED!CR349-[1]FRED!CR337)/[1]FRED!CR337)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AW335" s="11">
+        <f>(([1]FRED!CP349-[1]FRED!CP337)/[1]FRED!CP337)*100</f>
+        <v>-0.76623014767344666</v>
+      </c>
+      <c r="AX335" s="11">
+        <f>(([1]FRED!CT349-[1]FRED!CT337)/[1]FRED!CT337)*100</f>
+        <v>0.97004765146356897</v>
+      </c>
+      <c r="AY335" s="11">
+        <f>(([1]FRED!CX349-[1]FRED!CX337)/[1]FRED!CX337)*100</f>
+        <v>0.58555627846454505</v>
+      </c>
+      <c r="AZ335" s="11">
+        <f>(([1]FRED!CV349-[1]FRED!CV337)/[1]FRED!CV337)*100</f>
+        <v>1.007618579503569</v>
+      </c>
+      <c r="BA335" s="11">
+        <f>(([1]FRED!CZ349-[1]FRED!CZ337)/[1]FRED!CZ337)*100</f>
+        <v>-2.1337126600284497</v>
+      </c>
     </row>
     <row r="336" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A336" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\x2Dk+Vb9g0qnP+BFeSxj2A==\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -186,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1991 -- April 2018</t>
+    <t>Government Employment; Year/Year: January 1991 -- July 2018</t>
   </si>
 </sst>
 </file>
@@ -1376,670 +1373,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TABLE"/>
-      <sheetName val="FRED"/>
-      <sheetName val="fred1"/>
-      <sheetName val="fred2"/>
-      <sheetName val="fred3"/>
-      <sheetName val="fred4"/>
-      <sheetName val="KEY"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="336">
-          <cell r="B336">
-            <v>22305</v>
-          </cell>
-          <cell r="D336">
-            <v>81.7</v>
-          </cell>
-          <cell r="F336">
-            <v>384.8</v>
-          </cell>
-          <cell r="H336">
-            <v>211.2</v>
-          </cell>
-          <cell r="J336">
-            <v>413.1</v>
-          </cell>
-          <cell r="L336">
-            <v>2548.6999999999998</v>
-          </cell>
-          <cell r="N336">
-            <v>435.3</v>
-          </cell>
-          <cell r="P336">
-            <v>232.2</v>
-          </cell>
-          <cell r="R336">
-            <v>66.099999999999994</v>
-          </cell>
-          <cell r="T336">
-            <v>241.1</v>
-          </cell>
-          <cell r="V336">
-            <v>1105.9000000000001</v>
-          </cell>
-          <cell r="X336">
-            <v>685.3</v>
-          </cell>
-          <cell r="Z336">
-            <v>126.3</v>
-          </cell>
-          <cell r="AB336">
-            <v>259.2</v>
-          </cell>
-          <cell r="AD336">
-            <v>122.9</v>
-          </cell>
-          <cell r="AF336">
-            <v>824.2</v>
-          </cell>
-          <cell r="AH336">
-            <v>425</v>
-          </cell>
-          <cell r="AJ336">
-            <v>255.7</v>
-          </cell>
-          <cell r="AL336">
-            <v>316</v>
-          </cell>
-          <cell r="AN336">
-            <v>327.8</v>
-          </cell>
-          <cell r="AP336">
-            <v>452.1</v>
-          </cell>
-          <cell r="AR336">
-            <v>505.6</v>
-          </cell>
-          <cell r="AT336">
-            <v>100</v>
-          </cell>
-          <cell r="AV336">
-            <v>601.70000000000005</v>
-          </cell>
-          <cell r="AX336">
-            <v>421.8</v>
-          </cell>
-          <cell r="AZ336">
-            <v>434.3</v>
-          </cell>
-          <cell r="BB336">
-            <v>241.9</v>
-          </cell>
-          <cell r="BD336">
-            <v>90.6</v>
-          </cell>
-          <cell r="BF336">
-            <v>731.5</v>
-          </cell>
-          <cell r="BH336">
-            <v>82.7</v>
-          </cell>
-          <cell r="BJ336">
-            <v>172.7</v>
-          </cell>
-          <cell r="BL336">
-            <v>90.3</v>
-          </cell>
-          <cell r="BN336">
-            <v>612.5</v>
-          </cell>
-          <cell r="BP336">
-            <v>185.8</v>
-          </cell>
-          <cell r="BR336">
-            <v>159.9</v>
-          </cell>
-          <cell r="BT336">
-            <v>1447.4</v>
-          </cell>
-          <cell r="BV336">
-            <v>780.3</v>
-          </cell>
-          <cell r="BX336">
-            <v>349.5</v>
-          </cell>
-          <cell r="BZ336">
-            <v>309.60000000000002</v>
-          </cell>
-          <cell r="CB336">
-            <v>704</v>
-          </cell>
-          <cell r="CD336">
-            <v>60.5</v>
-          </cell>
-          <cell r="CF336">
-            <v>364.6</v>
-          </cell>
-          <cell r="CH336">
-            <v>79.5</v>
-          </cell>
-          <cell r="CJ336">
-            <v>429.7</v>
-          </cell>
-          <cell r="CL336">
-            <v>1941.4</v>
-          </cell>
-          <cell r="CN336">
-            <v>243.2</v>
-          </cell>
-          <cell r="CP336">
-            <v>716.8</v>
-          </cell>
-          <cell r="CR336">
-            <v>54.6</v>
-          </cell>
-          <cell r="CT336">
-            <v>585.9</v>
-          </cell>
-          <cell r="CV336">
-            <v>410.2</v>
-          </cell>
-          <cell r="CX336">
-            <v>153.80000000000001</v>
-          </cell>
-          <cell r="CZ336">
-            <v>70.5</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="B337">
-            <v>22324</v>
-          </cell>
-          <cell r="D337">
-            <v>81</v>
-          </cell>
-          <cell r="F337">
-            <v>385.3</v>
-          </cell>
-          <cell r="H337">
-            <v>211.7</v>
-          </cell>
-          <cell r="J337">
-            <v>414.3</v>
-          </cell>
-          <cell r="L337">
-            <v>2552</v>
-          </cell>
-          <cell r="N337">
-            <v>431.5</v>
-          </cell>
-          <cell r="P337">
-            <v>232.6</v>
-          </cell>
-          <cell r="R337">
-            <v>66.3</v>
-          </cell>
-          <cell r="T337">
-            <v>241</v>
-          </cell>
-          <cell r="V337">
-            <v>1106.8</v>
-          </cell>
-          <cell r="X337">
-            <v>687.6</v>
-          </cell>
-          <cell r="Z337">
-            <v>126</v>
-          </cell>
-          <cell r="AB337">
-            <v>260.39999999999998</v>
-          </cell>
-          <cell r="AD337">
-            <v>123.2</v>
-          </cell>
-          <cell r="AF337">
-            <v>832.8</v>
-          </cell>
-          <cell r="AH337">
-            <v>427.3</v>
-          </cell>
-          <cell r="AJ337">
-            <v>255.4</v>
-          </cell>
-          <cell r="AL337">
-            <v>315.7</v>
-          </cell>
-          <cell r="AN337">
-            <v>327.3</v>
-          </cell>
-          <cell r="AP337">
-            <v>454.3</v>
-          </cell>
-          <cell r="AR337">
-            <v>506.7</v>
-          </cell>
-          <cell r="AT337">
-            <v>100</v>
-          </cell>
-          <cell r="AV337">
-            <v>603.20000000000005</v>
-          </cell>
-          <cell r="AX337">
-            <v>420.7</v>
-          </cell>
-          <cell r="AZ337">
-            <v>436.4</v>
-          </cell>
-          <cell r="BB337">
-            <v>242</v>
-          </cell>
-          <cell r="BD337">
-            <v>91.3</v>
-          </cell>
-          <cell r="BF337">
-            <v>733.1</v>
-          </cell>
-          <cell r="BH337">
-            <v>82.7</v>
-          </cell>
-          <cell r="BJ337">
-            <v>172.9</v>
-          </cell>
-          <cell r="BL337">
-            <v>90.4</v>
-          </cell>
-          <cell r="BN337">
-            <v>614.79999999999995</v>
-          </cell>
-          <cell r="BP337">
-            <v>184.3</v>
-          </cell>
-          <cell r="BR337">
-            <v>160</v>
-          </cell>
-          <cell r="BT337">
-            <v>1448.1</v>
-          </cell>
-          <cell r="BV337">
-            <v>781.1</v>
-          </cell>
-          <cell r="BX337">
-            <v>349.8</v>
-          </cell>
-          <cell r="BZ337">
-            <v>309.8</v>
-          </cell>
-          <cell r="CB337">
-            <v>703.4</v>
-          </cell>
-          <cell r="CD337">
-            <v>60.8</v>
-          </cell>
-          <cell r="CF337">
-            <v>365</v>
-          </cell>
-          <cell r="CH337">
-            <v>78.900000000000006</v>
-          </cell>
-          <cell r="CJ337">
-            <v>430.3</v>
-          </cell>
-          <cell r="CL337">
-            <v>1939.3</v>
-          </cell>
-          <cell r="CN337">
-            <v>243.3</v>
-          </cell>
-          <cell r="CP337">
-            <v>717.8</v>
-          </cell>
-          <cell r="CR337">
-            <v>55.7</v>
-          </cell>
-          <cell r="CT337">
-            <v>587.6</v>
-          </cell>
-          <cell r="CV337">
-            <v>406.9</v>
-          </cell>
-          <cell r="CX337">
-            <v>153.69999999999999</v>
-          </cell>
-          <cell r="CZ337">
-            <v>70.3</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="A348">
-            <v>43221</v>
-          </cell>
-          <cell r="B348">
-            <v>22330</v>
-          </cell>
-          <cell r="D348">
-            <v>80.8</v>
-          </cell>
-          <cell r="F348">
-            <v>385.7</v>
-          </cell>
-          <cell r="H348">
-            <v>211.4</v>
-          </cell>
-          <cell r="J348">
-            <v>413.8</v>
-          </cell>
-          <cell r="L348">
-            <v>2571.6999999999998</v>
-          </cell>
-          <cell r="N348">
-            <v>442.3</v>
-          </cell>
-          <cell r="P348">
-            <v>229.6</v>
-          </cell>
-          <cell r="R348">
-            <v>66.5</v>
-          </cell>
-          <cell r="T348">
-            <v>238</v>
-          </cell>
-          <cell r="V348">
-            <v>1107.3</v>
-          </cell>
-          <cell r="X348">
-            <v>689.9</v>
-          </cell>
-          <cell r="Z348">
-            <v>125.8</v>
-          </cell>
-          <cell r="AB348">
-            <v>259.10000000000002</v>
-          </cell>
-          <cell r="AD348">
-            <v>125.8</v>
-          </cell>
-          <cell r="AF348">
-            <v>838.3</v>
-          </cell>
-          <cell r="AH348">
-            <v>427.2</v>
-          </cell>
-          <cell r="AJ348">
-            <v>257.7</v>
-          </cell>
-          <cell r="AL348">
-            <v>315</v>
-          </cell>
-          <cell r="AN348">
-            <v>324.89999999999998</v>
-          </cell>
-          <cell r="AP348">
-            <v>451.1</v>
-          </cell>
-          <cell r="AR348">
-            <v>503.8</v>
-          </cell>
-          <cell r="AT348">
-            <v>100.4</v>
-          </cell>
-          <cell r="AV348">
-            <v>607.4</v>
-          </cell>
-          <cell r="AX348">
-            <v>428.2</v>
-          </cell>
-          <cell r="AZ348">
-            <v>435.8</v>
-          </cell>
-          <cell r="BB348">
-            <v>242.1</v>
-          </cell>
-          <cell r="BD348">
-            <v>91.4</v>
-          </cell>
-          <cell r="BF348">
-            <v>736.4</v>
-          </cell>
-          <cell r="BH348">
-            <v>80.599999999999994</v>
-          </cell>
-          <cell r="BJ348">
-            <v>172.7</v>
-          </cell>
-          <cell r="BL348">
-            <v>90</v>
-          </cell>
-          <cell r="BN348">
-            <v>615.79999999999995</v>
-          </cell>
-          <cell r="BP348">
-            <v>184.7</v>
-          </cell>
-          <cell r="BR348">
-            <v>165.7</v>
-          </cell>
-          <cell r="BT348">
-            <v>1448.5</v>
-          </cell>
-          <cell r="BV348">
-            <v>785.5</v>
-          </cell>
-          <cell r="BX348">
-            <v>350.8</v>
-          </cell>
-          <cell r="BZ348">
-            <v>293.5</v>
-          </cell>
-          <cell r="CB348">
-            <v>702.2</v>
-          </cell>
-          <cell r="CD348">
-            <v>60.6</v>
-          </cell>
-          <cell r="CF348">
-            <v>368.1</v>
-          </cell>
-          <cell r="CH348">
-            <v>80.599999999999994</v>
-          </cell>
-          <cell r="CJ348">
-            <v>432.4</v>
-          </cell>
-          <cell r="CL348">
-            <v>1946.3</v>
-          </cell>
-          <cell r="CN348">
-            <v>247.5</v>
-          </cell>
-          <cell r="CP348">
-            <v>714.5</v>
-          </cell>
-          <cell r="CR348">
-            <v>55.3</v>
-          </cell>
-          <cell r="CT348">
-            <v>594</v>
-          </cell>
-          <cell r="CV348">
-            <v>409.1</v>
-          </cell>
-          <cell r="CX348">
-            <v>161.9</v>
-          </cell>
-          <cell r="CZ348">
-            <v>68.900000000000006</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="A349">
-            <v>43252</v>
-          </cell>
-          <cell r="B349">
-            <v>22341</v>
-          </cell>
-          <cell r="D349">
-            <v>80.3</v>
-          </cell>
-          <cell r="F349">
-            <v>388.5</v>
-          </cell>
-          <cell r="H349">
-            <v>211.4</v>
-          </cell>
-          <cell r="J349">
-            <v>414.4</v>
-          </cell>
-          <cell r="L349">
-            <v>2575.1999999999998</v>
-          </cell>
-          <cell r="N349">
-            <v>442.8</v>
-          </cell>
-          <cell r="P349">
-            <v>228.1</v>
-          </cell>
-          <cell r="R349">
-            <v>67.099999999999994</v>
-          </cell>
-          <cell r="T349">
-            <v>237.8</v>
-          </cell>
-          <cell r="V349">
-            <v>1104.7</v>
-          </cell>
-          <cell r="X349">
-            <v>691.7</v>
-          </cell>
-          <cell r="Z349">
-            <v>125.8</v>
-          </cell>
-          <cell r="AB349">
-            <v>262</v>
-          </cell>
-          <cell r="AD349">
-            <v>125.6</v>
-          </cell>
-          <cell r="AF349">
-            <v>845.7</v>
-          </cell>
-          <cell r="AH349">
-            <v>428</v>
-          </cell>
-          <cell r="AJ349">
-            <v>258</v>
-          </cell>
-          <cell r="AL349">
-            <v>314.2</v>
-          </cell>
-          <cell r="AN349">
-            <v>324.60000000000002</v>
-          </cell>
-          <cell r="AP349">
-            <v>454.3</v>
-          </cell>
-          <cell r="AR349">
-            <v>499.8</v>
-          </cell>
-          <cell r="AT349">
-            <v>100.5</v>
-          </cell>
-          <cell r="AV349">
-            <v>603.70000000000005</v>
-          </cell>
-          <cell r="AX349">
-            <v>427.2</v>
-          </cell>
-          <cell r="AZ349">
-            <v>436.5</v>
-          </cell>
-          <cell r="BB349">
-            <v>241</v>
-          </cell>
-          <cell r="BD349">
-            <v>91.2</v>
-          </cell>
-          <cell r="BF349">
-            <v>738.3</v>
-          </cell>
-          <cell r="BH349">
-            <v>80.5</v>
-          </cell>
-          <cell r="BJ349">
-            <v>172.8</v>
-          </cell>
-          <cell r="BL349">
-            <v>90.3</v>
-          </cell>
-          <cell r="BN349">
-            <v>616.6</v>
-          </cell>
-          <cell r="BP349">
-            <v>186.4</v>
-          </cell>
-          <cell r="BR349">
-            <v>166.7</v>
-          </cell>
-          <cell r="BT349">
-            <v>1449</v>
-          </cell>
-          <cell r="BV349">
-            <v>784.3</v>
-          </cell>
-          <cell r="BX349">
-            <v>351</v>
-          </cell>
-          <cell r="BZ349">
-            <v>293.8</v>
-          </cell>
-          <cell r="CB349">
-            <v>701.5</v>
-          </cell>
-          <cell r="CD349">
-            <v>60.5</v>
-          </cell>
-          <cell r="CF349">
-            <v>368.6</v>
-          </cell>
-          <cell r="CH349">
-            <v>79.8</v>
-          </cell>
-          <cell r="CJ349">
-            <v>432.5</v>
-          </cell>
-          <cell r="CL349">
-            <v>1947.1</v>
-          </cell>
-          <cell r="CN349">
-            <v>247.5</v>
-          </cell>
-          <cell r="CP349">
-            <v>712.3</v>
-          </cell>
-          <cell r="CR349">
-            <v>55.7</v>
-          </cell>
-          <cell r="CT349">
-            <v>593.29999999999995</v>
-          </cell>
-          <cell r="CV349">
-            <v>411</v>
-          </cell>
-          <cell r="CX349">
-            <v>154.6</v>
-          </cell>
-          <cell r="CZ349">
-            <v>68.8</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2364,8 +1697,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B338" sqref="B338"/>
+      <pane ySplit="5" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A337" sqref="A337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55038,7 +54371,7 @@
         <v>43160</v>
       </c>
       <c r="B332" s="9">
-        <v>3.5851931522810791E-2</v>
+        <v>4.4814914403513491E-2</v>
       </c>
       <c r="C332" s="9">
         <v>0.44224765868887761</v>
@@ -55199,25 +54532,25 @@
         <v>43191</v>
       </c>
       <c r="B333" s="9">
-        <v>1.3443871835088507E-2</v>
+        <v>4.4812906116961683E-2</v>
       </c>
       <c r="C333" s="9">
-        <v>0.4940197607904257</v>
+        <v>0.4420176807072253</v>
       </c>
       <c r="D333" s="9">
-        <v>-1.1070110701106906</v>
+        <v>-0.98400984009839754</v>
       </c>
       <c r="E333" s="9">
-        <v>-0.24213075060532688</v>
+        <v>-4.8426150121062619E-2</v>
       </c>
       <c r="F333" s="9">
         <v>4.7348484848495617E-2</v>
       </c>
       <c r="G333" s="9">
-        <v>0.9626719056974461</v>
+        <v>0.95088408644400069</v>
       </c>
       <c r="H333" s="9">
-        <v>1.3079394217530951</v>
+        <v>1.3538320330426747</v>
       </c>
       <c r="I333" s="9">
         <v>-0.98967297762478978</v>
@@ -55226,28 +54559,28 @@
         <v>0.60422960725074237</v>
       </c>
       <c r="K333" s="9">
-        <v>-1.1608623548921986</v>
+        <v>-1.326699834162516</v>
       </c>
       <c r="L333" s="9">
-        <v>0.72358900144717808</v>
+        <v>0.48842257597685346</v>
       </c>
       <c r="M333" s="9">
-        <v>0.94793641534198625</v>
+        <v>0.80210004375091148</v>
       </c>
       <c r="N333" s="9">
         <v>-1.7268445839874433</v>
       </c>
       <c r="O333" s="9">
-        <v>2.6122448979591857</v>
+        <v>2.5306122448979544</v>
       </c>
       <c r="P333" s="9">
-        <v>1.1741919864423112</v>
+        <v>1.1257716983415995</v>
       </c>
       <c r="Q333" s="9">
-        <v>1.5899383009017669</v>
+        <v>1.7560512577123952</v>
       </c>
       <c r="R333" s="9">
-        <v>0.15402387370043671</v>
+        <v>0</v>
       </c>
       <c r="S333" s="9">
         <v>0.50721810378463184</v>
@@ -55259,25 +54592,25 @@
         <v>-0.91268634012777616</v>
       </c>
       <c r="V333" s="9">
-        <v>0.40040040040039182</v>
+        <v>0.50050050050050054</v>
       </c>
       <c r="W333" s="9">
-        <v>-0.65424266455193392</v>
+        <v>-0.57494052339412716</v>
       </c>
       <c r="X333" s="9">
         <v>-0.22143489813994682</v>
       </c>
       <c r="Y333" s="9">
-        <v>1.296973727968086</v>
+        <v>1.0142999667442671</v>
       </c>
       <c r="Z333" s="9">
         <v>1.7577197149643651</v>
       </c>
       <c r="AA333" s="9">
-        <v>0.20635575732562939</v>
+        <v>0.16508460586049412</v>
       </c>
       <c r="AB333" s="9">
-        <v>0.34618047542118624</v>
+        <v>0.39233787214400845</v>
       </c>
       <c r="AC333" s="9">
         <v>0.77177508269019057</v>
@@ -55286,28 +54619,28 @@
         <v>-0.17361111111111768</v>
       </c>
       <c r="AE333" s="9">
-        <v>3.0798240100565719</v>
+        <v>4.0854808296668761</v>
       </c>
       <c r="AF333" s="9">
-        <v>-0.66445182724251861</v>
+        <v>-0.55370985603543743</v>
       </c>
       <c r="AG333" s="9">
-        <v>0.49043648847474253</v>
+        <v>0.50678437142388566</v>
       </c>
       <c r="AH333" s="9">
-        <v>5.3447354355956336E-2</v>
+        <v>0.10689470871192788</v>
       </c>
       <c r="AI333" s="9">
-        <v>0.1519337016574617</v>
+        <v>0.11740331491713021</v>
       </c>
       <c r="AJ333" s="9">
-        <v>0.94481719841162415</v>
+        <v>0.84896617828290366</v>
       </c>
       <c r="AK333" s="9">
-        <v>-2.5362318840579641</v>
+        <v>-2.6570048309178778</v>
       </c>
       <c r="AL333" s="9">
-        <v>0.58883768561186745</v>
+        <v>0.53763440860214173</v>
       </c>
       <c r="AM333" s="9">
         <v>0.48627002288329191</v>
@@ -55316,22 +54649,22 @@
         <v>-5.2002583979328234</v>
       </c>
       <c r="AO333" s="9">
-        <v>-0.3130781272235727</v>
+        <v>-0.41269389497653203</v>
       </c>
       <c r="AP333" s="9">
         <v>0.16556291390728714</v>
       </c>
       <c r="AQ333" s="9">
-        <v>0.87767416346680971</v>
+        <v>0.85024684585846555</v>
       </c>
       <c r="AR333" s="9">
-        <v>1.6455696202531609</v>
+        <v>2.0253164556961951</v>
       </c>
       <c r="AS333" s="9">
-        <v>0.55852920642309389</v>
+        <v>0.60507330695834827</v>
       </c>
       <c r="AT333" s="9">
-        <v>0.24709152681973551</v>
+        <v>0.21620508596726273</v>
       </c>
       <c r="AU333" s="9">
         <v>1.6872427983539071</v>
@@ -55340,451 +54673,503 @@
         <v>0.36036036036036551</v>
       </c>
       <c r="AW333" s="9">
-        <v>-0.19533975163947129</v>
+        <v>-0.18138691223664966</v>
       </c>
       <c r="AX333" s="9">
-        <v>1.4192886456908462</v>
+        <v>1.4363885088919444</v>
       </c>
       <c r="AY333" s="9">
-        <v>-0.38935756002595351</v>
+        <v>-0.45425048669694268</v>
       </c>
       <c r="AZ333" s="9">
-        <v>0.44139283962727099</v>
+        <v>9.8087297694942913E-2</v>
       </c>
       <c r="BA333" s="9">
-        <v>-1.9858156028368874</v>
+        <v>-1.7021276595744723</v>
       </c>
     </row>
     <row r="334" spans="1:53" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="10">
-        <f>[1]FRED!A348</f>
         <v>43221</v>
       </c>
       <c r="B334" s="11">
-        <f>(([1]FRED!B348-[1]FRED!B336)/[1]FRED!B336)*100</f>
-        <v>0.11208249271463797</v>
+        <v>0.12553239184039452</v>
       </c>
       <c r="C334" s="11">
-        <f>(([1]FRED!F348-[1]FRED!F336)/[1]FRED!F336)*100</f>
         <v>0.23388773388772796</v>
       </c>
       <c r="D334" s="11">
-        <f>(([1]FRED!D348-[1]FRED!D336)/[1]FRED!D336)*100</f>
         <v>-1.1015911872705086</v>
       </c>
       <c r="E334" s="11">
-        <f>(([1]FRED!J348-[1]FRED!J336)/[1]FRED!J336)*100</f>
         <v>0.16945049624787911</v>
       </c>
       <c r="F334" s="11">
-        <f>(([1]FRED!H348-[1]FRED!H336)/[1]FRED!H336)*100</f>
         <v>9.4696969696977773E-2</v>
       </c>
       <c r="G334" s="11">
-        <f>(([1]FRED!L348-[1]FRED!L336)/[1]FRED!L336)*100</f>
         <v>0.90242084199788131</v>
       </c>
       <c r="H334" s="11">
-        <f>(([1]FRED!N348-[1]FRED!N336)/[1]FRED!N336)*100</f>
         <v>1.6080863772111189</v>
       </c>
       <c r="I334" s="11">
-        <f>(([1]FRED!P348-[1]FRED!P336)/[1]FRED!P336)*100</f>
         <v>-1.1197243755383268</v>
       </c>
       <c r="J334" s="11">
-        <f>(([1]FRED!R348-[1]FRED!R336)/[1]FRED!R336)*100</f>
         <v>0.60514372163389674</v>
       </c>
       <c r="K334" s="11">
-        <f>(([1]FRED!T348-[1]FRED!T336)/[1]FRED!T336)*100</f>
         <v>-1.2857735379510553</v>
       </c>
       <c r="L334" s="11">
-        <f>(([1]FRED!V348-[1]FRED!V336)/[1]FRED!V336)*100</f>
         <v>0.12659372456821263</v>
       </c>
       <c r="M334" s="11">
-        <f>(([1]FRED!X348-[1]FRED!X336)/[1]FRED!X336)*100</f>
         <v>0.67123887348606792</v>
       </c>
       <c r="N334" s="11">
-        <f>(([1]FRED!Z348-[1]FRED!Z336)/[1]FRED!Z336)*100</f>
         <v>-0.3958828186856691</v>
       </c>
       <c r="O334" s="11">
-        <f>(([1]FRED!AD348-[1]FRED!AD336)/[1]FRED!AD336)*100</f>
         <v>2.3596419853539392</v>
       </c>
       <c r="P334" s="11">
-        <f>(([1]FRED!AF348-[1]FRED!AF336)/[1]FRED!AF336)*100</f>
         <v>1.7107498180053273</v>
       </c>
       <c r="Q334" s="11">
-        <f>(([1]FRED!AH348-[1]FRED!AH336)/[1]FRED!AH336)*100</f>
         <v>0.5176470588235268</v>
       </c>
       <c r="R334" s="11">
-        <f>(([1]FRED!AB348-[1]FRED!AB336)/[1]FRED!AB336)*100</f>
         <v>-3.8580246913567089E-2</v>
       </c>
       <c r="S334" s="11">
-        <f>(([1]FRED!AJ348-[1]FRED!AJ336)/[1]FRED!AJ336)*100</f>
         <v>0.78216660148611661</v>
       </c>
       <c r="T334" s="11">
-        <f>(([1]FRED!AL348-[1]FRED!AL336)/[1]FRED!AL336)*100</f>
         <v>-0.31645569620253167</v>
       </c>
       <c r="U334" s="11">
-        <f>(([1]FRED!AN348-[1]FRED!AN336)/[1]FRED!AN336)*100</f>
         <v>-0.88468578401465359</v>
       </c>
       <c r="V334" s="11">
-        <f>(([1]FRED!AT348-[1]FRED!AT336)/[1]FRED!AT336)*100</f>
         <v>0.40000000000000563</v>
       </c>
       <c r="W334" s="11">
-        <f>(([1]FRED!AR348-[1]FRED!AR336)/[1]FRED!AR336)*100</f>
         <v>-0.35601265822785033</v>
       </c>
       <c r="X334" s="11">
-        <f>(([1]FRED!AP348-[1]FRED!AP336)/[1]FRED!AP336)*100</f>
         <v>-0.22119000221189999</v>
       </c>
       <c r="Y334" s="11">
-        <f>(([1]FRED!AV348-[1]FRED!AV336)/[1]FRED!AV336)*100</f>
         <v>0.94731593817515891</v>
       </c>
       <c r="Z334" s="11">
-        <f>(([1]FRED!AX348-[1]FRED!AX336)/[1]FRED!AX336)*100</f>
         <v>1.5173067804646698</v>
       </c>
       <c r="AA334" s="11">
-        <f>(([1]FRED!BB348-[1]FRED!BB336)/[1]FRED!BB336)*100</f>
         <v>8.2678792889619115E-2</v>
       </c>
       <c r="AB334" s="11">
-        <f>(([1]FRED!AZ348-[1]FRED!AZ336)/[1]FRED!AZ336)*100</f>
         <v>0.345383375546857</v>
       </c>
       <c r="AC334" s="11">
-        <f>(([1]FRED!BD348-[1]FRED!BD336)/[1]FRED!BD336)*100</f>
         <v>0.88300220750553138</v>
       </c>
       <c r="AD334" s="11">
-        <f>(([1]FRED!BJ348-[1]FRED!BJ336)/[1]FRED!BJ336)*100</f>
         <v>0</v>
       </c>
       <c r="AE334" s="11">
-        <f>(([1]FRED!BR348-[1]FRED!BR336)/[1]FRED!BR336)*100</f>
         <v>3.6272670419011774</v>
       </c>
       <c r="AF334" s="11">
-        <f>(([1]FRED!BL348-[1]FRED!BL336)/[1]FRED!BL336)*100</f>
         <v>-0.33222591362125931</v>
       </c>
       <c r="AG334" s="11">
-        <f>(([1]FRED!BN348-[1]FRED!BN336)/[1]FRED!BN336)*100</f>
         <v>0.53877551020407422</v>
       </c>
       <c r="AH334" s="11">
-        <f>(([1]FRED!BP348-[1]FRED!BP336)/[1]FRED!BP336)*100</f>
         <v>-0.5920344456404858</v>
       </c>
       <c r="AI334" s="11">
-        <f>(([1]FRED!BT348-[1]FRED!BT336)/[1]FRED!BT336)*100</f>
         <v>7.5998341854353252E-2</v>
       </c>
       <c r="AJ334" s="11">
-        <f>(([1]FRED!BF348-[1]FRED!BF336)/[1]FRED!BF336)*100</f>
         <v>0.66985645933014037</v>
       </c>
       <c r="AK334" s="11">
-        <f>(([1]FRED!BH348-[1]FRED!BH336)/[1]FRED!BH336)*100</f>
         <v>-2.539298669891183</v>
       </c>
       <c r="AL334" s="11">
-        <f>(([1]FRED!BV348-[1]FRED!BV336)/[1]FRED!BV336)*100</f>
         <v>0.66641035499167578</v>
       </c>
       <c r="AM334" s="11">
-        <f>(([1]FRED!BX348-[1]FRED!BX336)/[1]FRED!BX336)*100</f>
         <v>0.37195994277539668</v>
       </c>
       <c r="AN334" s="11">
-        <f>(([1]FRED!BZ348-[1]FRED!BZ336)/[1]FRED!BZ336)*100</f>
         <v>-5.2002583979328234</v>
       </c>
       <c r="AO334" s="11">
-        <f>(([1]FRED!CB348-[1]FRED!CB336)/[1]FRED!CB336)*100</f>
         <v>-0.25568181818181174</v>
       </c>
       <c r="AP334" s="11">
-        <f>(([1]FRED!CD348-[1]FRED!CD336)/[1]FRED!CD336)*100</f>
         <v>0.16528925619834947</v>
       </c>
       <c r="AQ334" s="11">
-        <f>(([1]FRED!CF348-[1]FRED!CF336)/[1]FRED!CF336)*100</f>
         <v>0.95995611629182653</v>
       </c>
       <c r="AR334" s="11">
-        <f>(([1]FRED!CH348-[1]FRED!CH336)/[1]FRED!CH336)*100</f>
         <v>1.3836477987421314</v>
       </c>
       <c r="AS334" s="11">
-        <f>(([1]FRED!CJ348-[1]FRED!CJ336)/[1]FRED!CJ336)*100</f>
         <v>0.62834535722596896</v>
       </c>
       <c r="AT334" s="11">
-        <f>(([1]FRED!CL348-[1]FRED!CL336)/[1]FRED!CL336)*100</f>
         <v>0.25239517873698691</v>
       </c>
       <c r="AU334" s="11">
-        <f>(([1]FRED!CN348-[1]FRED!CN336)/[1]FRED!CN336)*100</f>
         <v>1.7680921052631626</v>
       </c>
       <c r="AV334" s="11">
-        <f>(([1]FRED!CR348-[1]FRED!CR336)/[1]FRED!CR336)*100</f>
         <v>1.2820512820512742</v>
       </c>
       <c r="AW334" s="11">
-        <f>(([1]FRED!CP348-[1]FRED!CP336)/[1]FRED!CP336)*100</f>
         <v>-0.32087053571427937</v>
       </c>
       <c r="AX334" s="11">
-        <f>(([1]FRED!CT348-[1]FRED!CT336)/[1]FRED!CT336)*100</f>
         <v>1.3824884792626768</v>
       </c>
       <c r="AY334" s="11">
-        <f>(([1]FRED!CX348-[1]FRED!CX336)/[1]FRED!CX336)*100</f>
         <v>5.2665799739921937</v>
       </c>
       <c r="AZ334" s="11">
-        <f>(([1]FRED!CV348-[1]FRED!CV336)/[1]FRED!CV336)*100</f>
         <v>-0.2681618722574271</v>
       </c>
       <c r="BA334" s="11">
-        <f>(([1]FRED!CZ348-[1]FRED!CZ336)/[1]FRED!CZ336)*100</f>
         <v>-2.2695035460992825</v>
       </c>
     </row>
     <row r="335" spans="1:53" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="10">
-        <f>[1]FRED!A349</f>
         <v>43252</v>
       </c>
       <c r="B335" s="11">
-        <f>(([1]FRED!B349-[1]FRED!B337)/[1]FRED!B337)*100</f>
-        <v>7.6151227378605982E-2</v>
+        <v>0.10302813115929045</v>
       </c>
       <c r="C335" s="11">
-        <f>(([1]FRED!F349-[1]FRED!F337)/[1]FRED!F337)*100</f>
-        <v>0.83052167142486066</v>
+        <v>-0.28549182455230282</v>
       </c>
       <c r="D335" s="11">
-        <f>(([1]FRED!D349-[1]FRED!D337)/[1]FRED!D337)*100</f>
         <v>-0.86419753086420115</v>
       </c>
       <c r="E335" s="11">
-        <f>(([1]FRED!J349-[1]FRED!J337)/[1]FRED!J337)*100</f>
-        <v>2.4137098720725534E-2</v>
+        <v>0.21723388848659841</v>
       </c>
       <c r="F335" s="11">
-        <f>(([1]FRED!H349-[1]FRED!H337)/[1]FRED!H337)*100</f>
-        <v>-0.14170996693433302</v>
+        <v>-9.4473311289555342E-2</v>
       </c>
       <c r="G335" s="11">
-        <f>(([1]FRED!L349-[1]FRED!L337)/[1]FRED!L337)*100</f>
-        <v>0.90909090909090196</v>
+        <v>1.3087774294670882</v>
       </c>
       <c r="H335" s="11">
-        <f>(([1]FRED!N349-[1]FRED!N337)/[1]FRED!N337)*100</f>
-        <v>2.6187717265353445</v>
+        <v>3.4067207415990701</v>
       </c>
       <c r="I335" s="11">
-        <f>(([1]FRED!P349-[1]FRED!P337)/[1]FRED!P337)*100</f>
-        <v>-1.9346517626827171</v>
+        <v>-1.9776440240756639</v>
       </c>
       <c r="J335" s="11">
-        <f>(([1]FRED!R349-[1]FRED!R337)/[1]FRED!R337)*100</f>
-        <v>1.2066365007541435</v>
+        <v>0.60331825037708253</v>
       </c>
       <c r="K335" s="11">
-        <f>(([1]FRED!T349-[1]FRED!T337)/[1]FRED!T337)*100</f>
-        <v>-1.327800829875514</v>
+        <v>-1.4107883817427409</v>
       </c>
       <c r="L335" s="11">
-        <f>(([1]FRED!V349-[1]FRED!V337)/[1]FRED!V337)*100</f>
         <v>-0.18973617636428525</v>
       </c>
       <c r="M335" s="11">
-        <f>(([1]FRED!X349-[1]FRED!X337)/[1]FRED!X337)*100</f>
-        <v>0.59627690517743204</v>
+        <v>0.5090168702734148</v>
       </c>
       <c r="N335" s="11">
-        <f>(([1]FRED!Z349-[1]FRED!Z337)/[1]FRED!Z337)*100</f>
-        <v>-0.158730158730161</v>
+        <v>-0.31746031746032199</v>
       </c>
       <c r="O335" s="11">
-        <f>(([1]FRED!AD349-[1]FRED!AD337)/[1]FRED!AD337)*100</f>
-        <v>1.9480519480519412</v>
+        <v>2.7597402597402527</v>
       </c>
       <c r="P335" s="11">
-        <f>(([1]FRED!AF349-[1]FRED!AF337)/[1]FRED!AF337)*100</f>
-        <v>1.5489913544668699</v>
+        <v>1.5850144092219076</v>
       </c>
       <c r="Q335" s="11">
-        <f>(([1]FRED!AH349-[1]FRED!AH337)/[1]FRED!AH337)*100</f>
-        <v>0.1638193306810177</v>
+        <v>-1.0765270301895677</v>
       </c>
       <c r="R335" s="11">
-        <f>(([1]FRED!AB349-[1]FRED!AB337)/[1]FRED!AB337)*100</f>
-        <v>0.61443932411675228</v>
+        <v>1.0368663594470222</v>
       </c>
       <c r="S335" s="11">
-        <f>(([1]FRED!AJ349-[1]FRED!AJ337)/[1]FRED!AJ337)*100</f>
-        <v>1.0180109631949861</v>
+        <v>0.86139389193422755</v>
       </c>
       <c r="T335" s="11">
-        <f>(([1]FRED!AL349-[1]FRED!AL337)/[1]FRED!AL337)*100</f>
-        <v>-0.47513462147608487</v>
+        <v>-0.31675641431738993</v>
       </c>
       <c r="U335" s="11">
-        <f>(([1]FRED!AN349-[1]FRED!AN337)/[1]FRED!AN337)*100</f>
         <v>-0.82493125572868575</v>
       </c>
       <c r="V335" s="11">
-        <f>(([1]FRED!AT349-[1]FRED!AT337)/[1]FRED!AT337)*100</f>
-        <v>0.5</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="W335" s="11">
-        <f>(([1]FRED!AR349-[1]FRED!AR337)/[1]FRED!AR337)*100</f>
-        <v>-1.3617525162818191</v>
+        <v>-1.440694691138743</v>
       </c>
       <c r="X335" s="11">
-        <f>(([1]FRED!AP349-[1]FRED!AP337)/[1]FRED!AP337)*100</f>
+        <v>2.2011886418658571E-2</v>
+      </c>
+      <c r="Y335" s="11">
+        <v>6.6312997347476324E-2</v>
+      </c>
+      <c r="Z335" s="11">
+        <v>1.4975041597337797</v>
+      </c>
+      <c r="AA335" s="11">
+        <v>0.20661157024793389</v>
+      </c>
+      <c r="AB335" s="11">
+        <v>-4.5829514207146801E-2</v>
+      </c>
+      <c r="AC335" s="11">
+        <v>0.98576122672508848</v>
+      </c>
+      <c r="AD335" s="11">
+        <v>-0.23134759976865568</v>
+      </c>
+      <c r="AE335" s="11">
+        <v>4.375</v>
+      </c>
+      <c r="AF335" s="11">
+        <v>-0.33185840707965858</v>
+      </c>
+      <c r="AG335" s="11">
+        <v>0.27651268705270748</v>
+      </c>
+      <c r="AH335" s="11">
+        <v>0.70537167661420663</v>
+      </c>
+      <c r="AI335" s="11">
+        <v>7.5961604861552137E-2</v>
+      </c>
+      <c r="AJ335" s="11">
+        <v>0.83208293547947387</v>
+      </c>
+      <c r="AK335" s="11">
+        <v>-2.539298669891183</v>
+      </c>
+      <c r="AL335" s="11">
+        <v>0.75534502624503619</v>
+      </c>
+      <c r="AM335" s="11">
+        <v>0.42881646655231564</v>
+      </c>
+      <c r="AN335" s="11">
+        <v>-5.1969012265978121</v>
+      </c>
+      <c r="AO335" s="11">
+        <v>-0.29854990048336977</v>
+      </c>
+      <c r="AP335" s="11">
+        <v>-0.49342105263157432</v>
+      </c>
+      <c r="AQ335" s="11">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="AR335" s="11">
+        <v>1.013941698352341</v>
+      </c>
+      <c r="AS335" s="11">
+        <v>0.37183360446199532</v>
+      </c>
+      <c r="AT335" s="11">
+        <v>0.30938998607745061</v>
+      </c>
+      <c r="AU335" s="11">
+        <v>1.9317714755445903</v>
+      </c>
+      <c r="AV335" s="11">
+        <v>0.17953321364451402</v>
+      </c>
+      <c r="AW335" s="11">
+        <v>-0.69657286152131526</v>
+      </c>
+      <c r="AX335" s="11">
+        <v>1.0211027910142954</v>
+      </c>
+      <c r="AY335" s="11">
+        <v>0.52049446974626634</v>
+      </c>
+      <c r="AZ335" s="11">
+        <v>0.7618579503563585</v>
+      </c>
+      <c r="BA335" s="11">
+        <v>-2.1337126600284497</v>
+      </c>
+    </row>
+    <row r="336" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A336" s="7">
+        <v>43282</v>
+      </c>
+      <c r="B336" s="9">
+        <v>3.5832661470930754E-2</v>
+      </c>
+      <c r="C336" s="9">
+        <v>-0.49312224240852165</v>
+      </c>
+      <c r="D336" s="9">
+        <v>-0.61957868649318459</v>
+      </c>
+      <c r="E336" s="9">
+        <v>-2.4084778420030324E-2</v>
+      </c>
+      <c r="F336" s="9">
+        <v>-0.23573785950023576</v>
+      </c>
+      <c r="G336" s="9">
+        <v>1.3046033300685673</v>
+      </c>
+      <c r="H336" s="9">
+        <v>2.2217132386623888</v>
+      </c>
+      <c r="I336" s="9">
+        <v>-1.6407599309153638</v>
+      </c>
+      <c r="J336" s="9">
+        <v>0.60514372163389674</v>
+      </c>
+      <c r="K336" s="9">
+        <v>-0.62893081761006298</v>
+      </c>
+      <c r="L336" s="9">
+        <v>-7.2293511657324644E-2</v>
+      </c>
+      <c r="M336" s="9">
+        <v>-0.33328503115491498</v>
+      </c>
+      <c r="N336" s="9">
+        <v>0.9615384615384639</v>
+      </c>
+      <c r="O336" s="9">
+        <v>3.0844155844155821</v>
+      </c>
+      <c r="P336" s="9">
+        <v>1.3808837656099904</v>
+      </c>
+      <c r="Q336" s="9">
+        <v>-1.3849765258215909</v>
+      </c>
+      <c r="R336" s="9">
+        <v>0.15267175572518216</v>
+      </c>
+      <c r="S336" s="9">
+        <v>0.97694411879639365</v>
+      </c>
+      <c r="T336" s="9">
+        <v>-0.4420587306599234</v>
+      </c>
+      <c r="U336" s="9">
+        <v>-0.82644628099173212</v>
+      </c>
+      <c r="V336" s="9">
+        <v>0.29910269192422445</v>
+      </c>
+      <c r="W336" s="9">
+        <v>-0.53497127006142042</v>
+      </c>
+      <c r="X336" s="9">
+        <v>-2.2055580061748101E-2</v>
+      </c>
+      <c r="Y336" s="9">
+        <v>0.24867374005305037</v>
+      </c>
+      <c r="Z336" s="9">
+        <v>1.0352941176470536</v>
+      </c>
+      <c r="AA336" s="9">
         <v>0</v>
       </c>
-      <c r="Y335" s="11">
-        <f>(([1]FRED!AV349-[1]FRED!AV337)/[1]FRED!AV337)*100</f>
-        <v>8.289124668435012E-2</v>
-      </c>
-      <c r="Z335" s="11">
-        <f>(([1]FRED!AX349-[1]FRED!AX337)/[1]FRED!AX337)*100</f>
-        <v>1.5450439743285</v>
-      </c>
-      <c r="AA335" s="11">
-        <f>(([1]FRED!BB349-[1]FRED!BB337)/[1]FRED!BB337)*100</f>
-        <v>-0.41322314049586778</v>
-      </c>
-      <c r="AB335" s="11">
-        <f>(([1]FRED!AZ349-[1]FRED!AZ337)/[1]FRED!AZ337)*100</f>
-        <v>2.2914757103579913E-2</v>
-      </c>
-      <c r="AC335" s="11">
-        <f>(([1]FRED!BD349-[1]FRED!BD337)/[1]FRED!BD337)*100</f>
-        <v>-0.10952902519166957</v>
-      </c>
-      <c r="AD335" s="11">
-        <f>(([1]FRED!BJ349-[1]FRED!BJ337)/[1]FRED!BJ337)*100</f>
-        <v>-5.7836899942159813E-2</v>
-      </c>
-      <c r="AE335" s="11">
-        <f>(([1]FRED!BR349-[1]FRED!BR337)/[1]FRED!BR337)*100</f>
-        <v>4.1874999999999929</v>
-      </c>
-      <c r="AF335" s="11">
-        <f>(([1]FRED!BL349-[1]FRED!BL337)/[1]FRED!BL337)*100</f>
-        <v>-0.1106194690265581</v>
-      </c>
-      <c r="AG335" s="11">
-        <f>(([1]FRED!BN349-[1]FRED!BN337)/[1]FRED!BN337)*100</f>
-        <v>0.2927781392322818</v>
-      </c>
-      <c r="AH335" s="11">
-        <f>(([1]FRED!BP349-[1]FRED!BP337)/[1]FRED!BP337)*100</f>
-        <v>1.1394465545306534</v>
-      </c>
-      <c r="AI335" s="11">
-        <f>(([1]FRED!BT349-[1]FRED!BT337)/[1]FRED!BT337)*100</f>
-        <v>6.2150403977632142E-2</v>
-      </c>
-      <c r="AJ335" s="11">
-        <f>(([1]FRED!BF349-[1]FRED!BF337)/[1]FRED!BF337)*100</f>
-        <v>0.70931660073658875</v>
-      </c>
-      <c r="AK335" s="11">
-        <f>(([1]FRED!BH349-[1]FRED!BH337)/[1]FRED!BH337)*100</f>
-        <v>-2.6602176541717082</v>
-      </c>
-      <c r="AL335" s="11">
-        <f>(([1]FRED!BV349-[1]FRED!BV337)/[1]FRED!BV337)*100</f>
-        <v>0.40967865830238531</v>
-      </c>
-      <c r="AM335" s="11">
-        <f>(([1]FRED!BX349-[1]FRED!BX337)/[1]FRED!BX337)*100</f>
-        <v>0.34305317324184925</v>
-      </c>
-      <c r="AN335" s="11">
-        <f>(([1]FRED!BZ349-[1]FRED!BZ337)/[1]FRED!BZ337)*100</f>
-        <v>-5.1646223369916076</v>
-      </c>
-      <c r="AO335" s="11">
-        <f>(([1]FRED!CB349-[1]FRED!CB337)/[1]FRED!CB337)*100</f>
-        <v>-0.27011657662780453</v>
-      </c>
-      <c r="AP335" s="11">
-        <f>(([1]FRED!CD349-[1]FRED!CD337)/[1]FRED!CD337)*100</f>
-        <v>-0.49342105263157432</v>
-      </c>
-      <c r="AQ335" s="11">
-        <f>(([1]FRED!CF349-[1]FRED!CF337)/[1]FRED!CF337)*100</f>
-        <v>0.98630136986301986</v>
-      </c>
-      <c r="AR335" s="11">
-        <f>(([1]FRED!CH349-[1]FRED!CH337)/[1]FRED!CH337)*100</f>
-        <v>1.1406844106463769</v>
-      </c>
-      <c r="AS335" s="11">
-        <f>(([1]FRED!CJ349-[1]FRED!CJ337)/[1]FRED!CJ337)*100</f>
-        <v>0.51127120613525179</v>
-      </c>
-      <c r="AT335" s="11">
-        <f>(([1]FRED!CL349-[1]FRED!CL337)/[1]FRED!CL337)*100</f>
-        <v>0.40220698190068349</v>
-      </c>
-      <c r="AU335" s="11">
-        <f>(([1]FRED!CN349-[1]FRED!CN337)/[1]FRED!CN337)*100</f>
-        <v>1.7262638717632506</v>
-      </c>
-      <c r="AV335" s="11">
-        <f>(([1]FRED!CR349-[1]FRED!CR337)/[1]FRED!CR337)*100</f>
+      <c r="AB336" s="9">
+        <v>-0.11441647597254005</v>
+      </c>
+      <c r="AC336" s="9">
+        <v>1.3086150490730675</v>
+      </c>
+      <c r="AD336" s="9">
+        <v>0.17452006980801799</v>
+      </c>
+      <c r="AE336" s="9">
+        <v>3.5272277227722881</v>
+      </c>
+      <c r="AF336" s="9">
+        <v>0.1111111111111048</v>
+      </c>
+      <c r="AG336" s="9">
+        <v>0.34190817323345962</v>
+      </c>
+      <c r="AH336" s="9">
+        <v>-0.37796976241900038</v>
+      </c>
+      <c r="AI336" s="9">
+        <v>8.9729431253447997E-2</v>
+      </c>
+      <c r="AJ336" s="9">
+        <v>0.77235772357724197</v>
+      </c>
+      <c r="AK336" s="9">
+        <v>-1.820388349514563</v>
+      </c>
+      <c r="AL336" s="9">
+        <v>0.42172523961660757</v>
+      </c>
+      <c r="AM336" s="9">
+        <v>0.51428571428571757</v>
+      </c>
+      <c r="AN336" s="9">
+        <v>-5.7244501940491554</v>
+      </c>
+      <c r="AO336" s="9">
+        <v>-0.87570621468927201</v>
+      </c>
+      <c r="AP336" s="9">
         <v>0</v>
       </c>
-      <c r="AW335" s="11">
-        <f>(([1]FRED!CP349-[1]FRED!CP337)/[1]FRED!CP337)*100</f>
-        <v>-0.76623014767344666</v>
-      </c>
-      <c r="AX335" s="11">
-        <f>(([1]FRED!CT349-[1]FRED!CT337)/[1]FRED!CT337)*100</f>
-        <v>0.97004765146356897</v>
-      </c>
-      <c r="AY335" s="11">
-        <f>(([1]FRED!CX349-[1]FRED!CX337)/[1]FRED!CX337)*100</f>
-        <v>0.58555627846454505</v>
-      </c>
-      <c r="AZ335" s="11">
-        <f>(([1]FRED!CV349-[1]FRED!CV337)/[1]FRED!CV337)*100</f>
-        <v>1.007618579503569</v>
-      </c>
-      <c r="BA335" s="11">
-        <f>(([1]FRED!CZ349-[1]FRED!CZ337)/[1]FRED!CZ337)*100</f>
-        <v>-2.1337126600284497</v>
-      </c>
-    </row>
-    <row r="336" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A336" s="7"/>
+      <c r="AQ336" s="9">
+        <v>-8.1455335324466846E-2</v>
+      </c>
+      <c r="AR336" s="9">
+        <v>0.37878787878787518</v>
+      </c>
+      <c r="AS336" s="9">
+        <v>6.9686411149828431E-2</v>
+      </c>
+      <c r="AT336" s="9">
+        <v>0.22697962342017491</v>
+      </c>
+      <c r="AU336" s="9">
+        <v>2.2643062988884313</v>
+      </c>
+      <c r="AV336" s="9">
+        <v>-0.35650623885918509</v>
+      </c>
+      <c r="AW336" s="9">
+        <v>-0.4043502509760305</v>
+      </c>
+      <c r="AX336" s="9">
+        <v>0.62669376693767709</v>
+      </c>
+      <c r="AY336" s="9">
+        <v>0.65019505851755521</v>
+      </c>
+      <c r="AZ336" s="9">
+        <v>7.3295870999269819E-2</v>
+      </c>
+      <c r="BA336" s="9">
+        <v>-0.99573257467994725</v>
+      </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\x2Dk+Vb9g0qnP+BFeSxj2A==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\xoou6HaVQ0qYEmlcX95SMw==\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1991 -- July 2018</t>
+    <t>Government Employment; Year/Year: January 1991 -- August 2018</t>
   </si>
 </sst>
 </file>
@@ -1697,13 +1697,42 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A337" sqref="A337"/>
+      <pane ySplit="5" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV340" sqref="AV340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="12" style="5"/>
+    <col min="1" max="1" width="12" style="5"/>
+    <col min="2" max="2" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="47" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="12" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -54854,7 +54883,7 @@
         <v>43252</v>
       </c>
       <c r="B335" s="11">
-        <v>0.10302813115929045</v>
+        <v>0.11198709908618526</v>
       </c>
       <c r="C335" s="11">
         <v>-0.28549182455230282</v>
@@ -55015,61 +55044,61 @@
         <v>43282</v>
       </c>
       <c r="B336" s="9">
-        <v>3.5832661470930754E-2</v>
+        <v>7.6144405625727843E-2</v>
       </c>
       <c r="C336" s="9">
-        <v>-0.49312224240852165</v>
+        <v>-0.33739942901635384</v>
       </c>
       <c r="D336" s="9">
-        <v>-0.61957868649318459</v>
+        <v>-0.74349442379183206</v>
       </c>
       <c r="E336" s="9">
-        <v>-2.4084778420030324E-2</v>
+        <v>9.6339113680162361E-2</v>
       </c>
       <c r="F336" s="9">
         <v>-0.23573785950023576</v>
       </c>
       <c r="G336" s="9">
-        <v>1.3046033300685673</v>
+        <v>1.2575905974534733</v>
       </c>
       <c r="H336" s="9">
-        <v>2.2217132386623888</v>
+        <v>2.4736601007787344</v>
       </c>
       <c r="I336" s="9">
-        <v>-1.6407599309153638</v>
+        <v>-1.7702936096718456</v>
       </c>
       <c r="J336" s="9">
         <v>0.60514372163389674</v>
       </c>
       <c r="K336" s="9">
-        <v>-0.62893081761006298</v>
+        <v>-0.41928721174004197</v>
       </c>
       <c r="L336" s="9">
-        <v>-7.2293511657324644E-2</v>
+        <v>-2.7110066871494174E-2</v>
       </c>
       <c r="M336" s="9">
-        <v>-0.33328503115491498</v>
+        <v>0.40573829879726914</v>
       </c>
       <c r="N336" s="9">
-        <v>0.9615384615384639</v>
+        <v>0.80128205128205143</v>
       </c>
       <c r="O336" s="9">
-        <v>3.0844155844155821</v>
+        <v>3.5714285714285641</v>
       </c>
       <c r="P336" s="9">
-        <v>1.3808837656099904</v>
+        <v>1.3328530259366023</v>
       </c>
       <c r="Q336" s="9">
-        <v>-1.3849765258215909</v>
+        <v>0.3286384976525768</v>
       </c>
       <c r="R336" s="9">
-        <v>0.15267175572518216</v>
+        <v>0.11450381679389747</v>
       </c>
       <c r="S336" s="9">
-        <v>0.97694411879639365</v>
+        <v>1.2114107073075397</v>
       </c>
       <c r="T336" s="9">
-        <v>-0.4420587306599234</v>
+        <v>-0.37890748342279401</v>
       </c>
       <c r="U336" s="9">
         <v>-0.82644628099173212</v>
@@ -55078,145 +55107,303 @@
         <v>0.29910269192422445</v>
       </c>
       <c r="W336" s="9">
-        <v>-0.53497127006142042</v>
+        <v>-0.55478502080444059</v>
       </c>
       <c r="X336" s="9">
         <v>-2.2055580061748101E-2</v>
       </c>
       <c r="Y336" s="9">
-        <v>0.24867374005305037</v>
+        <v>4.9734748010602535E-2</v>
       </c>
       <c r="Z336" s="9">
-        <v>1.0352941176470536</v>
+        <v>1.0823529411764761</v>
       </c>
       <c r="AA336" s="9">
-        <v>0</v>
+        <v>0.41220115416323161</v>
       </c>
       <c r="AB336" s="9">
-        <v>-0.11441647597254005</v>
+        <v>-0.34324942791762014</v>
       </c>
       <c r="AC336" s="9">
-        <v>1.3086150490730675</v>
+        <v>1.199563794983636</v>
       </c>
       <c r="AD336" s="9">
-        <v>0.17452006980801799</v>
+        <v>0.40721349621872516</v>
       </c>
       <c r="AE336" s="9">
-        <v>3.5272277227722881</v>
+        <v>3.4034653465346536</v>
       </c>
       <c r="AF336" s="9">
         <v>0.1111111111111048</v>
       </c>
       <c r="AG336" s="9">
-        <v>0.34190817323345962</v>
+        <v>0.39075219798110994</v>
       </c>
       <c r="AH336" s="9">
-        <v>-0.37796976241900038</v>
+        <v>0.21598272138229252</v>
       </c>
       <c r="AI336" s="9">
-        <v>8.9729431253447997E-2</v>
+        <v>9.663169519603057E-2</v>
       </c>
       <c r="AJ336" s="9">
-        <v>0.77235772357724197</v>
+        <v>0.74525745257452569</v>
       </c>
       <c r="AK336" s="9">
         <v>-1.820388349514563</v>
       </c>
       <c r="AL336" s="9">
-        <v>0.42172523961660757</v>
+        <v>0.48562300319488233</v>
       </c>
       <c r="AM336" s="9">
         <v>0.51428571428571757</v>
       </c>
       <c r="AN336" s="9">
-        <v>-5.7244501940491554</v>
+        <v>-5.3686934023285788</v>
       </c>
       <c r="AO336" s="9">
-        <v>-0.87570621468927201</v>
+        <v>-0.42372881355932202</v>
       </c>
       <c r="AP336" s="9">
         <v>0</v>
       </c>
       <c r="AQ336" s="9">
-        <v>-8.1455335324466846E-2</v>
+        <v>5.4303556882972746E-2</v>
       </c>
       <c r="AR336" s="9">
         <v>0.37878787878787518</v>
       </c>
       <c r="AS336" s="9">
-        <v>6.9686411149828431E-2</v>
+        <v>9.2915214866429105E-2</v>
       </c>
       <c r="AT336" s="9">
         <v>0.22697962342017491</v>
       </c>
       <c r="AU336" s="9">
-        <v>2.2643062988884313</v>
+        <v>2.2231370934540986</v>
       </c>
       <c r="AV336" s="9">
         <v>-0.35650623885918509</v>
       </c>
       <c r="AW336" s="9">
-        <v>-0.4043502509760305</v>
+        <v>-1.882320133853876</v>
       </c>
       <c r="AX336" s="9">
-        <v>0.62669376693767709</v>
+        <v>0.66056910569105309</v>
       </c>
       <c r="AY336" s="9">
-        <v>0.65019505851755521</v>
+        <v>0.78023407022105884</v>
       </c>
       <c r="AZ336" s="9">
-        <v>7.3295870999269819E-2</v>
+        <v>0.46420718299535235</v>
       </c>
       <c r="BA336" s="9">
         <v>-0.99573257467994725</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="7"/>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A337" s="7">
+        <v>43313</v>
+      </c>
+      <c r="B337" s="9">
+        <v>4.4764761179999103E-3</v>
+      </c>
+      <c r="C337" s="9">
+        <v>-5.185377236193639E-2</v>
+      </c>
+      <c r="D337" s="9">
+        <v>-0.74165636588381767</v>
+      </c>
+      <c r="E337" s="9">
+        <v>1.6839066634592252</v>
+      </c>
+      <c r="F337" s="9">
+        <v>-0.18876828692779879</v>
+      </c>
+      <c r="G337" s="9">
+        <v>1.532371845116786</v>
+      </c>
+      <c r="H337" s="9">
+        <v>1.3318284424379181</v>
+      </c>
+      <c r="I337" s="9">
+        <v>-2.2001725625539357</v>
+      </c>
+      <c r="J337" s="9">
+        <v>0.91185410334347805</v>
+      </c>
+      <c r="K337" s="9">
+        <v>-1.1221945137157061</v>
+      </c>
+      <c r="L337" s="9">
+        <v>0.23546458974822576</v>
+      </c>
+      <c r="M337" s="9">
+        <v>0.8701957940536621</v>
+      </c>
+      <c r="N337" s="9">
+        <v>5.1766639276910409</v>
+      </c>
+      <c r="O337" s="9">
+        <v>3.8211382113821162</v>
+      </c>
+      <c r="P337" s="9">
+        <v>1.2605042016806722</v>
+      </c>
+      <c r="Q337" s="9">
+        <v>-0.1394376016732565</v>
+      </c>
+      <c r="R337" s="9">
+        <v>0.26656511805026223</v>
+      </c>
+      <c r="S337" s="9">
+        <v>2.1815348656018791</v>
+      </c>
+      <c r="T337" s="9">
+        <v>3.1565656565645799E-2</v>
+      </c>
+      <c r="U337" s="9">
+        <v>-0.85758039816233123</v>
+      </c>
+      <c r="V337" s="9">
+        <v>0.49900199600798401</v>
+      </c>
+      <c r="W337" s="9">
+        <v>-1.1302795954788794</v>
+      </c>
+      <c r="X337" s="9">
+        <v>-0.11015642211940956</v>
+      </c>
+      <c r="Y337" s="9">
+        <v>-0.21519615957624039</v>
+      </c>
+      <c r="Z337" s="9">
+        <v>0.98499061913697139</v>
+      </c>
+      <c r="AA337" s="9">
+        <v>0.57660626029653095</v>
+      </c>
+      <c r="AB337" s="9">
+        <v>-0.75497597803706507</v>
+      </c>
+      <c r="AC337" s="9">
+        <v>1.6411378555798686</v>
+      </c>
+      <c r="AD337" s="9">
+        <v>-1.1507479861910241</v>
+      </c>
+      <c r="AE337" s="9">
+        <v>3.5758323057953221</v>
+      </c>
+      <c r="AF337" s="9">
+        <v>-2.1668472372697725</v>
+      </c>
+      <c r="AG337" s="9">
+        <v>0.30864197530863829</v>
+      </c>
+      <c r="AH337" s="9">
+        <v>5.3792361484666117E-2</v>
+      </c>
+      <c r="AI337" s="9">
+        <v>0.10350538227987854</v>
+      </c>
+      <c r="AJ337" s="9">
+        <v>0.65093572009764966</v>
+      </c>
+      <c r="AK337" s="9">
+        <v>-1.5757575757575724</v>
+      </c>
+      <c r="AL337" s="9">
+        <v>1.0090688465959863</v>
+      </c>
+      <c r="AM337" s="9">
+        <v>0.65770660566199934</v>
+      </c>
+      <c r="AN337" s="9">
+        <v>-5.4404145077720241</v>
+      </c>
+      <c r="AO337" s="9">
+        <v>-0.59363957597173789</v>
+      </c>
+      <c r="AP337" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ337" s="9">
+        <v>0.68212824010914053</v>
+      </c>
+      <c r="AR337" s="9">
+        <v>0.63051702395964693</v>
+      </c>
+      <c r="AS337" s="9">
+        <v>0.74332171893147247</v>
+      </c>
+      <c r="AT337" s="9">
+        <v>0.22707333436547783</v>
+      </c>
+      <c r="AU337" s="9">
+        <v>2.2652388797364083</v>
+      </c>
+      <c r="AV337" s="9">
+        <v>-1.0714285714285741</v>
+      </c>
+      <c r="AW337" s="9">
+        <v>-1.8670753796851176</v>
+      </c>
+      <c r="AX337" s="9">
+        <v>1.2267848014994116</v>
+      </c>
+      <c r="AY337" s="9">
+        <v>0.91086532205595683</v>
+      </c>
+      <c r="AZ337" s="9">
+        <v>1.9438976377952839</v>
+      </c>
+      <c r="BA337" s="9">
+        <v>-0.14224751066855523</v>
+      </c>
+    </row>
+    <row r="338" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A338" s="7"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A339" s="7"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A340" s="7"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A341" s="7"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A342" s="7"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A343" s="7"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A344" s="7"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A345" s="7"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A346" s="7"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A347" s="7"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A348" s="7"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A349" s="7"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A350" s="7"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A351" s="7"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A352" s="7"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\xoou6HaVQ0qYEmlcX95SMw==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1991 -- August 2018</t>
+    <t>Government Employment; Year/Year: January 1991 -- September 2018</t>
   </si>
 </sst>
 </file>
@@ -1697,8 +1697,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV340" sqref="AV340"/>
+      <pane ySplit="5" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55044,7 +55044,7 @@
         <v>43282</v>
       </c>
       <c r="B336" s="9">
-        <v>7.6144405625727843E-2</v>
+        <v>0.22843321687718354</v>
       </c>
       <c r="C336" s="9">
         <v>-0.33739942901635384</v>
@@ -55205,58 +55205,58 @@
         <v>43313</v>
       </c>
       <c r="B337" s="9">
-        <v>4.4764761179999103E-3</v>
+        <v>0.24172971037199514</v>
       </c>
       <c r="C337" s="9">
-        <v>-5.185377236193639E-2</v>
+        <v>-7.7780658542911954E-2</v>
       </c>
       <c r="D337" s="9">
         <v>-0.74165636588381767</v>
       </c>
       <c r="E337" s="9">
-        <v>1.6839066634592252</v>
+        <v>1.6357950445032503</v>
       </c>
       <c r="F337" s="9">
-        <v>-0.18876828692779879</v>
+        <v>-0.14157621519585245</v>
       </c>
       <c r="G337" s="9">
-        <v>1.532371845116786</v>
+        <v>1.6303495845743814</v>
       </c>
       <c r="H337" s="9">
-        <v>1.3318284424379181</v>
+        <v>1.4446952595936744</v>
       </c>
       <c r="I337" s="9">
-        <v>-2.2001725625539357</v>
+        <v>-2.0276100086281348</v>
       </c>
       <c r="J337" s="9">
-        <v>0.91185410334347805</v>
+        <v>1.2158054711246158</v>
       </c>
       <c r="K337" s="9">
-        <v>-1.1221945137157061</v>
+        <v>-1.2884455527847025</v>
       </c>
       <c r="L337" s="9">
-        <v>0.23546458974822576</v>
+        <v>0.18112660749864154</v>
       </c>
       <c r="M337" s="9">
-        <v>0.8701957940536621</v>
+        <v>0.81218274111675459</v>
       </c>
       <c r="N337" s="9">
-        <v>5.1766639276910409</v>
+        <v>5.0123253903040208</v>
       </c>
       <c r="O337" s="9">
-        <v>3.8211382113821162</v>
+        <v>3.5772357723577279</v>
       </c>
       <c r="P337" s="9">
-        <v>1.2605042016806722</v>
+        <v>1.2244897959183729</v>
       </c>
       <c r="Q337" s="9">
-        <v>-0.1394376016732565</v>
+        <v>-6.971880083662825E-2</v>
       </c>
       <c r="R337" s="9">
-        <v>0.26656511805026223</v>
+        <v>0.38080731150038077</v>
       </c>
       <c r="S337" s="9">
-        <v>2.1815348656018791</v>
+        <v>2.6490066225165609</v>
       </c>
       <c r="T337" s="9">
         <v>3.1565656565645799E-2</v>
@@ -55268,76 +55268,76 @@
         <v>0.49900199600798401</v>
       </c>
       <c r="W337" s="9">
-        <v>-1.1302795954788794</v>
+        <v>-1.0509617291294886</v>
       </c>
       <c r="X337" s="9">
-        <v>-0.11015642211940956</v>
+        <v>-0.1542189909671709</v>
       </c>
       <c r="Y337" s="9">
-        <v>-0.21519615957624039</v>
+        <v>0.34762456546929693</v>
       </c>
       <c r="Z337" s="9">
-        <v>0.98499061913697139</v>
+        <v>1.0318949343339667</v>
       </c>
       <c r="AA337" s="9">
         <v>0.57660626029653095</v>
       </c>
       <c r="AB337" s="9">
-        <v>-0.75497597803706507</v>
+        <v>-0.64058567833447988</v>
       </c>
       <c r="AC337" s="9">
-        <v>1.6411378555798686</v>
+        <v>1.7505470459518537</v>
       </c>
       <c r="AD337" s="9">
-        <v>-1.1507479861910241</v>
+        <v>-1.0932105868814761</v>
       </c>
       <c r="AE337" s="9">
-        <v>3.5758323057953221</v>
+        <v>3.2675709001233115</v>
       </c>
       <c r="AF337" s="9">
-        <v>-2.1668472372697725</v>
+        <v>-1.8418201516793096</v>
       </c>
       <c r="AG337" s="9">
-        <v>0.30864197530863829</v>
+        <v>0.29239766081870605</v>
       </c>
       <c r="AH337" s="9">
-        <v>5.3792361484666117E-2</v>
+        <v>0.48413125336202562</v>
       </c>
       <c r="AI337" s="9">
         <v>0.10350538227987854</v>
       </c>
       <c r="AJ337" s="9">
-        <v>0.65093572009764966</v>
+        <v>0.71874152427448723</v>
       </c>
       <c r="AK337" s="9">
-        <v>-1.5757575757575724</v>
+        <v>-1.8181818181818181</v>
       </c>
       <c r="AL337" s="9">
-        <v>1.0090688465959863</v>
+        <v>1.3283944309618057</v>
       </c>
       <c r="AM337" s="9">
-        <v>0.65770660566199934</v>
+        <v>0.60051472690878549</v>
       </c>
       <c r="AN337" s="9">
-        <v>-5.4404145077720241</v>
+        <v>-5.051813471502598</v>
       </c>
       <c r="AO337" s="9">
-        <v>-0.59363957597173789</v>
+        <v>-0.16961130742050112</v>
       </c>
       <c r="AP337" s="9">
         <v>0</v>
       </c>
       <c r="AQ337" s="9">
-        <v>0.68212824010914053</v>
+        <v>0.57298772169168422</v>
       </c>
       <c r="AR337" s="9">
-        <v>0.63051702395964693</v>
+        <v>0.75662042875158708</v>
       </c>
       <c r="AS337" s="9">
-        <v>0.74332171893147247</v>
+        <v>0.83623693379791464</v>
       </c>
       <c r="AT337" s="9">
-        <v>0.22707333436547783</v>
+        <v>0.14450121277803346</v>
       </c>
       <c r="AU337" s="9">
         <v>2.2652388797364083</v>
@@ -55346,23 +55346,181 @@
         <v>-1.0714285714285741</v>
       </c>
       <c r="AW337" s="9">
-        <v>-1.8670753796851176</v>
+        <v>-2.0064093632437077</v>
       </c>
       <c r="AX337" s="9">
         <v>1.2267848014994116</v>
       </c>
       <c r="AY337" s="9">
-        <v>0.91086532205595683</v>
+        <v>0.97592713077423554</v>
       </c>
       <c r="AZ337" s="9">
-        <v>1.9438976377952839</v>
+        <v>1.9931102362204782</v>
       </c>
       <c r="BA337" s="9">
-        <v>-0.14224751066855523</v>
+        <v>-0.8534850640113717</v>
       </c>
     </row>
     <row r="338" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A338" s="7"/>
+      <c r="A338" s="7">
+        <v>43344</v>
+      </c>
+      <c r="B338" s="9">
+        <v>0.30890450821506915</v>
+      </c>
+      <c r="C338" s="9">
+        <v>-0.15572281339216787</v>
+      </c>
+      <c r="D338" s="9">
+        <v>-0.61957868649318459</v>
+      </c>
+      <c r="E338" s="9">
+        <v>0.72167428433966807</v>
+      </c>
+      <c r="F338" s="9">
+        <v>0</v>
+      </c>
+      <c r="G338" s="9">
+        <v>1.6668623077826179</v>
+      </c>
+      <c r="H338" s="9">
+        <v>2.040353661301292</v>
+      </c>
+      <c r="I338" s="9">
+        <v>-1.5144958892254434</v>
+      </c>
+      <c r="J338" s="9">
+        <v>0.90771558245084516</v>
+      </c>
+      <c r="K338" s="9">
+        <v>-1.3305613305613258</v>
+      </c>
+      <c r="L338" s="9">
+        <v>-0.16257225433525599</v>
+      </c>
+      <c r="M338" s="9">
+        <v>1.001451378809866</v>
+      </c>
+      <c r="N338" s="9">
+        <v>-0.4765687053216906</v>
+      </c>
+      <c r="O338" s="9">
+        <v>3.0744336569579382</v>
+      </c>
+      <c r="P338" s="9">
+        <v>1.3091520538073478</v>
+      </c>
+      <c r="Q338" s="9">
+        <v>0.37638202775816648</v>
+      </c>
+      <c r="R338" s="9">
+        <v>-0.45924225028702198</v>
+      </c>
+      <c r="S338" s="9">
+        <v>1.9577133907595814</v>
+      </c>
+      <c r="T338" s="9">
+        <v>-9.4876660341559574E-2</v>
+      </c>
+      <c r="U338" s="9">
+        <v>-0.79730144127568914</v>
+      </c>
+      <c r="V338" s="9">
+        <v>0.3988035892323088</v>
+      </c>
+      <c r="W338" s="9">
+        <v>-0.37810945273631391</v>
+      </c>
+      <c r="X338" s="9">
+        <v>0.53262316910785112</v>
+      </c>
+      <c r="Y338" s="9">
+        <v>0.72499588070521959</v>
+      </c>
+      <c r="Z338" s="9">
+        <v>1.0056127221702418</v>
+      </c>
+      <c r="AA338" s="9">
+        <v>1.155115511551148</v>
+      </c>
+      <c r="AB338" s="9">
+        <v>0.11504832029452369</v>
+      </c>
+      <c r="AC338" s="9">
+        <v>1.2008733624454242</v>
+      </c>
+      <c r="AD338" s="9">
+        <v>0.23148148148146833</v>
+      </c>
+      <c r="AE338" s="9">
+        <v>3.0042918454935656</v>
+      </c>
+      <c r="AF338" s="9">
+        <v>0.77777777777778101</v>
+      </c>
+      <c r="AG338" s="9">
+        <v>0.17874553136171964</v>
+      </c>
+      <c r="AH338" s="9">
+        <v>0.37614185921548471</v>
+      </c>
+      <c r="AI338" s="9">
+        <v>0.13805480775868018</v>
+      </c>
+      <c r="AJ338" s="9">
+        <v>0.61033500610335012</v>
+      </c>
+      <c r="AK338" s="9">
+        <v>-2.7845036319612557</v>
+      </c>
+      <c r="AL338" s="9">
+        <v>0.93136004082675028</v>
+      </c>
+      <c r="AM338" s="9">
+        <v>0.37026488180004397</v>
+      </c>
+      <c r="AN338" s="9">
+        <v>-5.448098001289484</v>
+      </c>
+      <c r="AO338" s="9">
+        <v>-0.1561169457848457</v>
+      </c>
+      <c r="AP338" s="9">
+        <v>-0.65789473684210298</v>
+      </c>
+      <c r="AQ338" s="9">
+        <v>0.60142154182613139</v>
+      </c>
+      <c r="AR338" s="9">
+        <v>0.62893081761006298</v>
+      </c>
+      <c r="AS338" s="9">
+        <v>0.812630601346645</v>
+      </c>
+      <c r="AT338" s="9">
+        <v>0.20149832084733094</v>
+      </c>
+      <c r="AU338" s="9">
+        <v>2.4640657084188913</v>
+      </c>
+      <c r="AV338" s="9">
+        <v>-0.53763440860214551</v>
+      </c>
+      <c r="AW338" s="9">
+        <v>-2.3806209104830724</v>
+      </c>
+      <c r="AX338" s="9">
+        <v>0.79661016949153318</v>
+      </c>
+      <c r="AY338" s="9">
+        <v>0.97592713077423554</v>
+      </c>
+      <c r="AZ338" s="9">
+        <v>1.4198286413708718</v>
+      </c>
+      <c r="BA338" s="9">
+        <v>-1.2820512820512902</v>
+      </c>
     </row>
     <row r="339" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A339" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1991 -- September 2018</t>
+    <t>Government Employment; Year/Year: January 1991 -- October 2018</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1698,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B339" sqref="B339"/>
+      <selection pane="bottomLeft" activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55205,7 +55205,7 @@
         <v>43313</v>
       </c>
       <c r="B337" s="9">
-        <v>0.24172971037199514</v>
+        <v>0.25515913872599494</v>
       </c>
       <c r="C337" s="9">
         <v>-7.7780658542911954E-2</v>
@@ -55366,164 +55366,322 @@
         <v>43344</v>
       </c>
       <c r="B338" s="9">
-        <v>0.30890450821506915</v>
+        <v>0.25070510811657787</v>
       </c>
       <c r="C338" s="9">
-        <v>-0.15572281339216787</v>
+        <v>0.57098364910459076</v>
       </c>
       <c r="D338" s="9">
-        <v>-0.61957868649318459</v>
+        <v>-0.49566294919455473</v>
       </c>
       <c r="E338" s="9">
-        <v>0.72167428433966807</v>
+        <v>0.5051719990377731</v>
       </c>
       <c r="F338" s="9">
-        <v>0</v>
+        <v>-9.4517958412092928E-2</v>
       </c>
       <c r="G338" s="9">
-        <v>1.6668623077826179</v>
+        <v>1.7881597996635084</v>
       </c>
       <c r="H338" s="9">
-        <v>2.040353661301292</v>
+        <v>1.4962593516209397</v>
       </c>
       <c r="I338" s="9">
-        <v>-1.5144958892254434</v>
+        <v>-1.5577672003461682</v>
       </c>
       <c r="J338" s="9">
-        <v>0.90771558245084516</v>
+        <v>1.2102874432677935</v>
       </c>
       <c r="K338" s="9">
         <v>-1.3305613305613258</v>
       </c>
       <c r="L338" s="9">
-        <v>-0.16257225433525599</v>
+        <v>-0.42449421965318329</v>
       </c>
       <c r="M338" s="9">
-        <v>1.001451378809866</v>
+        <v>0.59506531204644741</v>
       </c>
       <c r="N338" s="9">
-        <v>-0.4765687053216906</v>
+        <v>-0.55599682287530006</v>
       </c>
       <c r="O338" s="9">
-        <v>3.0744336569579382</v>
+        <v>2.5080906148867386</v>
       </c>
       <c r="P338" s="9">
-        <v>1.3091520538073478</v>
+        <v>1.5373528705260575</v>
       </c>
       <c r="Q338" s="9">
-        <v>0.37638202775816648</v>
+        <v>0.25876264408373695</v>
       </c>
       <c r="R338" s="9">
-        <v>-0.45924225028702198</v>
+        <v>-0.49751243781094961</v>
       </c>
       <c r="S338" s="9">
-        <v>1.9577133907595814</v>
+        <v>1.9185591229444032</v>
       </c>
       <c r="T338" s="9">
-        <v>-9.4876660341559574E-2</v>
+        <v>-0.18975332068310119</v>
       </c>
       <c r="U338" s="9">
-        <v>-0.79730144127568914</v>
+        <v>-0.70530512112849164</v>
       </c>
       <c r="V338" s="9">
-        <v>0.3988035892323088</v>
+        <v>0.29910269192422445</v>
       </c>
       <c r="W338" s="9">
-        <v>-0.37810945273631391</v>
+        <v>-0.15920398009950476</v>
       </c>
       <c r="X338" s="9">
-        <v>0.53262316910785112</v>
+        <v>0.42166000887704769</v>
       </c>
       <c r="Y338" s="9">
-        <v>0.72499588070521959</v>
+        <v>0.64260998517053503</v>
       </c>
       <c r="Z338" s="9">
-        <v>1.0056127221702418</v>
+        <v>0.95884003741813983</v>
       </c>
       <c r="AA338" s="9">
-        <v>1.155115511551148</v>
+        <v>1.1963696369636987</v>
       </c>
       <c r="AB338" s="9">
-        <v>0.11504832029452369</v>
+        <v>0</v>
       </c>
       <c r="AC338" s="9">
         <v>1.2008733624454242</v>
       </c>
       <c r="AD338" s="9">
-        <v>0.23148148148146833</v>
+        <v>0.28935185185185186</v>
       </c>
       <c r="AE338" s="9">
-        <v>3.0042918454935656</v>
+        <v>2.5751072961373493</v>
       </c>
       <c r="AF338" s="9">
         <v>0.77777777777778101</v>
       </c>
       <c r="AG338" s="9">
-        <v>0.17874553136171964</v>
+        <v>0.11374715632109936</v>
       </c>
       <c r="AH338" s="9">
-        <v>0.37614185921548471</v>
+        <v>0.48361096184847163</v>
       </c>
       <c r="AI338" s="9">
-        <v>0.13805480775868018</v>
+        <v>0.13115206737073676</v>
       </c>
       <c r="AJ338" s="9">
-        <v>0.61033500610335012</v>
+        <v>0.43401600434016624</v>
       </c>
       <c r="AK338" s="9">
-        <v>-2.7845036319612557</v>
+        <v>-2.5423728813559254</v>
       </c>
       <c r="AL338" s="9">
-        <v>0.93136004082675028</v>
+        <v>0.9568767542740495</v>
       </c>
       <c r="AM338" s="9">
-        <v>0.37026488180004397</v>
+        <v>0.34178296781543394</v>
       </c>
       <c r="AN338" s="9">
-        <v>-5.448098001289484</v>
+        <v>-4.8033526756930938</v>
       </c>
       <c r="AO338" s="9">
-        <v>-0.1561169457848457</v>
+        <v>-0.26965654271927009</v>
       </c>
       <c r="AP338" s="9">
-        <v>-0.65789473684210298</v>
+        <v>-0.49342105263157432</v>
       </c>
       <c r="AQ338" s="9">
-        <v>0.60142154182613139</v>
+        <v>0.79278294149808026</v>
       </c>
       <c r="AR338" s="9">
-        <v>0.62893081761006298</v>
+        <v>0.75471698113206831</v>
       </c>
       <c r="AS338" s="9">
-        <v>0.812630601346645</v>
+        <v>0.74297654980264427</v>
       </c>
       <c r="AT338" s="9">
-        <v>0.20149832084733094</v>
+        <v>0.21699819168173834</v>
       </c>
       <c r="AU338" s="9">
-        <v>2.4640657084188913</v>
+        <v>2.5872689938398405</v>
       </c>
       <c r="AV338" s="9">
-        <v>-0.53763440860214551</v>
+        <v>-0.35842293906809275</v>
       </c>
       <c r="AW338" s="9">
-        <v>-2.3806209104830724</v>
+        <v>-2.5616037867186381</v>
       </c>
       <c r="AX338" s="9">
-        <v>0.79661016949153318</v>
+        <v>0.93220338983050854</v>
       </c>
       <c r="AY338" s="9">
-        <v>0.97592713077423554</v>
+        <v>1.0409889394925327</v>
       </c>
       <c r="AZ338" s="9">
-        <v>1.4198286413708718</v>
+        <v>0.36719706242350064</v>
       </c>
       <c r="BA338" s="9">
-        <v>-1.2820512820512902</v>
+        <v>-1.1396011396011354</v>
       </c>
     </row>
     <row r="339" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A339" s="7"/>
+      <c r="A339" s="7">
+        <v>43374</v>
+      </c>
+      <c r="B339" s="9">
+        <v>0.29555326675921362</v>
+      </c>
+      <c r="C339" s="9">
+        <v>0.52015604681404426</v>
+      </c>
+      <c r="D339" s="9">
+        <v>-0.24721878862793922</v>
+      </c>
+      <c r="E339" s="9">
+        <v>0.99490414947827366</v>
+      </c>
+      <c r="F339" s="9">
+        <v>0</v>
+      </c>
+      <c r="G339" s="9">
+        <v>1.4199572067691111</v>
+      </c>
+      <c r="H339" s="9">
+        <v>2.2212044882070048</v>
+      </c>
+      <c r="I339" s="9">
+        <v>-1.470588235294108</v>
+      </c>
+      <c r="J339" s="9">
+        <v>0.90225563909773576</v>
+      </c>
+      <c r="K339" s="9">
+        <v>-0.91858037578287621</v>
+      </c>
+      <c r="L339" s="9">
+        <v>-0.80324909747293249</v>
+      </c>
+      <c r="M339" s="9">
+        <v>0.21701388888888887</v>
+      </c>
+      <c r="N339" s="9">
+        <v>-0.2392344497607746</v>
+      </c>
+      <c r="O339" s="9">
+        <v>2.3387096774193594</v>
+      </c>
+      <c r="P339" s="9">
+        <v>1.7790599831710625</v>
+      </c>
+      <c r="Q339" s="9">
+        <v>-2.3457658925644553E-2</v>
+      </c>
+      <c r="R339" s="9">
+        <v>-0.34628703347440454</v>
+      </c>
+      <c r="S339" s="9">
+        <v>0.93530787217458189</v>
+      </c>
+      <c r="T339" s="9">
+        <v>-0.15883100381194409</v>
+      </c>
+      <c r="U339" s="9">
+        <v>-0.85731781996326117</v>
+      </c>
+      <c r="V339" s="9">
+        <v>0.60120240480962783</v>
+      </c>
+      <c r="W339" s="9">
+        <v>7.9522862823057108E-2</v>
+      </c>
+      <c r="X339" s="9">
+        <v>6.6386368665636505E-2</v>
+      </c>
+      <c r="Y339" s="9">
+        <v>0.47579983593108732</v>
+      </c>
+      <c r="Z339" s="9">
+        <v>0.77120822622108232</v>
+      </c>
+      <c r="AA339" s="9">
+        <v>0.69930069930070637</v>
+      </c>
+      <c r="AB339" s="9">
+        <v>0.18454440599769581</v>
+      </c>
+      <c r="AC339" s="9">
+        <v>0.65430752453652596</v>
+      </c>
+      <c r="AD339" s="9">
+        <v>0.29052876234747238</v>
+      </c>
+      <c r="AE339" s="9">
+        <v>1.5262515262515262</v>
+      </c>
+      <c r="AF339" s="9">
+        <v>1.2208657047724847</v>
+      </c>
+      <c r="AG339" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH339" s="9">
+        <v>0.26780931976432781</v>
+      </c>
+      <c r="AI339" s="9">
+        <v>0.11046672190002133</v>
+      </c>
+      <c r="AJ339" s="9">
+        <v>0.51742919389979147</v>
+      </c>
+      <c r="AK339" s="9">
+        <v>-1.9464720194647307</v>
+      </c>
+      <c r="AL339" s="9">
+        <v>1.1633853234466771</v>
+      </c>
+      <c r="AM339" s="9">
+        <v>0.22779043280182557</v>
+      </c>
+      <c r="AN339" s="9">
+        <v>-4.0168448331713567</v>
+      </c>
+      <c r="AO339" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP339" s="9">
+        <v>-0.49261083743841899</v>
+      </c>
+      <c r="AQ339" s="9">
+        <v>0.46321525885558268</v>
+      </c>
+      <c r="AR339" s="9">
+        <v>0.75376884422111623</v>
+      </c>
+      <c r="AS339" s="9">
+        <v>0.25415896487984424</v>
+      </c>
+      <c r="AT339" s="9">
+        <v>3.0932618446146774E-2</v>
+      </c>
+      <c r="AU339" s="9">
+        <v>2.3692810457516269</v>
+      </c>
+      <c r="AV339" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW339" s="9">
+        <v>-2.626431964235814</v>
+      </c>
+      <c r="AX339" s="9">
+        <v>1.6112618724559022</v>
+      </c>
+      <c r="AY339" s="9">
+        <v>1.2369791666666705</v>
+      </c>
+      <c r="AZ339" s="9">
+        <v>-0.12236906510034262</v>
+      </c>
+      <c r="BA339" s="9">
+        <v>-0.85836909871245848</v>
+      </c>
     </row>
     <row r="340" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A340" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1991 -- October 2018</t>
+    <t>Government Employment; Year/Year: January 1991 -- November 2018</t>
   </si>
 </sst>
 </file>
@@ -1697,41 +1697,44 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A339" sqref="A339"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="5"/>
-    <col min="2" max="2" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="36" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="47" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="47" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="54" max="16384" width="12" style="5"/>
   </cols>
   <sheetData>
@@ -55366,7 +55369,7 @@
         <v>43344</v>
       </c>
       <c r="B338" s="9">
-        <v>0.25070510811657787</v>
+        <v>0.27308949276984373</v>
       </c>
       <c r="C338" s="9">
         <v>0.57098364910459076</v>
@@ -55527,164 +55530,322 @@
         <v>43374</v>
       </c>
       <c r="B339" s="9">
-        <v>0.29555326675921362</v>
+        <v>0.23733822936724733</v>
       </c>
       <c r="C339" s="9">
-        <v>0.52015604681404426</v>
+        <v>0.54616384915475236</v>
       </c>
       <c r="D339" s="9">
-        <v>-0.24721878862793922</v>
+        <v>-0.37082818294191761</v>
       </c>
       <c r="E339" s="9">
-        <v>0.99490414947827366</v>
+        <v>1.0677020140742481</v>
       </c>
       <c r="F339" s="9">
-        <v>0</v>
+        <v>4.7281323877065871E-2</v>
       </c>
       <c r="G339" s="9">
-        <v>1.4199572067691111</v>
+        <v>1.2799066329507913</v>
       </c>
       <c r="H339" s="9">
-        <v>2.2212044882070048</v>
+        <v>2.0151133501259473</v>
       </c>
       <c r="I339" s="9">
-        <v>-1.470588235294108</v>
+        <v>-1.427335640138401</v>
       </c>
       <c r="J339" s="9">
-        <v>0.90225563909773576</v>
+        <v>1.3533834586466251</v>
       </c>
       <c r="K339" s="9">
-        <v>-0.91858037578287621</v>
+        <v>-1.0438413361169103</v>
       </c>
       <c r="L339" s="9">
-        <v>-0.80324909747293249</v>
+        <v>-0.81227436823104682</v>
       </c>
       <c r="M339" s="9">
-        <v>0.21701388888888887</v>
+        <v>0.17361111111110122</v>
       </c>
       <c r="N339" s="9">
-        <v>-0.2392344497607746</v>
+        <v>-0.31897926634769191</v>
       </c>
       <c r="O339" s="9">
-        <v>2.3387096774193594</v>
+        <v>2.4193548387096775</v>
       </c>
       <c r="P339" s="9">
-        <v>1.7790599831710625</v>
+        <v>1.634811876427458</v>
       </c>
       <c r="Q339" s="9">
-        <v>-2.3457658925644553E-2</v>
+        <v>-4.691531785127577E-2</v>
       </c>
       <c r="R339" s="9">
-        <v>-0.34628703347440454</v>
+        <v>-0.11542901115812025</v>
       </c>
       <c r="S339" s="9">
-        <v>0.93530787217458189</v>
+        <v>1.0911925175370047</v>
       </c>
       <c r="T339" s="9">
         <v>-0.15883100381194409</v>
       </c>
       <c r="U339" s="9">
-        <v>-0.85731781996326117</v>
+        <v>-0.88793631353338465</v>
       </c>
       <c r="V339" s="9">
-        <v>0.60120240480962783</v>
+        <v>0.50100200400801598</v>
       </c>
       <c r="W339" s="9">
-        <v>7.9522862823057108E-2</v>
+        <v>0.11928429423459697</v>
       </c>
       <c r="X339" s="9">
-        <v>6.6386368665636505E-2</v>
+        <v>2.2128789555216362E-2</v>
       </c>
       <c r="Y339" s="9">
-        <v>0.47579983593108732</v>
+        <v>0.49220672682526662</v>
       </c>
       <c r="Z339" s="9">
-        <v>0.77120822622108232</v>
+        <v>0.63098854872634857</v>
       </c>
       <c r="AA339" s="9">
         <v>0.69930069930070637</v>
       </c>
       <c r="AB339" s="9">
-        <v>0.18454440599769581</v>
+        <v>0.16147635524797893</v>
       </c>
       <c r="AC339" s="9">
         <v>0.65430752453652596</v>
       </c>
       <c r="AD339" s="9">
-        <v>0.29052876234747238</v>
+        <v>0.11621150493899887</v>
       </c>
       <c r="AE339" s="9">
-        <v>1.5262515262515262</v>
+        <v>1.7704517704517566</v>
       </c>
       <c r="AF339" s="9">
-        <v>1.2208657047724847</v>
+        <v>0.55493895671476146</v>
       </c>
       <c r="AG339" s="9">
         <v>0</v>
       </c>
       <c r="AH339" s="9">
-        <v>0.26780931976432781</v>
+        <v>0.32137118371720552</v>
       </c>
       <c r="AI339" s="9">
-        <v>0.11046672190002133</v>
+        <v>0.11737089201876677</v>
       </c>
       <c r="AJ339" s="9">
-        <v>0.51742919389979147</v>
+        <v>0.49019607843137569</v>
       </c>
       <c r="AK339" s="9">
         <v>-1.9464720194647307</v>
       </c>
       <c r="AL339" s="9">
-        <v>1.1633853234466771</v>
+        <v>1.112247507031441</v>
       </c>
       <c r="AM339" s="9">
         <v>0.22779043280182557</v>
       </c>
       <c r="AN339" s="9">
-        <v>-4.0168448331713567</v>
+        <v>-4.114026563006151</v>
       </c>
       <c r="AO339" s="9">
-        <v>0</v>
+        <v>-9.9686698946175656E-2</v>
       </c>
       <c r="AP339" s="9">
         <v>-0.49261083743841899</v>
       </c>
       <c r="AQ339" s="9">
-        <v>0.46321525885558268</v>
+        <v>0.51771117166211911</v>
       </c>
       <c r="AR339" s="9">
-        <v>0.75376884422111623</v>
+        <v>0.8793969849246267</v>
       </c>
       <c r="AS339" s="9">
-        <v>0.25415896487984424</v>
+        <v>0.20794824399260103</v>
       </c>
       <c r="AT339" s="9">
-        <v>3.0932618446146774E-2</v>
+        <v>4.1243491261532941E-2</v>
       </c>
       <c r="AU339" s="9">
-        <v>2.3692810457516269</v>
+        <v>2.4101307189542389</v>
       </c>
       <c r="AV339" s="9">
         <v>0</v>
       </c>
       <c r="AW339" s="9">
-        <v>-2.626431964235814</v>
+        <v>-2.5426096675048804</v>
       </c>
       <c r="AX339" s="9">
-        <v>1.6112618724559022</v>
+        <v>0.74626865671641396</v>
       </c>
       <c r="AY339" s="9">
-        <v>1.2369791666666705</v>
+        <v>1.1718750000000075</v>
       </c>
       <c r="AZ339" s="9">
-        <v>-0.12236906510034262</v>
+        <v>-0.29368575624083343</v>
       </c>
       <c r="BA339" s="9">
-        <v>-0.85836909871245848</v>
+        <v>-0.57224606580830562</v>
       </c>
     </row>
     <row r="340" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A340" s="7"/>
+      <c r="A340" s="7">
+        <v>43405</v>
+      </c>
+      <c r="B340" s="9">
+        <v>0.21495745633676669</v>
+      </c>
+      <c r="C340" s="9">
+        <v>0.54573804573803686</v>
+      </c>
+      <c r="D340" s="9">
+        <v>-0.24752475247525105</v>
+      </c>
+      <c r="E340" s="9">
+        <v>1.11461109764963</v>
+      </c>
+      <c r="F340" s="9">
+        <v>9.4607379375585915E-2</v>
+      </c>
+      <c r="G340" s="9">
+        <v>1.2234910277324633</v>
+      </c>
+      <c r="H340" s="9">
+        <v>1.5692517625653934</v>
+      </c>
+      <c r="I340" s="9">
+        <v>-1.427335640138401</v>
+      </c>
+      <c r="J340" s="9">
+        <v>1.0526315789473728</v>
+      </c>
+      <c r="K340" s="9">
+        <v>-1.0878661087866086</v>
+      </c>
+      <c r="L340" s="9">
+        <v>-0.86548864046160612</v>
+      </c>
+      <c r="M340" s="9">
+        <v>0.34732272069464215</v>
+      </c>
+      <c r="N340" s="9">
+        <v>2.9220779220779174</v>
+      </c>
+      <c r="O340" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="P340" s="9">
+        <v>1.7805582290664046</v>
+      </c>
+      <c r="Q340" s="9">
+        <v>0.11734334663224594</v>
+      </c>
+      <c r="R340" s="9">
+        <v>0.11556240369797939</v>
+      </c>
+      <c r="S340" s="9">
+        <v>1.0911925175370047</v>
+      </c>
+      <c r="T340" s="9">
+        <v>-9.5268339155272955E-2</v>
+      </c>
+      <c r="U340" s="9">
+        <v>-0.64377682403432435</v>
+      </c>
+      <c r="V340" s="9">
+        <v>0.19980019980020267</v>
+      </c>
+      <c r="W340" s="9">
+        <v>0.11916583912612169</v>
+      </c>
+      <c r="X340" s="9">
+        <v>-4.4228217602828093E-2</v>
+      </c>
+      <c r="Y340" s="9">
+        <v>0.70561207745324395</v>
+      </c>
+      <c r="Z340" s="9">
+        <v>0.51401869158878233</v>
+      </c>
+      <c r="AA340" s="9">
+        <v>0.82236842105263153</v>
+      </c>
+      <c r="AB340" s="9">
+        <v>0.27726432532347239</v>
+      </c>
+      <c r="AC340" s="9">
+        <v>0.76335877862595725</v>
+      </c>
+      <c r="AD340" s="9">
+        <v>0.29002320185614849</v>
+      </c>
+      <c r="AE340" s="9">
+        <v>2.7472527472527473</v>
+      </c>
+      <c r="AF340" s="9">
+        <v>1.1123470522803114</v>
+      </c>
+      <c r="AG340" s="9">
+        <v>-0.16252234682268815</v>
+      </c>
+      <c r="AH340" s="9">
+        <v>0.32085561497325898</v>
+      </c>
+      <c r="AI340" s="9">
+        <v>0.17260425296879314</v>
+      </c>
+      <c r="AJ340" s="9">
+        <v>0.51735874744723676</v>
+      </c>
+      <c r="AK340" s="9">
+        <v>-1.2239902080783354</v>
+      </c>
+      <c r="AL340" s="9">
+        <v>1.0226255912054198</v>
+      </c>
+      <c r="AM340" s="9">
+        <v>0.22779043280182557</v>
+      </c>
+      <c r="AN340" s="9">
+        <v>-3.9805825242718482</v>
+      </c>
+      <c r="AO340" s="9">
+        <v>2.8518465706551473E-2</v>
+      </c>
+      <c r="AP340" s="9">
+        <v>-0.32840722495894209</v>
+      </c>
+      <c r="AQ340" s="9">
+        <v>0.90040927694406869</v>
+      </c>
+      <c r="AR340" s="9">
+        <v>0.87719298245614397</v>
+      </c>
+      <c r="AS340" s="9">
+        <v>0.37002775208141137</v>
+      </c>
+      <c r="AT340" s="9">
+        <v>8.7592745259689075E-2</v>
+      </c>
+      <c r="AU340" s="9">
+        <v>2.2412387938060307</v>
+      </c>
+      <c r="AV340" s="9">
+        <v>0.17921146953405273</v>
+      </c>
+      <c r="AW340" s="9">
+        <v>-2.2476615943040499</v>
+      </c>
+      <c r="AX340" s="9">
+        <v>0.44060328757838041</v>
+      </c>
+      <c r="AY340" s="9">
+        <v>1.041666666666663</v>
+      </c>
+      <c r="AZ340" s="9">
+        <v>0.81521739130435056</v>
+      </c>
+      <c r="BA340" s="9">
+        <v>-0.28776978417266597</v>
+      </c>
     </row>
     <row r="341" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A341" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1991 -- November 2018</t>
+    <t>Government Employment; Year/Year: January 1991 -- December 2018</t>
   </si>
 </sst>
 </file>
@@ -52149,7 +52149,7 @@
         <v>42736</v>
       </c>
       <c r="B318" s="8">
-        <v>0.90444534888979333</v>
+        <v>0.8635110086351101</v>
       </c>
       <c r="C318" s="8">
         <v>0.86659663865546521</v>
@@ -52310,7 +52310,7 @@
         <v>42767</v>
       </c>
       <c r="B319" s="8">
-        <v>0.77242750022585593</v>
+        <v>0.79024610521562422</v>
       </c>
       <c r="C319" s="8">
         <v>0.86659663865546521</v>
@@ -52471,7 +52471,7 @@
         <v>42795</v>
       </c>
       <c r="B320" s="8">
-        <v>0.63590853741036402</v>
+        <v>0.65816165532164272</v>
       </c>
       <c r="C320" s="8">
         <v>0.8923884514435636</v>
@@ -52632,7 +52632,7 @@
         <v>42826</v>
       </c>
       <c r="B321" s="8">
-        <v>0.62226631194480775</v>
+        <v>0.64446347289197348</v>
       </c>
       <c r="C321" s="8">
         <v>0.86546026750590388</v>
@@ -52793,7 +52793,7 @@
         <v>42856</v>
       </c>
       <c r="B322" s="8">
-        <v>0.5137217790996349</v>
+        <v>0.61722832942872596</v>
       </c>
       <c r="C322" s="8">
         <v>0.89145254326167644</v>
@@ -52954,7 +52954,7 @@
         <v>42887</v>
       </c>
       <c r="B323" s="9">
-        <v>0.61747870374543656</v>
+        <v>0.68909606809890556</v>
       </c>
       <c r="C323" s="9">
         <v>0.86387434554974118</v>
@@ -53115,7 +53115,7 @@
         <v>42917</v>
       </c>
       <c r="B324" s="9">
-        <v>0.20196580045778917</v>
+        <v>0.31392950040362366</v>
       </c>
       <c r="C324" s="9">
         <v>0.62679550796553518</v>
@@ -53276,7 +53276,7 @@
         <v>42948</v>
       </c>
       <c r="B325" s="9">
-        <v>0.24681385747621615</v>
+        <v>0.40411297202640206</v>
       </c>
       <c r="C325" s="9">
         <v>0.46887210210992741</v>
@@ -53437,7 +53437,7 @@
         <v>42979</v>
       </c>
       <c r="B326" s="9">
-        <v>0.12550988390335738</v>
+        <v>0.30050233225690709</v>
       </c>
       <c r="C326" s="9">
         <v>0.46936114732725198</v>
@@ -53598,7 +53598,7 @@
         <v>43009</v>
       </c>
       <c r="B327" s="9">
-        <v>0.13901345291479822</v>
+        <v>0.35884094375168207</v>
       </c>
       <c r="C327" s="9">
         <v>0.2607561929595828</v>
@@ -53759,7 +53759,7 @@
         <v>43040</v>
       </c>
       <c r="B328" s="9">
-        <v>0.14351062875594225</v>
+        <v>0.45780969479353684</v>
       </c>
       <c r="C328" s="9">
         <v>0.33898305084746061</v>
@@ -53920,7 +53920,7 @@
         <v>43070</v>
       </c>
       <c r="B329" s="9">
-        <v>0.11207746794584417</v>
+        <v>0.38109756097560976</v>
       </c>
       <c r="C329" s="9">
         <v>0.13024225058609012</v>
@@ -54081,7 +54081,7 @@
         <v>43101</v>
       </c>
       <c r="B330" s="9">
-        <v>2.6890153722045441E-2</v>
+        <v>0.2868668758404303</v>
       </c>
       <c r="C330" s="9">
         <v>0.10413954699296465</v>
@@ -54242,7 +54242,7 @@
         <v>43132</v>
       </c>
       <c r="B331" s="9">
-        <v>5.827244609798736E-2</v>
+        <v>0.35842293906810035</v>
       </c>
       <c r="C331" s="9">
         <v>0.31241864097890876</v>
@@ -54403,7 +54403,7 @@
         <v>43160</v>
       </c>
       <c r="B332" s="9">
-        <v>4.4814914403513491E-2</v>
+        <v>0.35827847194231716</v>
       </c>
       <c r="C332" s="9">
         <v>0.44224765868887761</v>
@@ -54564,7 +54564,7 @@
         <v>43191</v>
       </c>
       <c r="B333" s="9">
-        <v>4.4812906116961683E-2</v>
+        <v>0.39853125559734909</v>
       </c>
       <c r="C333" s="9">
         <v>0.4420176807072253</v>
@@ -54725,7 +54725,7 @@
         <v>43221</v>
       </c>
       <c r="B334" s="11">
-        <v>0.12553239184039452</v>
+        <v>0.42090180450454484</v>
       </c>
       <c r="C334" s="11">
         <v>0.23388773388772796</v>
@@ -54886,7 +54886,7 @@
         <v>43252</v>
       </c>
       <c r="B335" s="11">
-        <v>0.11198709908618526</v>
+        <v>0.43388799427446767</v>
       </c>
       <c r="C335" s="11">
         <v>-0.28549182455230282</v>
@@ -55047,7 +55047,7 @@
         <v>43282</v>
       </c>
       <c r="B336" s="9">
-        <v>0.22843321687718354</v>
+        <v>0.4023605150214592</v>
       </c>
       <c r="C336" s="9">
         <v>-0.33739942901635384</v>
@@ -55208,7 +55208,7 @@
         <v>43313</v>
       </c>
       <c r="B337" s="9">
-        <v>0.25515913872599494</v>
+        <v>0.59478556415187156</v>
       </c>
       <c r="C337" s="9">
         <v>-7.7780658542911954E-2</v>
@@ -55369,7 +55369,7 @@
         <v>43344</v>
       </c>
       <c r="B338" s="9">
-        <v>0.27308949276984373</v>
+        <v>0.5857890265170147</v>
       </c>
       <c r="C338" s="9">
         <v>0.57098364910459076</v>
@@ -55530,7 +55530,7 @@
         <v>43374</v>
       </c>
       <c r="B339" s="9">
-        <v>0.23733822936724733</v>
+        <v>0.50058103155448286</v>
       </c>
       <c r="C339" s="9">
         <v>0.54616384915475236</v>
@@ -55691,88 +55691,88 @@
         <v>43405</v>
       </c>
       <c r="B340" s="9">
-        <v>0.21495745633676669</v>
+        <v>0.4467875971763024</v>
       </c>
       <c r="C340" s="9">
-        <v>0.54573804573803686</v>
+        <v>0.72765072765073058</v>
       </c>
       <c r="D340" s="9">
         <v>-0.24752475247525105</v>
       </c>
       <c r="E340" s="9">
-        <v>1.11461109764963</v>
+        <v>0.96922704143445593</v>
       </c>
       <c r="F340" s="9">
-        <v>9.4607379375585915E-2</v>
+        <v>4.7303689687792957E-2</v>
       </c>
       <c r="G340" s="9">
-        <v>1.2234910277324633</v>
+        <v>1.2778684067427986</v>
       </c>
       <c r="H340" s="9">
-        <v>1.5692517625653934</v>
+        <v>1.5010234250625478</v>
       </c>
       <c r="I340" s="9">
-        <v>-1.427335640138401</v>
+        <v>-1.3840830449826942</v>
       </c>
       <c r="J340" s="9">
-        <v>1.0526315789473728</v>
+        <v>0.90225563909773576</v>
       </c>
       <c r="K340" s="9">
-        <v>-1.0878661087866086</v>
+        <v>-0.87866108786610642</v>
       </c>
       <c r="L340" s="9">
-        <v>-0.86548864046160612</v>
+        <v>-0.76631806707536965</v>
       </c>
       <c r="M340" s="9">
-        <v>0.34732272069464215</v>
+        <v>0.47756874095513091</v>
       </c>
       <c r="N340" s="9">
-        <v>2.9220779220779174</v>
+        <v>3.490259740259738</v>
       </c>
       <c r="O340" s="9">
         <v>1.6</v>
       </c>
       <c r="P340" s="9">
-        <v>1.7805582290664046</v>
+        <v>2.1655437921077958</v>
       </c>
       <c r="Q340" s="9">
-        <v>0.11734334663224594</v>
+        <v>0.16428068528514167</v>
       </c>
       <c r="R340" s="9">
-        <v>0.11556240369797939</v>
+        <v>3.8520801232652502E-2</v>
       </c>
       <c r="S340" s="9">
-        <v>1.0911925175370047</v>
+        <v>1.1301636788776217</v>
       </c>
       <c r="T340" s="9">
-        <v>-9.5268339155272955E-2</v>
+        <v>-0.15878056525881235</v>
       </c>
       <c r="U340" s="9">
         <v>-0.64377682403432435</v>
       </c>
       <c r="V340" s="9">
-        <v>0.19980019980020267</v>
+        <v>9.9900099900108424E-2</v>
       </c>
       <c r="W340" s="9">
-        <v>0.11916583912612169</v>
+        <v>-0.17874875868917126</v>
       </c>
       <c r="X340" s="9">
-        <v>-4.4228217602828093E-2</v>
+        <v>6.6342326404248433E-2</v>
       </c>
       <c r="Y340" s="9">
-        <v>0.70561207745324395</v>
+        <v>0.55792582868394769</v>
       </c>
       <c r="Z340" s="9">
-        <v>0.51401869158878233</v>
+        <v>0.44392523364485448</v>
       </c>
       <c r="AA340" s="9">
-        <v>0.82236842105263153</v>
+        <v>0.78125000000000244</v>
       </c>
       <c r="AB340" s="9">
-        <v>0.27726432532347239</v>
+        <v>0.3234750462107156</v>
       </c>
       <c r="AC340" s="9">
-        <v>0.76335877862595725</v>
+        <v>0.98146128680478895</v>
       </c>
       <c r="AD340" s="9">
         <v>0.29002320185614849</v>
@@ -55781,7 +55781,7 @@
         <v>2.7472527472527473</v>
       </c>
       <c r="AF340" s="9">
-        <v>1.1123470522803114</v>
+        <v>1.2235817575083363</v>
       </c>
       <c r="AG340" s="9">
         <v>-0.16252234682268815</v>
@@ -55790,13 +55790,13 @@
         <v>0.32085561497325898</v>
       </c>
       <c r="AI340" s="9">
-        <v>0.17260425296879314</v>
+        <v>0.17950842308753859</v>
       </c>
       <c r="AJ340" s="9">
-        <v>0.51735874744723676</v>
+        <v>0.54458815520762416</v>
       </c>
       <c r="AK340" s="9">
-        <v>-1.2239902080783354</v>
+        <v>-1.3463892288861794</v>
       </c>
       <c r="AL340" s="9">
         <v>1.0226255912054198</v>
@@ -55805,25 +55805,25 @@
         <v>0.22779043280182557</v>
       </c>
       <c r="AN340" s="9">
-        <v>-3.9805825242718482</v>
+        <v>-3.8511326860841346</v>
       </c>
       <c r="AO340" s="9">
-        <v>2.8518465706551473E-2</v>
+        <v>-8.5555397119621998E-2</v>
       </c>
       <c r="AP340" s="9">
         <v>-0.32840722495894209</v>
       </c>
       <c r="AQ340" s="9">
-        <v>0.90040927694406869</v>
+        <v>0.84583901773534043</v>
       </c>
       <c r="AR340" s="9">
-        <v>0.87719298245614397</v>
+        <v>0.75187969924813103</v>
       </c>
       <c r="AS340" s="9">
-        <v>0.37002775208141137</v>
+        <v>0.39315448658650448</v>
       </c>
       <c r="AT340" s="9">
-        <v>8.7592745259689075E-2</v>
+        <v>0.11850783182192676</v>
       </c>
       <c r="AU340" s="9">
         <v>2.2412387938060307</v>
@@ -55832,23 +55832,181 @@
         <v>0.17921146953405273</v>
       </c>
       <c r="AW340" s="9">
-        <v>-2.2476615943040499</v>
+        <v>-2.3872679045092711</v>
       </c>
       <c r="AX340" s="9">
-        <v>0.44060328757838041</v>
+        <v>0.83036773428232113</v>
       </c>
       <c r="AY340" s="9">
-        <v>1.041666666666663</v>
+        <v>1.1718750000000075</v>
       </c>
       <c r="AZ340" s="9">
-        <v>0.81521739130435056</v>
+        <v>1.2104743083003897</v>
       </c>
       <c r="BA340" s="9">
-        <v>-0.28776978417266597</v>
+        <v>-0.14388489208632277</v>
       </c>
     </row>
     <row r="341" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A341" s="7"/>
+      <c r="A341" s="7">
+        <v>43435</v>
+      </c>
+      <c r="B341" s="9">
+        <v>0.48684621912546344</v>
+      </c>
+      <c r="C341" s="9">
+        <v>1.222684703433935</v>
+      </c>
+      <c r="D341" s="9">
+        <v>-0.24875621890547614</v>
+      </c>
+      <c r="E341" s="9">
+        <v>1.0419190695420431</v>
+      </c>
+      <c r="F341" s="9">
+        <v>4.7326076668241512E-2</v>
+      </c>
+      <c r="G341" s="9">
+        <v>1.1748284285215844</v>
+      </c>
+      <c r="H341" s="9">
+        <v>1.5909090909090908</v>
+      </c>
+      <c r="I341" s="9">
+        <v>-1.5577672003461682</v>
+      </c>
+      <c r="J341" s="9">
+        <v>1.2048192771084292</v>
+      </c>
+      <c r="K341" s="9">
+        <v>-0.62893081761006298</v>
+      </c>
+      <c r="L341" s="9">
+        <v>-0.88177073960771823</v>
+      </c>
+      <c r="M341" s="9">
+        <v>1.0635198135198234</v>
+      </c>
+      <c r="N341" s="9">
+        <v>0.47808764940238591</v>
+      </c>
+      <c r="O341" s="9">
+        <v>2.1582733812949666</v>
+      </c>
+      <c r="P341" s="9">
+        <v>2.9730380356283157</v>
+      </c>
+      <c r="Q341" s="9">
+        <v>0.42253521126760829</v>
+      </c>
+      <c r="R341" s="9">
+        <v>0.42438271604939154</v>
+      </c>
+      <c r="S341" s="9">
+        <v>1.1292834890965644</v>
+      </c>
+      <c r="T341" s="9">
+        <v>-0.22250476795932783</v>
+      </c>
+      <c r="U341" s="9">
+        <v>-0.583538083538094</v>
+      </c>
+      <c r="V341" s="9">
+        <v>0.20040080160320925</v>
+      </c>
+      <c r="W341" s="9">
+        <v>-1.9864918553827157E-2</v>
+      </c>
+      <c r="X341" s="9">
+        <v>-4.4169611307417984E-2</v>
+      </c>
+      <c r="Y341" s="9">
+        <v>0.36065573770492548</v>
+      </c>
+      <c r="Z341" s="9">
+        <v>0.65573770491803551</v>
+      </c>
+      <c r="AA341" s="9">
+        <v>0.57589469354175471</v>
+      </c>
+      <c r="AB341" s="9">
+        <v>0.50890585241730013</v>
+      </c>
+      <c r="AC341" s="9">
+        <v>1.3086150490730675</v>
+      </c>
+      <c r="AD341" s="9">
+        <v>0.69767441860464452</v>
+      </c>
+      <c r="AE341" s="9">
+        <v>3.3700980392156867</v>
+      </c>
+      <c r="AF341" s="9">
+        <v>1.336302895322943</v>
+      </c>
+      <c r="AG341" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH341" s="9">
+        <v>0.42735042735043349</v>
+      </c>
+      <c r="AI341" s="9">
+        <v>0.14491753502174706</v>
+      </c>
+      <c r="AJ341" s="9">
+        <v>0.61266167460857723</v>
+      </c>
+      <c r="AK341" s="9">
+        <v>-0.73529411764705188</v>
+      </c>
+      <c r="AL341" s="9">
+        <v>1.496163682864456</v>
+      </c>
+      <c r="AM341" s="9">
+        <v>0.34188034188033861</v>
+      </c>
+      <c r="AN341" s="9">
+        <v>-3.8399483704420709</v>
+      </c>
+      <c r="AO341" s="9">
+        <v>0.30012862655422451</v>
+      </c>
+      <c r="AP341" s="9">
+        <v>-0.16420361247947687</v>
+      </c>
+      <c r="AQ341" s="9">
+        <v>0.81788440567066523</v>
+      </c>
+      <c r="AR341" s="9">
+        <v>0.7528230865746478</v>
+      </c>
+      <c r="AS341" s="9">
+        <v>0.74263170109075094</v>
+      </c>
+      <c r="AT341" s="9">
+        <v>0.1544242549029701</v>
+      </c>
+      <c r="AU341" s="9">
+        <v>2.2792022792022886</v>
+      </c>
+      <c r="AV341" s="9">
+        <v>-0.1788908765652977</v>
+      </c>
+      <c r="AW341" s="9">
+        <v>-2.2203602848764108</v>
+      </c>
+      <c r="AX341" s="9">
+        <v>0.99881496529540836</v>
+      </c>
+      <c r="AY341" s="9">
+        <v>1.3671874999999964</v>
+      </c>
+      <c r="AZ341" s="9">
+        <v>0.83682008368200278</v>
+      </c>
+      <c r="BA341" s="9">
+        <v>-0.14409221902018518</v>
+      </c>
     </row>
     <row r="342" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A342" s="7"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1991 -- February 2019</t>
+    <t>Government Employment; Year/Year: January 1991 -- March 2019</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1096,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1106,6 +1106,7 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="241">
     <cellStyle name="active" xfId="3"/>
@@ -56135,161 +56136,319 @@
         <v>0.46875</v>
       </c>
       <c r="C343" s="2">
-        <v>-5.1975051975049015E-2</v>
+        <v>0.10395010395009803</v>
       </c>
       <c r="D343" s="2">
-        <v>-0.37174721189590726</v>
+        <v>-0.24783147459727736</v>
       </c>
       <c r="E343" s="2">
-        <v>0.21739130434782059</v>
+        <v>0.31400966183575157</v>
       </c>
       <c r="F343" s="2">
         <v>0.56603773584905126</v>
       </c>
       <c r="G343" s="2">
-        <v>0.80111459421803533</v>
+        <v>0.95204922791129332</v>
       </c>
       <c r="H343" s="2">
-        <v>0.65536723163841293</v>
+        <v>0.70056497175141752</v>
       </c>
       <c r="I343" s="2">
-        <v>8.4459459459454655E-2</v>
+        <v>0.12668918918918198</v>
       </c>
       <c r="J343" s="2">
-        <v>0.60514372163389674</v>
+        <v>1.2102874432677935</v>
       </c>
       <c r="K343" s="2">
-        <v>-0.29288702928869814</v>
+        <v>-0.33472803347280811</v>
       </c>
       <c r="L343" s="2">
-        <v>0.50477735712997196</v>
+        <v>0.36956913647015582</v>
       </c>
       <c r="M343" s="2">
-        <v>4.3371403787762684E-2</v>
+        <v>0.28914269191846176</v>
       </c>
       <c r="N343" s="2">
-        <v>1.0366826156299818</v>
+        <v>1.1164274322168992</v>
       </c>
       <c r="O343" s="2">
-        <v>1.2841091492776955</v>
+        <v>1.5248796147672599</v>
       </c>
       <c r="P343" s="2">
-        <v>0.21818181818181268</v>
+        <v>0.23030303030302757</v>
       </c>
       <c r="Q343" s="2">
-        <v>0.51449953227314982</v>
+        <v>0.25724976613656825</v>
       </c>
       <c r="R343" s="2">
-        <v>-0.7296466973886242</v>
+        <v>-0.42242703533024806</v>
       </c>
       <c r="S343" s="2">
-        <v>0.62232594321274437</v>
+        <v>0.50563982886034786</v>
       </c>
       <c r="T343" s="2">
         <v>-0.4134860050890441</v>
       </c>
       <c r="U343" s="2">
-        <v>0.15332720024532351</v>
+        <v>0.27598896044157534</v>
       </c>
       <c r="V343" s="2">
-        <v>0.70000000000000284</v>
+        <v>0.5</v>
       </c>
       <c r="W343" s="2">
-        <v>9.8951118147635062E-2</v>
+        <v>7.9160894518103556E-2</v>
       </c>
       <c r="X343" s="2">
-        <v>1.0586678429642724</v>
+        <v>0.99250110277900316</v>
       </c>
       <c r="Y343" s="2">
-        <v>8.2467425366980054E-2</v>
+        <v>-6.5973940293580294E-2</v>
       </c>
       <c r="Z343" s="2">
         <v>-7.0488721804513946E-2</v>
       </c>
       <c r="AA343" s="2">
-        <v>0.45624222314392132</v>
+        <v>0.37328909166321267</v>
       </c>
       <c r="AB343" s="2">
-        <v>-0.11523392486748099</v>
+        <v>-4.6093569946989779E-2</v>
       </c>
       <c r="AC343" s="2">
-        <v>0.88888888888888573</v>
+        <v>0.77777777777778101</v>
       </c>
       <c r="AD343" s="2">
-        <v>0.92539039907460618</v>
+        <v>0.80971659919028671</v>
       </c>
       <c r="AE343" s="2">
-        <v>1.4879107253564645</v>
+        <v>0.99194048357098219</v>
       </c>
       <c r="AF343" s="2">
         <v>-0.66815144766146362</v>
       </c>
       <c r="AG343" s="2">
-        <v>0.40073468024711589</v>
+        <v>0.36734012355986734</v>
       </c>
       <c r="AH343" s="2">
-        <v>-0.80042689434364989</v>
+        <v>-0.96051227321238608</v>
       </c>
       <c r="AI343" s="2">
         <v>0.36395497742130239</v>
       </c>
       <c r="AJ343" s="2">
-        <v>-0.19130910084722291</v>
+        <v>-0.13664935774801859</v>
       </c>
       <c r="AK343" s="2">
-        <v>0.72904009720535667</v>
+        <v>0.36452004860266973</v>
       </c>
       <c r="AL343" s="2">
-        <v>-0.54966125527290743</v>
+        <v>-0.47296433593249798</v>
       </c>
       <c r="AM343" s="2">
-        <v>-8.6256469235195907E-2</v>
+        <v>-0.17251293847039181</v>
       </c>
       <c r="AN343" s="2">
-        <v>1.5986394557823091</v>
+        <v>0.98639455782312158</v>
       </c>
       <c r="AO343" s="2">
-        <v>9.9715099715106184E-2</v>
+        <v>0.1139601139601075</v>
       </c>
       <c r="AP343" s="2">
         <v>0.49342105263158592</v>
       </c>
       <c r="AQ343" s="2">
-        <v>1.1425462459194746</v>
+        <v>1.1153427638737665</v>
       </c>
       <c r="AR343" s="2">
         <v>1.0101010101010066</v>
       </c>
       <c r="AS343" s="2">
-        <v>1.0844485463774911</v>
+        <v>1.1536686663590219</v>
       </c>
       <c r="AT343" s="2">
-        <v>0.65769191244476177</v>
+        <v>0.54978933305929734</v>
       </c>
       <c r="AU343" s="2">
-        <v>1.867641088103936</v>
+        <v>1.9894437677628816</v>
       </c>
       <c r="AV343" s="2">
-        <v>2.1739130434782532</v>
+        <v>2.3550724637681109</v>
       </c>
       <c r="AW343" s="2">
-        <v>0.43043599000276433</v>
+        <v>0.47209108580949416</v>
       </c>
       <c r="AX343" s="2">
-        <v>-1.0198878123406425</v>
+        <v>-1.070882202957667</v>
       </c>
       <c r="AY343" s="2">
-        <v>-0.85245901639345001</v>
+        <v>-0.72131147540983231</v>
       </c>
       <c r="AZ343" s="2">
-        <v>-1.9324853228962899</v>
+        <v>-1.7367906066536258</v>
       </c>
       <c r="BA343" s="2">
+        <v>-0.14513788098694996</v>
+      </c>
+    </row>
+    <row r="344" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B344" s="9">
+        <v>0.49087420232942119</v>
+      </c>
+      <c r="C344" s="9">
+        <v>7.7922077922080876E-2</v>
+      </c>
+      <c r="D344" s="9">
+        <v>-0.24813895781636308</v>
+      </c>
+      <c r="E344" s="9">
+        <v>0.45893719806762739</v>
+      </c>
+      <c r="F344" s="9">
+        <v>0.32956685499057842</v>
+      </c>
+      <c r="G344" s="9">
+        <v>0.95952952100906064</v>
+      </c>
+      <c r="H344" s="9">
+        <v>0.69930069930069161</v>
+      </c>
+      <c r="I344" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A344" s="1"/>
+      <c r="J344" s="9">
+        <v>2.127659574468094</v>
+      </c>
+      <c r="K344" s="9">
+        <v>-0.29313232830821484</v>
+      </c>
+      <c r="L344" s="9">
+        <v>0.14404033129277427</v>
+      </c>
+      <c r="M344" s="9">
+        <v>0.34697123030215077</v>
+      </c>
+      <c r="N344" s="9">
+        <v>1.0383386581469625</v>
+      </c>
+      <c r="O344" s="9">
+        <v>1.4457831325301183</v>
+      </c>
+      <c r="P344" s="9">
+        <v>0.13315579227696678</v>
+      </c>
+      <c r="Q344" s="9">
+        <v>0.72548560730165357</v>
+      </c>
+      <c r="R344" s="9">
+        <v>-0.57603686635944706</v>
+      </c>
+      <c r="S344" s="9">
+        <v>0.23346303501946408</v>
+      </c>
+      <c r="T344" s="9">
+        <v>-0.50825921219822834</v>
+      </c>
+      <c r="U344" s="9">
+        <v>-0.12202562538134049</v>
+      </c>
+      <c r="V344" s="9">
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="W344" s="9">
+        <v>5.9335443037965688E-2</v>
+      </c>
+      <c r="X344" s="9">
+        <v>0.99535500995354997</v>
+      </c>
+      <c r="Y344" s="9">
+        <v>-0.28011204481791596</v>
+      </c>
+      <c r="Z344" s="9">
+        <v>-4.7014574518097943E-2</v>
+      </c>
+      <c r="AA344" s="9">
+        <v>0.29021558872305853</v>
+      </c>
+      <c r="AB344" s="9">
+        <v>0.18424689083371981</v>
+      </c>
+      <c r="AC344" s="9">
+        <v>0.77864293659620532</v>
+      </c>
+      <c r="AD344" s="9">
+        <v>0.40415704387991752</v>
+      </c>
+      <c r="AE344" s="9">
+        <v>1.6169154228855687</v>
+      </c>
+      <c r="AF344" s="9">
+        <v>-0.77605321507760849</v>
+      </c>
+      <c r="AG344" s="9">
+        <v>0.46861924686191708</v>
+      </c>
+      <c r="AH344" s="9">
+        <v>-0.85515766969534701</v>
+      </c>
+      <c r="AI344" s="9">
+        <v>0.29651593773164386</v>
+      </c>
+      <c r="AJ344" s="9">
+        <v>-0.17740174672488462</v>
+      </c>
+      <c r="AK344" s="9">
+        <v>-0.3636363636363602</v>
+      </c>
+      <c r="AL344" s="9">
+        <v>-0.52376085845681009</v>
+      </c>
+      <c r="AM344" s="9">
+        <v>-0.25891829689299023</v>
+      </c>
+      <c r="AN344" s="9">
+        <v>1.4295439074200098</v>
+      </c>
+      <c r="AO344" s="9">
+        <v>1.4236902050117134E-2</v>
+      </c>
+      <c r="AP344" s="9">
+        <v>1.1532125205930737</v>
+      </c>
+      <c r="AQ344" s="9">
+        <v>1.3340593520283086</v>
+      </c>
+      <c r="AR344" s="9">
+        <v>1.0088272383354315</v>
+      </c>
+      <c r="AS344" s="9">
+        <v>1.1290322580645109</v>
+      </c>
+      <c r="AT344" s="9">
+        <v>0.44610809147779945</v>
+      </c>
+      <c r="AU344" s="9">
+        <v>1.9066937119675411</v>
+      </c>
+      <c r="AV344" s="9">
+        <v>1.431127012522369</v>
+      </c>
+      <c r="AW344" s="9">
+        <v>0.4576341700180217</v>
+      </c>
+      <c r="AX344" s="9">
+        <v>-1.1726716519374536</v>
+      </c>
+      <c r="AY344" s="9">
+        <v>0.19841269841270595</v>
+      </c>
+      <c r="AZ344" s="9">
+        <v>-0.78508341511286683</v>
+      </c>
+      <c r="BA344" s="9">
+        <v>0.72886297376093301</v>
+      </c>
     </row>
     <row r="345" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1991 -- March 2019</t>
+    <t>Government Employment; Year/Year: January 1991 -- April 2019</t>
   </si>
 </sst>
 </file>
@@ -56133,7 +56133,7 @@
         <v>43497</v>
       </c>
       <c r="B343" s="2">
-        <v>0.46875</v>
+        <v>0.49107142857142855</v>
       </c>
       <c r="C343" s="2">
         <v>0.10395010395009803</v>
@@ -56294,10 +56294,10 @@
         <v>43525</v>
       </c>
       <c r="B344" s="9">
-        <v>0.49087420232942119</v>
+        <v>0.49533669507787048</v>
       </c>
       <c r="C344" s="9">
-        <v>7.7922077922080876E-2</v>
+        <v>0.10389610389609799</v>
       </c>
       <c r="D344" s="9">
         <v>-0.24813895781636308</v>
@@ -56306,152 +56306,310 @@
         <v>0.45893719806762739</v>
       </c>
       <c r="F344" s="9">
-        <v>0.32956685499057842</v>
+        <v>0.28248587570621198</v>
       </c>
       <c r="G344" s="9">
-        <v>0.95952952100906064</v>
+        <v>0.96726766230751382</v>
       </c>
       <c r="H344" s="9">
-        <v>0.69930069930069161</v>
+        <v>0.54139408978118142</v>
       </c>
       <c r="I344" s="9">
-        <v>0</v>
+        <v>-4.221190375685703E-2</v>
       </c>
       <c r="J344" s="9">
-        <v>2.127659574468094</v>
+        <v>1.9756838905775034</v>
       </c>
       <c r="K344" s="9">
-        <v>-0.29313232830821484</v>
+        <v>-0.16750418760469249</v>
       </c>
       <c r="L344" s="9">
-        <v>0.14404033129277427</v>
+        <v>0.22506301764494058</v>
       </c>
       <c r="M344" s="9">
-        <v>0.34697123030215077</v>
+        <v>0.47708544166545525</v>
       </c>
       <c r="N344" s="9">
         <v>1.0383386581469625</v>
       </c>
       <c r="O344" s="9">
-        <v>1.4457831325301183</v>
+        <v>1.2048192771084338</v>
       </c>
       <c r="P344" s="9">
-        <v>0.13315579227696678</v>
+        <v>0.15736593632731563</v>
       </c>
       <c r="Q344" s="9">
-        <v>0.72548560730165357</v>
+        <v>0.56166627662063595</v>
       </c>
       <c r="R344" s="9">
-        <v>-0.57603686635944706</v>
+        <v>-0.26881720430107092</v>
       </c>
       <c r="S344" s="9">
-        <v>0.23346303501946408</v>
+        <v>0.42801556420234355</v>
       </c>
       <c r="T344" s="9">
-        <v>-0.50825921219822834</v>
+        <v>-0.57179161372300236</v>
       </c>
       <c r="U344" s="9">
-        <v>-0.12202562538134049</v>
+        <v>-0.18303843807200204</v>
       </c>
       <c r="V344" s="9">
-        <v>0.29999999999999716</v>
+        <v>0.40000000000000563</v>
       </c>
       <c r="W344" s="9">
         <v>5.9335443037965688E-2</v>
       </c>
       <c r="X344" s="9">
-        <v>0.99535500995354997</v>
+        <v>1.0174740101747326</v>
       </c>
       <c r="Y344" s="9">
-        <v>-0.28011204481791596</v>
+        <v>-3.2954358213862549E-2</v>
       </c>
       <c r="Z344" s="9">
-        <v>-4.7014574518097943E-2</v>
+        <v>0</v>
       </c>
       <c r="AA344" s="9">
         <v>0.29021558872305853</v>
       </c>
       <c r="AB344" s="9">
-        <v>0.18424689083371981</v>
+        <v>0.23030861354214649</v>
       </c>
       <c r="AC344" s="9">
         <v>0.77864293659620532</v>
       </c>
       <c r="AD344" s="9">
-        <v>0.40415704387991752</v>
+        <v>0.34642032332564826</v>
       </c>
       <c r="AE344" s="9">
-        <v>1.6169154228855687</v>
+        <v>1.4303482587064571</v>
       </c>
       <c r="AF344" s="9">
-        <v>-0.77605321507760849</v>
+        <v>-0.88691796008868873</v>
       </c>
       <c r="AG344" s="9">
-        <v>0.46861924686191708</v>
+        <v>0.53556485355649297</v>
       </c>
       <c r="AH344" s="9">
         <v>-0.85515766969534701</v>
       </c>
       <c r="AI344" s="9">
-        <v>0.29651593773164386</v>
+        <v>0.3234719320708912</v>
       </c>
       <c r="AJ344" s="9">
-        <v>-0.17740174672488462</v>
+        <v>-0.15010917030566445</v>
       </c>
       <c r="AK344" s="9">
-        <v>-0.3636363636363602</v>
+        <v>-0.48484848484849169</v>
       </c>
       <c r="AL344" s="9">
-        <v>-0.52376085845681009</v>
+        <v>-0.4215636177823141</v>
       </c>
       <c r="AM344" s="9">
-        <v>-0.25891829689299023</v>
+        <v>-0.31645569620253816</v>
       </c>
       <c r="AN344" s="9">
         <v>1.4295439074200098</v>
       </c>
       <c r="AO344" s="9">
-        <v>1.4236902050117134E-2</v>
+        <v>0.1566059225512561</v>
       </c>
       <c r="AP344" s="9">
         <v>1.1532125205930737</v>
       </c>
       <c r="AQ344" s="9">
-        <v>1.3340593520283086</v>
+        <v>1.361285053090117</v>
       </c>
       <c r="AR344" s="9">
-        <v>1.0088272383354315</v>
+        <v>0.88272383354350925</v>
       </c>
       <c r="AS344" s="9">
-        <v>1.1290322580645109</v>
+        <v>1.1520737327188941</v>
       </c>
       <c r="AT344" s="9">
-        <v>0.44610809147779945</v>
+        <v>0.42559737462824088</v>
       </c>
       <c r="AU344" s="9">
-        <v>1.9066937119675411</v>
+        <v>1.9472616632860085</v>
       </c>
       <c r="AV344" s="9">
         <v>1.431127012522369</v>
       </c>
       <c r="AW344" s="9">
-        <v>0.4576341700180217</v>
+        <v>0.36056025516572221</v>
       </c>
       <c r="AX344" s="9">
-        <v>-1.1726716519374536</v>
+        <v>-1.1556764106050228</v>
       </c>
       <c r="AY344" s="9">
-        <v>0.19841269841270595</v>
+        <v>0.13227513227514356</v>
       </c>
       <c r="AZ344" s="9">
-        <v>-0.78508341511286683</v>
+        <v>-0.88321884200196821</v>
       </c>
       <c r="BA344" s="9">
         <v>0.72886297376093301</v>
       </c>
     </row>
     <row r="345" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A345" s="1"/>
+      <c r="A345" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B345" s="9">
+        <v>0.56197315017171401</v>
+      </c>
+      <c r="C345" s="9">
+        <v>0.18144116122342888</v>
+      </c>
+      <c r="D345" s="9">
+        <v>-0.24783147459727736</v>
+      </c>
+      <c r="E345" s="9">
+        <v>0.79864472410455267</v>
+      </c>
+      <c r="F345" s="9">
+        <v>0.61349693251532933</v>
+      </c>
+      <c r="G345" s="9">
+        <v>1.067491781086827</v>
+      </c>
+      <c r="H345" s="9">
+        <v>0.72120802343925816</v>
+      </c>
+      <c r="I345" s="9">
+        <v>0.33927056827819463</v>
+      </c>
+      <c r="J345" s="9">
+        <v>2.2796352583586628</v>
+      </c>
+      <c r="K345" s="9">
+        <v>-0.16736401673640405</v>
+      </c>
+      <c r="L345" s="9">
+        <v>0.2519798416126669</v>
+      </c>
+      <c r="M345" s="9">
+        <v>0.88380179658068803</v>
+      </c>
+      <c r="N345" s="9">
+        <v>1.7656500802568242</v>
+      </c>
+      <c r="O345" s="9">
+        <v>1.6064257028112447</v>
+      </c>
+      <c r="P345" s="9">
+        <v>0.32719340765874111</v>
+      </c>
+      <c r="Q345" s="9">
+        <v>0.46750818139317435</v>
+      </c>
+      <c r="R345" s="9">
+        <v>-0.38387715930902111</v>
+      </c>
+      <c r="S345" s="9">
+        <v>0.73786407766989415</v>
+      </c>
+      <c r="T345" s="9">
+        <v>-0.35065349059610007</v>
+      </c>
+      <c r="U345" s="9">
+        <v>-0.51781906792567434</v>
+      </c>
+      <c r="V345" s="9">
+        <v>0.29940119760478756</v>
+      </c>
+      <c r="W345" s="9">
+        <v>0.39666798889329635</v>
+      </c>
+      <c r="X345" s="9">
+        <v>1.0843106882053628</v>
+      </c>
+      <c r="Y345" s="9">
+        <v>0.29698069625473594</v>
+      </c>
+      <c r="Z345" s="9">
+        <v>7.0455612963835457E-2</v>
+      </c>
+      <c r="AA345" s="9">
+        <v>0.70598006644517797</v>
+      </c>
+      <c r="AB345" s="9">
+        <v>0.57616962433740493</v>
+      </c>
+      <c r="AC345" s="9">
+        <v>0.66592674805772312</v>
+      </c>
+      <c r="AD345" s="9">
+        <v>0.69364161849710326</v>
+      </c>
+      <c r="AE345" s="9">
+        <v>0.3105590062111801</v>
+      </c>
+      <c r="AF345" s="9">
+        <v>-1.1074197120708749</v>
+      </c>
+      <c r="AG345" s="9">
+        <v>0.56837178201270089</v>
+      </c>
+      <c r="AH345" s="9">
+        <v>-0.69667738478026953</v>
+      </c>
+      <c r="AI345" s="9">
+        <v>0.38391594261467266</v>
+      </c>
+      <c r="AJ345" s="9">
+        <v>-0.15000681849173722</v>
+      </c>
+      <c r="AK345" s="9">
+        <v>-0.12165450121655538</v>
+      </c>
+      <c r="AL345" s="9">
+        <v>-6.3987714358843109E-2</v>
+      </c>
+      <c r="AM345" s="9">
+        <v>-0.11530700490054116</v>
+      </c>
+      <c r="AN345" s="9">
+        <v>1.4610941216445841</v>
+      </c>
+      <c r="AO345" s="9">
+        <v>0.11384659171765397</v>
+      </c>
+      <c r="AP345" s="9">
+        <v>1.3179571663920875</v>
+      </c>
+      <c r="AQ345" s="9">
+        <v>1.4406088611035639</v>
+      </c>
+      <c r="AR345" s="9">
+        <v>1.1378002528445079</v>
+      </c>
+      <c r="AS345" s="9">
+        <v>1.0814542107685201</v>
+      </c>
+      <c r="AT345" s="9">
+        <v>0.5750962772785646</v>
+      </c>
+      <c r="AU345" s="9">
+        <v>1.9838056680161964</v>
+      </c>
+      <c r="AV345" s="9">
+        <v>2.1505376344086073</v>
+      </c>
+      <c r="AW345" s="9">
+        <v>0.40221914008321458</v>
+      </c>
+      <c r="AX345" s="9">
+        <v>-0.83304998299899535</v>
+      </c>
+      <c r="AY345" s="9">
+        <v>-0.65616797900262469</v>
+      </c>
+      <c r="AZ345" s="9">
+        <v>-0.46717482173591773</v>
+      </c>
+      <c r="BA345" s="9">
+        <v>-0.28985507246377223</v>
+      </c>
     </row>
     <row r="346" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>

--- a/static/data/historical/source/gov_employment_historical.xlsx
+++ b/static/data/historical/source/gov_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Government Employment; Year/Year: January 1991 -- April 2019</t>
+    <t>Government Employment; Year/Year: January 1991 -- May 2019</t>
   </si>
 </sst>
 </file>
@@ -1688,8 +1688,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F356" sqref="F356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56294,7 +56294,7 @@
         <v>43525</v>
       </c>
       <c r="B344" s="9">
-        <v>0.49533669507787048</v>
+        <v>0.45071176759337767</v>
       </c>
       <c r="C344" s="9">
         <v>0.10389610389609799</v>
@@ -56455,124 +56455,124 @@
         <v>43556</v>
       </c>
       <c r="B345" s="9">
-        <v>0.56197315017171401</v>
+        <v>0.48169127157575481</v>
       </c>
       <c r="C345" s="9">
-        <v>0.18144116122342888</v>
+        <v>0.33696215655780487</v>
       </c>
       <c r="D345" s="9">
-        <v>-0.24783147459727736</v>
+        <v>-0.37174721189590726</v>
       </c>
       <c r="E345" s="9">
-        <v>0.79864472410455267</v>
+        <v>0.99225556631171896</v>
       </c>
       <c r="F345" s="9">
-        <v>0.61349693251532933</v>
+        <v>0.66068900424728916</v>
       </c>
       <c r="G345" s="9">
-        <v>1.067491781086827</v>
+        <v>1.1177721910655616</v>
       </c>
       <c r="H345" s="9">
-        <v>0.72120802343925816</v>
+        <v>0.81135902636917356</v>
       </c>
       <c r="I345" s="9">
-        <v>0.33927056827819463</v>
+        <v>0.29686174724342179</v>
       </c>
       <c r="J345" s="9">
-        <v>2.2796352583586628</v>
+        <v>1.9756838905775034</v>
       </c>
       <c r="K345" s="9">
-        <v>-0.16736401673640405</v>
+        <v>-0.29288702928869814</v>
       </c>
       <c r="L345" s="9">
-        <v>0.2519798416126669</v>
+        <v>0.41396688264937986</v>
       </c>
       <c r="M345" s="9">
-        <v>0.88380179658068803</v>
+        <v>0.72442770211532892</v>
       </c>
       <c r="N345" s="9">
-        <v>1.7656500802568242</v>
+        <v>1.605136436597111</v>
       </c>
       <c r="O345" s="9">
-        <v>1.6064257028112447</v>
+        <v>1.5261044176706873</v>
       </c>
       <c r="P345" s="9">
-        <v>0.32719340765874111</v>
+        <v>0.48473097430925832</v>
       </c>
       <c r="Q345" s="9">
-        <v>0.46750818139317435</v>
+        <v>0.39738195418419558</v>
       </c>
       <c r="R345" s="9">
-        <v>-0.38387715930902111</v>
+        <v>-0.26871401151631041</v>
       </c>
       <c r="S345" s="9">
         <v>0.73786407766989415</v>
       </c>
       <c r="T345" s="9">
-        <v>-0.35065349059610007</v>
+        <v>-0.31877590054191901</v>
       </c>
       <c r="U345" s="9">
-        <v>-0.51781906792567434</v>
+        <v>-0.48735912275358589</v>
       </c>
       <c r="V345" s="9">
-        <v>0.29940119760478756</v>
+        <v>9.9800399201591145E-2</v>
       </c>
       <c r="W345" s="9">
-        <v>0.39666798889329635</v>
+        <v>0.37683458944863829</v>
       </c>
       <c r="X345" s="9">
-        <v>1.0843106882053628</v>
+        <v>1.1064394777605666</v>
       </c>
       <c r="Y345" s="9">
-        <v>0.29698069625473594</v>
+        <v>0.26398284111533127</v>
       </c>
       <c r="Z345" s="9">
-        <v>7.0455612963835457E-2</v>
+        <v>2.3485204321269583E-2</v>
       </c>
       <c r="AA345" s="9">
-        <v>0.70598006644517797</v>
+        <v>0.53986710963454432</v>
       </c>
       <c r="AB345" s="9">
-        <v>0.57616962433740493</v>
+        <v>0.64530997925789624</v>
       </c>
       <c r="AC345" s="9">
         <v>0.66592674805772312</v>
       </c>
       <c r="AD345" s="9">
-        <v>0.69364161849710326</v>
+        <v>1.0982658959537606</v>
       </c>
       <c r="AE345" s="9">
-        <v>0.3105590062111801</v>
+        <v>1.3664596273291856</v>
       </c>
       <c r="AF345" s="9">
-        <v>-1.1074197120708749</v>
+        <v>-0.99667774086377792</v>
       </c>
       <c r="AG345" s="9">
-        <v>0.56837178201270089</v>
+        <v>0.55165496489467647</v>
       </c>
       <c r="AH345" s="9">
-        <v>-0.69667738478026953</v>
+        <v>-0.64308681672025114</v>
       </c>
       <c r="AI345" s="9">
-        <v>0.38391594261467266</v>
+        <v>0.42432814710042127</v>
       </c>
       <c r="AJ345" s="9">
-        <v>-0.15000681849173722</v>
+        <v>-5.4547933996996763E-2</v>
       </c>
       <c r="AK345" s="9">
-        <v>-0.12165450121655538</v>
+        <v>0</v>
       </c>
       <c r="AL345" s="9">
-        <v>-6.3987714358843109E-2</v>
+        <v>-0.19196314307652931</v>
       </c>
       <c r="AM345" s="9">
-        <v>-0.11530700490054116</v>
+        <v>-0.23061400980108232</v>
       </c>
       <c r="AN345" s="9">
-        <v>1.4610941216445841</v>
+        <v>1.3931362555215649</v>
       </c>
       <c r="AO345" s="9">
-        <v>0.11384659171765397</v>
+        <v>0.22769318343530795</v>
       </c>
       <c r="AP345" s="9">
         <v>1.3179571663920875</v>
@@ -56581,38 +56581,196 @@
         <v>1.4406088611035639</v>
       </c>
       <c r="AR345" s="9">
-        <v>1.1378002528445079</v>
+        <v>1.0113780025284596</v>
       </c>
       <c r="AS345" s="9">
-        <v>1.0814542107685201</v>
+        <v>1.0584445467096102</v>
       </c>
       <c r="AT345" s="9">
-        <v>0.5750962772785646</v>
+        <v>0.56482670089858789</v>
       </c>
       <c r="AU345" s="9">
-        <v>1.9838056680161964</v>
+        <v>1.9028340080971613</v>
       </c>
       <c r="AV345" s="9">
-        <v>2.1505376344086073</v>
+        <v>1.9713261648745546</v>
       </c>
       <c r="AW345" s="9">
-        <v>0.40221914008321458</v>
+        <v>0.37447988904300217</v>
       </c>
       <c r="AX345" s="9">
-        <v>-0.83304998299899535</v>
+        <v>-0.79904794287658021</v>
       </c>
       <c r="AY345" s="9">
         <v>-0.65616797900262469</v>
       </c>
       <c r="AZ345" s="9">
-        <v>-0.46717482173591773</v>
+        <v>-0.71305630686008792</v>
       </c>
       <c r="BA345" s="9">
-        <v>-0.28985507246377223</v>
+        <v>-0.14492753623187582</v>
       </c>
     </row>
     <row r="346" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A346" s="1"/>
+      <c r="A346" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B346" s="9">
+        <v>0.3879252686493958</v>
+      </c>
+      <c r="C346" s="9">
+        <v>0.77800829875518662</v>
+      </c>
+      <c r="D346" s="9">
+        <v>-0.12422360248446498</v>
+      </c>
+      <c r="E346" s="9">
+        <v>0.69812229176697982</v>
+      </c>
+      <c r="F346" s="9">
+        <v>0.8045433033601459</v>
+      </c>
+      <c r="G346" s="9">
+        <v>1.1482698627488814</v>
+      </c>
+      <c r="H346" s="9">
+        <v>0.76370170709794116</v>
+      </c>
+      <c r="I346" s="9">
+        <v>0.12695725772322594</v>
+      </c>
+      <c r="J346" s="9">
+        <v>2.1212121212121295</v>
+      </c>
+      <c r="K346" s="9">
+        <v>-0.41893590280687054</v>
+      </c>
+      <c r="L346" s="9">
+        <v>0.52205220522051798</v>
+      </c>
+      <c r="M346" s="9">
+        <v>0.18707727730609702</v>
+      </c>
+      <c r="N346" s="9">
+        <v>0.63694267515924474</v>
+      </c>
+      <c r="O346" s="9">
+        <v>1.5261044176706873</v>
+      </c>
+      <c r="P346" s="9">
+        <v>0.49660852713178566</v>
+      </c>
+      <c r="Q346" s="9">
+        <v>-1.9612367328103368</v>
+      </c>
+      <c r="R346" s="9">
+        <v>-0.46065259117082102</v>
+      </c>
+      <c r="S346" s="9">
+        <v>1.0104935872522214</v>
+      </c>
+      <c r="T346" s="9">
+        <v>-0.50955414012739575</v>
+      </c>
+      <c r="U346" s="9">
+        <v>-0.33577533577534269</v>
+      </c>
+      <c r="V346" s="9">
+        <v>-9.9700897308070108E-2</v>
+      </c>
+      <c r="W346" s="9">
+        <v>0.6337888690829957</v>
+      </c>
+      <c r="X346" s="9">
+        <v>0.92694769366585483</v>
+      </c>
+      <c r="Y346" s="9">
+        <v>9.9058940069326223E-2</v>
+      </c>
+      <c r="Z346" s="9">
+        <v>7.0538443451683835E-2</v>
+      </c>
+      <c r="AA346" s="9">
+        <v>0.45700041545493264</v>
+      </c>
+      <c r="AB346" s="9">
+        <v>0.7612456747404871</v>
+      </c>
+      <c r="AC346" s="9">
+        <v>1.1098779134295229</v>
+      </c>
+      <c r="AD346" s="9">
+        <v>1.3832853025936631</v>
+      </c>
+      <c r="AE346" s="9">
+        <v>1.1815920398009807</v>
+      </c>
+      <c r="AF346" s="9">
+        <v>-1.3274336283185872</v>
+      </c>
+      <c r="AG346" s="9">
+        <v>0.65173796791443472</v>
+      </c>
+      <c r="AH346" s="9">
+        <v>-0.21609940572663733</v>
+      </c>
+      <c r="AI346" s="9">
+        <v>0.25529056096741382</v>
+      </c>
+      <c r="AJ346" s="9">
+        <v>-2.7196083763928715E-2</v>
+      </c>
+      <c r="AK346" s="9">
+        <v>-0.12121212121211432</v>
+      </c>
+      <c r="AL346" s="9">
+        <v>-1.2833675564684642E-2</v>
+      </c>
+      <c r="AM346" s="9">
+        <v>-0.34502587694076731</v>
+      </c>
+      <c r="AN346" s="9">
+        <v>1.5280135823429541</v>
+      </c>
+      <c r="AO346" s="9">
+        <v>0.58371298405467298</v>
+      </c>
+      <c r="AP346" s="9">
+        <v>-0.16260162601626249</v>
+      </c>
+      <c r="AQ346" s="9">
+        <v>1.3847407005158745</v>
+      </c>
+      <c r="AR346" s="9">
+        <v>0.75471698113206831</v>
+      </c>
+      <c r="AS346" s="9">
+        <v>0.68807339449541294</v>
+      </c>
+      <c r="AT346" s="9">
+        <v>0.47684971542839327</v>
+      </c>
+      <c r="AU346" s="9">
+        <v>1.9441069258809163</v>
+      </c>
+      <c r="AV346" s="9">
+        <v>1.7889087656529516</v>
+      </c>
+      <c r="AW346" s="9">
+        <v>0.16613595458951205</v>
+      </c>
+      <c r="AX346" s="9">
+        <v>-0.62893081761005132</v>
+      </c>
+      <c r="AY346" s="9">
+        <v>-5.1939924906132733</v>
+      </c>
+      <c r="AZ346" s="9">
+        <v>-1.1266225814352246</v>
+      </c>
+      <c r="BA346" s="9">
+        <v>0.72886297376093301</v>
+      </c>
     </row>
     <row r="347" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
